--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\preprocesamiento\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D514201-0747-4EEA-8A77-466F21845C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C351AE0-3E4B-4730-B421-6991EE77DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ANO4</t>
   </si>
@@ -48,12 +48,18 @@
   <si>
     <t>inflador</t>
   </si>
+  <si>
+    <t>nombre_trim_base</t>
+  </si>
+  <si>
+    <t>4to trimestre 2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,19 +73,40 @@
       <name val="Book Antiqua"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -89,50 +116,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{1F59F40B-E8D6-4470-98EF-4290D6C8AD7E}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -408,15 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,11 +423,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -440,12 +440,15 @@
       <c r="C2">
         <v>32.549350529257744</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>(1/C2)*100</f>
         <v>3.0722579214019237</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -455,12 +458,12 @@
       <c r="C3">
         <v>34.52391463339017</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D16" si="0">(1/C3)*100</f>
         <v>2.8965429054584657</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -470,12 +473,12 @@
       <c r="C4">
         <v>36.160994714349719</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>2.7654106528302203</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -485,12 +488,12 @@
       <c r="C5">
         <v>38.037067585850764</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>2.6290144416179584</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -500,12 +503,12 @@
       <c r="C6">
         <v>40.470738626751967</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>2.4709210504474952</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -515,12 +518,12 @@
       <c r="C7">
         <v>42.351037789072564</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>2.361217226790179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -530,12 +533,12 @@
       <c r="C8">
         <v>44.598846915958831</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>2.2422104362571971</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -545,12 +548,12 @@
       <c r="C9">
         <v>47.653873499330231</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>2.098465301071601</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -560,12 +563,12 @@
       <c r="C10">
         <v>51.439156514003891</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>1.9440443190932928</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -575,12 +578,12 @@
       <c r="C11">
         <v>57.362077500643984</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>1.7433120339631587</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -590,12 +593,12 @@
       <c r="C12">
         <v>65.71688627002365</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>1.5216789120091707</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -605,12 +608,12 @@
       <c r="C13">
         <v>72.346209556529359</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>1.382242423106669</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -620,12 +623,12 @@
       <c r="C14">
         <v>80.388032090341341</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>1.2439662646252918</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -635,12 +638,12 @@
       <c r="C15">
         <v>88.407087547349491</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>1.1311310300369473</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -650,12 +653,13 @@
       <c r="C16">
         <v>100</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\preprocesamiento\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C351AE0-3E4B-4730-B421-6991EE77DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258E995-AD7C-4763-95B2-2E76F38B71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>ANO4</t>
   </si>
@@ -54,12 +56,15 @@
   <si>
     <t>4to trimestre 2019</t>
   </si>
+  <si>
+    <t>4to trimestre 2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +80,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,20 +131,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CFEED8B3-7315-4454-A6D2-647B07D8D72F}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{79889EEC-005F-4032-9188-412304CFD552}"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{1F59F40B-E8D6-4470-98EF-4290D6C8AD7E}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,11 +510,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C1D589-1D6F-410B-9D7E-0C4D58D17E82}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>32.549350529257744</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(1/C2)*100</f>
+        <v>3.0722579214019237</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>34.52391463339017</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D16" si="0">(1/C3)*100</f>
+        <v>2.8965429054584657</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36.160994714349719</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7654106528302203</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38.037067585850764</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6290144416179584</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40.470738626751967</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4709210504474952</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42.351037789072564</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.361217226790179</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44.598846915958831</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2422104362571971</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>47.653873499330231</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.098465301071601</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>51.439156514003891</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9440443190932928</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>57.362077500643984</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7433120339631587</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>65.71688627002365</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5216789120091707</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>72.346209556529359</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.382242423106669</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>80.388032090341341</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2439662646252918</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>88.407087547349491</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1311310300369473</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,230 +822,327 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2016</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>32.549350529257744</v>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.76438620106854</v>
       </c>
       <c r="D2" s="1">
-        <f>(1/C2)*100</f>
-        <v>3.0722579214019237</v>
+        <v>6.3434122156447685</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>34.52391463339017</v>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16.720712229396835</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="0">(1/C3)*100</f>
-        <v>2.8965429054584657</v>
+        <v>5.980606485421661</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2016</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>36.160994714349719</v>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17.513587116873467</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7654106528302203</v>
+        <v>5.7098525466353491</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2017</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>38.037067585850764</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18.42221161496002</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6290144416179584</v>
+        <v>5.4282299047522384</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2017</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>40.470738626751967</v>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19.600893510337244</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4709210504474952</v>
+        <v>5.1018082388571404</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>2017</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>42.351037789072564</v>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20.511564896598031</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.361217226790179</v>
+        <v>4.8752984233097498</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>2017</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>44.598846915958831</v>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>21.600229665828067</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2422104362571971</v>
+        <v>4.6295804047954974</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>2018</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>47.653873499330231</v>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23.07984809543413</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.098465301071601</v>
+        <v>4.3327841494668649</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>2018</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>51.439156514003891</v>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24.913146221306789</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9440443190932928</v>
+        <v>4.0139450518086601</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>2018</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>57.362077500643984</v>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>27.781750735792556</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7433120339631587</v>
+        <v>3.5994851782744282</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>2018</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>65.71688627002365</v>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>31.828173473419408</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5216789120091707</v>
+        <v>3.1418705218354042</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>2019</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>72.346209556529359</v>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>35.038904589122446</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.382242423106669</v>
+        <v>2.8539704985824308</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>2019</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>80.388032090341341</v>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38.933741018178488</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2439662646252918</v>
+        <v>2.5684662553569964</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>2019</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>88.407087547349491</v>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42.817550837315466</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1311310300369473</v>
+        <v>2.3354908920397679</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>2019</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48.432260382271998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0647394775859711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>52.710472635166354</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.8971562006690097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>56.020786342810126</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.785051701846279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>59.858715053292443</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.6706005117378415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>66.050854559310963</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.5139849539751842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>74.135749517541484</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.3488769001564986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>83.171648172348313</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.2023327924532645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>90.92159802316074</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.0998486847374449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>100</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
+      <c r="D24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -662,4 +1150,458 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15F700-12B5-4825-9946-F0018001BEFC}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>13.139433797087472</v>
+      </c>
+      <c r="D1">
+        <f>C1*$D$23/$C$23</f>
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E1">
+        <f>(1/D1)*100</f>
+        <v>6.3434122156447685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13.936520494747764</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D22" si="0">C2*$D$23/$C$23</f>
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E23" si="1">(1/D2)*100</f>
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14.597372554605718</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>17.513587116873467</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7098525466353491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15.354700577831313</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>18.42221161496002</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4282299047522384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>16.33711832214443</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>19.600893510337244</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1018082388571404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17.096152403018728</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>20.511564896598031</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8752984233097498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18.003541912516404</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>21.600229665828067</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6295804047954974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19.236786781856235</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>23.07984809543413</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3327841494668649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.764819592521302</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>24.913146221306789</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0139450518086601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23.155768318806448</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>27.781750735792556</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5994851782744282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>26.528414928572563</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>31.828173473419408</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1418705218354042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>29.204522224914321</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>35.038904589122446</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8539704985824308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32.450823397528175</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>38.933741018178488</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5684662553569964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>35.687934018147807</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>42.817550837315466</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3354908920397679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40.36772956583814</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>48.432260382271998</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0647394775859711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43.933570059074952</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>52.710472635166354</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8971562006690097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>46.692678295476078</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>56.020786342810126</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.785051701846279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>49.891547542025343</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>59.858715053292443</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6706005117378415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>55.052624292108099</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>66.050854559310963</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5139849539751842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>61.791290847541482</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>74.135749517541484</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3488769001564986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>69.322607998600532</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>83.171648172348313</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2023327924532645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>75.782101676102272</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>90.92159802316074</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0998486847374449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>83.348844855100396</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\preprocesamiento\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258E995-AD7C-4763-95B2-2E76F38B71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA1FCD-E6EE-411F-9470-2E012A8C844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja6" sheetId="6" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId2"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -150,92 +150,7 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{79889EEC-005F-4032-9188-412304CFD552}"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{1F59F40B-E8D6-4470-98EF-4290D6C8AD7E}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,292 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C1D589-1D6F-410B-9D7E-0C4D58D17E82}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>32.549350529257744</v>
-      </c>
-      <c r="D2" s="1">
-        <f>(1/C2)*100</f>
-        <v>3.0722579214019237</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>34.52391463339017</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="0">(1/C3)*100</f>
-        <v>2.8965429054584657</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>36.160994714349719</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7654106528302203</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>38.037067585850764</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6290144416179584</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40.470738626751967</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4709210504474952</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42.351037789072564</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.361217226790179</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44.598846915958831</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2422104362571971</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>47.653873499330231</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.098465301071601</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>51.439156514003891</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9440443190932928</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>57.362077500643984</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7433120339631587</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>65.71688627002365</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5216789120091707</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>72.346209556529359</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.382242423106669</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>80.388032090341341</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2439662646252918</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>88.407087547349491</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1311310300369473</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,6 +782,287 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C1D589-1D6F-410B-9D7E-0C4D58D17E82}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>32.549350529257744</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(1/C2)*100</f>
+        <v>3.0722579214019237</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>34.52391463339017</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D16" si="0">(1/C3)*100</f>
+        <v>2.8965429054584657</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36.160994714349719</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7654106528302203</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38.037067585850764</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6290144416179584</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40.470738626751967</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4709210504474952</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42.351037789072564</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.361217226790179</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44.598846915958831</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2422104362571971</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>47.653873499330231</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.098465301071601</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>51.439156514003891</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9440443190932928</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>57.362077500643984</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7433120339631587</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>65.71688627002365</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5216789120091707</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>72.346209556529359</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.382242423106669</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>80.388032090341341</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2439662646252918</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>88.407087547349491</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1311310300369473</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\preprocesamiento\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA1FCD-E6EE-411F-9470-2E012A8C844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C08147-859F-477B-ACB4-03938C80CB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9672" yWindow="768" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId2"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId3"/>
+    <sheet name="shiny_regiones" sheetId="11" r:id="rId1"/>
+    <sheet name="shiny_gba" sheetId="1" r:id="rId2"/>
+    <sheet name="serie_gba_dk" sheetId="5" r:id="rId3"/>
+    <sheet name="indec_2016_100" sheetId="7" r:id="rId4"/>
+    <sheet name="indec_procesado" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ANO4</t>
   </si>
@@ -54,17 +56,53 @@
     <t>nombre_trim_base</t>
   </si>
   <si>
-    <t>4to trimestre 2019</t>
+    <t>4to trimestre 2021</t>
   </si>
   <si>
-    <t>4to trimestre 2021</t>
+    <t>Región GBA</t>
+  </si>
+  <si>
+    <t>Región Pampeana</t>
+  </si>
+  <si>
+    <t>Región Noroeste</t>
+  </si>
+  <si>
+    <t>Región Noreste</t>
+  </si>
+  <si>
+    <t>Región Cuyo</t>
+  </si>
+  <si>
+    <t>Región Patagonia</t>
+  </si>
+  <si>
+    <t>ano4</t>
+  </si>
+  <si>
+    <t>trimestre</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>ipc_trim</t>
+  </si>
+  <si>
+    <t>ipc_100</t>
+  </si>
+  <si>
+    <t>REGION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +136,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -113,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,6 +186,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -137,12 +204,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,11 +508,2455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495EB06F-1435-4337-BFF5-5A48A8FD771B}">
+  <dimension ref="A1:F151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.3434122156447685</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.3434122156447685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.3434122156447685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.3434122156447685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.3434122156447685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15.76438620106854</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.3434122156447685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3">
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16.720712229396835</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.980606485421661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>17.161219647880365</v>
+      </c>
+      <c r="E14">
+        <v>5.8270916666666697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>18.113232700640115</v>
+      </c>
+      <c r="E15">
+        <v>5.5208256666666706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>17.13672415409274</v>
+      </c>
+      <c r="E16">
+        <v>5.8354209999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>17.408942381797498</v>
+      </c>
+      <c r="E17">
+        <v>5.7441743333333299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>17.49715860725183</v>
+      </c>
+      <c r="E18">
+        <v>5.7152136666666697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>17.889591167980388</v>
+      </c>
+      <c r="E19">
+        <v>5.5898426666666703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>17.78453802711752</v>
+      </c>
+      <c r="E20">
+        <v>5.6228618279272657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>18.80058157967548</v>
+      </c>
+      <c r="E21">
+        <v>5.3189843929139835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>17.7720624898644</v>
+      </c>
+      <c r="E22">
+        <v>5.626808934361506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>18.12664924341022</v>
+      </c>
+      <c r="E23">
+        <v>5.5167393960775239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>18.146647302366873</v>
+      </c>
+      <c r="E24">
+        <v>5.5106598113557306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>18.686196773099386</v>
+      </c>
+      <c r="E25">
+        <v>5.351543773956176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>19.059793979558176</v>
+      </c>
+      <c r="E26">
+        <v>5.2466464279336398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>20.016106286517335</v>
+      </c>
+      <c r="E27">
+        <v>4.995976668417228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>18.89156469316147</v>
+      </c>
+      <c r="E28">
+        <v>5.2933677873807277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>19.398842525844834</v>
+      </c>
+      <c r="E29">
+        <v>5.1549467380216765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>19.270058203131619</v>
+      </c>
+      <c r="E30">
+        <v>5.1893979221997775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>19.72902874785747</v>
+      </c>
+      <c r="E31">
+        <v>5.0686732366822564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>19.859163590756442</v>
+      </c>
+      <c r="E32">
+        <v>5.0354587967917013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>20.980472908732114</v>
+      </c>
+      <c r="E33">
+        <v>4.7663367949337214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>19.662974330957955</v>
+      </c>
+      <c r="E34">
+        <v>5.085700582060829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>20.182900669855496</v>
+      </c>
+      <c r="E35">
+        <v>4.954689201307751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>20.177927439399951</v>
+      </c>
+      <c r="E36">
+        <v>4.9559103778288636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>20.601450440346369</v>
+      </c>
+      <c r="E37">
+        <v>4.8540271613185855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>20.970609981251414</v>
+      </c>
+      <c r="E38">
+        <v>4.7685785053178762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>22.063837432045926</v>
+      </c>
+      <c r="E39">
+        <v>4.5323031547883943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>20.55688869749072</v>
+      </c>
+      <c r="E40">
+        <v>4.8645493718223287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>21.228052328727443</v>
+      </c>
+      <c r="E41">
+        <v>4.710747762039019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>21.314029612541102</v>
+      </c>
+      <c r="E42">
+        <v>4.6917453816973369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>21.622999764811553</v>
+      </c>
+      <c r="E43">
+        <v>4.6247052253469558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>22.408703026524137</v>
+      </c>
+      <c r="E44">
+        <v>4.4625518880603963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>23.596035786193074</v>
+      </c>
+      <c r="E45">
+        <v>4.2380000143292609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <v>21.843319730772979</v>
+      </c>
+      <c r="E46">
+        <v>4.5780587031887601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>22.581249420064562</v>
+      </c>
+      <c r="E47">
+        <v>4.4284529230320189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>22.771344623394356</v>
+      </c>
+      <c r="E48">
+        <v>4.3914841944495482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>23.200796110659745</v>
+      </c>
+      <c r="E49">
+        <v>4.3101969226846659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>24.265569874050932</v>
+      </c>
+      <c r="E50">
+        <v>4.1210653827231072</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>25.453692705505322</v>
+      </c>
+      <c r="E51">
+        <v>3.9287030434830084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>41</v>
+      </c>
+      <c r="D52">
+        <v>23.568410916710206</v>
+      </c>
+      <c r="E52">
+        <v>4.2429674343932602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>24.49687140994968</v>
+      </c>
+      <c r="E53">
+        <v>4.0821539341298854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43</v>
+      </c>
+      <c r="D54">
+        <v>24.561683054019433</v>
+      </c>
+      <c r="E54">
+        <v>4.0713822330524438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44</v>
+      </c>
+      <c r="D55">
+        <v>25.07999032530908</v>
+      </c>
+      <c r="E55">
+        <v>3.9872423674377004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42</v>
+      </c>
+      <c r="D56">
+        <v>27.102639824612378</v>
+      </c>
+      <c r="E56">
+        <v>3.6896774870316604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>28.364283917194314</v>
+      </c>
+      <c r="E57">
+        <v>3.5255605356347601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>26.380016111948049</v>
+      </c>
+      <c r="E58">
+        <v>3.7907482533609205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>27.329143852005959</v>
+      </c>
+      <c r="E59">
+        <v>3.6590974287934017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>27.406656887310291</v>
+      </c>
+      <c r="E60">
+        <v>3.6487485654006035</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44</v>
+      </c>
+      <c r="D61">
+        <v>27.867737243409632</v>
+      </c>
+      <c r="E61">
+        <v>3.5883788886967758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="3">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42</v>
+      </c>
+      <c r="D62">
+        <v>31.320324175439136</v>
+      </c>
+      <c r="E62">
+        <v>3.1928149734292437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>32.4027619781751</v>
+      </c>
+      <c r="E63">
+        <v>3.086156669834351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3">
+        <v>41</v>
+      </c>
+      <c r="D64">
+        <v>30.186345309675687</v>
+      </c>
+      <c r="E64">
+        <v>3.3127561145319175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>31.180814324170605</v>
+      </c>
+      <c r="E65">
+        <v>3.2071003329275607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3">
+        <v>43</v>
+      </c>
+      <c r="D66">
+        <v>31.464288795035351</v>
+      </c>
+      <c r="E66">
+        <v>3.1782062722415225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44</v>
+      </c>
+      <c r="D67">
+        <v>32.256310374388569</v>
+      </c>
+      <c r="E67">
+        <v>3.1001685821884872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>42</v>
+      </c>
+      <c r="D68">
+        <v>34.501688234982844</v>
+      </c>
+      <c r="E68">
+        <v>2.8984088928902154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>35.698235233775634</v>
+      </c>
+      <c r="E69">
+        <v>2.8012589234491263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>41</v>
+      </c>
+      <c r="D70">
+        <v>33.581575919429461</v>
+      </c>
+      <c r="E70">
+        <v>2.97782332311994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>34.498749834832623</v>
+      </c>
+      <c r="E71">
+        <v>2.8986557622743829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>43</v>
+      </c>
+      <c r="D72">
+        <v>34.524751801346987</v>
+      </c>
+      <c r="E72">
+        <v>2.8964726690981886</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>35.456334847349225</v>
+      </c>
+      <c r="E73">
+        <v>2.8203704762641637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <v>38.189050855844307</v>
+      </c>
+      <c r="E74">
+        <v>2.6185515942116266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>39.603780279966614</v>
+      </c>
+      <c r="E75">
+        <v>2.5250114835776047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3">
+        <v>41</v>
+      </c>
+      <c r="D76">
+        <v>37.488189226907025</v>
+      </c>
+      <c r="E76">
+        <v>2.6675068084703679</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
+        <v>40</v>
+      </c>
+      <c r="D77">
+        <v>38.721248188672106</v>
+      </c>
+      <c r="E77">
+        <v>2.5825613759335111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3">
+        <v>43</v>
+      </c>
+      <c r="D78">
+        <v>38.370568939358968</v>
+      </c>
+      <c r="E78">
+        <v>2.6061641191205811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>39.347404411143799</v>
+      </c>
+      <c r="E79">
+        <v>2.5414636999963953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B80" s="3">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3">
+        <v>42</v>
+      </c>
+      <c r="D80">
+        <v>42.305890159613618</v>
+      </c>
+      <c r="E80">
+        <v>2.3637370499170536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B81" s="3">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>43.4647365849926</v>
+      </c>
+      <c r="E81">
+        <v>2.3007156572651994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3">
+        <v>41</v>
+      </c>
+      <c r="D82">
+        <v>41.287406684110707</v>
+      </c>
+      <c r="E82">
+        <v>2.4220460433637405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>40</v>
+      </c>
+      <c r="D83">
+        <v>42.675242621176217</v>
+      </c>
+      <c r="E83">
+        <v>2.3432790034186755</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B84" s="3">
+        <v>3</v>
+      </c>
+      <c r="C84" s="3">
+        <v>43</v>
+      </c>
+      <c r="D84">
+        <v>42.214228094475942</v>
+      </c>
+      <c r="E84">
+        <v>2.3688695616131796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>43.468068987988239</v>
+      </c>
+      <c r="E85">
+        <v>2.3005392769490984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B86" s="3">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3">
+        <v>42</v>
+      </c>
+      <c r="D86">
+        <v>48.101256916328957</v>
+      </c>
+      <c r="E86">
+        <v>2.0789477533601195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B87" s="3">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>49.037924701721749</v>
+      </c>
+      <c r="E87">
+        <v>2.0392380103411867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3">
+        <v>41</v>
+      </c>
+      <c r="D88">
+        <v>46.915249702349328</v>
+      </c>
+      <c r="E88">
+        <v>2.1315030962095123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3">
+        <v>40</v>
+      </c>
+      <c r="D89">
+        <v>47.946142303132312</v>
+      </c>
+      <c r="E89">
+        <v>2.0856735327686002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B90" s="3">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3">
+        <v>43</v>
+      </c>
+      <c r="D90">
+        <v>47.912708542072046</v>
+      </c>
+      <c r="E90">
+        <v>2.0871289276453702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B91" s="3">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>49.155986978285753</v>
+      </c>
+      <c r="E91">
+        <v>2.0343401922572357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>52.427222842727346</v>
+      </c>
+      <c r="E92">
+        <v>1.9074060111858835</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>53.159663255683213</v>
+      </c>
+      <c r="E93">
+        <v>1.8811255353335814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>41</v>
+      </c>
+      <c r="D94">
+        <v>51.658603552340097</v>
+      </c>
+      <c r="E94">
+        <v>1.9357859702630325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <v>52.205042755492137</v>
+      </c>
+      <c r="E95">
+        <v>1.9155237640233458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>52.303078082645065</v>
+      </c>
+      <c r="E96">
+        <v>1.911933363500866</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>53.609201165351777</v>
+      </c>
+      <c r="E97">
+        <v>1.8653514289750528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>42</v>
+      </c>
+      <c r="D98">
+        <v>55.524411119898204</v>
+      </c>
+      <c r="E98">
+        <v>1.8010096457225306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>56.453307074781165</v>
+      </c>
+      <c r="E99">
+        <v>1.7713754106120743</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3">
+        <v>41</v>
+      </c>
+      <c r="D100">
+        <v>55.384927097233778</v>
+      </c>
+      <c r="E100">
+        <v>1.8055453936851806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3">
+        <v>40</v>
+      </c>
+      <c r="D101">
+        <v>56.250062744729931</v>
+      </c>
+      <c r="E101">
+        <v>1.7777757947366735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>43</v>
+      </c>
+      <c r="D102">
+        <v>55.565674097573812</v>
+      </c>
+      <c r="E102">
+        <v>1.7996722189386045</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44</v>
+      </c>
+      <c r="D103">
+        <v>56.129671628205536</v>
+      </c>
+      <c r="E103">
+        <v>1.7815889011855421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>42</v>
+      </c>
+      <c r="D104">
+        <v>59.657490657861075</v>
+      </c>
+      <c r="E104">
+        <v>1.6762354382872955</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>60.092267599828105</v>
+      </c>
+      <c r="E105">
+        <v>1.6641076130780936</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3">
+        <v>41</v>
+      </c>
+      <c r="D106">
+        <v>59.35026224614591</v>
+      </c>
+      <c r="E106">
+        <v>1.6849125212836578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B107" s="3">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3">
+        <v>40</v>
+      </c>
+      <c r="D107">
+        <v>59.931566608093412</v>
+      </c>
+      <c r="E107">
+        <v>1.6685697648106461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3">
+        <v>43</v>
+      </c>
+      <c r="D108">
+        <v>59.585926242127627</v>
+      </c>
+      <c r="E108">
+        <v>1.6782486453873293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B109" s="3">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>44</v>
+      </c>
+      <c r="D109">
+        <v>60.297117485954246</v>
+      </c>
+      <c r="E109">
+        <v>1.6584540715946203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3">
+        <v>42</v>
+      </c>
+      <c r="D110">
+        <v>66.125314086072109</v>
+      </c>
+      <c r="E110">
+        <v>1.512280151438447</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B111" s="3">
+        <v>4</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>66.030775469152303</v>
+      </c>
+      <c r="E111">
+        <v>1.5144453368826047</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B112" s="3">
+        <v>4</v>
+      </c>
+      <c r="C112" s="3">
+        <v>41</v>
+      </c>
+      <c r="D112">
+        <v>66.203786610540519</v>
+      </c>
+      <c r="E112">
+        <v>1.5104876189072647</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B113" s="3">
+        <v>4</v>
+      </c>
+      <c r="C113" s="3">
+        <v>40</v>
+      </c>
+      <c r="D113">
+        <v>66.120405003956762</v>
+      </c>
+      <c r="E113">
+        <v>1.5123924300526566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B114" s="3">
+        <v>4</v>
+      </c>
+      <c r="C114" s="3">
+        <v>43</v>
+      </c>
+      <c r="D114">
+        <v>66.059402503528418</v>
+      </c>
+      <c r="E114">
+        <v>1.513789047587264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B115" s="3">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3">
+        <v>44</v>
+      </c>
+      <c r="D115">
+        <v>65.827881381038225</v>
+      </c>
+      <c r="E115">
+        <v>1.5191131463150063</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>42</v>
+      </c>
+      <c r="D116">
+        <v>74.768516598474619</v>
+      </c>
+      <c r="E116">
+        <v>1.3374613346553961</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>73.502574524329845</v>
+      </c>
+      <c r="E117">
+        <v>1.3604965628367116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3">
+        <v>41</v>
+      </c>
+      <c r="D118">
+        <v>75.075931396666505</v>
+      </c>
+      <c r="E118">
+        <v>1.3319848071101008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>75.093101573112762</v>
+      </c>
+      <c r="E119">
+        <v>1.3316802463224557</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3">
+        <v>43</v>
+      </c>
+      <c r="D120">
+        <v>74.633482644364207</v>
+      </c>
+      <c r="E120">
+        <v>1.3398811961718269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3">
+        <v>44</v>
+      </c>
+      <c r="D121">
+        <v>73.366537209633989</v>
+      </c>
+      <c r="E121">
+        <v>1.3630192156168532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" s="3">
+        <v>42</v>
+      </c>
+      <c r="D122">
+        <v>84.113761725045748</v>
+      </c>
+      <c r="E122">
+        <v>1.1888661016836197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>82.684800105684673</v>
+      </c>
+      <c r="E123">
+        <v>1.2094121274065328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3">
+        <v>41</v>
+      </c>
+      <c r="D124">
+        <v>83.359304038788807</v>
+      </c>
+      <c r="E124">
+        <v>1.1996261383548492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3">
+        <v>40</v>
+      </c>
+      <c r="D125">
+        <v>83.762250019918852</v>
+      </c>
+      <c r="E125">
+        <v>1.1938552268619789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3">
+        <v>43</v>
+      </c>
+      <c r="D126">
+        <v>83.571048758107054</v>
+      </c>
+      <c r="E126">
+        <v>1.1965866347979655</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" s="3">
+        <v>44</v>
+      </c>
+      <c r="D127">
+        <v>82.696829630506002</v>
+      </c>
+      <c r="E127">
+        <v>1.2092361998253804</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B128" s="3">
+        <v>3</v>
+      </c>
+      <c r="C128" s="3">
+        <v>42</v>
+      </c>
+      <c r="D128">
+        <v>91.784906993340016</v>
+      </c>
+      <c r="E128">
+        <v>1.0895037460489672</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B129" s="3">
+        <v>3</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>90.58326239486999</v>
+      </c>
+      <c r="E129">
+        <v>1.1039567063071831</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B130" s="3">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>41</v>
+      </c>
+      <c r="D130">
+        <v>90.816652303235699</v>
+      </c>
+      <c r="E130">
+        <v>1.1011196456141239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B131" s="3">
+        <v>3</v>
+      </c>
+      <c r="C131" s="3">
+        <v>40</v>
+      </c>
+      <c r="D131">
+        <v>91.254623597484937</v>
+      </c>
+      <c r="E131">
+        <v>1.0958348854858035</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B132" s="3">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3">
+        <v>43</v>
+      </c>
+      <c r="D132">
+        <v>91.090248536056379</v>
+      </c>
+      <c r="E132">
+        <v>1.0978123521138143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B133" s="3">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3">
+        <v>44</v>
+      </c>
+      <c r="D133">
+        <v>91.544884268656759</v>
+      </c>
+      <c r="E133">
+        <v>1.0923603301144609</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B134" s="2">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2">
+        <v>42</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B135" s="2">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B136" s="2">
+        <v>4</v>
+      </c>
+      <c r="C136" s="2">
+        <v>41</v>
+      </c>
+      <c r="D136">
+        <v>100</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2">
+        <v>40</v>
+      </c>
+      <c r="D137">
+        <v>100</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4</v>
+      </c>
+      <c r="C138" s="2">
+        <v>43</v>
+      </c>
+      <c r="D138">
+        <v>100</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B139" s="2">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44</v>
+      </c>
+      <c r="D139">
+        <v>100</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +2996,7 @@
         <v>6.3434122156447685</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,287 +3309,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C1D589-1D6F-410B-9D7E-0C4D58D17E82}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>32.549350529257744</v>
-      </c>
-      <c r="D2" s="1">
-        <f>(1/C2)*100</f>
-        <v>3.0722579214019237</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>34.52391463339017</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="0">(1/C3)*100</f>
-        <v>2.8965429054584657</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>36.160994714349719</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7654106528302203</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>38.037067585850764</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6290144416179584</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>40.470738626751967</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4709210504474952</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42.351037789072564</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.361217226790179</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44.598846915958831</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2422104362571971</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>47.653873499330231</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.098465301071601</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>51.439156514003891</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9440443190932928</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>57.362077500643984</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7433120339631587</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>65.71688627002365</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5216789120091707</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>72.346209556529359</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.382242423106669</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>80.388032090341341</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2439662646252918</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>88.407087547349491</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1311310300369473</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1072,7 +3318,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,4 +3765,5096 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F66E2-4C5F-42E4-9FC1-CC523E613718}">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>42705</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7">
+        <v>100</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>42736</v>
+      </c>
+      <c r="B3" s="7">
+        <v>101.313</v>
+      </c>
+      <c r="C3" s="7">
+        <v>101.78740000000001</v>
+      </c>
+      <c r="D3" s="8">
+        <v>101.6014</v>
+      </c>
+      <c r="E3" s="8">
+        <v>101.67270000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>101.70740000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>102.55929999999999</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>42767</v>
+      </c>
+      <c r="B4" s="7">
+        <v>103.8085</v>
+      </c>
+      <c r="C4" s="7">
+        <v>103.5312</v>
+      </c>
+      <c r="D4" s="8">
+        <v>103.7115</v>
+      </c>
+      <c r="E4" s="8">
+        <v>103.46169999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>103.26519999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <v>104.28270000000001</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>42795</v>
+      </c>
+      <c r="B5" s="7">
+        <v>106.2627</v>
+      </c>
+      <c r="C5" s="7">
+        <v>105.8173</v>
+      </c>
+      <c r="D5" s="8">
+        <v>107.05500000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>105.988</v>
+      </c>
+      <c r="F5" s="8">
+        <v>105.9238</v>
+      </c>
+      <c r="G5" s="9">
+        <v>106.5167</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>42826</v>
+      </c>
+      <c r="B6" s="7">
+        <v>109.0613</v>
+      </c>
+      <c r="C6" s="7">
+        <v>108.69119999999999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>109.96259999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>108.3473</v>
+      </c>
+      <c r="F6" s="8">
+        <v>109.45059999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>108.65170000000001</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>42856</v>
+      </c>
+      <c r="B7" s="7">
+        <v>110.4607</v>
+      </c>
+      <c r="C7" s="7">
+        <v>110.3005</v>
+      </c>
+      <c r="D7" s="8">
+        <v>111.636</v>
+      </c>
+      <c r="E7" s="8">
+        <v>110.4331</v>
+      </c>
+      <c r="F7" s="8">
+        <v>111.3091</v>
+      </c>
+      <c r="G7" s="9">
+        <v>110.4897</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B8" s="7">
+        <v>111.9943</v>
+      </c>
+      <c r="C8" s="7">
+        <v>111.4058</v>
+      </c>
+      <c r="D8" s="8">
+        <v>112.69240000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>111.94029999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>112.4298</v>
+      </c>
+      <c r="G8" s="9">
+        <v>111.7051</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>42917</v>
+      </c>
+      <c r="B9" s="7">
+        <v>113.9199</v>
+      </c>
+      <c r="C9" s="7">
+        <v>113.5783</v>
+      </c>
+      <c r="D9" s="8">
+        <v>114.28570000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>113.3741</v>
+      </c>
+      <c r="F9" s="8">
+        <v>114.0184</v>
+      </c>
+      <c r="G9" s="9">
+        <v>113.3785</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>42948</v>
+      </c>
+      <c r="B10" s="7">
+        <v>115.6031</v>
+      </c>
+      <c r="C10" s="7">
+        <v>115.09050000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>115.7385</v>
+      </c>
+      <c r="E10" s="8">
+        <v>114.68089999999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>115.56740000000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>115.3036</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>42979</v>
+      </c>
+      <c r="B11" s="7">
+        <v>117.96559999999999</v>
+      </c>
+      <c r="C11" s="7">
+        <v>117.29470000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>117.77809999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>116.17019999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>117.57769999999999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>116.7945</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43009</v>
+      </c>
+      <c r="B12" s="7">
+        <v>119.49850000000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>119.27200000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>119.9939</v>
+      </c>
+      <c r="E12" s="8">
+        <v>117.90260000000001</v>
+      </c>
+      <c r="F12" s="8">
+        <v>119.5964</v>
+      </c>
+      <c r="G12" s="9">
+        <v>118.7072</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>43040</v>
+      </c>
+      <c r="B13" s="7">
+        <v>120.89409999999999</v>
+      </c>
+      <c r="C13" s="7">
+        <v>121.2004</v>
+      </c>
+      <c r="D13" s="8">
+        <v>121.506</v>
+      </c>
+      <c r="E13" s="8">
+        <v>119.696</v>
+      </c>
+      <c r="F13" s="8">
+        <v>121.4671</v>
+      </c>
+      <c r="G13" s="9">
+        <v>120.4376</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>43070</v>
+      </c>
+      <c r="B14" s="7">
+        <v>125.03919999999999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>124.97029999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>124.313</v>
+      </c>
+      <c r="E14" s="8">
+        <v>122.2757</v>
+      </c>
+      <c r="F14" s="8">
+        <v>125.5295</v>
+      </c>
+      <c r="G14" s="9">
+        <v>123.4627</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>43101</v>
+      </c>
+      <c r="B15" s="7">
+        <v>127.0147</v>
+      </c>
+      <c r="C15" s="7">
+        <v>127.3092</v>
+      </c>
+      <c r="D15" s="8">
+        <v>126.64790000000001</v>
+      </c>
+      <c r="E15" s="8">
+        <v>124.71720000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>127.41419999999999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>126.63030000000001</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B16" s="7">
+        <v>130.29130000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <v>130.29400000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>129.23599999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>127.29340000000001</v>
+      </c>
+      <c r="F16" s="8">
+        <v>130.773</v>
+      </c>
+      <c r="G16" s="9">
+        <v>129.20570000000001</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43160</v>
+      </c>
+      <c r="B17" s="7">
+        <v>133.50280000000001</v>
+      </c>
+      <c r="C17" s="7">
+        <v>132.8261</v>
+      </c>
+      <c r="D17" s="8">
+        <v>133.24799999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>130.3843</v>
+      </c>
+      <c r="F17" s="8">
+        <v>133.5455</v>
+      </c>
+      <c r="G17" s="9">
+        <v>133.2304</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43191</v>
+      </c>
+      <c r="B18" s="7">
+        <v>136.93799999999999</v>
+      </c>
+      <c r="C18" s="7">
+        <v>136.62950000000001</v>
+      </c>
+      <c r="D18" s="8">
+        <v>137.0205</v>
+      </c>
+      <c r="E18" s="8">
+        <v>133.8357</v>
+      </c>
+      <c r="F18" s="8">
+        <v>138.02459999999999</v>
+      </c>
+      <c r="G18" s="9">
+        <v>136.85830000000001</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>43221</v>
+      </c>
+      <c r="B19" s="7">
+        <v>139.58000000000001</v>
+      </c>
+      <c r="C19" s="7">
+        <v>139.65549999999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>140.178</v>
+      </c>
+      <c r="E19" s="8">
+        <v>137.25360000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>140.5213</v>
+      </c>
+      <c r="G19" s="9">
+        <v>139.57830000000001</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B20" s="7">
+        <v>145.0582</v>
+      </c>
+      <c r="C20" s="7">
+        <v>144.8408</v>
+      </c>
+      <c r="D20" s="8">
+        <v>144.9444</v>
+      </c>
+      <c r="E20" s="8">
+        <v>141.50550000000001</v>
+      </c>
+      <c r="F20" s="8">
+        <v>145.6472</v>
+      </c>
+      <c r="G20" s="9">
+        <v>144.143</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B21" s="7">
+        <v>149.11779999999999</v>
+      </c>
+      <c r="C21" s="7">
+        <v>149.62469999999999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>149.9066</v>
+      </c>
+      <c r="E21" s="8">
+        <v>146.3416</v>
+      </c>
+      <c r="F21" s="8">
+        <v>150.9503</v>
+      </c>
+      <c r="G21" s="9">
+        <v>148.78579999999999</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B22" s="7">
+        <v>155.1747</v>
+      </c>
+      <c r="C22" s="7">
+        <v>155.2167</v>
+      </c>
+      <c r="D22" s="8">
+        <v>155.86590000000001</v>
+      </c>
+      <c r="E22" s="8">
+        <v>152.1739</v>
+      </c>
+      <c r="F22" s="8">
+        <v>156.0822</v>
+      </c>
+      <c r="G22" s="9">
+        <v>154.21029999999999</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B23" s="7">
+        <v>165.49029999999999</v>
+      </c>
+      <c r="C23" s="7">
+        <v>165.0633</v>
+      </c>
+      <c r="D23" s="8">
+        <v>165.17760000000001</v>
+      </c>
+      <c r="E23" s="8">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="F23" s="8">
+        <v>166.75620000000001</v>
+      </c>
+      <c r="G23" s="9">
+        <v>164.33269999999999</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B24" s="7">
+        <v>173.85489999999999</v>
+      </c>
+      <c r="C24" s="7">
+        <v>174.61709999999999</v>
+      </c>
+      <c r="D24" s="8">
+        <v>173.95820000000001</v>
+      </c>
+      <c r="E24" s="8">
+        <v>171.25</v>
+      </c>
+      <c r="F24" s="8">
+        <v>176.6713</v>
+      </c>
+      <c r="G24" s="9">
+        <v>173.86779999999999</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B25" s="7">
+        <v>178.87700000000001</v>
+      </c>
+      <c r="C25" s="7">
+        <v>180.3503</v>
+      </c>
+      <c r="D25" s="8">
+        <v>179.64789999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>176.42830000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <v>183.13939999999999</v>
+      </c>
+      <c r="G25" s="9">
+        <v>181.15020000000001</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B26" s="7">
+        <v>183.93809999999999</v>
+      </c>
+      <c r="C26" s="7">
+        <v>184.50800000000001</v>
+      </c>
+      <c r="D26" s="8">
+        <v>183.71799999999999</v>
+      </c>
+      <c r="E26" s="8">
+        <v>180.77180000000001</v>
+      </c>
+      <c r="F26" s="8">
+        <v>187.70849999999999</v>
+      </c>
+      <c r="G26" s="9">
+        <v>185.9051</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B27" s="7">
+        <v>189.12360000000001</v>
+      </c>
+      <c r="C27" s="7">
+        <v>189.80500000000001</v>
+      </c>
+      <c r="D27" s="8">
+        <v>189.62309999999999</v>
+      </c>
+      <c r="E27" s="8">
+        <v>186.97370000000001</v>
+      </c>
+      <c r="F27" s="8">
+        <v>193.20679999999999</v>
+      </c>
+      <c r="G27" s="9">
+        <v>191.54660000000001</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B28" s="7">
+        <v>196.3597</v>
+      </c>
+      <c r="C28" s="7">
+        <v>196.6309</v>
+      </c>
+      <c r="D28" s="8">
+        <v>197.61699999999999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>195.4282</v>
+      </c>
+      <c r="F28" s="8">
+        <v>200.51390000000001</v>
+      </c>
+      <c r="G28" s="9">
+        <v>197.28639999999999</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B29" s="7">
+        <v>205.7679</v>
+      </c>
+      <c r="C29" s="7">
+        <v>205.51310000000001</v>
+      </c>
+      <c r="D29" s="8">
+        <v>207.2604</v>
+      </c>
+      <c r="E29" s="8">
+        <v>205.48599999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <v>209.4128</v>
+      </c>
+      <c r="G29" s="9">
+        <v>205.75299999999999</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B30" s="7">
+        <v>212.4469</v>
+      </c>
+      <c r="C30" s="7">
+        <v>213.0489</v>
+      </c>
+      <c r="D30" s="8">
+        <v>214.7732</v>
+      </c>
+      <c r="E30" s="8">
+        <v>212.69730000000001</v>
+      </c>
+      <c r="F30" s="8">
+        <v>216.4238</v>
+      </c>
+      <c r="G30" s="9">
+        <v>213.05090000000001</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B31" s="7">
+        <v>218.8793</v>
+      </c>
+      <c r="C31" s="7">
+        <v>219.33779999999999</v>
+      </c>
+      <c r="D31" s="8">
+        <v>223.0958</v>
+      </c>
+      <c r="E31" s="8">
+        <v>218.6002</v>
+      </c>
+      <c r="F31" s="8">
+        <v>222.66200000000001</v>
+      </c>
+      <c r="G31" s="9">
+        <v>220.3443</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B32" s="7">
+        <v>224.6105</v>
+      </c>
+      <c r="C32" s="7">
+        <v>225.50129999999999</v>
+      </c>
+      <c r="D32" s="8">
+        <v>229.39580000000001</v>
+      </c>
+      <c r="E32" s="8">
+        <v>224.98060000000001</v>
+      </c>
+      <c r="F32" s="8">
+        <v>228.50749999999999</v>
+      </c>
+      <c r="G32" s="9">
+        <v>226.44220000000001</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B33" s="7">
+        <v>229.42859999999999</v>
+      </c>
+      <c r="C33" s="7">
+        <v>230.50380000000001</v>
+      </c>
+      <c r="D33" s="8">
+        <v>233.93199999999999</v>
+      </c>
+      <c r="E33" s="8">
+        <v>229.1739</v>
+      </c>
+      <c r="F33" s="8">
+        <v>234.91030000000001</v>
+      </c>
+      <c r="G33" s="9">
+        <v>232.20179999999999</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B34" s="7">
+        <v>238.30690000000001</v>
+      </c>
+      <c r="C34" s="7">
+        <v>239.3972</v>
+      </c>
+      <c r="D34" s="8">
+        <v>243.63480000000001</v>
+      </c>
+      <c r="E34" s="8">
+        <v>239.39930000000001</v>
+      </c>
+      <c r="F34" s="8">
+        <v>245.18459999999999</v>
+      </c>
+      <c r="G34" s="9">
+        <v>242.00229999999999</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B35" s="7">
+        <v>252.1482</v>
+      </c>
+      <c r="C35" s="7">
+        <v>253.88900000000001</v>
+      </c>
+      <c r="D35" s="8">
+        <v>257.83530000000002</v>
+      </c>
+      <c r="E35" s="8">
+        <v>254.215</v>
+      </c>
+      <c r="F35" s="8">
+        <v>259.46600000000001</v>
+      </c>
+      <c r="G35" s="9">
+        <v>254.73490000000001</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B36" s="7">
+        <v>260.21010000000001</v>
+      </c>
+      <c r="C36" s="7">
+        <v>262.64670000000001</v>
+      </c>
+      <c r="D36" s="8">
+        <v>265.20240000000001</v>
+      </c>
+      <c r="E36" s="8">
+        <v>262.608</v>
+      </c>
+      <c r="F36" s="8">
+        <v>269.12569999999999</v>
+      </c>
+      <c r="G36" s="9">
+        <v>262.9941</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B37" s="7">
+        <v>270.80189999999999</v>
+      </c>
+      <c r="C37" s="7">
+        <v>274.44830000000002</v>
+      </c>
+      <c r="D37" s="8">
+        <v>275.4348</v>
+      </c>
+      <c r="E37" s="8">
+        <v>273.89150000000001</v>
+      </c>
+      <c r="F37" s="8">
+        <v>281.27690000000001</v>
+      </c>
+      <c r="G37" s="9">
+        <v>274.95260000000002</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B38" s="7">
+        <v>281.17750000000001</v>
+      </c>
+      <c r="C38" s="7">
+        <v>284.39909999999998</v>
+      </c>
+      <c r="D38" s="8">
+        <v>285.5958</v>
+      </c>
+      <c r="E38" s="8">
+        <v>284.81119999999999</v>
+      </c>
+      <c r="F38" s="8">
+        <v>290.46870000000001</v>
+      </c>
+      <c r="G38" s="9">
+        <v>286.37599999999998</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B39" s="7">
+        <v>286.49130000000002</v>
+      </c>
+      <c r="C39" s="7">
+        <v>291.529</v>
+      </c>
+      <c r="D39" s="8">
+        <v>292.54649999999998</v>
+      </c>
+      <c r="E39" s="8">
+        <v>293.6216</v>
+      </c>
+      <c r="F39" s="8">
+        <v>297.76979999999998</v>
+      </c>
+      <c r="G39" s="9">
+        <v>293.59539999999998</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B40" s="7">
+        <v>291.73700000000002</v>
+      </c>
+      <c r="C40" s="7">
+        <v>298.08960000000002</v>
+      </c>
+      <c r="D40" s="8">
+        <v>297.89729999999997</v>
+      </c>
+      <c r="E40" s="8">
+        <v>300.14749999999998</v>
+      </c>
+      <c r="F40" s="8">
+        <v>304.60300000000001</v>
+      </c>
+      <c r="G40" s="9">
+        <v>298.8202</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B41" s="7">
+        <v>302.22739999999999</v>
+      </c>
+      <c r="C41" s="7">
+        <v>307.15120000000002</v>
+      </c>
+      <c r="D41" s="8">
+        <v>309.18079999999998</v>
+      </c>
+      <c r="E41" s="8">
+        <v>310.58</v>
+      </c>
+      <c r="F41" s="8">
+        <v>314.12189999999998</v>
+      </c>
+      <c r="G41" s="9">
+        <v>306.58539999999999</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>43922</v>
+      </c>
+      <c r="B42" s="7">
+        <v>306.44830000000002</v>
+      </c>
+      <c r="C42" s="7">
+        <v>311.65969999999999</v>
+      </c>
+      <c r="D42" s="8">
+        <v>317.1934</v>
+      </c>
+      <c r="E42" s="8">
+        <v>317.23180000000002</v>
+      </c>
+      <c r="F42" s="8">
+        <v>318.18740000000003</v>
+      </c>
+      <c r="G42" s="9">
+        <v>308.47219999999999</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B43" s="7">
+        <v>311.09219999999999</v>
+      </c>
+      <c r="C43" s="7">
+        <v>316.5258</v>
+      </c>
+      <c r="D43" s="8">
+        <v>322.50450000000001</v>
+      </c>
+      <c r="E43" s="8">
+        <v>322.45710000000003</v>
+      </c>
+      <c r="F43" s="8">
+        <v>322.47089999999997</v>
+      </c>
+      <c r="G43" s="9">
+        <v>313.38619999999997</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B44" s="7">
+        <v>317.46609999999998</v>
+      </c>
+      <c r="C44" s="7">
+        <v>324.52359999999999</v>
+      </c>
+      <c r="D44" s="8">
+        <v>329.63260000000002</v>
+      </c>
+      <c r="E44" s="8">
+        <v>329.89420000000001</v>
+      </c>
+      <c r="F44" s="8">
+        <v>329.97919999999999</v>
+      </c>
+      <c r="G44" s="9">
+        <v>319.40969999999999</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44013</v>
+      </c>
+      <c r="B45" s="7">
+        <v>322.67910000000001</v>
+      </c>
+      <c r="C45" s="7">
+        <v>331.44290000000001</v>
+      </c>
+      <c r="D45" s="8">
+        <v>335.87529999999998</v>
+      </c>
+      <c r="E45" s="8">
+        <v>337.1583</v>
+      </c>
+      <c r="F45" s="8">
+        <v>337.45519999999999</v>
+      </c>
+      <c r="G45" s="9">
+        <v>328.1311</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>44044</v>
+      </c>
+      <c r="B46" s="7">
+        <v>331.69569999999999</v>
+      </c>
+      <c r="C46" s="7">
+        <v>340.15899999999999</v>
+      </c>
+      <c r="D46" s="8">
+        <v>344.45499999999998</v>
+      </c>
+      <c r="E46" s="8">
+        <v>345.05610000000001</v>
+      </c>
+      <c r="F46" s="8">
+        <v>346.53800000000001</v>
+      </c>
+      <c r="G46" s="9">
+        <v>337.67500000000001</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>44075</v>
+      </c>
+      <c r="B47" s="7">
+        <v>340.90199999999999</v>
+      </c>
+      <c r="C47" s="7">
+        <v>350.03699999999998</v>
+      </c>
+      <c r="D47" s="8">
+        <v>352.4418</v>
+      </c>
+      <c r="E47" s="8">
+        <v>356.7869</v>
+      </c>
+      <c r="F47" s="8">
+        <v>358.89580000000001</v>
+      </c>
+      <c r="G47" s="9">
+        <v>345.34809999999999</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>44105</v>
+      </c>
+      <c r="B48" s="7">
+        <v>353.0444</v>
+      </c>
+      <c r="C48" s="7">
+        <v>364.09</v>
+      </c>
+      <c r="D48" s="8">
+        <v>366.78120000000001</v>
+      </c>
+      <c r="E48" s="8">
+        <v>370.15219999999999</v>
+      </c>
+      <c r="F48" s="8">
+        <v>372.0342</v>
+      </c>
+      <c r="G48" s="9">
+        <v>357.3048</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>44136</v>
+      </c>
+      <c r="B49" s="7">
+        <v>363.53809999999999</v>
+      </c>
+      <c r="C49" s="7">
+        <v>376.38170000000002</v>
+      </c>
+      <c r="D49" s="8">
+        <v>378.17</v>
+      </c>
+      <c r="E49" s="8">
+        <v>383.76679999999999</v>
+      </c>
+      <c r="F49" s="8">
+        <v>383.75130000000001</v>
+      </c>
+      <c r="G49" s="9">
+        <v>367.73919999999998</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>44166</v>
+      </c>
+      <c r="B50" s="7">
+        <v>377.05070000000001</v>
+      </c>
+      <c r="C50" s="7">
+        <v>392.15910000000002</v>
+      </c>
+      <c r="D50" s="8">
+        <v>394.47019999999998</v>
+      </c>
+      <c r="E50" s="8">
+        <v>405.06189999999998</v>
+      </c>
+      <c r="F50" s="8">
+        <v>400.16930000000002</v>
+      </c>
+      <c r="G50" s="9">
+        <v>378.85849999999999</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>44197</v>
+      </c>
+      <c r="B51" s="7">
+        <v>389.44540000000001</v>
+      </c>
+      <c r="C51" s="7">
+        <v>410.28859999999997</v>
+      </c>
+      <c r="D51" s="8">
+        <v>416.2149</v>
+      </c>
+      <c r="E51" s="8">
+        <v>422.54</v>
+      </c>
+      <c r="F51" s="8">
+        <v>418.01479999999998</v>
+      </c>
+      <c r="G51" s="9">
+        <v>394.43849999999998</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>44228</v>
+      </c>
+      <c r="B52" s="10">
+        <v>403.48540000000003</v>
+      </c>
+      <c r="C52" s="10">
+        <v>424.43729999999999</v>
+      </c>
+      <c r="D52" s="10">
+        <v>429.91820000000001</v>
+      </c>
+      <c r="E52" s="10">
+        <v>438.58249999999998</v>
+      </c>
+      <c r="F52" s="10">
+        <v>435.07850000000002</v>
+      </c>
+      <c r="G52" s="10">
+        <v>409.64620000000002</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>44256</v>
+      </c>
+      <c r="B53" s="10">
+        <v>424.45389999999998</v>
+      </c>
+      <c r="C53" s="10">
+        <v>444.91300000000001</v>
+      </c>
+      <c r="D53" s="10">
+        <v>447.91050000000001</v>
+      </c>
+      <c r="E53" s="10">
+        <v>453.17649999999998</v>
+      </c>
+      <c r="F53" s="10">
+        <v>453.95569999999998</v>
+      </c>
+      <c r="G53" s="10">
+        <v>426.23750000000001</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B54" s="10">
+        <v>441.89550000000003</v>
+      </c>
+      <c r="C54" s="10">
+        <v>462.50529999999998</v>
+      </c>
+      <c r="D54" s="10">
+        <v>465.79899999999998</v>
+      </c>
+      <c r="E54" s="10">
+        <v>471.91019999999997</v>
+      </c>
+      <c r="F54" s="10">
+        <v>472.88220000000001</v>
+      </c>
+      <c r="G54" s="10">
+        <v>446.49209999999999</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>44317</v>
+      </c>
+      <c r="B55" s="10">
+        <v>456.78559999999999</v>
+      </c>
+      <c r="C55" s="10">
+        <v>477.44490000000002</v>
+      </c>
+      <c r="D55" s="10">
+        <v>480.91570000000002</v>
+      </c>
+      <c r="E55" s="10">
+        <v>486.75510000000003</v>
+      </c>
+      <c r="F55" s="10">
+        <v>490.07549999999998</v>
+      </c>
+      <c r="G55" s="10">
+        <v>462.18380000000002</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B56" s="10">
+        <v>470.78399999999999</v>
+      </c>
+      <c r="C56" s="10">
+        <v>492.92899999999997</v>
+      </c>
+      <c r="D56" s="10">
+        <v>496.72019999999998</v>
+      </c>
+      <c r="E56" s="10">
+        <v>500.64460000000003</v>
+      </c>
+      <c r="F56" s="10">
+        <v>507.4581</v>
+      </c>
+      <c r="G56" s="10">
+        <v>478.11090000000002</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>44378</v>
+      </c>
+      <c r="B57" s="10">
+        <v>485.30360000000002</v>
+      </c>
+      <c r="C57" s="10">
+        <v>507.05470000000003</v>
+      </c>
+      <c r="D57" s="10">
+        <v>510.39460000000003</v>
+      </c>
+      <c r="E57" s="10">
+        <v>515.54729999999995</v>
+      </c>
+      <c r="F57" s="10">
+        <v>523.53769999999997</v>
+      </c>
+      <c r="G57" s="10">
+        <v>494.12490000000003</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>44409</v>
+      </c>
+      <c r="B58" s="10">
+        <v>497.93709999999999</v>
+      </c>
+      <c r="C58" s="10">
+        <v>518.53200000000004</v>
+      </c>
+      <c r="D58" s="10">
+        <v>522.5566</v>
+      </c>
+      <c r="E58" s="10">
+        <v>529.66039999999998</v>
+      </c>
+      <c r="F58" s="10">
+        <v>532.84429999999998</v>
+      </c>
+      <c r="G58" s="10">
+        <v>510.95370000000003</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B59" s="10">
+        <v>517.04250000000002</v>
+      </c>
+      <c r="C59" s="10">
+        <v>536.21400000000006</v>
+      </c>
+      <c r="D59" s="10">
+        <v>539.59619999999995</v>
+      </c>
+      <c r="E59" s="10">
+        <v>544.65250000000003</v>
+      </c>
+      <c r="F59" s="10">
+        <v>548.13520000000005</v>
+      </c>
+      <c r="G59" s="10">
+        <v>530.08590000000004</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B60" s="10">
+        <v>536.54229999999995</v>
+      </c>
+      <c r="C60" s="10">
+        <v>554.44759999999997</v>
+      </c>
+      <c r="D60" s="10">
+        <v>556.8596</v>
+      </c>
+      <c r="E60" s="10">
+        <v>563.83199999999999</v>
+      </c>
+      <c r="F60" s="10">
+        <v>565.16060000000004</v>
+      </c>
+      <c r="G60" s="10">
+        <v>545.27859999999998</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B61" s="10">
+        <v>548.70730000000003</v>
+      </c>
+      <c r="C61" s="10">
+        <v>570.02070000000003</v>
+      </c>
+      <c r="D61" s="10">
+        <v>571.64520000000005</v>
+      </c>
+      <c r="E61" s="10">
+        <v>580.5865</v>
+      </c>
+      <c r="F61" s="10">
+        <v>580.13789999999995</v>
+      </c>
+      <c r="G61" s="10">
+        <v>557.22360000000003</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>44531</v>
+      </c>
+      <c r="B62" s="10">
+        <v>570.99810000000002</v>
+      </c>
+      <c r="C62" s="10">
+        <v>590.09580000000005</v>
+      </c>
+      <c r="D62" s="10">
+        <v>594.74749999999995</v>
+      </c>
+      <c r="E62" s="10">
+        <v>606.20780000000002</v>
+      </c>
+      <c r="F62" s="10">
+        <v>602.82899999999995</v>
+      </c>
+      <c r="G62" s="10">
+        <v>574.45060000000001</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>44562</v>
+      </c>
+      <c r="B63" s="10">
+        <v>593.42190000000005</v>
+      </c>
+      <c r="C63" s="10">
+        <v>612.8039</v>
+      </c>
+      <c r="D63" s="10">
+        <v>618.75620000000004</v>
+      </c>
+      <c r="E63" s="10">
+        <v>626.96400000000006</v>
+      </c>
+      <c r="F63" s="10">
+        <v>627.24540000000002</v>
+      </c>
+      <c r="G63" s="10">
+        <v>595.08799999999997</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>44593</v>
+      </c>
+      <c r="B64" s="10">
+        <v>620.50070000000005</v>
+      </c>
+      <c r="C64" s="10">
+        <v>641.39559999999994</v>
+      </c>
+      <c r="D64" s="10">
+        <v>648.78049999999996</v>
+      </c>
+      <c r="E64" s="10">
+        <v>658.08259999999996</v>
+      </c>
+      <c r="F64" s="10">
+        <v>661.14620000000002</v>
+      </c>
+      <c r="G64" s="10">
+        <v>623.90300000000002</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>44621</v>
+      </c>
+      <c r="B65" s="10">
+        <v>661.86879999999996</v>
+      </c>
+      <c r="C65" s="10">
+        <v>683.90589999999997</v>
+      </c>
+      <c r="D65" s="10">
+        <v>692.68269999999995</v>
+      </c>
+      <c r="E65" s="10">
+        <v>705.78380000000004</v>
+      </c>
+      <c r="F65" s="10">
+        <v>706.06169999999997</v>
+      </c>
+      <c r="G65" s="10">
+        <v>670.30190000000005</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>44652</v>
+      </c>
+      <c r="B66" s="10">
+        <v>702.82899999999995</v>
+      </c>
+      <c r="C66" s="10">
+        <v>723.95090000000005</v>
+      </c>
+      <c r="D66" s="10">
+        <v>736.77269999999999</v>
+      </c>
+      <c r="E66" s="10">
+        <v>748.30560000000003</v>
+      </c>
+      <c r="F66" s="10">
+        <v>747.34829999999999</v>
+      </c>
+      <c r="G66" s="10">
+        <v>709.76229999999998</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>44682</v>
+      </c>
+      <c r="B67" s="10">
+        <v>736.36369999999999</v>
+      </c>
+      <c r="C67" s="10">
+        <v>762.15629999999999</v>
+      </c>
+      <c r="D67" s="10">
+        <v>777.66740000000004</v>
+      </c>
+      <c r="E67" s="10">
+        <v>787.69799999999998</v>
+      </c>
+      <c r="F67" s="10">
+        <v>786.34910000000002</v>
+      </c>
+      <c r="G67" s="10">
+        <v>744.31619999999998</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF1071-E167-42A5-ADAD-340C427255CA}">
+  <dimension ref="A1:F139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2*$E$122/$D$122</f>
+        <v>17.161219647880365</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(1/E2)*100</f>
+        <v>5.8270916666666697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3*$E$123/$D$123</f>
+        <v>18.113232700640115</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F66" si="0">(1/E3)*100</f>
+        <v>5.5208256666666706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4*$E$124/$D$124</f>
+        <v>17.13672415409274</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8354209999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5*$E$125/$D$125</f>
+        <v>17.408942381797498</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7441743333333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6*$E$126/$D$126</f>
+        <v>17.49715860725183</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7152136666666697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7*$E$127/$D$127</f>
+        <v>17.889591167980388</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5898426666666703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>103.632133333333</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8*$E$122/$D$122</f>
+        <v>17.78453802711752</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6228618279272657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>103.794733333333</v>
+      </c>
+      <c r="E9" s="3">
+        <f>D9*$E$123/$D$123</f>
+        <v>18.80058157967548</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3189843929139835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3">
+        <v>103.707466666667</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10*$E$124/$D$124</f>
+        <v>17.7720624898644</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>5.626808934361506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>104.122633333333</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11*$E$125/$D$125</f>
+        <v>18.12664924341022</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5167393960775239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3">
+        <v>103.711966666667</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12*$E$126/$D$126</f>
+        <v>18.146647302366873</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5106598113557306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3">
+        <v>104.4529</v>
+      </c>
+      <c r="E13" s="3">
+        <f>D13*$E$127/$D$127</f>
+        <v>18.686196773099386</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>5.351543773956176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>111.063166666667</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14*$E$122/$D$122</f>
+        <v>19.059793979558176</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2466464279336398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>110.505433333333</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15*$E$123/$D$123</f>
+        <v>20.016106286517335</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>4.995976668417228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <v>110.24023333333299</v>
+      </c>
+      <c r="E16" s="3">
+        <f>D16*$E$124/$D$124</f>
+        <v>18.89156469316147</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2933677873807277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3">
+        <v>111.430333333333</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17*$E$125/$D$125</f>
+        <v>19.398842525844834</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1549467380216765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3">
+        <v>110.13249999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18*$E$126/$D$126</f>
+        <v>19.270058203131619</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1893979221997775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>110.282166666667</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D19*$E$127/$D$127</f>
+        <v>19.72902874785747</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0686732366822564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>115.721166666667</v>
+      </c>
+      <c r="E20" s="3">
+        <f>D20*$E$122/$D$122</f>
+        <v>19.859163590756442</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0354587967917013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>115.829533333333</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21*$E$123/$D$123</f>
+        <v>20.980472908732114</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7663367949337214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3">
+        <v>114.741733333333</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22*$E$124/$D$124</f>
+        <v>19.662974330957955</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>5.085700582060829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3">
+        <v>115.9341</v>
+      </c>
+      <c r="E23" s="3">
+        <f>D23*$E$125/$D$125</f>
+        <v>20.182900669855496</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>4.954689201307751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3">
+        <v>115.321166666667</v>
+      </c>
+      <c r="E24" s="3">
+        <f>D24*$E$126/$D$126</f>
+        <v>20.177927439399951</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9559103778288636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>115.158866666667</v>
+      </c>
+      <c r="E25" s="3">
+        <f>D25*$E$127/$D$127</f>
+        <v>20.601450440346369</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8540271613185855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3">
+        <v>122.197666666667</v>
+      </c>
+      <c r="E26" s="3">
+        <f>D26*$E$122/$D$122</f>
+        <v>20.970609981251414</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7685785053178762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>121.81059999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D27*$E$123/$D$123</f>
+        <v>22.063837432045926</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5323031547883943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3">
+        <v>119.9581</v>
+      </c>
+      <c r="E28" s="3">
+        <f>D28*$E$124/$D$124</f>
+        <v>20.55688869749072</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8645493718223287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>121.937633333333</v>
+      </c>
+      <c r="E29" s="3">
+        <f>D29*$E$125/$D$125</f>
+        <v>21.228052328727443</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>4.710747762039019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3">
+        <v>121.81423333333299</v>
+      </c>
+      <c r="E30" s="3">
+        <f>D30*$E$126/$D$126</f>
+        <v>21.314029612541102</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6917453816973369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3">
+        <v>120.869166666667</v>
+      </c>
+      <c r="E31" s="3">
+        <f>D31*$E$127/$D$127</f>
+        <v>21.622999764811553</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6247052253469558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3">
+        <v>130.577566666667</v>
+      </c>
+      <c r="E32" s="3">
+        <f>D32*$E$122/$D$122</f>
+        <v>22.408703026524137</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4625518880603963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>130.2696</v>
+      </c>
+      <c r="E33" s="3">
+        <f>D33*$E$123/$D$123</f>
+        <v>23.596035786193074</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2380000143292609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3">
+        <v>127.464966666667</v>
+      </c>
+      <c r="E34" s="3">
+        <f>D34*$E$124/$D$124</f>
+        <v>21.843319730772979</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5780587031887601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3">
+        <v>129.71063333333299</v>
+      </c>
+      <c r="E35" s="3">
+        <f>D35*$E$125/$D$125</f>
+        <v>22.581249420064562</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4284529230320189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3">
+        <v>130.1431</v>
+      </c>
+      <c r="E36" s="3">
+        <f>D36*$E$126/$D$126</f>
+        <v>22.771344623394356</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3914841944495482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3">
+        <v>129.68879999999999</v>
+      </c>
+      <c r="E37" s="3">
+        <f>D37*$E$127/$D$127</f>
+        <v>23.200796110659745</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3101969226846659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3">
+        <v>141.39769999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <f>D38*$E$122/$D$122</f>
+        <v>24.265569874050932</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1210653827231072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>140.52539999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <f>D39*$E$123/$D$123</f>
+        <v>25.453692705505322</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9287030434830084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3">
+        <v>137.5316</v>
+      </c>
+      <c r="E40" s="3">
+        <f>D40*$E$124/$D$124</f>
+        <v>23.568410916710206</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2429674343932602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>140.71430000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <f>D41*$E$125/$D$125</f>
+        <v>24.49687140994968</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0821539341298854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43</v>
+      </c>
+      <c r="D42" s="3">
+        <v>140.37526666666699</v>
+      </c>
+      <c r="E42" s="3">
+        <f>D42*$E$126/$D$126</f>
+        <v>24.561683054019433</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0713822330524438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3">
+        <v>140.19319999999999</v>
+      </c>
+      <c r="E43" s="3">
+        <f>D43*$E$127/$D$127</f>
+        <v>25.07999032530908</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9872423674377004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3">
+        <v>157.929566666667</v>
+      </c>
+      <c r="E44" s="3">
+        <f>D44*$E$122/$D$122</f>
+        <v>27.102639824612378</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6896774870316604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>156.59426666666701</v>
+      </c>
+      <c r="E45" s="3">
+        <f>D45*$E$123/$D$123</f>
+        <v>28.364283917194314</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5255605356347601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>153.9385</v>
+      </c>
+      <c r="E46" s="3">
+        <f>D46*$E$124/$D$124</f>
+        <v>26.380016111948049</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7907482533609205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>40</v>
+      </c>
+      <c r="D47" s="3">
+        <v>156.983366666667</v>
+      </c>
+      <c r="E47" s="3">
+        <f>D47*$E$125/$D$125</f>
+        <v>27.329143852005959</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6590974287934017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>156.63489999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <f>D48*$E$126/$D$126</f>
+        <v>27.406656887310291</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6487485654006035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>155.776266666667</v>
+      </c>
+      <c r="E49" s="3">
+        <f>D49*$E$127/$D$127</f>
+        <v>27.867737243409632</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5883788886967758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3">
+        <v>182.50640000000001</v>
+      </c>
+      <c r="E50" s="3">
+        <f>D50*$E$122/$D$122</f>
+        <v>31.320324175439136</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1928149734292437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>178.89</v>
+      </c>
+      <c r="E51" s="3">
+        <f>D51*$E$123/$D$123</f>
+        <v>32.4027619781751</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="0"/>
+        <v>3.086156669834351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>41</v>
+      </c>
+      <c r="D52" s="3">
+        <v>176.150033333333</v>
+      </c>
+      <c r="E52" s="3">
+        <f>D52*$E$124/$D$124</f>
+        <v>30.186345309675687</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3127561145319175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>40</v>
+      </c>
+      <c r="D53" s="3">
+        <v>179.108033333333</v>
+      </c>
+      <c r="E53" s="3">
+        <f>D53*$E$125/$D$125</f>
+        <v>31.180814324170605</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2071003329275607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3">
+        <v>179.82513333333301</v>
+      </c>
+      <c r="E54" s="3">
+        <f>D54*$E$126/$D$126</f>
+        <v>31.464288795035351</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1782062722415225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3">
+        <v>180.30770000000001</v>
+      </c>
+      <c r="E55" s="3">
+        <f>D55*$E$127/$D$127</f>
+        <v>32.256310374388569</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1001685821884872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3">
+        <v>201.0445</v>
+      </c>
+      <c r="E56" s="3">
+        <f>D56*$E$122/$D$122</f>
+        <v>34.501688234982844</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8984088928902154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>197.08373333333299</v>
+      </c>
+      <c r="E57" s="3">
+        <f>D57*$E$123/$D$123</f>
+        <v>35.698235233775634</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8012589234491263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>41</v>
+      </c>
+      <c r="D58" s="3">
+        <v>195.962633333333</v>
+      </c>
+      <c r="E58" s="3">
+        <f>D58*$E$124/$D$124</f>
+        <v>33.581575919429461</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="0"/>
+        <v>2.97782332311994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>40</v>
+      </c>
+      <c r="D59" s="3">
+        <v>198.16683333333299</v>
+      </c>
+      <c r="E59" s="3">
+        <f>D59*$E$125/$D$125</f>
+        <v>34.498749834832623</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8986557622743829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>43</v>
+      </c>
+      <c r="D60" s="3">
+        <v>197.31633333333301</v>
+      </c>
+      <c r="E60" s="3">
+        <f>D60*$E$126/$D$126</f>
+        <v>34.524751801346987</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8964726690981886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3">
+        <v>198.195333333333</v>
+      </c>
+      <c r="E61" s="3">
+        <f>D61*$E$127/$D$127</f>
+        <v>35.456334847349225</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8203704762641637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3">
+        <v>222.53110000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <f>D62*$E$122/$D$122</f>
+        <v>38.189050855844307</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6185515942116266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>218.64556666666701</v>
+      </c>
+      <c r="E63" s="3">
+        <f>D63*$E$123/$D$123</f>
+        <v>39.603780279966614</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5250114835776047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>41</v>
+      </c>
+      <c r="D64" s="3">
+        <v>218.75936666666701</v>
+      </c>
+      <c r="E64" s="3">
+        <f>D64*$E$124/$D$124</f>
+        <v>37.488189226907025</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6675068084703679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>40</v>
+      </c>
+      <c r="D65" s="3">
+        <v>222.42160000000001</v>
+      </c>
+      <c r="E65" s="3">
+        <f>D65*$E$125/$D$125</f>
+        <v>38.721248188672106</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5825613759335111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>43</v>
+      </c>
+      <c r="D66" s="3">
+        <v>219.29599999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <f>D66*$E$126/$D$126</f>
+        <v>38.370568939358968</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6061641191205811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44</v>
+      </c>
+      <c r="D67" s="3">
+        <v>219.94579999999999</v>
+      </c>
+      <c r="E67" s="3">
+        <f>D67*$E$127/$D$127</f>
+        <v>39.347404411143799</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ref="F67:F130" si="1">(1/E67)*100</f>
+        <v>2.5414636999963953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <v>42</v>
+      </c>
+      <c r="D68" s="3">
+        <v>246.52029999999999</v>
+      </c>
+      <c r="E68" s="3">
+        <f>D68*$E$122/$D$122</f>
+        <v>42.305890159613618</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3637370499170536</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>239.96123333333301</v>
+      </c>
+      <c r="E69" s="3">
+        <f>D69*$E$123/$D$123</f>
+        <v>43.4647365849926</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3007156572651994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>41</v>
+      </c>
+      <c r="D70" s="3">
+        <v>240.92939999999999</v>
+      </c>
+      <c r="E70" s="3">
+        <f>D70*$E$124/$D$124</f>
+        <v>41.287406684110707</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4220460433637405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>40</v>
+      </c>
+      <c r="D71" s="3">
+        <v>245.13403333333301</v>
+      </c>
+      <c r="E71" s="3">
+        <f>D71*$E$125/$D$125</f>
+        <v>42.675242621176217</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3432790034186755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <v>43</v>
+      </c>
+      <c r="D72" s="3">
+        <v>241.26333333333301</v>
+      </c>
+      <c r="E72" s="3">
+        <f>D72*$E$126/$D$126</f>
+        <v>42.214228094475942</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3688695616131796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3">
+        <v>242.97966666666699</v>
+      </c>
+      <c r="E73" s="3">
+        <f>D73*$E$127/$D$127</f>
+        <v>43.468068987988239</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3005392769490984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3">
+        <v>42</v>
+      </c>
+      <c r="D74" s="3">
+        <v>280.290433333333</v>
+      </c>
+      <c r="E74" s="3">
+        <f>D74*$E$122/$D$122</f>
+        <v>48.101256916328957</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0789477533601195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>270.72983333333298</v>
+      </c>
+      <c r="E75" s="3">
+        <f>D75*$E$123/$D$123</f>
+        <v>49.037924701721749</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0392380103411867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3">
+        <v>41</v>
+      </c>
+      <c r="D76" s="3">
+        <v>273.77023333333301</v>
+      </c>
+      <c r="E76" s="3">
+        <f>D76*$E$124/$D$124</f>
+        <v>46.915249702349328</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1315030962095123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3">
+        <v>40</v>
+      </c>
+      <c r="D77" s="3">
+        <v>275.411</v>
+      </c>
+      <c r="E77" s="3">
+        <f>D77*$E$125/$D$125</f>
+        <v>47.946142303132312</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0856735327686002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3">
+        <v>43</v>
+      </c>
+      <c r="D78" s="3">
+        <v>273.83136666666701</v>
+      </c>
+      <c r="E78" s="3">
+        <f>D78*$E$126/$D$126</f>
+        <v>47.912708542072046</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0871289276453702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44</v>
+      </c>
+      <c r="D79" s="3">
+        <v>274.77423333333297</v>
+      </c>
+      <c r="E79" s="3">
+        <f>D79*$E$127/$D$127</f>
+        <v>49.155986978285753</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0343401922572357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>42</v>
+      </c>
+      <c r="D80" s="3">
+        <v>305.49823333333302</v>
+      </c>
+      <c r="E80" s="3">
+        <f>D80*$E$122/$D$122</f>
+        <v>52.427222842727346</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9074060111858835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>293.48523333333299</v>
+      </c>
+      <c r="E81" s="3">
+        <f>D81*$E$123/$D$123</f>
+        <v>53.159663255683213</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8811255353335814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>41</v>
+      </c>
+      <c r="D82" s="3">
+        <v>301.44970000000001</v>
+      </c>
+      <c r="E82" s="3">
+        <f>D82*$E$124/$D$124</f>
+        <v>51.658603552340097</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9357859702630325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>40</v>
+      </c>
+      <c r="D83" s="3">
+        <v>299.874866666667</v>
+      </c>
+      <c r="E83" s="3">
+        <f>D83*$E$125/$D$125</f>
+        <v>52.205042755492137</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9155237640233458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>43</v>
+      </c>
+      <c r="D84" s="3">
+        <v>298.92326666666702</v>
+      </c>
+      <c r="E84" s="3">
+        <f>D84*$E$126/$D$126</f>
+        <v>52.303078082645065</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="1"/>
+        <v>1.911933363500866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3">
+        <v>299.66699999999997</v>
+      </c>
+      <c r="E85" s="3">
+        <f>D85*$E$127/$D$127</f>
+        <v>53.609201165351777</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8653514289750528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3">
+        <v>42</v>
+      </c>
+      <c r="D86" s="3">
+        <v>323.54583333333301</v>
+      </c>
+      <c r="E86" s="3">
+        <f>D86*$E$122/$D$122</f>
+        <v>55.524411119898204</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8010096457225306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3">
+        <v>311.66886666666699</v>
+      </c>
+      <c r="E87" s="3">
+        <f>D87*$E$123/$D$123</f>
+        <v>56.453307074781165</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7713754106120743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3">
+        <v>41</v>
+      </c>
+      <c r="D88" s="3">
+        <v>323.19436666666701</v>
+      </c>
+      <c r="E88" s="3">
+        <f>D88*$E$124/$D$124</f>
+        <v>55.384927097233778</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8055453936851806</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3">
+        <v>40</v>
+      </c>
+      <c r="D89" s="3">
+        <v>323.110166666667</v>
+      </c>
+      <c r="E89" s="3">
+        <f>D89*$E$125/$D$125</f>
+        <v>56.250062744729931</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7777757947366735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3">
+        <v>43</v>
+      </c>
+      <c r="D90" s="3">
+        <v>317.56970000000001</v>
+      </c>
+      <c r="E90" s="3">
+        <f>D90*$E$126/$D$126</f>
+        <v>55.565674097573812</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7996722189386045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44</v>
+      </c>
+      <c r="D91" s="3">
+        <v>313.75603333333299</v>
+      </c>
+      <c r="E91" s="3">
+        <f>D91*$E$127/$D$127</f>
+        <v>56.129671628205536</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7815889011855421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3</v>
+      </c>
+      <c r="C92" s="3">
+        <v>42</v>
+      </c>
+      <c r="D92" s="3">
+        <v>347.62966666666699</v>
+      </c>
+      <c r="E92" s="3">
+        <f>D92*$E$122/$D$122</f>
+        <v>59.657490657861075</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6762354382872955</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B93" s="3">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>331.758933333333</v>
+      </c>
+      <c r="E93" s="3">
+        <f>D93*$E$123/$D$123</f>
+        <v>60.092267599828105</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6641076130780936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3">
+        <v>41</v>
+      </c>
+      <c r="D94" s="3">
+        <v>346.33376666666697</v>
+      </c>
+      <c r="E94" s="3">
+        <f>D94*$E$124/$D$124</f>
+        <v>59.35026224614591</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6849125212836578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B95" s="3">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3">
+        <v>40</v>
+      </c>
+      <c r="D95" s="3">
+        <v>344.257366666667</v>
+      </c>
+      <c r="E95" s="3">
+        <f>D95*$E$125/$D$125</f>
+        <v>59.931566608093412</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6685697648106461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B96" s="3">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3">
+        <v>43</v>
+      </c>
+      <c r="D96" s="3">
+        <v>340.54629999999997</v>
+      </c>
+      <c r="E96" s="3">
+        <f>D96*$E$126/$D$126</f>
+        <v>59.585926242127627</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6782486453873293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44</v>
+      </c>
+      <c r="D97" s="3">
+        <v>337.0514</v>
+      </c>
+      <c r="E97" s="3">
+        <f>D97*$E$127/$D$127</f>
+        <v>60.297117485954246</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6584540715946203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3">
+        <v>42</v>
+      </c>
+      <c r="D98" s="3">
+        <v>385.318266666667</v>
+      </c>
+      <c r="E98" s="3">
+        <f>D98*$E$122/$D$122</f>
+        <v>66.125314086072109</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="1"/>
+        <v>1.512280151438447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3">
+        <v>364.5444</v>
+      </c>
+      <c r="E99" s="3">
+        <f>D99*$E$123/$D$123</f>
+        <v>66.030775469152303</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5144453368826047</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B100" s="3">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3">
+        <v>41</v>
+      </c>
+      <c r="D100" s="3">
+        <v>386.32696666666698</v>
+      </c>
+      <c r="E100" s="3">
+        <f>D100*$E$124/$D$124</f>
+        <v>66.203786610540519</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5104876189072647</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B101" s="3">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3">
+        <v>40</v>
+      </c>
+      <c r="D101" s="3">
+        <v>379.80713333333301</v>
+      </c>
+      <c r="E101" s="3">
+        <f>D101*$E$125/$D$125</f>
+        <v>66.120405003956762</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5123924300526566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4</v>
+      </c>
+      <c r="C102" s="3">
+        <v>43</v>
+      </c>
+      <c r="D102" s="3">
+        <v>377.54360000000003</v>
+      </c>
+      <c r="E102" s="3">
+        <f>D102*$E$126/$D$126</f>
+        <v>66.059402503528418</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="1"/>
+        <v>1.513789047587264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B103" s="3">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44</v>
+      </c>
+      <c r="D103" s="3">
+        <v>367.96749999999997</v>
+      </c>
+      <c r="E103" s="3">
+        <f>D103*$E$127/$D$127</f>
+        <v>65.827881381038225</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5191131463150063</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3">
+        <v>42</v>
+      </c>
+      <c r="D104" s="3">
+        <v>435.68299999999999</v>
+      </c>
+      <c r="E104" s="3">
+        <f>D104*$E$122/$D$122</f>
+        <v>74.768516598474619</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3374613346553961</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3">
+        <v>405.79489999999998</v>
+      </c>
+      <c r="E105" s="3">
+        <f>D105*$E$123/$D$123</f>
+        <v>73.502574524329845</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3604965628367116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3">
+        <v>41</v>
+      </c>
+      <c r="D106" s="3">
+        <v>438.09966666666702</v>
+      </c>
+      <c r="E106" s="3">
+        <f>D106*$E$124/$D$124</f>
+        <v>75.075931396666505</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3319848071101008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3">
+        <v>40</v>
+      </c>
+      <c r="D107" s="3">
+        <v>431.34786666666702</v>
+      </c>
+      <c r="E107" s="3">
+        <f>D107*$E$125/$D$125</f>
+        <v>75.093101573112762</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3316802463224557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3">
+        <v>43</v>
+      </c>
+      <c r="D108" s="3">
+        <v>426.54629999999997</v>
+      </c>
+      <c r="E108" s="3">
+        <f>D108*$E$126/$D$126</f>
+        <v>74.633482644364207</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3398811961718269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+      <c r="C109" s="3">
+        <v>44</v>
+      </c>
+      <c r="D109" s="3">
+        <v>410.10739999999998</v>
+      </c>
+      <c r="E109" s="3">
+        <f>D109*$E$127/$D$127</f>
+        <v>73.366537209633989</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3630192156168532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3">
+        <v>42</v>
+      </c>
+      <c r="D110" s="3">
+        <v>490.1386</v>
+      </c>
+      <c r="E110" s="3">
+        <f>D110*$E$122/$D$122</f>
+        <v>84.113761725045748</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1888661016836197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3">
+        <v>456.48836666666699</v>
+      </c>
+      <c r="E111" s="3">
+        <f>D111*$E$123/$D$123</f>
+        <v>82.684800105684673</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2094121274065328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
+      <c r="C112" s="3">
+        <v>41</v>
+      </c>
+      <c r="D112" s="3">
+        <v>486.43663333333302</v>
+      </c>
+      <c r="E112" s="3">
+        <f>D112*$E$124/$D$124</f>
+        <v>83.359304038788807</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1996261383548492</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
+      <c r="C113" s="3">
+        <v>40</v>
+      </c>
+      <c r="D113" s="3">
+        <v>481.14496666666702</v>
+      </c>
+      <c r="E113" s="3">
+        <f>D113*$E$125/$D$125</f>
+        <v>83.762250019918852</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1938552268619789</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3">
+        <v>43</v>
+      </c>
+      <c r="D114" s="3">
+        <v>477.62639999999999</v>
+      </c>
+      <c r="E114" s="3">
+        <f>D114*$E$126/$D$126</f>
+        <v>83.571048758107054</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1965866347979655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3">
+        <v>44</v>
+      </c>
+      <c r="D115" s="3">
+        <v>462.26226666666702</v>
+      </c>
+      <c r="E115" s="3">
+        <f>D115*$E$127/$D$127</f>
+        <v>82.696829630506002</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2092361998253804</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B116" s="3">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3">
+        <v>42</v>
+      </c>
+      <c r="D116" s="3">
+        <v>534.83906666666701</v>
+      </c>
+      <c r="E116" s="3">
+        <f>D116*$E$122/$D$122</f>
+        <v>91.784906993340016</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0895037460489672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B117" s="3">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3">
+        <v>500.09440000000001</v>
+      </c>
+      <c r="E117" s="3">
+        <f>D117*$E$123/$D$123</f>
+        <v>90.58326239486999</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1039567063071831</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B118" s="3">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>41</v>
+      </c>
+      <c r="D118" s="3">
+        <v>529.95339999999999</v>
+      </c>
+      <c r="E118" s="3">
+        <f>D118*$E$124/$D$124</f>
+        <v>90.816652303235699</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1011196456141239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>40</v>
+      </c>
+      <c r="D119" s="3">
+        <v>524.18246666666698</v>
+      </c>
+      <c r="E119" s="3">
+        <f>D119*$E$125/$D$125</f>
+        <v>91.254623597484937</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0958348854858035</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B120" s="3">
+        <v>3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>43</v>
+      </c>
+      <c r="D120" s="3">
+        <v>520.60023333333299</v>
+      </c>
+      <c r="E120" s="3">
+        <f>D120*$E$126/$D$126</f>
+        <v>91.090248536056379</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0978123521138143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="3">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>44</v>
+      </c>
+      <c r="D121" s="3">
+        <v>511.72149999999999</v>
+      </c>
+      <c r="E121" s="3">
+        <f>D121*$E$127/$D$127</f>
+        <v>91.544884268656759</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0923603301144609</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B122" s="2">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2">
+        <v>42</v>
+      </c>
+      <c r="D122" s="2">
+        <v>582.70916666666699</v>
+      </c>
+      <c r="E122" s="2">
+        <v>100</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B123" s="2">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>552.08256666666705</v>
+      </c>
+      <c r="E123" s="2">
+        <v>100</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B124" s="2">
+        <v>4</v>
+      </c>
+      <c r="C124" s="2">
+        <v>41</v>
+      </c>
+      <c r="D124" s="2">
+        <v>583.5421</v>
+      </c>
+      <c r="E124" s="2">
+        <v>100</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B125" s="2">
+        <v>4</v>
+      </c>
+      <c r="C125" s="2">
+        <v>40</v>
+      </c>
+      <c r="D125" s="2">
+        <v>574.41743333333295</v>
+      </c>
+      <c r="E125" s="2">
+        <v>100</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B126" s="2">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2">
+        <v>43</v>
+      </c>
+      <c r="D126" s="2">
+        <v>571.52136666666695</v>
+      </c>
+      <c r="E126" s="2">
+        <v>100</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B127" s="2">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44</v>
+      </c>
+      <c r="D127" s="2">
+        <v>558.98426666666705</v>
+      </c>
+      <c r="E127" s="2">
+        <v>100</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3">
+        <v>42</v>
+      </c>
+      <c r="D128" s="3">
+        <v>664.81776666666701</v>
+      </c>
+      <c r="E128" s="3">
+        <f>D128*$E$122/$D$122</f>
+        <v>114.09083719579951</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87649457623299576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3">
+        <v>625.26379999999995</v>
+      </c>
+      <c r="E129" s="3">
+        <f>D129*$E$123/$D$123</f>
+        <v>113.255487086865</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88295942715165521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3">
+        <v>41</v>
+      </c>
+      <c r="D130" s="3">
+        <v>663.61013333333301</v>
+      </c>
+      <c r="E130" s="3">
+        <f>D130*$E$124/$D$124</f>
+        <v>113.72103800794031</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87934476990104271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3">
+        <v>40</v>
+      </c>
+      <c r="D131" s="3">
+        <v>653.40646666666703</v>
+      </c>
+      <c r="E131" s="3">
+        <f>D131*$E$125/$D$125</f>
+        <v>113.75115530093895</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" ref="F131:F139" si="2">(1/E131)*100</f>
+        <v>0.87911195042758883</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3">
+        <v>43</v>
+      </c>
+      <c r="D132" s="3">
+        <v>646.03513333333296</v>
+      </c>
+      <c r="E132" s="3">
+        <f>D132*$E$126/$D$126</f>
+        <v>113.0377919379041</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88465988485456037</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+      <c r="C133" s="3">
+        <v>44</v>
+      </c>
+      <c r="D133" s="3">
+        <v>629.76430000000005</v>
+      </c>
+      <c r="E133" s="3">
+        <f>D133*$E$127/$D$127</f>
+        <v>112.66225859189352</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88760869211968185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+      <c r="C134" s="3">
+        <v>42</v>
+      </c>
+      <c r="D134" s="3">
+        <v>766.84870000000001</v>
+      </c>
+      <c r="E134" s="3">
+        <f>D134*$E$122/$D$122</f>
+        <v>131.60058977391515</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75987501402384461</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3">
+        <v>719.59635000000003</v>
+      </c>
+      <c r="E135" s="3">
+        <f>D135*$E$123/$D$123</f>
+        <v>130.34216138081271</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76721146051764577</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3">
+        <v>41</v>
+      </c>
+      <c r="D136" s="3">
+        <v>768.0018</v>
+      </c>
+      <c r="E136" s="3">
+        <f>D136*$E$124/$D$124</f>
+        <v>131.61034996446699</v>
+      </c>
+      <c r="F136" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75981866188334457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3">
+        <v>40</v>
+      </c>
+      <c r="D137" s="3">
+        <v>757.22005000000001</v>
+      </c>
+      <c r="E137" s="3">
+        <f>D137*$E$125/$D$125</f>
+        <v>131.82400220791823</v>
+      </c>
+      <c r="F137" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7585871944797723</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3">
+        <v>43</v>
+      </c>
+      <c r="D138" s="3">
+        <v>743.05359999999996</v>
+      </c>
+      <c r="E138" s="3">
+        <f>D138*$E$126/$D$126</f>
+        <v>130.01326692889458</v>
+      </c>
+      <c r="F138" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76915227470355696</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3">
+        <v>44</v>
+      </c>
+      <c r="D139" s="3">
+        <v>727.03925000000004</v>
+      </c>
+      <c r="E139" s="3">
+        <f>D139*$E$127/$D$127</f>
+        <v>130.06434945575086</v>
+      </c>
+      <c r="F139" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76885019160474066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\preprocesamiento\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E253A49A-F72D-45DC-9E7F-136FECE5F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E786BB-89C7-4AC9-8367-2F7F7DEB036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shiny_regiones" sheetId="11" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>REGION</t>
   </si>
   <si>
-    <t>1er trimestre 2022</t>
-  </si>
-  <si>
     <t>(se publicaba sólo gba)</t>
   </si>
   <si>
     <t>gba</t>
+  </si>
+  <si>
+    <t>2do trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -232,6 +232,14 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -516,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495EB06F-1435-4337-BFF5-5A48A8FD771B}">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,13 +563,13 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>13.539397592761029</v>
+        <v>11.434033938551714</v>
       </c>
       <c r="E2" s="1">
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -574,11 +582,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>13.539397592761029</v>
+      <c r="D3" s="15">
+        <v>11.434033938551714</v>
       </c>
       <c r="E3" s="1">
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,11 +599,11 @@
       <c r="C4">
         <v>41</v>
       </c>
-      <c r="D4">
-        <v>13.539397592761029</v>
+      <c r="D4" s="15">
+        <v>11.434033938551714</v>
       </c>
       <c r="E4" s="1">
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,11 +616,11 @@
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>13.539397592761029</v>
+      <c r="D5" s="15">
+        <v>11.434033938551714</v>
       </c>
       <c r="E5" s="1">
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -625,11 +633,11 @@
       <c r="C6">
         <v>43</v>
       </c>
-      <c r="D6">
-        <v>13.539397592761029</v>
+      <c r="D6" s="15">
+        <v>11.434033938551714</v>
       </c>
       <c r="E6" s="1">
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,11 +650,11 @@
       <c r="C7">
         <v>44</v>
       </c>
-      <c r="D7">
-        <v>13.539397592761029</v>
+      <c r="D7" s="15">
+        <v>11.434033938551714</v>
       </c>
       <c r="E7" s="1">
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,10 +668,10 @@
         <v>42</v>
       </c>
       <c r="D8">
-        <v>14.360747574973793</v>
+        <v>12.127664767228373</v>
       </c>
       <c r="E8" s="1">
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -676,11 +684,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>14.360747574973793</v>
+      <c r="D9" s="15">
+        <v>12.127664767228373</v>
       </c>
       <c r="E9" s="1">
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,11 +701,11 @@
       <c r="C10">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>14.360747574973793</v>
+      <c r="D10" s="15">
+        <v>12.127664767228373</v>
       </c>
       <c r="E10" s="1">
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -710,11 +718,11 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11">
-        <v>14.360747574973793</v>
+      <c r="D11" s="15">
+        <v>12.127664767228373</v>
       </c>
       <c r="E11" s="1">
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,11 +735,11 @@
       <c r="C12">
         <v>43</v>
       </c>
-      <c r="D12">
-        <v>14.360747574973793</v>
+      <c r="D12" s="15">
+        <v>12.127664767228373</v>
       </c>
       <c r="E12" s="1">
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,11 +752,11 @@
       <c r="C13">
         <v>44</v>
       </c>
-      <c r="D13">
-        <v>14.360747574973793</v>
+      <c r="D13" s="15">
+        <v>12.127664767228373</v>
       </c>
       <c r="E13" s="1">
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -762,10 +770,10 @@
         <v>42</v>
       </c>
       <c r="D14">
-        <v>15.041715942910262</v>
+        <v>12.702743191266141</v>
       </c>
       <c r="E14">
-        <v>6.6481776666666699</v>
+        <v>7.8723153333333311</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -779,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>15.993249569221824</v>
+        <v>13.538744366302829</v>
       </c>
       <c r="E15">
-        <v>6.2526379999999993</v>
+        <v>7.3862093333333299</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -796,10 +804,10 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>15.069088758138319</v>
+        <v>12.698489023722381</v>
       </c>
       <c r="E16">
-        <v>6.6361013333333299</v>
+        <v>7.8749526666666698</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,10 +821,10 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>15.304409292143514</v>
+        <v>12.859800610506181</v>
       </c>
       <c r="E17">
-        <v>6.5340646666666693</v>
+        <v>7.7761703333333294</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,10 +838,10 @@
         <v>43</v>
       </c>
       <c r="D18">
-        <v>15.479034318773385</v>
+        <v>13.114442791587505</v>
       </c>
       <c r="E18">
-        <v>6.4603513333333291</v>
+        <v>7.6251809999999987</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>15.878956619166884</v>
+        <v>13.415492792414707</v>
       </c>
       <c r="E19">
-        <v>6.2976429999999999</v>
+        <v>7.4540683333333302</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,10 +872,10 @@
         <v>42</v>
       </c>
       <c r="D20">
-        <v>15.588051121577971</v>
+        <v>13.164123760963808</v>
       </c>
       <c r="E20">
-        <v>6.4151701338452538</v>
+        <v>7.596403818120784</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>16.600150741708223</v>
+        <v>14.052503611685667</v>
       </c>
       <c r="E21">
-        <v>6.0240416822690612</v>
+        <v>7.1161696707797182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,10 +906,10 @@
         <v>41</v>
       </c>
       <c r="D22">
-        <v>15.627770200816762</v>
+        <v>13.169281271447256</v>
       </c>
       <c r="E22">
-        <v>6.3988655268794297</v>
+        <v>7.5934288241540733</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,10 +923,10 @@
         <v>40</v>
       </c>
       <c r="D23">
-        <v>15.935353971091136</v>
+        <v>13.389963037075068</v>
       </c>
       <c r="E23">
-        <v>6.275354797980226</v>
+        <v>7.4682805115378574</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,10 +940,10 @@
         <v>43</v>
       </c>
       <c r="D24">
-        <v>16.053610913008196</v>
+        <v>13.601246536530345</v>
       </c>
       <c r="E24">
-        <v>6.2291281719659892</v>
+        <v>7.3522672889884859</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,10 +957,10 @@
         <v>44</v>
       </c>
       <c r="D25">
-        <v>16.586030678461768</v>
+        <v>14.012871270968143</v>
       </c>
       <c r="E25">
-        <v>6.0291700852728836</v>
+        <v>7.1362961998502001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,10 +974,10 @@
         <v>42</v>
       </c>
       <c r="D26">
-        <v>16.705806047201047</v>
+        <v>14.108068841754609</v>
       </c>
       <c r="E26">
-        <v>5.9859428343329997</v>
+        <v>7.0881423334168456</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>17.673409740549992</v>
+        <v>14.961048129875151</v>
       </c>
       <c r="E27">
-        <v>5.6582177105620604</v>
+        <v>6.6840236814901877</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,10 +1008,10 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>16.612198608178737</v>
+        <v>13.998843929559232</v>
       </c>
       <c r="E28">
-        <v>6.0196727933873051</v>
+        <v>7.143447023424927</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,10 +1025,10 @@
         <v>40</v>
       </c>
       <c r="D29">
-        <v>17.053754288933106</v>
+        <v>14.329718686289029</v>
       </c>
       <c r="E29">
-        <v>5.8638114696477226</v>
+        <v>6.9785040578418371</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,10 +1042,10 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>17.047447471123096</v>
+        <v>14.443263707445109</v>
       </c>
       <c r="E30">
-        <v>5.8659808261261031</v>
+        <v>6.923642884707057</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,10 +1059,10 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>17.511657403677376</v>
+        <v>14.794896120485486</v>
       </c>
       <c r="E31">
-        <v>5.7104817490890625</v>
+        <v>6.7590876735887857</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,10 +1076,10 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>17.406449175821805</v>
+        <v>14.699762619603785</v>
       </c>
       <c r="E32">
-        <v>5.7449970979091853</v>
+        <v>6.8028309427690186</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>18.524906340864931</v>
+        <v>15.68186441868148</v>
       </c>
       <c r="E33">
-        <v>5.3981379533026557</v>
+        <v>6.3767927926268815</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1102,10 +1110,10 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>17.290533638626332</v>
+        <v>14.570466412962094</v>
       </c>
       <c r="E34">
-        <v>5.7835114918954353</v>
+        <v>6.8631982783364149</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1119,10 +1127,10 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>17.743029173162952</v>
+        <v>14.908894099584845</v>
       </c>
       <c r="E35">
-        <v>5.6360162080584324</v>
+        <v>6.7074056152015062</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,10 +1144,10 @@
         <v>43</v>
       </c>
       <c r="D36">
-        <v>17.850602965143235</v>
+        <v>15.123728429091322</v>
       </c>
       <c r="E36">
-        <v>5.6020516615191873</v>
+        <v>6.61212613469338</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1153,10 +1161,10 @@
         <v>44</v>
       </c>
       <c r="D37">
-        <v>18.286026481124285</v>
+        <v>15.449129457493175</v>
       </c>
       <c r="E37">
-        <v>5.4686566326054926</v>
+        <v>6.4728566276268564</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,10 +1178,10 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>18.380625908864392</v>
+        <v>15.522455782386139</v>
       </c>
       <c r="E38">
-        <v>5.4405111390561069</v>
+        <v>6.4422795852621091</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>19.481473259766517</v>
+        <v>16.491625745059672</v>
       </c>
       <c r="E39">
-        <v>5.1330820142089442</v>
+        <v>6.0636835655791295</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,10 +1212,10 @@
         <v>41</v>
       </c>
       <c r="D40">
-        <v>18.076592561576323</v>
+        <v>15.232866161565916</v>
       </c>
       <c r="E40">
-        <v>5.5320160400450913</v>
+        <v>6.5647527483902053</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,10 +1229,10 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>18.661834486486502</v>
+        <v>15.680936515836743</v>
       </c>
       <c r="E41">
-        <v>5.3585300026325111</v>
+        <v>6.3771701326005878</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1238,10 +1246,10 @@
         <v>43</v>
       </c>
       <c r="D42">
-        <v>18.855666982817301</v>
+        <v>15.975257942510872</v>
       </c>
       <c r="E42">
-        <v>5.3034453828192607</v>
+        <v>6.2596798348961595</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,10 +1263,10 @@
         <v>44</v>
       </c>
       <c r="D43">
-        <v>19.192762540948575</v>
+        <v>16.215194342418432</v>
       </c>
       <c r="E43">
-        <v>5.2102973600931985</v>
+        <v>6.1670552870527855</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,10 +1280,10 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>19.641106663164326</v>
+        <v>16.586932959071046</v>
       </c>
       <c r="E44">
-        <v>5.0913628093850631</v>
+        <v>6.0288421160653511</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>20.834342240826992</v>
+        <v>17.63686813100523</v>
       </c>
       <c r="E45">
-        <v>4.7997675589700135</v>
+        <v>5.6699409020472391</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,10 +1314,10 @@
         <v>41</v>
       </c>
       <c r="D46">
-        <v>19.207808962531473</v>
+        <v>16.186124801258099</v>
       </c>
       <c r="E46">
-        <v>5.2062158778791083</v>
+        <v>6.1781310367894413</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1323,10 +1331,10 @@
         <v>40</v>
       </c>
       <c r="D47">
-        <v>19.851446220764817</v>
+        <v>16.680528817291389</v>
       </c>
       <c r="E47">
-        <v>5.0374163619071224</v>
+        <v>5.9950137729649127</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1340,10 +1348,10 @@
         <v>43</v>
       </c>
       <c r="D48">
-        <v>20.144895112515567</v>
+        <v>17.067542396698521</v>
       </c>
       <c r="E48">
-        <v>4.9640367667078227</v>
+        <v>5.859074357380452</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,10 +1365,10 @@
         <v>44</v>
       </c>
       <c r="D49">
-        <v>20.593228291918102</v>
+        <v>17.398391616569125</v>
       </c>
       <c r="E49">
-        <v>4.8559652028548346</v>
+        <v>5.74765772629042</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,10 +1382,10 @@
         <v>42</v>
       </c>
       <c r="D50">
-        <v>21.268640383808421</v>
+        <v>17.961386709356923</v>
       </c>
       <c r="E50">
-        <v>4.701757996535072</v>
+        <v>5.5674988584208451</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>22.474577930147245</v>
+        <v>19.025374675724514</v>
       </c>
       <c r="E51">
-        <v>4.4494717680931704</v>
+        <v>5.2561382734604072</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1408,10 +1416,10 @@
         <v>41</v>
       </c>
       <c r="D52">
-        <v>20.724758874487762</v>
+        <v>17.46443513014977</v>
       </c>
       <c r="E52">
-        <v>4.8251466087308881</v>
+        <v>5.7259223819592515</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1425,10 +1433,10 @@
         <v>40</v>
       </c>
       <c r="D53">
-        <v>21.5354924045747</v>
+        <v>18.095578410469496</v>
       </c>
       <c r="E53">
-        <v>4.6434972612354759</v>
+        <v>5.5262118585910107</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1442,10 +1450,10 @@
         <v>43</v>
       </c>
       <c r="D54">
-        <v>21.728735702403039</v>
+        <v>18.409434040538446</v>
       </c>
       <c r="E54">
-        <v>4.6022005775946155</v>
+        <v>5.4319975171314479</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1459,10 +1467,10 @@
         <v>44</v>
       </c>
       <c r="D55">
-        <v>22.261217411021867</v>
+        <v>18.807608641455534</v>
       </c>
       <c r="E55">
-        <v>4.4921173066881996</v>
+        <v>5.3169970678558807</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,10 +1484,10 @@
         <v>42</v>
       </c>
       <c r="D56">
-        <v>23.755316807869143</v>
+        <v>20.061387276746164</v>
       </c>
       <c r="E56">
-        <v>4.2095839347793573</v>
+        <v>4.9847001416454084</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>25.044511879092795</v>
+        <v>21.200897456286608</v>
       </c>
       <c r="E57">
-        <v>3.9928907571754344</v>
+        <v>4.7167814573032354</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,10 +1518,10 @@
         <v>41</v>
       </c>
       <c r="D58">
-        <v>23.197129197946758</v>
+        <v>19.547863525782876</v>
       </c>
       <c r="E58">
-        <v>4.3108782619899051</v>
+        <v>5.1156485652820249</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59">
-        <v>24.025376955253105</v>
+        <v>20.187747944993195</v>
       </c>
       <c r="E59">
-        <v>4.1622655988394461</v>
+        <v>4.9534995321160231</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,10 +1552,10 @@
         <v>43</v>
       </c>
       <c r="D60">
-        <v>24.245569926176369</v>
+        <v>20.541794352160295</v>
       </c>
       <c r="E60">
-        <v>4.1244648116947946</v>
+        <v>4.8681238983138497</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,10 +1569,10 @@
         <v>44</v>
       </c>
       <c r="D61">
-        <v>24.735645806957777</v>
+        <v>20.898153826959426</v>
       </c>
       <c r="E61">
-        <v>4.0427487028404752</v>
+        <v>4.7851116815398376</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1578,10 +1586,10 @@
         <v>42</v>
       </c>
       <c r="D62">
-        <v>27.45209426563158</v>
+        <v>23.183319299624952</v>
       </c>
       <c r="E62">
-        <v>3.6427093332982676</v>
+        <v>4.3134461768646633</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1595,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>28.610324154380923</v>
+        <v>24.219459796879132</v>
       </c>
       <c r="E63">
-        <v>3.4952417686846662</v>
+        <v>4.1289112489984516</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,10 +1620,10 @@
         <v>41</v>
       </c>
       <c r="D64">
-        <v>26.544204870490187</v>
+        <v>22.368392648116608</v>
       </c>
       <c r="E64">
-        <v>3.7673006401172082</v>
+        <v>4.4705939122728999</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1629,10 +1637,10 @@
         <v>40</v>
       </c>
       <c r="D65">
-        <v>27.411426496442118</v>
+        <v>23.032935964065569</v>
       </c>
       <c r="E65">
-        <v>3.64811368036536</v>
+        <v>4.3416089097809003</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1646,10 +1654,10 @@
         <v>43</v>
       </c>
       <c r="D66">
-        <v>27.835194102446611</v>
+        <v>23.583064235895908</v>
       </c>
       <c r="E66">
-        <v>3.5925741933737898</v>
+        <v>4.240331069776313</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1663,10 +1671,10 @@
         <v>44</v>
       </c>
       <c r="D67">
-        <v>28.630981464017569</v>
+        <v>24.189166497668733</v>
       </c>
       <c r="E67">
-        <v>3.4927199448498314</v>
+        <v>4.1340820904117406</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1680,10 +1688,10 @@
         <v>42</v>
       </c>
       <c r="D68">
-        <v>30.240542608844223</v>
+        <v>25.538166535165058</v>
       </c>
       <c r="E68">
-        <v>3.306818971255951</v>
+        <v>3.9157078822516058</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1697,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>31.52009333233957</v>
+        <v>26.682662843565911</v>
       </c>
       <c r="E69">
-        <v>3.1725794383165784</v>
+        <v>3.7477518861695382</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1714,10 +1722,10 @@
         <v>41</v>
       </c>
       <c r="D70">
-        <v>29.5297831497851</v>
+        <v>24.884293484430625</v>
       </c>
       <c r="E70">
-        <v>3.3864115930945378</v>
+        <v>4.0185991240847194</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1731,10 +1739,10 @@
         <v>40</v>
       </c>
       <c r="D71">
-        <v>30.328263254613162</v>
+        <v>25.483859642820718</v>
       </c>
       <c r="E71">
-        <v>3.2972544177843495</v>
+        <v>3.9240523767431701</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1748,10 +1756,10 @@
         <v>43</v>
       </c>
       <c r="D72">
-        <v>30.542662953211906</v>
+        <v>25.876937653458064</v>
       </c>
       <c r="E72">
-        <v>3.2741087492334673</v>
+        <v>3.8644449099500191</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1765,10 +1773,10 @@
         <v>44</v>
       </c>
       <c r="D73">
-        <v>31.471351001213151</v>
+        <v>26.588880658235592</v>
       </c>
       <c r="E73">
-        <v>3.1774930792181508</v>
+        <v>3.760970658575888</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,10 +1790,10 @@
         <v>42</v>
       </c>
       <c r="D74">
-        <v>33.472495946633579</v>
+        <v>28.267554153699649</v>
       </c>
       <c r="E74">
-        <v>2.9875274362399997</v>
+        <v>3.5376247784392065</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>34.968531149039336</v>
+        <v>29.601864339254274</v>
       </c>
       <c r="E75">
-        <v>2.8597140547250932</v>
+        <v>3.3781656065287944</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1816,10 +1824,10 @@
         <v>41</v>
       </c>
       <c r="D76">
-        <v>32.965043129741304</v>
+        <v>27.779134164531307</v>
       </c>
       <c r="E76">
-        <v>3.033516431524983</v>
+        <v>3.5998242208600248</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1833,10 +1841,10 @@
         <v>40</v>
       </c>
       <c r="D77">
-        <v>34.04031201813428</v>
+        <v>28.602974274697612</v>
       </c>
       <c r="E77">
-        <v>2.9376934014801934</v>
+        <v>3.4961399132698125</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1850,10 +1858,10 @@
         <v>43</v>
       </c>
       <c r="D78">
-        <v>33.944903099697278</v>
+        <v>28.759448464239732</v>
       </c>
       <c r="E78">
-        <v>2.9459503745318338</v>
+        <v>3.477118141689771</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1867,10 +1875,10 @@
         <v>44</v>
       </c>
       <c r="D79">
-        <v>34.92509816767955</v>
+        <v>29.506812946218865</v>
       </c>
       <c r="E79">
-        <v>2.8632704057090437</v>
+        <v>3.3890478169318672</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1884,10 +1892,10 @@
         <v>42</v>
       </c>
       <c r="D80">
-        <v>37.080883267610204</v>
+        <v>31.314840623338863</v>
       </c>
       <c r="E80">
-        <v>2.6968073893576596</v>
+        <v>3.1933740683154008</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1901,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>38.377598916382659</v>
+        <v>32.48773795922741</v>
       </c>
       <c r="E81">
-        <v>2.6056867241194688</v>
+        <v>3.0780844183581348</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,10 +1926,10 @@
         <v>41</v>
       </c>
       <c r="D82">
-        <v>36.305865130450101</v>
+        <v>30.594393413920187</v>
       </c>
       <c r="E82">
-        <v>2.7543759015434941</v>
+        <v>3.2685727298813139</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1935,10 +1943,10 @@
         <v>40</v>
       </c>
       <c r="D83">
-        <v>37.516315775672794</v>
+        <v>31.523747915158378</v>
       </c>
       <c r="E83">
-        <v>2.6655069383130723</v>
+        <v>3.1722116376877385</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,10 +1960,10 @@
         <v>43</v>
       </c>
       <c r="D84">
-        <v>37.345234165283237</v>
+        <v>31.640341827077023</v>
       </c>
       <c r="E84">
-        <v>2.6777178463366469</v>
+        <v>3.16052211276752</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1969,10 +1977,10 @@
         <v>44</v>
       </c>
       <c r="D85">
-        <v>38.582635863396348</v>
+        <v>32.596919668699996</v>
       </c>
       <c r="E85">
-        <v>2.5918395092044704</v>
+        <v>3.0677745325740502</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1986,10 +1994,10 @@
         <v>42</v>
       </c>
       <c r="D86">
-        <v>42.160490797152207</v>
+        <v>35.604573936020316</v>
       </c>
       <c r="E86">
-        <v>2.3718888966718255</v>
+        <v>2.8086279077428404</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>43.298497903338237</v>
+        <v>36.653420058317657</v>
       </c>
       <c r="E87">
-        <v>2.3095489414724057</v>
+        <v>2.728258368274894</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2020,10 +2028,10 @@
         <v>41</v>
       </c>
       <c r="D88">
-        <v>41.254679454362332</v>
+        <v>34.764683030052446</v>
       </c>
       <c r="E88">
-        <v>2.423967446180844</v>
+        <v>2.8764824322878098</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2037,10 +2045,10 @@
         <v>40</v>
       </c>
       <c r="D89">
-        <v>42.150026675585373</v>
+        <v>35.41730545940117</v>
       </c>
       <c r="E89">
-        <v>2.3724777393301903</v>
+        <v>2.8234784860929052</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,10 +2062,10 @@
         <v>43</v>
       </c>
       <c r="D90">
-        <v>42.38645122189957</v>
+        <v>35.91145792692226</v>
       </c>
       <c r="E90">
-        <v>2.3592444547075826</v>
+        <v>2.7846265724854229</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2071,10 +2079,10 @@
         <v>44</v>
       </c>
       <c r="D91">
-        <v>43.63128131164833</v>
+        <v>36.862317468246054</v>
       </c>
       <c r="E91">
-        <v>2.2919336080396704</v>
+        <v>2.7127974275123106</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2088,10 +2096,10 @@
         <v>42</v>
       </c>
       <c r="D92">
-        <v>45.952176468609146</v>
+        <v>38.806656034188308</v>
       </c>
       <c r="E92">
-        <v>2.1761754868849796</v>
+        <v>2.5768775313157857</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2105,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>46.937825815812943</v>
+        <v>39.73421549384733</v>
       </c>
       <c r="E93">
-        <v>2.1304778877574444</v>
+        <v>2.5167226471473825</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2122,10 +2130,10 @@
         <v>41</v>
       </c>
       <c r="D94">
-        <v>45.425722854141689</v>
+        <v>38.279557066544044</v>
       </c>
       <c r="E94">
-        <v>2.2013958989951989</v>
+        <v>2.6123604258576707</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2139,10 +2147,10 @@
         <v>40</v>
       </c>
       <c r="D95">
-        <v>45.89407695893636</v>
+        <v>38.563309934354635</v>
       </c>
       <c r="E95">
-        <v>2.1789304116405872</v>
+        <v>2.5931384046189896</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2156,10 +2164,10 @@
         <v>43</v>
       </c>
       <c r="D96">
-        <v>46.270435034131864</v>
+        <v>39.202120797744605</v>
       </c>
       <c r="E96">
-        <v>2.1612072574254806</v>
+        <v>2.5508824003662895</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2173,10 +2181,10 @@
         <v>44</v>
       </c>
       <c r="D97">
-        <v>47.583992931958818</v>
+        <v>40.201804786245376</v>
       </c>
       <c r="E97">
-        <v>2.1015470505594545</v>
+        <v>2.4874505145155559</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2190,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="D98">
-        <v>48.666845195121816</v>
+        <v>41.099196314375256</v>
       </c>
       <c r="E98">
-        <v>2.0547869827819381</v>
+        <v>2.4331376028640985</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2207,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>49.84597967556526</v>
+        <v>42.19605112735325</v>
       </c>
       <c r="E99">
-        <v>2.0061798494256595</v>
+        <v>2.3698900093325515</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2224,10 +2232,10 @@
         <v>41</v>
       </c>
       <c r="D100">
-        <v>48.70244597430306</v>
+        <v>41.040801176455773</v>
       </c>
       <c r="E100">
-        <v>2.0532849634033399</v>
+        <v>2.4365996065731741</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2241,10 +2249,10 @@
         <v>40</v>
       </c>
       <c r="D101">
-        <v>49.450102371193779</v>
+        <v>41.551323185607579</v>
       </c>
       <c r="E101">
-        <v>2.0222405051734151</v>
+        <v>2.4066622271763825</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2258,10 +2266,10 @@
         <v>43</v>
       </c>
       <c r="D102">
-        <v>49.156722849025684</v>
+        <v>41.647496629916063</v>
       </c>
       <c r="E102">
-        <v>2.0343097384080813</v>
+        <v>2.4011047023692753</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,10 +2283,10 @@
         <v>44</v>
       </c>
       <c r="D103">
-        <v>49.821184423018735</v>
+        <v>42.091918037599577</v>
       </c>
       <c r="E103">
-        <v>2.0071782948981296</v>
+        <v>2.3757529868482758</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,10 +2300,10 @@
         <v>42</v>
       </c>
       <c r="D104">
-        <v>52.289466993285849</v>
+        <v>44.158503813321218</v>
       </c>
       <c r="E104">
-        <v>1.9124310449146544</v>
+        <v>2.2645694795898672</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2309,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>53.059034176188192</v>
+        <v>44.915993896372974</v>
       </c>
       <c r="E105">
-        <v>1.8846931828411975</v>
+        <v>2.2263784306034275</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2326,10 +2334,10 @@
         <v>41</v>
       </c>
       <c r="D106">
-        <v>52.189342698403713</v>
+        <v>43.979155345610991</v>
       </c>
       <c r="E106">
-        <v>1.9161000087295341</v>
+        <v>2.2738044697345408</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2343,10 +2351,10 @@
         <v>40</v>
       </c>
       <c r="D107">
-        <v>52.686556413021954</v>
+        <v>44.270810940312543</v>
       </c>
       <c r="E107">
-        <v>1.8980173844742698</v>
+        <v>2.2588246719678007</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2360,10 +2368,10 @@
         <v>43</v>
       </c>
       <c r="D108">
-        <v>52.713278648312958</v>
+        <v>44.660749692367958</v>
       </c>
       <c r="E108">
-        <v>1.897055211973623</v>
+        <v>2.2391025831142488</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2377,10 +2385,10 @@
         <v>44</v>
       </c>
       <c r="D109">
-        <v>53.52024559029465</v>
+        <v>45.217106273732867</v>
       </c>
       <c r="E109">
-        <v>1.868451814767718</v>
+        <v>2.2115524021954309</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2394,10 +2402,10 @@
         <v>42</v>
       </c>
       <c r="D110">
-        <v>57.958479148145521</v>
+        <v>48.945989883704755</v>
       </c>
       <c r="E110">
-        <v>1.7253730855220288</v>
+        <v>2.0430682929816957</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2411,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>58.302495682622286</v>
+        <v>49.354734417672454</v>
       </c>
       <c r="E111">
-        <v>1.7151924429507075</v>
+        <v>2.0261480723152872</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2428,10 +2436,10 @@
         <v>41</v>
       </c>
       <c r="D112">
-        <v>58.215953503623489</v>
+        <v>49.057687457846328</v>
       </c>
       <c r="E112">
-        <v>1.7177421992027628</v>
+        <v>2.0384165088484196</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,10 +2453,10 @@
         <v>40</v>
       </c>
       <c r="D113">
-        <v>58.127238206090524</v>
+        <v>48.842440051145985</v>
       </c>
       <c r="E113">
-        <v>1.7203638618688419</v>
+        <v>2.0473997592111228</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2462,10 +2470,10 @@
         <v>43</v>
       </c>
       <c r="D114">
-        <v>58.440103412332512</v>
+        <v>49.512739435299963</v>
       </c>
       <c r="E114">
-        <v>1.7111537139904716</v>
+        <v>2.0196822300788573</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,10 +2487,10 @@
         <v>44</v>
       </c>
       <c r="D115">
-        <v>58.429399697632903</v>
+        <v>49.364653440928592</v>
       </c>
       <c r="E115">
-        <v>1.7114671812048621</v>
+        <v>2.0257409508539013</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2496,10 +2504,10 @@
         <v>42</v>
       </c>
       <c r="D116">
-        <v>65.534199271549724</v>
+        <v>55.343692618004063</v>
       </c>
       <c r="E116">
-        <v>1.5259208338784551</v>
+        <v>1.8068906368468196</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>64.899791096174127</v>
+        <v>54.939534162494198</v>
       </c>
       <c r="E117">
-        <v>1.5408370090407739</v>
+        <v>1.820182888777885</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,10 +2538,10 @@
         <v>41</v>
       </c>
       <c r="D118">
-        <v>66.017627619108168</v>
+        <v>55.632038084631048</v>
       </c>
       <c r="E118">
-        <v>1.5147469487536682</v>
+        <v>1.7975253728413392</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -2547,10 +2555,10 @@
         <v>40</v>
       </c>
       <c r="D119">
-        <v>66.01524298759621</v>
+        <v>55.470475591005432</v>
       </c>
       <c r="E119">
-        <v>1.5148016651061829</v>
+        <v>1.8027608188781252</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2564,10 +2572,10 @@
         <v>43</v>
       </c>
       <c r="D120">
-        <v>66.02524816245807</v>
+        <v>55.939170493133211</v>
       </c>
       <c r="E120">
-        <v>1.5145721187438106</v>
+        <v>1.7876561114233087</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2581,10 +2589,10 @@
         <v>44</v>
       </c>
       <c r="D121">
-        <v>65.120776137993204</v>
+        <v>55.017928688159351</v>
       </c>
       <c r="E121">
-        <v>1.5356082333554577</v>
+        <v>1.8175893274135824</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -2598,10 +2606,10 @@
         <v>42</v>
       </c>
       <c r="D122">
-        <v>73.725255938557154</v>
+        <v>62.26104763926719</v>
       </c>
       <c r="E122">
-        <v>1.3563872885479067</v>
+        <v>1.6061406576289503</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2615,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>73.007323735464453</v>
+        <v>61.802793024911175</v>
       </c>
       <c r="E123">
-        <v>1.369725595781885</v>
+        <v>1.6180498502663541</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2632,10 +2640,10 @@
         <v>41</v>
       </c>
       <c r="D124">
-        <v>73.301568029099798</v>
+        <v>61.770102491197974</v>
       </c>
       <c r="E124">
-        <v>1.3642272967517048</v>
+        <v>1.6189061692790563</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2649,10 +2657,10 @@
         <v>40</v>
       </c>
       <c r="D125">
-        <v>73.636394987214203</v>
+        <v>61.874283360819803</v>
       </c>
       <c r="E125">
-        <v>1.3580241131761464</v>
+        <v>1.6161803348387911</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,10 +2674,10 @@
         <v>43</v>
       </c>
       <c r="D126">
-        <v>73.93195437152184</v>
+        <v>62.638040985518899</v>
       </c>
       <c r="E126">
-        <v>1.3525951105996925</v>
+        <v>1.5964739386265081</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,10 +2691,10 @@
         <v>44</v>
       </c>
       <c r="D127">
-        <v>73.402424790777587</v>
+        <v>62.014761066719565</v>
       </c>
       <c r="E127">
-        <v>1.3623528144340564</v>
+        <v>1.612519314432469</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,10 +2708,10 @@
         <v>42</v>
       </c>
       <c r="D128">
-        <v>80.448973159712494</v>
+        <v>67.939233125231411</v>
       </c>
       <c r="E128">
-        <v>1.2430239451468639</v>
+        <v>1.4719035732368577</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2717,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>79.981345473702476</v>
+        <v>67.706502406195938</v>
       </c>
       <c r="E129">
-        <v>1.2502915449563119</v>
+        <v>1.476963016049236</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -2734,10 +2742,10 @@
         <v>41</v>
       </c>
       <c r="D130">
-        <v>79.859148222771793</v>
+        <v>67.296074329843563</v>
       </c>
       <c r="E130">
-        <v>1.2522046907017355</v>
+        <v>1.485970779065984</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -2751,10 +2759,10 @@
         <v>40</v>
       </c>
       <c r="D131">
-        <v>80.22303013632046</v>
+        <v>67.408820048566383</v>
       </c>
       <c r="E131">
-        <v>1.2465248424308228</v>
+        <v>1.4834853944625122</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -2768,10 +2776,10 @@
         <v>43</v>
       </c>
       <c r="D132">
-        <v>80.583888781280933</v>
+        <v>68.273819773371017</v>
       </c>
       <c r="E132">
-        <v>1.2409428424510247</v>
+        <v>1.4646902770628811</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -2785,10 +2793,10 @@
         <v>44</v>
       </c>
       <c r="D133">
-        <v>81.256034995950074</v>
+        <v>68.649960949736425</v>
       </c>
       <c r="E133">
-        <v>1.2306778198688153</v>
+        <v>1.4566650674895094</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -2802,10 +2810,10 @@
         <v>42</v>
       </c>
       <c r="D134">
-        <v>87.649457623299583</v>
+        <v>74.020048993633708</v>
       </c>
       <c r="E134">
-        <v>1.1409083719579949</v>
+        <v>1.3509853257270981</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -2819,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>88.295942715165523</v>
+        <v>74.74504739192345</v>
       </c>
       <c r="E135">
-        <v>1.1325548708686499</v>
+        <v>1.337881284303065</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -2836,10 +2844,10 @@
         <v>41</v>
       </c>
       <c r="D136">
-        <v>87.934476990104272</v>
+        <v>74.101029517299068</v>
       </c>
       <c r="E136">
-        <v>1.1372103800794029</v>
+        <v>1.3495089157520375</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -2853,10 +2861,10 @@
         <v>40</v>
       </c>
       <c r="D137">
-        <v>87.911195042758877</v>
+        <v>73.868936598653875</v>
       </c>
       <c r="E137">
-        <v>1.1375115530093896</v>
+        <v>1.3537490128404301</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -2870,10 +2878,10 @@
         <v>43</v>
       </c>
       <c r="D138">
-        <v>88.465988485456037</v>
+        <v>74.951842673199096</v>
       </c>
       <c r="E138">
-        <v>1.1303779193790411</v>
+        <v>1.3341900136600311</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -2887,111 +2895,213 @@
         <v>44</v>
       </c>
       <c r="D139">
-        <v>88.760869211968185</v>
+        <v>74.990494005398929</v>
       </c>
       <c r="E139">
-        <v>1.1266225859189354</v>
+        <v>1.3335023502152221</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140" s="9">
         <v>2022</v>
       </c>
-      <c r="B140" s="2">
-        <v>1</v>
-      </c>
-      <c r="C140" s="2">
+      <c r="B140" s="9">
+        <v>1</v>
+      </c>
+      <c r="C140" s="9">
         <v>42</v>
       </c>
       <c r="D140">
+        <v>84.450093589577662</v>
+      </c>
+      <c r="E140">
+        <v>1.1841313105701687</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B141" s="9">
+        <v>1</v>
+      </c>
+      <c r="C141" s="9">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>84.652867497030982</v>
+      </c>
+      <c r="E141">
+        <v>1.1812948923851549</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B142" s="9">
+        <v>1</v>
+      </c>
+      <c r="C142" s="9">
+        <v>41</v>
+      </c>
+      <c r="D142">
+        <v>84.268459941642746</v>
+      </c>
+      <c r="E142">
+        <v>1.1866836070013809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B143" s="9">
+        <v>1</v>
+      </c>
+      <c r="C143" s="9">
+        <v>40</v>
+      </c>
+      <c r="D143">
+        <v>84.026768789486908</v>
+      </c>
+      <c r="E143">
+        <v>1.1900969350675734</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B144" s="9">
+        <v>1</v>
+      </c>
+      <c r="C144" s="9">
+        <v>43</v>
+      </c>
+      <c r="D144">
+        <v>84.723907974556013</v>
+      </c>
+      <c r="E144">
+        <v>1.1803043838585876</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B145" s="9">
+        <v>1</v>
+      </c>
+      <c r="C145" s="9">
+        <v>44</v>
+      </c>
+      <c r="D145">
+        <v>84.485984275700943</v>
+      </c>
+      <c r="E145">
+        <v>1.1836282770130555</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2">
+        <v>42</v>
+      </c>
+      <c r="D146" s="2">
         <v>100</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
         <v>2022</v>
       </c>
-      <c r="B141" s="2">
-        <v>1</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1</v>
-      </c>
-      <c r="D141">
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2">
         <v>100</v>
       </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>2022</v>
       </c>
-      <c r="B142" s="2">
-        <v>1</v>
-      </c>
-      <c r="C142" s="2">
+      <c r="B148" s="2">
+        <v>2</v>
+      </c>
+      <c r="C148" s="2">
         <v>41</v>
       </c>
-      <c r="D142">
+      <c r="D148" s="2">
         <v>100</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>2022</v>
       </c>
-      <c r="B143" s="2">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2">
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2">
         <v>40</v>
       </c>
-      <c r="D143">
+      <c r="D149" s="2">
         <v>100</v>
       </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
         <v>2022</v>
       </c>
-      <c r="B144" s="2">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="B150" s="2">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2">
         <v>43</v>
       </c>
-      <c r="D144">
+      <c r="D150" s="2">
         <v>100</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>2022</v>
       </c>
-      <c r="B145" s="2">
-        <v>1</v>
-      </c>
-      <c r="C145" s="2">
+      <c r="B151" s="2">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2">
         <v>44</v>
       </c>
-      <c r="D145">
+      <c r="D151" s="2">
         <v>100</v>
       </c>
-      <c r="E145">
+      <c r="E151" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3367,7 +3477,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3815,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F66E2-4C5F-42E4-9FC1-CC523E613718}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5259,7 +5369,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44136</v>
       </c>
@@ -5289,7 +5399,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>44166</v>
       </c>
@@ -5319,7 +5429,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>44197</v>
       </c>
@@ -5349,7 +5459,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>44228</v>
       </c>
@@ -5379,7 +5489,7 @@
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44256</v>
       </c>
@@ -5404,12 +5514,15 @@
       <c r="J53" s="4"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>44287</v>
       </c>
@@ -5439,7 +5552,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>44317</v>
       </c>
@@ -5469,7 +5582,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>44348</v>
       </c>
@@ -5499,7 +5612,7 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>44378</v>
       </c>
@@ -5529,7 +5642,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>44409</v>
       </c>
@@ -5559,7 +5672,7 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>44440</v>
       </c>
@@ -5589,7 +5702,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>44470</v>
       </c>
@@ -5619,7 +5732,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>44501</v>
       </c>
@@ -5649,7 +5762,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>44531</v>
       </c>
@@ -5679,7 +5792,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>44562</v>
       </c>
@@ -5704,12 +5817,15 @@
       <c r="J63" s="4"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>44593</v>
       </c>
@@ -5739,7 +5855,7 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>44621</v>
       </c>
@@ -5764,12 +5880,15 @@
       <c r="J65" s="4"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>44652</v>
       </c>
@@ -5799,7 +5918,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>44682</v>
       </c>
@@ -5829,6 +5948,188 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
     </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B68" s="10">
+        <v>776.67010000000005</v>
+      </c>
+      <c r="C68" s="11">
+        <v>801.44709999999998</v>
+      </c>
+      <c r="D68" s="12">
+        <v>818.41099999999994</v>
+      </c>
+      <c r="E68" s="13">
+        <v>826.48220000000003</v>
+      </c>
+      <c r="F68" s="14">
+        <v>827.99720000000002</v>
+      </c>
+      <c r="G68" s="16">
+        <v>782.14200000000005</v>
+      </c>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B69" s="10">
+        <v>833.88940000000002</v>
+      </c>
+      <c r="C69" s="11">
+        <v>861.702</v>
+      </c>
+      <c r="D69" s="12">
+        <v>873.56240000000003</v>
+      </c>
+      <c r="E69" s="13">
+        <v>887.95740000000001</v>
+      </c>
+      <c r="F69" s="14">
+        <v>888.70169999999996</v>
+      </c>
+      <c r="G69" s="16">
+        <v>845.03970000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B70" s="10">
+        <v>891.851</v>
+      </c>
+      <c r="C70" s="11">
+        <v>921.38019999999995</v>
+      </c>
+      <c r="D70" s="12">
+        <v>940.04340000000002</v>
+      </c>
+      <c r="E70" s="13">
+        <v>955.64210000000003</v>
+      </c>
+      <c r="F70" s="14">
+        <v>946.05799999999999</v>
+      </c>
+      <c r="G70" s="16">
+        <v>899.46040000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B71" s="10">
+        <v>945.68359999999996</v>
+      </c>
+      <c r="C71" s="11">
+        <v>979.09519999999998</v>
+      </c>
+      <c r="D71" s="12">
+        <v>997.77850000000001</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1021.0723</v>
+      </c>
+      <c r="F71" s="14">
+        <v>1003.4171</v>
+      </c>
+      <c r="G71" s="16">
+        <v>954.60109999999997</v>
+      </c>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1007.6275000000001</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1039.2079000000001</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1060.4603999999999</v>
+      </c>
+      <c r="E72" s="13">
+        <v>1084.624</v>
+      </c>
+      <c r="F72" s="14">
+        <v>1063.4947999999999</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1017.5863000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1058.0026</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1090.4933000000001</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1108.8388</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1133.7592</v>
+      </c>
+      <c r="F73" s="14">
+        <v>1115.8732</v>
+      </c>
+      <c r="G73" s="16">
+        <v>1067.4854</v>
+      </c>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="10">
+        <v>1114.5359000000001</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1145.8755000000001</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1160.5028</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1188.0618999999999</v>
+      </c>
+      <c r="F74" s="14">
+        <v>1171.7081000000001</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1115.8851999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5836,10 +6137,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF1071-E167-42A5-ADAD-340C427255CA}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5872,21 +6173,21 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>90.012320696314347</v>
       </c>
       <c r="E2">
-        <f>D2*$E$130/$D$130</f>
-        <v>13.539397592761029</v>
+        <f>D2*$E$136/$D$136</f>
+        <v>11.434033938551714</v>
       </c>
       <c r="F2">
         <f>(1/E2)*100</f>
-        <v>7.3858529757236751</v>
+        <v>8.7458197638222543</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5897,21 +6198,21 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>95.472801304578311</v>
       </c>
       <c r="E3">
-        <f>D3*$E$130/$D$130</f>
-        <v>14.360747574973793</v>
+        <f>D3*$E$136/$D$136</f>
+        <v>12.127664767228373</v>
       </c>
       <c r="F3">
         <f>(1/E3)*100</f>
-        <v>6.9634257881022936</v>
+        <v>8.2456105045236807</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5928,12 +6229,12 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <f>D4*$E$130/$D$130</f>
-        <v>15.041715942910262</v>
+        <f>D4*$E$136/$D$136</f>
+        <v>12.702743191266141</v>
       </c>
       <c r="F4">
         <f>(1/E4)*100</f>
-        <v>6.6481776666666699</v>
+        <v>7.8723153333333311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5950,12 +6251,12 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <f>D5*$E$131/$D$131</f>
-        <v>15.993249569221824</v>
+        <f>D5*$E$137/$D$137</f>
+        <v>13.538744366302829</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F68" si="0">(1/E5)*100</f>
-        <v>6.2526379999999993</v>
+        <v>7.3862093333333299</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -5972,12 +6273,12 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <f>D6*$E$132/$D$132</f>
-        <v>15.069088758138319</v>
+        <f>D6*$E$138/$D$138</f>
+        <v>12.698489023722381</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>6.6361013333333299</v>
+        <v>7.8749526666666698</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -5994,12 +6295,12 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <f>D7*$E$133/$D$133</f>
-        <v>15.304409292143514</v>
+        <f>D7*$E$139/$D$139</f>
+        <v>12.859800610506181</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6.5340646666666693</v>
+        <v>7.7761703333333294</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6016,12 +6317,12 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <f>D8*$E$134/$D$134</f>
-        <v>15.479034318773385</v>
+        <f>D8*$E$140/$D$140</f>
+        <v>13.114442791587505</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>6.4603513333333291</v>
+        <v>7.6251809999999987</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6038,12 +6339,12 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <f>D9*$E$135/$D$135</f>
-        <v>15.878956619166884</v>
+        <f>D9*$E$141/$D$141</f>
+        <v>13.415492792414707</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>6.2976429999999999</v>
+        <v>7.4540683333333302</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -6059,13 +6360,13 @@
       <c r="D10">
         <v>103.632133333333</v>
       </c>
-      <c r="E10">
-        <f>D10*$E$130/$D$130</f>
-        <v>15.588051121577971</v>
+      <c r="E10" s="15">
+        <f>D10*$E$136/$D$136</f>
+        <v>13.164123760963808</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>6.4151701338452538</v>
+        <v>7.596403818120784</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -6081,13 +6382,13 @@
       <c r="D11">
         <v>103.794733333333</v>
       </c>
-      <c r="E11">
-        <f>D11*$E$131/$D$131</f>
-        <v>16.600150741708223</v>
+      <c r="E11" s="15">
+        <f>D11*$E$137/$D$137</f>
+        <v>14.052503611685667</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>6.0240416822690612</v>
+        <v>7.1161696707797182</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -6103,13 +6404,13 @@
       <c r="D12">
         <v>103.707466666667</v>
       </c>
-      <c r="E12">
-        <f>D12*$E$132/$D$132</f>
-        <v>15.627770200816762</v>
+      <c r="E12" s="15">
+        <f>D12*$E$138/$D$138</f>
+        <v>13.169281271447256</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>6.3988655268794297</v>
+        <v>7.5934288241540733</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -6125,13 +6426,13 @@
       <c r="D13">
         <v>104.122633333333</v>
       </c>
-      <c r="E13">
-        <f>D13*$E$133/$D$133</f>
-        <v>15.935353971091136</v>
+      <c r="E13" s="15">
+        <f>D13*$E$139/$D$139</f>
+        <v>13.389963037075068</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>6.275354797980226</v>
+        <v>7.4682805115378574</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6147,13 +6448,13 @@
       <c r="D14">
         <v>103.711966666667</v>
       </c>
-      <c r="E14">
-        <f>D14*$E$134/$D$134</f>
-        <v>16.053610913008196</v>
+      <c r="E14" s="15">
+        <f>D14*$E$140/$D$140</f>
+        <v>13.601246536530345</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>6.2291281719659892</v>
+        <v>7.3522672889884859</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -6169,13 +6470,13 @@
       <c r="D15">
         <v>104.4529</v>
       </c>
-      <c r="E15">
-        <f>D15*$E$135/$D$135</f>
-        <v>16.586030678461768</v>
+      <c r="E15" s="15">
+        <f>D15*$E$141/$D$141</f>
+        <v>14.012871270968143</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>6.0291700852728836</v>
+        <v>7.1362961998502001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -6191,13 +6492,13 @@
       <c r="D16">
         <v>111.063166666667</v>
       </c>
-      <c r="E16">
-        <f>D16*$E$130/$D$130</f>
-        <v>16.705806047201047</v>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16" si="1">D16*$E$136/$D$136</f>
+        <v>14.108068841754609</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>5.9859428343329997</v>
+        <v>7.0881423334168456</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6213,13 +6514,13 @@
       <c r="D17">
         <v>110.505433333333</v>
       </c>
-      <c r="E17">
-        <f>D17*$E$131/$D$131</f>
-        <v>17.673409740549992</v>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17" si="2">D17*$E$137/$D$137</f>
+        <v>14.961048129875151</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>5.6582177105620604</v>
+        <v>6.6840236814901877</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6235,13 +6536,13 @@
       <c r="D18">
         <v>110.24023333333299</v>
       </c>
-      <c r="E18">
-        <f>D18*$E$132/$D$132</f>
-        <v>16.612198608178737</v>
+      <c r="E18" s="15">
+        <f t="shared" ref="E18" si="3">D18*$E$138/$D$138</f>
+        <v>13.998843929559232</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>6.0196727933873051</v>
+        <v>7.143447023424927</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6257,13 +6558,13 @@
       <c r="D19">
         <v>111.430333333333</v>
       </c>
-      <c r="E19">
-        <f>D19*$E$133/$D$133</f>
-        <v>17.053754288933106</v>
+      <c r="E19" s="15">
+        <f t="shared" ref="E19" si="4">D19*$E$139/$D$139</f>
+        <v>14.329718686289029</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>5.8638114696477226</v>
+        <v>6.9785040578418371</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6279,13 +6580,13 @@
       <c r="D20">
         <v>110.13249999999999</v>
       </c>
-      <c r="E20">
-        <f>D20*$E$134/$D$134</f>
-        <v>17.047447471123096</v>
+      <c r="E20" s="15">
+        <f t="shared" ref="E20" si="5">D20*$E$140/$D$140</f>
+        <v>14.443263707445109</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>5.8659808261261031</v>
+        <v>6.923642884707057</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6301,13 +6602,13 @@
       <c r="D21">
         <v>110.282166666667</v>
       </c>
-      <c r="E21">
-        <f>D21*$E$135/$D$135</f>
-        <v>17.511657403677376</v>
+      <c r="E21" s="15">
+        <f t="shared" ref="E21" si="6">D21*$E$141/$D$141</f>
+        <v>14.794896120485486</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>5.7104817490890625</v>
+        <v>6.7590876735887857</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,13 +6624,13 @@
       <c r="D22">
         <v>115.721166666667</v>
       </c>
-      <c r="E22">
-        <f>D22*$E$130/$D$130</f>
-        <v>17.406449175821805</v>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22" si="7">D22*$E$136/$D$136</f>
+        <v>14.699762619603785</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>5.7449970979091853</v>
+        <v>6.8028309427690186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6345,13 +6646,13 @@
       <c r="D23">
         <v>115.829533333333</v>
       </c>
-      <c r="E23">
-        <f>D23*$E$131/$D$131</f>
-        <v>18.524906340864931</v>
+      <c r="E23" s="15">
+        <f t="shared" ref="E23" si="8">D23*$E$137/$D$137</f>
+        <v>15.68186441868148</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>5.3981379533026557</v>
+        <v>6.3767927926268815</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6367,13 +6668,13 @@
       <c r="D24">
         <v>114.741733333333</v>
       </c>
-      <c r="E24">
-        <f>D24*$E$132/$D$132</f>
-        <v>17.290533638626332</v>
+      <c r="E24" s="15">
+        <f t="shared" ref="E24" si="9">D24*$E$138/$D$138</f>
+        <v>14.570466412962094</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>5.7835114918954353</v>
+        <v>6.8631982783364149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6389,13 +6690,13 @@
       <c r="D25">
         <v>115.9341</v>
       </c>
-      <c r="E25">
-        <f>D25*$E$133/$D$133</f>
-        <v>17.743029173162952</v>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25" si="10">D25*$E$139/$D$139</f>
+        <v>14.908894099584845</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>5.6360162080584324</v>
+        <v>6.7074056152015062</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6411,13 +6712,13 @@
       <c r="D26">
         <v>115.321166666667</v>
       </c>
-      <c r="E26">
-        <f>D26*$E$134/$D$134</f>
-        <v>17.850602965143235</v>
+      <c r="E26" s="15">
+        <f t="shared" ref="E26" si="11">D26*$E$140/$D$140</f>
+        <v>15.123728429091322</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>5.6020516615191873</v>
+        <v>6.61212613469338</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6433,13 +6734,13 @@
       <c r="D27">
         <v>115.158866666667</v>
       </c>
-      <c r="E27">
-        <f>D27*$E$135/$D$135</f>
-        <v>18.286026481124285</v>
+      <c r="E27" s="15">
+        <f t="shared" ref="E27" si="12">D27*$E$141/$D$141</f>
+        <v>15.449129457493175</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>5.4686566326054926</v>
+        <v>6.4728566276268564</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6455,13 +6756,13 @@
       <c r="D28">
         <v>122.197666666667</v>
       </c>
-      <c r="E28">
-        <f>D28*$E$130/$D$130</f>
-        <v>18.380625908864392</v>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28:E88" si="13">D28*$E$136/$D$136</f>
+        <v>15.522455782386139</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>5.4405111390561069</v>
+        <v>6.4422795852621091</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6477,13 +6778,13 @@
       <c r="D29">
         <v>121.81059999999999</v>
       </c>
-      <c r="E29">
-        <f>D29*$E$131/$D$131</f>
-        <v>19.481473259766517</v>
+      <c r="E29" s="15">
+        <f t="shared" ref="E29:E89" si="14">D29*$E$137/$D$137</f>
+        <v>16.491625745059672</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>5.1330820142089442</v>
+        <v>6.0636835655791295</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6499,13 +6800,13 @@
       <c r="D30">
         <v>119.9581</v>
       </c>
-      <c r="E30">
-        <f>D30*$E$132/$D$132</f>
-        <v>18.076592561576323</v>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:E90" si="15">D30*$E$138/$D$138</f>
+        <v>15.232866161565916</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>5.5320160400450913</v>
+        <v>6.5647527483902053</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6521,13 +6822,13 @@
       <c r="D31">
         <v>121.937633333333</v>
       </c>
-      <c r="E31">
-        <f>D31*$E$133/$D$133</f>
-        <v>18.661834486486502</v>
+      <c r="E31" s="15">
+        <f t="shared" ref="E31:E91" si="16">D31*$E$139/$D$139</f>
+        <v>15.680936515836743</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>5.3585300026325111</v>
+        <v>6.3771701326005878</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,13 +6844,13 @@
       <c r="D32">
         <v>121.81423333333299</v>
       </c>
-      <c r="E32">
-        <f>D32*$E$134/$D$134</f>
-        <v>18.855666982817301</v>
+      <c r="E32" s="15">
+        <f t="shared" ref="E32:E92" si="17">D32*$E$140/$D$140</f>
+        <v>15.975257942510872</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>5.3034453828192607</v>
+        <v>6.2596798348961595</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6565,13 +6866,13 @@
       <c r="D33">
         <v>120.869166666667</v>
       </c>
-      <c r="E33">
-        <f>D33*$E$135/$D$135</f>
-        <v>19.192762540948575</v>
+      <c r="E33" s="15">
+        <f t="shared" ref="E33:E93" si="18">D33*$E$141/$D$141</f>
+        <v>16.215194342418432</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>5.2102973600931985</v>
+        <v>6.1670552870527855</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6587,13 +6888,13 @@
       <c r="D34">
         <v>130.577566666667</v>
       </c>
-      <c r="E34">
-        <f>D34*$E$130/$D$130</f>
-        <v>19.641106663164326</v>
+      <c r="E34" s="15">
+        <f t="shared" si="13"/>
+        <v>16.586932959071046</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>5.0913628093850631</v>
+        <v>6.0288421160653511</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6609,13 +6910,13 @@
       <c r="D35">
         <v>130.2696</v>
       </c>
-      <c r="E35">
-        <f>D35*$E$131/$D$131</f>
-        <v>20.834342240826992</v>
+      <c r="E35" s="15">
+        <f t="shared" si="14"/>
+        <v>17.63686813100523</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>4.7997675589700135</v>
+        <v>5.6699409020472391</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6631,13 +6932,13 @@
       <c r="D36">
         <v>127.464966666667</v>
       </c>
-      <c r="E36">
-        <f>D36*$E$132/$D$132</f>
-        <v>19.207808962531473</v>
+      <c r="E36" s="15">
+        <f t="shared" si="15"/>
+        <v>16.186124801258099</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>5.2062158778791083</v>
+        <v>6.1781310367894413</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6653,13 +6954,13 @@
       <c r="D37">
         <v>129.71063333333299</v>
       </c>
-      <c r="E37">
-        <f>D37*$E$133/$D$133</f>
-        <v>19.851446220764817</v>
+      <c r="E37" s="15">
+        <f t="shared" si="16"/>
+        <v>16.680528817291389</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>5.0374163619071224</v>
+        <v>5.9950137729649127</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6675,13 +6976,13 @@
       <c r="D38">
         <v>130.1431</v>
       </c>
-      <c r="E38">
-        <f>D38*$E$134/$D$134</f>
-        <v>20.144895112515567</v>
+      <c r="E38" s="15">
+        <f t="shared" si="17"/>
+        <v>17.067542396698521</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>4.9640367667078227</v>
+        <v>5.859074357380452</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6697,13 +6998,13 @@
       <c r="D39">
         <v>129.68879999999999</v>
       </c>
-      <c r="E39">
-        <f>D39*$E$135/$D$135</f>
-        <v>20.593228291918102</v>
+      <c r="E39" s="15">
+        <f t="shared" si="18"/>
+        <v>17.398391616569125</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>4.8559652028548346</v>
+        <v>5.74765772629042</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6719,13 +7020,13 @@
       <c r="D40">
         <v>141.39769999999999</v>
       </c>
-      <c r="E40">
-        <f>D40*$E$130/$D$130</f>
-        <v>21.268640383808421</v>
+      <c r="E40" s="15">
+        <f t="shared" si="13"/>
+        <v>17.961386709356923</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>4.701757996535072</v>
+        <v>5.5674988584208451</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6741,13 +7042,13 @@
       <c r="D41">
         <v>140.52539999999999</v>
       </c>
-      <c r="E41">
-        <f>D41*$E$131/$D$131</f>
-        <v>22.474577930147245</v>
+      <c r="E41" s="15">
+        <f t="shared" si="14"/>
+        <v>19.025374675724514</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>4.4494717680931704</v>
+        <v>5.2561382734604072</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6763,13 +7064,13 @@
       <c r="D42">
         <v>137.5316</v>
       </c>
-      <c r="E42">
-        <f>D42*$E$132/$D$132</f>
-        <v>20.724758874487762</v>
+      <c r="E42" s="15">
+        <f t="shared" si="15"/>
+        <v>17.46443513014977</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>4.8251466087308881</v>
+        <v>5.7259223819592515</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6785,13 +7086,13 @@
       <c r="D43">
         <v>140.71430000000001</v>
       </c>
-      <c r="E43">
-        <f>D43*$E$133/$D$133</f>
-        <v>21.5354924045747</v>
+      <c r="E43" s="15">
+        <f t="shared" si="16"/>
+        <v>18.095578410469496</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>4.6434972612354759</v>
+        <v>5.5262118585910107</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6807,13 +7108,13 @@
       <c r="D44">
         <v>140.37526666666699</v>
       </c>
-      <c r="E44">
-        <f>D44*$E$134/$D$134</f>
-        <v>21.728735702403039</v>
+      <c r="E44" s="15">
+        <f t="shared" si="17"/>
+        <v>18.409434040538446</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>4.6022005775946155</v>
+        <v>5.4319975171314479</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6829,13 +7130,13 @@
       <c r="D45">
         <v>140.19319999999999</v>
       </c>
-      <c r="E45">
-        <f>D45*$E$135/$D$135</f>
-        <v>22.261217411021867</v>
+      <c r="E45" s="15">
+        <f t="shared" si="18"/>
+        <v>18.807608641455534</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>4.4921173066881996</v>
+        <v>5.3169970678558807</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6851,13 +7152,13 @@
       <c r="D46">
         <v>157.929566666667</v>
       </c>
-      <c r="E46">
-        <f>D46*$E$130/$D$130</f>
-        <v>23.755316807869143</v>
+      <c r="E46" s="15">
+        <f t="shared" si="13"/>
+        <v>20.061387276746164</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>4.2095839347793573</v>
+        <v>4.9847001416454084</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6873,13 +7174,13 @@
       <c r="D47">
         <v>156.59426666666701</v>
       </c>
-      <c r="E47">
-        <f>D47*$E$131/$D$131</f>
-        <v>25.044511879092795</v>
+      <c r="E47" s="15">
+        <f t="shared" si="14"/>
+        <v>21.200897456286608</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>3.9928907571754344</v>
+        <v>4.7167814573032354</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -6895,13 +7196,13 @@
       <c r="D48">
         <v>153.9385</v>
       </c>
-      <c r="E48">
-        <f>D48*$E$132/$D$132</f>
-        <v>23.197129197946758</v>
+      <c r="E48" s="15">
+        <f t="shared" si="15"/>
+        <v>19.547863525782876</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>4.3108782619899051</v>
+        <v>5.1156485652820249</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6917,13 +7218,13 @@
       <c r="D49">
         <v>156.983366666667</v>
       </c>
-      <c r="E49">
-        <f>D49*$E$133/$D$133</f>
-        <v>24.025376955253105</v>
+      <c r="E49" s="15">
+        <f t="shared" si="16"/>
+        <v>20.187747944993195</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>4.1622655988394461</v>
+        <v>4.9534995321160231</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6939,13 +7240,13 @@
       <c r="D50">
         <v>156.63489999999999</v>
       </c>
-      <c r="E50">
-        <f>D50*$E$134/$D$134</f>
-        <v>24.245569926176369</v>
+      <c r="E50" s="15">
+        <f t="shared" si="17"/>
+        <v>20.541794352160295</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>4.1244648116947946</v>
+        <v>4.8681238983138497</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,13 +7262,13 @@
       <c r="D51">
         <v>155.776266666667</v>
       </c>
-      <c r="E51">
-        <f>D51*$E$135/$D$135</f>
-        <v>24.735645806957777</v>
+      <c r="E51" s="15">
+        <f t="shared" si="18"/>
+        <v>20.898153826959426</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>4.0427487028404752</v>
+        <v>4.7851116815398376</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6983,13 +7284,13 @@
       <c r="D52">
         <v>182.50640000000001</v>
       </c>
-      <c r="E52">
-        <f>D52*$E$130/$D$130</f>
-        <v>27.45209426563158</v>
+      <c r="E52" s="15">
+        <f t="shared" si="13"/>
+        <v>23.183319299624952</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>3.6427093332982676</v>
+        <v>4.3134461768646633</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7005,13 +7306,13 @@
       <c r="D53">
         <v>178.89</v>
       </c>
-      <c r="E53">
-        <f>D53*$E$131/$D$131</f>
-        <v>28.610324154380923</v>
+      <c r="E53" s="15">
+        <f t="shared" si="14"/>
+        <v>24.219459796879132</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>3.4952417686846662</v>
+        <v>4.1289112489984516</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7027,13 +7328,13 @@
       <c r="D54">
         <v>176.150033333333</v>
       </c>
-      <c r="E54">
-        <f>D54*$E$132/$D$132</f>
-        <v>26.544204870490187</v>
+      <c r="E54" s="15">
+        <f t="shared" si="15"/>
+        <v>22.368392648116608</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>3.7673006401172082</v>
+        <v>4.4705939122728999</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7049,13 +7350,13 @@
       <c r="D55">
         <v>179.108033333333</v>
       </c>
-      <c r="E55">
-        <f>D55*$E$133/$D$133</f>
-        <v>27.411426496442118</v>
+      <c r="E55" s="15">
+        <f t="shared" si="16"/>
+        <v>23.032935964065569</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>3.64811368036536</v>
+        <v>4.3416089097809003</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7071,13 +7372,13 @@
       <c r="D56">
         <v>179.82513333333301</v>
       </c>
-      <c r="E56">
-        <f>D56*$E$134/$D$134</f>
-        <v>27.835194102446611</v>
+      <c r="E56" s="15">
+        <f t="shared" si="17"/>
+        <v>23.583064235895908</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>3.5925741933737898</v>
+        <v>4.240331069776313</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7093,13 +7394,13 @@
       <c r="D57">
         <v>180.30770000000001</v>
       </c>
-      <c r="E57">
-        <f>D57*$E$135/$D$135</f>
-        <v>28.630981464017569</v>
+      <c r="E57" s="15">
+        <f t="shared" si="18"/>
+        <v>24.189166497668733</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>3.4927199448498314</v>
+        <v>4.1340820904117406</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7115,13 +7416,13 @@
       <c r="D58">
         <v>201.0445</v>
       </c>
-      <c r="E58">
-        <f>D58*$E$130/$D$130</f>
-        <v>30.240542608844223</v>
+      <c r="E58" s="15">
+        <f t="shared" si="13"/>
+        <v>25.538166535165058</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>3.306818971255951</v>
+        <v>3.9157078822516058</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7137,13 +7438,13 @@
       <c r="D59">
         <v>197.08373333333299</v>
       </c>
-      <c r="E59">
-        <f>D59*$E$131/$D$131</f>
-        <v>31.52009333233957</v>
+      <c r="E59" s="15">
+        <f t="shared" si="14"/>
+        <v>26.682662843565911</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>3.1725794383165784</v>
+        <v>3.7477518861695382</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7159,13 +7460,13 @@
       <c r="D60">
         <v>195.962633333333</v>
       </c>
-      <c r="E60">
-        <f>D60*$E$132/$D$132</f>
-        <v>29.5297831497851</v>
+      <c r="E60" s="15">
+        <f t="shared" si="15"/>
+        <v>24.884293484430625</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>3.3864115930945378</v>
+        <v>4.0185991240847194</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7181,13 +7482,13 @@
       <c r="D61">
         <v>198.16683333333299</v>
       </c>
-      <c r="E61">
-        <f>D61*$E$133/$D$133</f>
-        <v>30.328263254613162</v>
+      <c r="E61" s="15">
+        <f t="shared" si="16"/>
+        <v>25.483859642820718</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>3.2972544177843495</v>
+        <v>3.9240523767431701</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,13 +7504,13 @@
       <c r="D62">
         <v>197.31633333333301</v>
       </c>
-      <c r="E62">
-        <f>D62*$E$134/$D$134</f>
-        <v>30.542662953211906</v>
+      <c r="E62" s="15">
+        <f t="shared" si="17"/>
+        <v>25.876937653458064</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>3.2741087492334673</v>
+        <v>3.8644449099500191</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7225,13 +7526,13 @@
       <c r="D63">
         <v>198.195333333333</v>
       </c>
-      <c r="E63">
-        <f>D63*$E$135/$D$135</f>
-        <v>31.471351001213151</v>
+      <c r="E63" s="15">
+        <f t="shared" si="18"/>
+        <v>26.588880658235592</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>3.1774930792181508</v>
+        <v>3.760970658575888</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -7247,13 +7548,13 @@
       <c r="D64">
         <v>222.53110000000001</v>
       </c>
-      <c r="E64">
-        <f>D64*$E$130/$D$130</f>
-        <v>33.472495946633579</v>
+      <c r="E64" s="15">
+        <f t="shared" si="13"/>
+        <v>28.267554153699649</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>2.9875274362399997</v>
+        <v>3.5376247784392065</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7269,13 +7570,13 @@
       <c r="D65">
         <v>218.64556666666701</v>
       </c>
-      <c r="E65">
-        <f>D65*$E$131/$D$131</f>
-        <v>34.968531149039336</v>
+      <c r="E65" s="15">
+        <f t="shared" si="14"/>
+        <v>29.601864339254274</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>2.8597140547250932</v>
+        <v>3.3781656065287944</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7291,13 +7592,13 @@
       <c r="D66">
         <v>218.75936666666701</v>
       </c>
-      <c r="E66">
-        <f>D66*$E$132/$D$132</f>
-        <v>32.965043129741304</v>
+      <c r="E66" s="15">
+        <f t="shared" si="15"/>
+        <v>27.779134164531307</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>3.033516431524983</v>
+        <v>3.5998242208600248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -7313,13 +7614,13 @@
       <c r="D67">
         <v>222.42160000000001</v>
       </c>
-      <c r="E67">
-        <f>D67*$E$133/$D$133</f>
-        <v>34.04031201813428</v>
+      <c r="E67" s="15">
+        <f t="shared" si="16"/>
+        <v>28.602974274697612</v>
       </c>
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>2.9376934014801934</v>
+        <v>3.4961399132698125</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7335,13 +7636,13 @@
       <c r="D68">
         <v>219.29599999999999</v>
       </c>
-      <c r="E68">
-        <f>D68*$E$134/$D$134</f>
-        <v>33.944903099697278</v>
+      <c r="E68" s="15">
+        <f t="shared" si="17"/>
+        <v>28.759448464239732</v>
       </c>
       <c r="F68">
         <f t="shared" si="0"/>
-        <v>2.9459503745318338</v>
+        <v>3.477118141689771</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -7357,13 +7658,13 @@
       <c r="D69">
         <v>219.94579999999999</v>
       </c>
-      <c r="E69">
-        <f>D69*$E$135/$D$135</f>
-        <v>34.92509816767955</v>
+      <c r="E69" s="15">
+        <f t="shared" si="18"/>
+        <v>29.506812946218865</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F132" si="1">(1/E69)*100</f>
-        <v>2.8632704057090437</v>
+        <f t="shared" ref="F69:F132" si="19">(1/E69)*100</f>
+        <v>3.3890478169318672</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7379,13 +7680,13 @@
       <c r="D70">
         <v>246.52029999999999</v>
       </c>
-      <c r="E70">
-        <f>D70*$E$130/$D$130</f>
-        <v>37.080883267610204</v>
+      <c r="E70" s="15">
+        <f t="shared" si="13"/>
+        <v>31.314840623338863</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
-        <v>2.6968073893576596</v>
+        <f t="shared" si="19"/>
+        <v>3.1933740683154008</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -7401,13 +7702,13 @@
       <c r="D71">
         <v>239.96123333333301</v>
       </c>
-      <c r="E71">
-        <f>D71*$E$131/$D$131</f>
-        <v>38.377598916382659</v>
+      <c r="E71" s="15">
+        <f t="shared" si="14"/>
+        <v>32.48773795922741</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
-        <v>2.6056867241194688</v>
+        <f t="shared" si="19"/>
+        <v>3.0780844183581348</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,13 +7724,13 @@
       <c r="D72">
         <v>240.92939999999999</v>
       </c>
-      <c r="E72">
-        <f>D72*$E$132/$D$132</f>
-        <v>36.305865130450101</v>
+      <c r="E72" s="15">
+        <f t="shared" si="15"/>
+        <v>30.594393413920187</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
-        <v>2.7543759015434941</v>
+        <f t="shared" si="19"/>
+        <v>3.2685727298813139</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7445,13 +7746,13 @@
       <c r="D73">
         <v>245.13403333333301</v>
       </c>
-      <c r="E73">
-        <f>D73*$E$133/$D$133</f>
-        <v>37.516315775672794</v>
+      <c r="E73" s="15">
+        <f t="shared" si="16"/>
+        <v>31.523747915158378</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
-        <v>2.6655069383130723</v>
+        <f t="shared" si="19"/>
+        <v>3.1722116376877385</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7467,13 +7768,13 @@
       <c r="D74">
         <v>241.26333333333301</v>
       </c>
-      <c r="E74">
-        <f>D74*$E$134/$D$134</f>
-        <v>37.345234165283237</v>
+      <c r="E74" s="15">
+        <f t="shared" si="17"/>
+        <v>31.640341827077023</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
-        <v>2.6777178463366469</v>
+        <f t="shared" si="19"/>
+        <v>3.16052211276752</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7489,13 +7790,13 @@
       <c r="D75">
         <v>242.97966666666699</v>
       </c>
-      <c r="E75">
-        <f>D75*$E$135/$D$135</f>
-        <v>38.582635863396348</v>
+      <c r="E75" s="15">
+        <f t="shared" si="18"/>
+        <v>32.596919668699996</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
-        <v>2.5918395092044704</v>
+        <f t="shared" si="19"/>
+        <v>3.0677745325740502</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7511,13 +7812,13 @@
       <c r="D76">
         <v>280.290433333333</v>
       </c>
-      <c r="E76">
-        <f>D76*$E$130/$D$130</f>
-        <v>42.160490797152207</v>
+      <c r="E76" s="15">
+        <f t="shared" si="13"/>
+        <v>35.604573936020316</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
-        <v>2.3718888966718255</v>
+        <f t="shared" si="19"/>
+        <v>2.8086279077428404</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -7533,13 +7834,13 @@
       <c r="D77">
         <v>270.72983333333298</v>
       </c>
-      <c r="E77">
-        <f>D77*$E$131/$D$131</f>
-        <v>43.298497903338237</v>
+      <c r="E77" s="15">
+        <f t="shared" si="14"/>
+        <v>36.653420058317657</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
-        <v>2.3095489414724057</v>
+        <f t="shared" si="19"/>
+        <v>2.728258368274894</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -7555,13 +7856,13 @@
       <c r="D78">
         <v>273.77023333333301</v>
       </c>
-      <c r="E78">
-        <f>D78*$E$132/$D$132</f>
-        <v>41.254679454362332</v>
+      <c r="E78" s="15">
+        <f t="shared" si="15"/>
+        <v>34.764683030052446</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
-        <v>2.423967446180844</v>
+        <f t="shared" si="19"/>
+        <v>2.8764824322878098</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7577,13 +7878,13 @@
       <c r="D79">
         <v>275.411</v>
       </c>
-      <c r="E79">
-        <f>D79*$E$133/$D$133</f>
-        <v>42.150026675585373</v>
+      <c r="E79" s="15">
+        <f t="shared" si="16"/>
+        <v>35.41730545940117</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
-        <v>2.3724777393301903</v>
+        <f t="shared" si="19"/>
+        <v>2.8234784860929052</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -7599,13 +7900,13 @@
       <c r="D80">
         <v>273.83136666666701</v>
       </c>
-      <c r="E80">
-        <f>D80*$E$134/$D$134</f>
-        <v>42.38645122189957</v>
+      <c r="E80" s="15">
+        <f t="shared" si="17"/>
+        <v>35.91145792692226</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
-        <v>2.3592444547075826</v>
+        <f t="shared" si="19"/>
+        <v>2.7846265724854229</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -7621,13 +7922,13 @@
       <c r="D81">
         <v>274.77423333333297</v>
       </c>
-      <c r="E81">
-        <f>D81*$E$135/$D$135</f>
-        <v>43.63128131164833</v>
+      <c r="E81" s="15">
+        <f t="shared" si="18"/>
+        <v>36.862317468246054</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
-        <v>2.2919336080396704</v>
+        <f t="shared" si="19"/>
+        <v>2.7127974275123106</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -7643,13 +7944,13 @@
       <c r="D82">
         <v>305.49823333333302</v>
       </c>
-      <c r="E82">
-        <f>D82*$E$130/$D$130</f>
-        <v>45.952176468609146</v>
+      <c r="E82" s="15">
+        <f t="shared" si="13"/>
+        <v>38.806656034188308</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
-        <v>2.1761754868849796</v>
+        <f t="shared" si="19"/>
+        <v>2.5768775313157857</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -7665,13 +7966,13 @@
       <c r="D83">
         <v>293.48523333333299</v>
       </c>
-      <c r="E83">
-        <f>D83*$E$131/$D$131</f>
-        <v>46.937825815812943</v>
+      <c r="E83" s="15">
+        <f t="shared" si="14"/>
+        <v>39.73421549384733</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
-        <v>2.1304778877574444</v>
+        <f t="shared" si="19"/>
+        <v>2.5167226471473825</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7687,13 +7988,13 @@
       <c r="D84">
         <v>301.44970000000001</v>
       </c>
-      <c r="E84">
-        <f>D84*$E$132/$D$132</f>
-        <v>45.425722854141689</v>
+      <c r="E84" s="15">
+        <f t="shared" si="15"/>
+        <v>38.279557066544044</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
-        <v>2.2013958989951989</v>
+        <f t="shared" si="19"/>
+        <v>2.6123604258576707</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -7709,13 +8010,13 @@
       <c r="D85">
         <v>299.874866666667</v>
       </c>
-      <c r="E85">
-        <f>D85*$E$133/$D$133</f>
-        <v>45.89407695893636</v>
+      <c r="E85" s="15">
+        <f t="shared" si="16"/>
+        <v>38.563309934354635</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
-        <v>2.1789304116405872</v>
+        <f t="shared" si="19"/>
+        <v>2.5931384046189896</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -7731,13 +8032,13 @@
       <c r="D86">
         <v>298.92326666666702</v>
       </c>
-      <c r="E86">
-        <f>D86*$E$134/$D$134</f>
-        <v>46.270435034131864</v>
+      <c r="E86" s="15">
+        <f t="shared" si="17"/>
+        <v>39.202120797744605</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
-        <v>2.1612072574254806</v>
+        <f t="shared" si="19"/>
+        <v>2.5508824003662895</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -7753,13 +8054,13 @@
       <c r="D87">
         <v>299.66699999999997</v>
       </c>
-      <c r="E87">
-        <f>D87*$E$135/$D$135</f>
-        <v>47.583992931958818</v>
+      <c r="E87" s="15">
+        <f t="shared" si="18"/>
+        <v>40.201804786245376</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
-        <v>2.1015470505594545</v>
+        <f t="shared" si="19"/>
+        <v>2.4874505145155559</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -7775,13 +8076,13 @@
       <c r="D88">
         <v>323.54583333333301</v>
       </c>
-      <c r="E88">
-        <f>D88*$E$130/$D$130</f>
-        <v>48.666845195121816</v>
+      <c r="E88" s="15">
+        <f t="shared" si="13"/>
+        <v>41.099196314375256</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
-        <v>2.0547869827819381</v>
+        <f t="shared" si="19"/>
+        <v>2.4331376028640985</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -7797,13 +8098,13 @@
       <c r="D89">
         <v>311.66886666666699</v>
       </c>
-      <c r="E89">
-        <f>D89*$E$131/$D$131</f>
-        <v>49.84597967556526</v>
+      <c r="E89" s="15">
+        <f t="shared" si="14"/>
+        <v>42.19605112735325</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
-        <v>2.0061798494256595</v>
+        <f t="shared" si="19"/>
+        <v>2.3698900093325515</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -7819,13 +8120,13 @@
       <c r="D90">
         <v>323.19436666666701</v>
       </c>
-      <c r="E90">
-        <f>D90*$E$132/$D$132</f>
-        <v>48.70244597430306</v>
+      <c r="E90" s="15">
+        <f t="shared" si="15"/>
+        <v>41.040801176455773</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
-        <v>2.0532849634033399</v>
+        <f t="shared" si="19"/>
+        <v>2.4365996065731741</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -7841,13 +8142,13 @@
       <c r="D91">
         <v>323.110166666667</v>
       </c>
-      <c r="E91">
-        <f>D91*$E$133/$D$133</f>
-        <v>49.450102371193779</v>
+      <c r="E91" s="15">
+        <f t="shared" si="16"/>
+        <v>41.551323185607579</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
-        <v>2.0222405051734151</v>
+        <f t="shared" si="19"/>
+        <v>2.4066622271763825</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -7863,13 +8164,13 @@
       <c r="D92">
         <v>317.56970000000001</v>
       </c>
-      <c r="E92">
-        <f>D92*$E$134/$D$134</f>
-        <v>49.156722849025684</v>
+      <c r="E92" s="15">
+        <f t="shared" si="17"/>
+        <v>41.647496629916063</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
-        <v>2.0343097384080813</v>
+        <f t="shared" si="19"/>
+        <v>2.4011047023692753</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -7885,13 +8186,13 @@
       <c r="D93">
         <v>313.75603333333299</v>
       </c>
-      <c r="E93">
-        <f>D93*$E$135/$D$135</f>
-        <v>49.821184423018735</v>
+      <c r="E93" s="15">
+        <f t="shared" si="18"/>
+        <v>42.091918037599577</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
-        <v>2.0071782948981296</v>
+        <f t="shared" si="19"/>
+        <v>2.3757529868482758</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -7907,13 +8208,13 @@
       <c r="D94">
         <v>347.62966666666699</v>
       </c>
-      <c r="E94">
-        <f>D94*$E$130/$D$130</f>
-        <v>52.289466993285849</v>
+      <c r="E94" s="15">
+        <f t="shared" ref="E94:E130" si="20">D94*$E$136/$D$136</f>
+        <v>44.158503813321218</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
-        <v>1.9124310449146544</v>
+        <f t="shared" si="19"/>
+        <v>2.2645694795898672</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -7929,13 +8230,13 @@
       <c r="D95">
         <v>331.758933333333</v>
       </c>
-      <c r="E95">
-        <f>D95*$E$131/$D$131</f>
-        <v>53.059034176188192</v>
+      <c r="E95" s="15">
+        <f t="shared" ref="E95:E131" si="21">D95*$E$137/$D$137</f>
+        <v>44.915993896372974</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
-        <v>1.8846931828411975</v>
+        <f t="shared" si="19"/>
+        <v>2.2263784306034275</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -7951,13 +8252,13 @@
       <c r="D96">
         <v>346.33376666666697</v>
       </c>
-      <c r="E96">
-        <f>D96*$E$132/$D$132</f>
-        <v>52.189342698403713</v>
+      <c r="E96" s="15">
+        <f t="shared" ref="E96:E132" si="22">D96*$E$138/$D$138</f>
+        <v>43.979155345610991</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
-        <v>1.9161000087295341</v>
+        <f t="shared" si="19"/>
+        <v>2.2738044697345408</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,13 +8274,13 @@
       <c r="D97">
         <v>344.257366666667</v>
       </c>
-      <c r="E97">
-        <f>D97*$E$133/$D$133</f>
-        <v>52.686556413021954</v>
+      <c r="E97" s="15">
+        <f t="shared" ref="E97:E133" si="23">D97*$E$139/$D$139</f>
+        <v>44.270810940312543</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
-        <v>1.8980173844742698</v>
+        <f t="shared" si="19"/>
+        <v>2.2588246719678007</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -7995,13 +8296,13 @@
       <c r="D98">
         <v>340.54629999999997</v>
       </c>
-      <c r="E98">
-        <f>D98*$E$134/$D$134</f>
-        <v>52.713278648312958</v>
+      <c r="E98" s="15">
+        <f t="shared" ref="E98:E134" si="24">D98*$E$140/$D$140</f>
+        <v>44.660749692367958</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
-        <v>1.897055211973623</v>
+        <f t="shared" si="19"/>
+        <v>2.2391025831142488</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8017,13 +8318,13 @@
       <c r="D99">
         <v>337.0514</v>
       </c>
-      <c r="E99">
-        <f>D99*$E$135/$D$135</f>
-        <v>53.52024559029465</v>
+      <c r="E99" s="15">
+        <f t="shared" ref="E99:E135" si="25">D99*$E$141/$D$141</f>
+        <v>45.217106273732867</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
-        <v>1.868451814767718</v>
+        <f t="shared" si="19"/>
+        <v>2.2115524021954309</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8039,13 +8340,13 @@
       <c r="D100">
         <v>385.318266666667</v>
       </c>
-      <c r="E100">
-        <f>D100*$E$130/$D$130</f>
-        <v>57.958479148145521</v>
+      <c r="E100" s="15">
+        <f t="shared" si="20"/>
+        <v>48.945989883704755</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
-        <v>1.7253730855220288</v>
+        <f t="shared" si="19"/>
+        <v>2.0430682929816957</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -8061,13 +8362,13 @@
       <c r="D101">
         <v>364.5444</v>
       </c>
-      <c r="E101">
-        <f>D101*$E$131/$D$131</f>
-        <v>58.302495682622286</v>
+      <c r="E101" s="15">
+        <f t="shared" si="21"/>
+        <v>49.354734417672454</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
-        <v>1.7151924429507075</v>
+        <f t="shared" si="19"/>
+        <v>2.0261480723152872</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -8083,13 +8384,13 @@
       <c r="D102">
         <v>386.32696666666698</v>
       </c>
-      <c r="E102">
-        <f>D102*$E$132/$D$132</f>
-        <v>58.215953503623489</v>
+      <c r="E102" s="15">
+        <f t="shared" si="22"/>
+        <v>49.057687457846328</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
-        <v>1.7177421992027628</v>
+        <f t="shared" si="19"/>
+        <v>2.0384165088484196</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -8105,13 +8406,13 @@
       <c r="D103">
         <v>379.80713333333301</v>
       </c>
-      <c r="E103">
-        <f>D103*$E$133/$D$133</f>
-        <v>58.127238206090524</v>
+      <c r="E103" s="15">
+        <f t="shared" si="23"/>
+        <v>48.842440051145985</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
-        <v>1.7203638618688419</v>
+        <f t="shared" si="19"/>
+        <v>2.0473997592111228</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -8127,13 +8428,13 @@
       <c r="D104">
         <v>377.54360000000003</v>
       </c>
-      <c r="E104">
-        <f>D104*$E$134/$D$134</f>
-        <v>58.440103412332512</v>
+      <c r="E104" s="15">
+        <f t="shared" si="24"/>
+        <v>49.512739435299963</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
-        <v>1.7111537139904716</v>
+        <f t="shared" si="19"/>
+        <v>2.0196822300788573</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -8149,13 +8450,13 @@
       <c r="D105">
         <v>367.96749999999997</v>
       </c>
-      <c r="E105">
-        <f>D105*$E$135/$D$135</f>
-        <v>58.429399697632903</v>
+      <c r="E105" s="15">
+        <f t="shared" si="25"/>
+        <v>49.364653440928592</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
-        <v>1.7114671812048621</v>
+        <f t="shared" si="19"/>
+        <v>2.0257409508539013</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -8171,13 +8472,13 @@
       <c r="D106">
         <v>435.68299999999999</v>
       </c>
-      <c r="E106">
-        <f>D106*$E$130/$D$130</f>
-        <v>65.534199271549724</v>
+      <c r="E106" s="15">
+        <f t="shared" si="20"/>
+        <v>55.343692618004063</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
-        <v>1.5259208338784551</v>
+        <f t="shared" si="19"/>
+        <v>1.8068906368468196</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -8193,13 +8494,13 @@
       <c r="D107">
         <v>405.79489999999998</v>
       </c>
-      <c r="E107">
-        <f>D107*$E$131/$D$131</f>
-        <v>64.899791096174127</v>
+      <c r="E107" s="15">
+        <f t="shared" si="21"/>
+        <v>54.939534162494198</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
-        <v>1.5408370090407739</v>
+        <f t="shared" si="19"/>
+        <v>1.820182888777885</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -8215,13 +8516,13 @@
       <c r="D108">
         <v>438.09966666666702</v>
       </c>
-      <c r="E108">
-        <f>D108*$E$132/$D$132</f>
-        <v>66.017627619108168</v>
+      <c r="E108" s="15">
+        <f t="shared" si="22"/>
+        <v>55.632038084631048</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
-        <v>1.5147469487536682</v>
+        <f t="shared" si="19"/>
+        <v>1.7975253728413392</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -8237,13 +8538,13 @@
       <c r="D109">
         <v>431.34786666666702</v>
       </c>
-      <c r="E109">
-        <f>D109*$E$133/$D$133</f>
-        <v>66.01524298759621</v>
+      <c r="E109" s="15">
+        <f t="shared" si="23"/>
+        <v>55.470475591005432</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
-        <v>1.5148016651061829</v>
+        <f t="shared" si="19"/>
+        <v>1.8027608188781252</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -8259,13 +8560,13 @@
       <c r="D110">
         <v>426.54629999999997</v>
       </c>
-      <c r="E110">
-        <f>D110*$E$134/$D$134</f>
-        <v>66.02524816245807</v>
+      <c r="E110" s="15">
+        <f t="shared" si="24"/>
+        <v>55.939170493133211</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
-        <v>1.5145721187438106</v>
+        <f t="shared" si="19"/>
+        <v>1.7876561114233087</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -8281,13 +8582,13 @@
       <c r="D111">
         <v>410.10739999999998</v>
       </c>
-      <c r="E111">
-        <f>D111*$E$135/$D$135</f>
-        <v>65.120776137993204</v>
+      <c r="E111" s="15">
+        <f t="shared" si="25"/>
+        <v>55.017928688159351</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
-        <v>1.5356082333554577</v>
+        <f t="shared" si="19"/>
+        <v>1.8175893274135824</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,13 +8604,13 @@
       <c r="D112">
         <v>490.1386</v>
       </c>
-      <c r="E112">
-        <f>D112*$E$130/$D$130</f>
-        <v>73.725255938557154</v>
+      <c r="E112" s="15">
+        <f t="shared" si="20"/>
+        <v>62.26104763926719</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
-        <v>1.3563872885479067</v>
+        <f t="shared" si="19"/>
+        <v>1.6061406576289503</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -8325,13 +8626,13 @@
       <c r="D113">
         <v>456.48836666666699</v>
       </c>
-      <c r="E113">
-        <f>D113*$E$131/$D$131</f>
-        <v>73.007323735464453</v>
+      <c r="E113" s="15">
+        <f t="shared" si="21"/>
+        <v>61.802793024911175</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
-        <v>1.369725595781885</v>
+        <f t="shared" si="19"/>
+        <v>1.6180498502663541</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -8347,13 +8648,13 @@
       <c r="D114">
         <v>486.43663333333302</v>
       </c>
-      <c r="E114">
-        <f>D114*$E$132/$D$132</f>
-        <v>73.301568029099798</v>
+      <c r="E114" s="15">
+        <f t="shared" si="22"/>
+        <v>61.770102491197974</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
-        <v>1.3642272967517048</v>
+        <f t="shared" si="19"/>
+        <v>1.6189061692790563</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -8369,13 +8670,13 @@
       <c r="D115">
         <v>481.14496666666702</v>
       </c>
-      <c r="E115">
-        <f>D115*$E$133/$D$133</f>
-        <v>73.636394987214203</v>
+      <c r="E115" s="15">
+        <f t="shared" si="23"/>
+        <v>61.874283360819803</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
-        <v>1.3580241131761464</v>
+        <f t="shared" si="19"/>
+        <v>1.6161803348387911</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -8391,13 +8692,13 @@
       <c r="D116">
         <v>477.62639999999999</v>
       </c>
-      <c r="E116">
-        <f>D116*$E$134/$D$134</f>
-        <v>73.93195437152184</v>
+      <c r="E116" s="15">
+        <f t="shared" si="24"/>
+        <v>62.638040985518899</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
-        <v>1.3525951105996925</v>
+        <f t="shared" si="19"/>
+        <v>1.5964739386265081</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -8413,13 +8714,13 @@
       <c r="D117">
         <v>462.26226666666702</v>
       </c>
-      <c r="E117">
-        <f>D117*$E$135/$D$135</f>
-        <v>73.402424790777587</v>
+      <c r="E117" s="15">
+        <f t="shared" si="25"/>
+        <v>62.014761066719565</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
-        <v>1.3623528144340564</v>
+        <f t="shared" si="19"/>
+        <v>1.612519314432469</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -8435,13 +8736,13 @@
       <c r="D118">
         <v>534.83906666666701</v>
       </c>
-      <c r="E118">
-        <f>D118*$E$130/$D$130</f>
-        <v>80.448973159712494</v>
+      <c r="E118" s="15">
+        <f t="shared" si="20"/>
+        <v>67.939233125231411</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
-        <v>1.2430239451468639</v>
+        <f t="shared" si="19"/>
+        <v>1.4719035732368577</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -8457,13 +8758,13 @@
       <c r="D119">
         <v>500.09440000000001</v>
       </c>
-      <c r="E119">
-        <f>D119*$E$131/$D$131</f>
-        <v>79.981345473702476</v>
+      <c r="E119" s="15">
+        <f t="shared" si="21"/>
+        <v>67.706502406195938</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
-        <v>1.2502915449563119</v>
+        <f t="shared" si="19"/>
+        <v>1.476963016049236</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -8479,13 +8780,13 @@
       <c r="D120">
         <v>529.95339999999999</v>
       </c>
-      <c r="E120">
-        <f>D120*$E$132/$D$132</f>
-        <v>79.859148222771793</v>
+      <c r="E120" s="15">
+        <f t="shared" si="22"/>
+        <v>67.296074329843563</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
-        <v>1.2522046907017355</v>
+        <f t="shared" si="19"/>
+        <v>1.485970779065984</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -8501,13 +8802,13 @@
       <c r="D121">
         <v>524.18246666666698</v>
       </c>
-      <c r="E121">
-        <f>D121*$E$133/$D$133</f>
-        <v>80.22303013632046</v>
+      <c r="E121" s="15">
+        <f t="shared" si="23"/>
+        <v>67.408820048566383</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
-        <v>1.2465248424308228</v>
+        <f t="shared" si="19"/>
+        <v>1.4834853944625122</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,13 +8824,13 @@
       <c r="D122">
         <v>520.60023333333299</v>
       </c>
-      <c r="E122">
-        <f>D122*$E$134/$D$134</f>
-        <v>80.583888781280933</v>
+      <c r="E122" s="15">
+        <f t="shared" si="24"/>
+        <v>68.273819773371017</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
-        <v>1.2409428424510247</v>
+        <f t="shared" si="19"/>
+        <v>1.4646902770628811</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -8545,13 +8846,13 @@
       <c r="D123">
         <v>511.72149999999999</v>
       </c>
-      <c r="E123">
-        <f>D123*$E$135/$D$135</f>
-        <v>81.256034995950074</v>
+      <c r="E123" s="15">
+        <f t="shared" si="25"/>
+        <v>68.649960949736425</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
-        <v>1.2306778198688153</v>
+        <f t="shared" si="19"/>
+        <v>1.4566650674895094</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -8567,13 +8868,13 @@
       <c r="D124">
         <v>582.70916666666699</v>
       </c>
-      <c r="E124">
-        <f>D124*$E$130/$D$130</f>
-        <v>87.649457623299583</v>
+      <c r="E124" s="15">
+        <f t="shared" si="20"/>
+        <v>74.020048993633708</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
-        <v>1.1409083719579949</v>
+        <f t="shared" si="19"/>
+        <v>1.3509853257270981</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -8589,13 +8890,13 @@
       <c r="D125">
         <v>552.08256666666705</v>
       </c>
-      <c r="E125">
-        <f>D125*$E$131/$D$131</f>
-        <v>88.295942715165523</v>
+      <c r="E125" s="15">
+        <f t="shared" si="21"/>
+        <v>74.74504739192345</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
-        <v>1.1325548708686499</v>
+        <f t="shared" si="19"/>
+        <v>1.337881284303065</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -8611,13 +8912,13 @@
       <c r="D126">
         <v>583.5421</v>
       </c>
-      <c r="E126">
-        <f>D126*$E$132/$D$132</f>
-        <v>87.934476990104272</v>
+      <c r="E126" s="15">
+        <f t="shared" si="22"/>
+        <v>74.101029517299068</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
-        <v>1.1372103800794029</v>
+        <f t="shared" si="19"/>
+        <v>1.3495089157520375</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -8633,13 +8934,13 @@
       <c r="D127">
         <v>574.41743333333295</v>
       </c>
-      <c r="E127">
-        <f>D127*$E$133/$D$133</f>
-        <v>87.911195042758877</v>
+      <c r="E127" s="15">
+        <f t="shared" si="23"/>
+        <v>73.868936598653875</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
-        <v>1.1375115530093896</v>
+        <f t="shared" si="19"/>
+        <v>1.3537490128404301</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -8655,13 +8956,13 @@
       <c r="D128">
         <v>571.52136666666695</v>
       </c>
-      <c r="E128">
-        <f>D128*$E$134/$D$134</f>
-        <v>88.465988485456037</v>
+      <c r="E128" s="15">
+        <f t="shared" si="24"/>
+        <v>74.951842673199096</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
-        <v>1.1303779193790411</v>
+        <f t="shared" si="19"/>
+        <v>1.3341900136600311</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -8677,271 +8978,535 @@
       <c r="D129">
         <v>558.98426666666705</v>
       </c>
-      <c r="E129">
-        <f>D129*$E$135/$D$135</f>
-        <v>88.760869211968185</v>
+      <c r="E129" s="15">
+        <f t="shared" si="25"/>
+        <v>74.990494005398929</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
-        <v>1.1266225859189354</v>
+        <f t="shared" si="19"/>
+        <v>1.3335023502152221</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="9">
         <v>2022</v>
       </c>
-      <c r="B130" s="2">
-        <v>1</v>
-      </c>
-      <c r="C130" s="2">
+      <c r="B130" s="9">
+        <v>1</v>
+      </c>
+      <c r="C130" s="9">
         <v>42</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="9">
         <v>664.81776666666701</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="15">
+        <f>D130*$E$136/$D$136</f>
+        <v>84.450093589577662</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="19"/>
+        <v>1.1841313105701687</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B131" s="9">
+        <v>1</v>
+      </c>
+      <c r="C131" s="9">
+        <v>1</v>
+      </c>
+      <c r="D131" s="9">
+        <v>625.26379999999995</v>
+      </c>
+      <c r="E131" s="15">
+        <f t="shared" si="21"/>
+        <v>84.652867497030982</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="19"/>
+        <v>1.1812948923851549</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B132" s="9">
+        <v>1</v>
+      </c>
+      <c r="C132" s="9">
+        <v>41</v>
+      </c>
+      <c r="D132" s="9">
+        <v>663.61013333333301</v>
+      </c>
+      <c r="E132" s="15">
+        <f t="shared" si="22"/>
+        <v>84.268459941642746</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="19"/>
+        <v>1.1866836070013809</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B133" s="9">
+        <v>1</v>
+      </c>
+      <c r="C133" s="9">
+        <v>40</v>
+      </c>
+      <c r="D133" s="9">
+        <v>653.40646666666703</v>
+      </c>
+      <c r="E133" s="15">
+        <f t="shared" si="23"/>
+        <v>84.026768789486908</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ref="F133:F153" si="26">(1/E133)*100</f>
+        <v>1.1900969350675734</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B134" s="9">
+        <v>1</v>
+      </c>
+      <c r="C134" s="9">
+        <v>43</v>
+      </c>
+      <c r="D134" s="9">
+        <v>646.03513333333296</v>
+      </c>
+      <c r="E134" s="15">
+        <f t="shared" si="24"/>
+        <v>84.723907974556013</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="26"/>
+        <v>1.1803043838585876</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B135" s="9">
+        <v>1</v>
+      </c>
+      <c r="C135" s="9">
+        <v>44</v>
+      </c>
+      <c r="D135" s="9">
+        <v>629.76430000000005</v>
+      </c>
+      <c r="E135" s="15">
+        <f t="shared" si="25"/>
+        <v>84.485984275700943</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="26"/>
+        <v>1.1836282770130555</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="2">
+        <v>42</v>
+      </c>
+      <c r="D136" s="2">
+        <v>787.231533333333</v>
+      </c>
+      <c r="E136" s="2">
         <v>100</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="F136" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>2022</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2">
-        <v>1</v>
-      </c>
-      <c r="D131" s="2">
-        <v>625.26379999999995</v>
-      </c>
-      <c r="E131" s="2">
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2">
+        <v>738.62093333333303</v>
+      </c>
+      <c r="E137" s="2">
         <v>100</v>
       </c>
-      <c r="F131">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="F137" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>2022</v>
       </c>
-      <c r="B132" s="2">
-        <v>1</v>
-      </c>
-      <c r="C132" s="2">
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2">
         <v>41</v>
       </c>
-      <c r="D132" s="2">
-        <v>663.61013333333301</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="D138" s="2">
+        <v>787.49526666666702</v>
+      </c>
+      <c r="E138" s="2">
         <v>100</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="F138" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>2022</v>
       </c>
-      <c r="B133" s="2">
-        <v>1</v>
-      </c>
-      <c r="C133" s="2">
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2">
         <v>40</v>
       </c>
-      <c r="D133" s="2">
-        <v>653.40646666666703</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="D139" s="2">
+        <v>777.61703333333298</v>
+      </c>
+      <c r="E139" s="2">
         <v>100</v>
       </c>
-      <c r="F133">
-        <f t="shared" ref="F133:F141" si="2">(1/E133)*100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="F139" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>2022</v>
       </c>
-      <c r="B134" s="2">
-        <v>1</v>
-      </c>
-      <c r="C134" s="2">
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2">
         <v>43</v>
       </c>
-      <c r="D134" s="2">
-        <v>646.03513333333296</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="D140" s="2">
+        <v>762.5181</v>
+      </c>
+      <c r="E140" s="2">
         <v>100</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="F140" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>2022</v>
       </c>
-      <c r="B135" s="2">
-        <v>1</v>
-      </c>
-      <c r="C135" s="2">
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2">
         <v>44</v>
       </c>
-      <c r="D135" s="2">
-        <v>629.76430000000005</v>
-      </c>
-      <c r="E135" s="2">
+      <c r="D141" s="2">
+        <v>745.406833333333</v>
+      </c>
+      <c r="E141" s="2">
         <v>100</v>
       </c>
-      <c r="F135">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="F141" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="15">
         <v>2022</v>
       </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136">
+      <c r="B142" s="15">
+        <v>3</v>
+      </c>
+      <c r="C142" s="15">
         <v>42</v>
       </c>
-      <c r="D136">
-        <v>766.84870000000001</v>
-      </c>
-      <c r="E136">
-        <f>D136*$E$130/$D$130</f>
-        <v>115.34720316590008</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="2"/>
-        <v>0.86694776514150318</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="D142" s="15">
+        <v>946.05893333333302</v>
+      </c>
+      <c r="E142" s="15">
+        <f>D142*$E$136/$D$136</f>
+        <v>120.17543673936504</v>
+      </c>
+      <c r="F142" s="15">
+        <f t="shared" si="26"/>
+        <v>0.83211680118025055</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="15">
         <v>2022</v>
       </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>719.59635000000003</v>
-      </c>
-      <c r="E137">
-        <f>D137*$E$131/$D$131</f>
-        <v>115.08684014651098</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="2"/>
-        <v>0.86890907659551064</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="B143" s="15">
+        <v>3</v>
+      </c>
+      <c r="C143" s="15">
+        <v>1</v>
+      </c>
+      <c r="D143" s="15">
+        <v>890.47466666666696</v>
+      </c>
+      <c r="E143" s="15">
+        <f t="shared" ref="E143" si="27">D143*$E$137/$D$137</f>
+        <v>120.55908876668728</v>
+      </c>
+      <c r="F143" s="15">
+        <f t="shared" si="26"/>
+        <v>0.82946877770058136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="15">
         <v>2022</v>
       </c>
-      <c r="B138">
-        <v>2</v>
-      </c>
-      <c r="C138">
+      <c r="B144" s="15">
+        <v>3</v>
+      </c>
+      <c r="C144" s="15">
         <v>41</v>
       </c>
-      <c r="D138">
-        <v>768.0018</v>
-      </c>
-      <c r="E138">
-        <f>D138*$E$132/$D$132</f>
-        <v>115.73087290609993</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="2"/>
-        <v>0.86407366927178164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="D144" s="15">
+        <v>954.89059999999995</v>
+      </c>
+      <c r="E144" s="15">
+        <f t="shared" ref="E144" si="28">D144*$E$138/$D$138</f>
+        <v>121.25667802955678</v>
+      </c>
+      <c r="F144" s="15">
+        <f t="shared" si="26"/>
+        <v>0.82469684659862286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="15">
         <v>2022</v>
       </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139">
+      <c r="B145" s="15">
+        <v>3</v>
+      </c>
+      <c r="C145" s="15">
         <v>40</v>
       </c>
-      <c r="D139">
-        <v>757.22005000000001</v>
-      </c>
-      <c r="E139">
-        <f>D139*$E$133/$D$133</f>
-        <v>115.88805569417377</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="2"/>
-        <v>0.86290169768572167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="D145" s="15">
+        <v>937.12810000000002</v>
+      </c>
+      <c r="E145" s="15">
+        <f t="shared" ref="E145" si="29">D145*$E$139/$D$139</f>
+        <v>120.51280512502497</v>
+      </c>
+      <c r="F145" s="15">
+        <f t="shared" si="26"/>
+        <v>0.82978733999474874</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="15">
         <v>2022</v>
       </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="C140">
+      <c r="B146" s="15">
+        <v>3</v>
+      </c>
+      <c r="C146" s="15">
         <v>43</v>
       </c>
-      <c r="D140">
-        <v>743.05359999999996</v>
-      </c>
-      <c r="E140">
-        <f>D140*$E$134/$D$134</f>
-        <v>115.0175217508811</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="2"/>
-        <v>0.86943274796506331</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="D146" s="15">
+        <v>920.72580000000005</v>
+      </c>
+      <c r="E146" s="15">
+        <f t="shared" ref="E146" si="30">D146*$E$140/$D$140</f>
+        <v>120.74805830838639</v>
+      </c>
+      <c r="F146" s="15">
+        <f t="shared" si="26"/>
+        <v>0.82817066709763087</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="15">
         <v>2022</v>
       </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141">
+      <c r="B147" s="15">
+        <v>3</v>
+      </c>
+      <c r="C147" s="15">
         <v>44</v>
       </c>
-      <c r="D141">
-        <v>727.03925000000004</v>
-      </c>
-      <c r="E141">
-        <f>D141*$E$135/$D$135</f>
-        <v>115.44624711181628</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="2"/>
-        <v>0.86620399105000168</v>
+      <c r="D147" s="15">
+        <v>899.70039999999995</v>
+      </c>
+      <c r="E147" s="15">
+        <f t="shared" ref="E147" si="31">D147*$E$141/$D$141</f>
+        <v>120.69924231532629</v>
+      </c>
+      <c r="F147" s="15">
+        <f t="shared" si="26"/>
+        <v>0.82850561512847287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B148" s="15">
+        <v>4</v>
+      </c>
+      <c r="C148" s="15">
+        <v>42</v>
+      </c>
+      <c r="D148" s="15">
+        <v>1117.0253666666699</v>
+      </c>
+      <c r="E148" s="15">
+        <f>D148*$E$136/$D$136</f>
+        <v>141.89286370896605</v>
+      </c>
+      <c r="F148" s="15">
+        <f t="shared" si="26"/>
+        <v>0.70475707788312902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B149" s="15">
+        <v>4</v>
+      </c>
+      <c r="C149" s="15">
+        <v>1</v>
+      </c>
+      <c r="D149" s="15">
+        <v>1060.0553333333301</v>
+      </c>
+      <c r="E149" s="15">
+        <f t="shared" ref="E149" si="32">D149*$E$137/$D$137</f>
+        <v>143.5181817213589</v>
+      </c>
+      <c r="F149" s="15">
+        <f t="shared" si="26"/>
+        <v>0.69677582868315868</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B150" s="15">
+        <v>4</v>
+      </c>
+      <c r="C150" s="15">
+        <v>41</v>
+      </c>
+      <c r="D150" s="15">
+        <v>1135.4817</v>
+      </c>
+      <c r="E150" s="15">
+        <f t="shared" ref="E150" si="33">D150*$E$138/$D$138</f>
+        <v>144.18901904087627</v>
+      </c>
+      <c r="F150" s="15">
+        <f t="shared" si="26"/>
+        <v>0.6935340892474684</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B151" s="15">
+        <v>4</v>
+      </c>
+      <c r="C151" s="15">
+        <v>40</v>
+      </c>
+      <c r="D151" s="15">
+        <v>1109.934</v>
+      </c>
+      <c r="E151" s="15">
+        <f t="shared" ref="E151" si="34">D151*$E$139/$D$139</f>
+        <v>142.73529930821564</v>
+      </c>
+      <c r="F151" s="15">
+        <f t="shared" si="26"/>
+        <v>0.70059754303709332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B152" s="15">
+        <v>4</v>
+      </c>
+      <c r="C152" s="15">
+        <v>43</v>
+      </c>
+      <c r="D152" s="15">
+        <v>1091.8588999999999</v>
+      </c>
+      <c r="E152" s="15">
+        <f t="shared" ref="E152" si="35">D152*$E$140/$D$140</f>
+        <v>143.19121080535663</v>
+      </c>
+      <c r="F152" s="15">
+        <f t="shared" si="26"/>
+        <v>0.69836688605093566</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B153" s="15">
+        <v>4</v>
+      </c>
+      <c r="C153" s="15">
+        <v>44</v>
+      </c>
+      <c r="D153" s="15">
+        <v>1066.98563333333</v>
+      </c>
+      <c r="E153" s="15">
+        <f t="shared" ref="E153" si="36">D153*$E$141/$D$141</f>
+        <v>143.14138073593332</v>
+      </c>
+      <c r="F153" s="15">
+        <f t="shared" si="26"/>
+        <v>0.69861000002843077</v>
       </c>
     </row>
   </sheetData>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">ano4</t>
+    <t xml:space="preserve">ANO4</t>
   </si>
   <si>
-    <t xml:space="preserve">trimestre</t>
+    <t xml:space="preserve">TRIMESTRE</t>
   </si>
   <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipc_trim</t>
+    <t xml:space="preserve">REGION</t>
   </si>
   <si>
     <t xml:space="preserve">ipc_100</t>
@@ -386,9 +383,6 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -401,16 +395,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>90.0123207</v>
+        <v>8.49128511216081</v>
       </c>
       <c r="E2" t="n">
-        <v>8.49128511216081</v>
-      </c>
-      <c r="F2" t="n">
         <v>11.7767803906131</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -424,16 +415,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>95.4728013</v>
+        <v>9.00639790187053</v>
       </c>
       <c r="E3" t="n">
-        <v>9.00639790187053</v>
-      </c>
-      <c r="F3" t="n">
         <v>11.1032180778101</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -447,16 +435,13 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>90.0123207</v>
+        <v>8.49128511216081</v>
       </c>
       <c r="E4" t="n">
-        <v>8.49128511216081</v>
-      </c>
-      <c r="F4" t="n">
         <v>11.7767803906131</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -470,16 +455,13 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>95.4728013</v>
+        <v>9.00639790187053</v>
       </c>
       <c r="E5" t="n">
-        <v>9.00639790187053</v>
-      </c>
-      <c r="F5" t="n">
         <v>11.1032180778101</v>
       </c>
-      <c r="G5" t="s">
-        <v>7</v>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -493,16 +475,13 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>90.0123207</v>
+        <v>8.49128511216081</v>
       </c>
       <c r="E6" t="n">
-        <v>8.49128511216081</v>
-      </c>
-      <c r="F6" t="n">
         <v>11.7767803906131</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
+      <c r="F6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -516,16 +495,13 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>95.4728013</v>
+        <v>9.00639790187053</v>
       </c>
       <c r="E7" t="n">
-        <v>9.00639790187053</v>
-      </c>
-      <c r="F7" t="n">
         <v>11.1032180778101</v>
       </c>
-      <c r="G7" t="s">
-        <v>7</v>
+      <c r="F7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -539,16 +515,13 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>90.0123207</v>
+        <v>8.49128511216081</v>
       </c>
       <c r="E8" t="n">
-        <v>8.49128511216081</v>
-      </c>
-      <c r="F8" t="n">
         <v>11.7767803906131</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
+      <c r="F8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -562,16 +535,13 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>95.4728013</v>
+        <v>9.00639790187053</v>
       </c>
       <c r="E9" t="n">
-        <v>9.00639790187053</v>
-      </c>
-      <c r="F9" t="n">
         <v>11.1032180778101</v>
       </c>
-      <c r="G9" t="s">
-        <v>7</v>
+      <c r="F9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -585,16 +555,13 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>90.0123207</v>
+        <v>8.49128511216081</v>
       </c>
       <c r="E10" t="n">
-        <v>8.49128511216081</v>
-      </c>
-      <c r="F10" t="n">
         <v>11.7767803906131</v>
       </c>
-      <c r="G10" t="s">
-        <v>7</v>
+      <c r="F10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +575,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>95.4728013</v>
+        <v>9.00639790187053</v>
       </c>
       <c r="E11" t="n">
-        <v>9.00639790187053</v>
-      </c>
-      <c r="F11" t="n">
         <v>11.1032180778101</v>
       </c>
-      <c r="G11" t="s">
-        <v>7</v>
+      <c r="F11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -631,16 +595,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>90.0123207</v>
+        <v>8.49128511216081</v>
       </c>
       <c r="E12" t="n">
-        <v>8.49128511216081</v>
-      </c>
-      <c r="F12" t="n">
         <v>11.7767803906131</v>
       </c>
-      <c r="G12" t="s">
-        <v>7</v>
+      <c r="F12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -654,16 +615,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>95.4728013</v>
+        <v>9.00639790187053</v>
       </c>
       <c r="E13" t="n">
-        <v>9.00639790187053</v>
-      </c>
-      <c r="F13" t="n">
         <v>11.1032180778101</v>
       </c>
-      <c r="G13" t="s">
-        <v>7</v>
+      <c r="F13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -677,16 +635,13 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>8.95234817257656</v>
       </c>
       <c r="E14" t="n">
-        <v>8.95234817257656</v>
-      </c>
-      <c r="F14" t="n">
         <v>11.1702536666667</v>
       </c>
-      <c r="G14" t="s">
-        <v>7</v>
+      <c r="F14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +655,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>9.43346982516007</v>
       </c>
       <c r="E15" t="n">
-        <v>9.43346982516007</v>
-      </c>
-      <c r="F15" t="n">
         <v>10.6005533333333</v>
       </c>
-      <c r="G15" t="s">
-        <v>7</v>
+      <c r="F15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -723,16 +675,13 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>8.80683501988627</v>
       </c>
       <c r="E16" t="n">
-        <v>8.80683501988627</v>
-      </c>
-      <c r="F16" t="n">
         <v>11.354817</v>
       </c>
-      <c r="G16" t="s">
-        <v>7</v>
+      <c r="F16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -746,16 +695,13 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>9.00954471166754</v>
       </c>
       <c r="E17" t="n">
-        <v>9.00954471166754</v>
-      </c>
-      <c r="F17" t="n">
         <v>11.09934</v>
       </c>
-      <c r="G17" t="s">
-        <v>7</v>
+      <c r="F17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -769,16 +715,13 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>9.1586925746541</v>
       </c>
       <c r="E18" t="n">
-        <v>9.1586925746541</v>
-      </c>
-      <c r="F18" t="n">
         <v>10.918589</v>
       </c>
-      <c r="G18" t="s">
-        <v>7</v>
+      <c r="F18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -792,16 +735,13 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>9.37219742009022</v>
       </c>
       <c r="E19" t="n">
-        <v>9.37219742009022</v>
-      </c>
-      <c r="F19" t="n">
         <v>10.6698563333333</v>
       </c>
-      <c r="G19" t="s">
-        <v>7</v>
+      <c r="F19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +755,13 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>103.632133333333</v>
+        <v>9.27750939466877</v>
       </c>
       <c r="E20" t="n">
-        <v>9.27750939466877</v>
-      </c>
-      <c r="F20" t="n">
         <v>10.7787549164288</v>
       </c>
-      <c r="G20" t="s">
-        <v>7</v>
+      <c r="F20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -838,16 +775,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>103.794733333333</v>
+        <v>9.79144484910536</v>
       </c>
       <c r="E21" t="n">
-        <v>9.79144484910536</v>
-      </c>
-      <c r="F21" t="n">
         <v>10.2129973197099</v>
       </c>
-      <c r="G21" t="s">
-        <v>7</v>
+      <c r="F21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -861,16 +795,13 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>103.707466666667</v>
+        <v>9.13334549263688</v>
       </c>
       <c r="E22" t="n">
-        <v>9.13334549263688</v>
-      </c>
-      <c r="F22" t="n">
         <v>10.9488905331149</v>
       </c>
-      <c r="G22" t="s">
-        <v>7</v>
+      <c r="F22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -884,16 +815,13 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>104.122633333333</v>
+        <v>9.38097520513232</v>
       </c>
       <c r="E23" t="n">
-        <v>9.38097520513232</v>
-      </c>
-      <c r="F23" t="n">
         <v>10.6598725413207</v>
       </c>
-      <c r="G23" t="s">
-        <v>7</v>
+      <c r="F23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -907,16 +835,13 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>103.711966666667</v>
+        <v>9.49866019012774</v>
       </c>
       <c r="E24" t="n">
-        <v>9.49866019012774</v>
-      </c>
-      <c r="F24" t="n">
         <v>10.5278005527488</v>
       </c>
-      <c r="G24" t="s">
-        <v>7</v>
+      <c r="F24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -930,16 +855,13 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>104.4529</v>
+        <v>9.78953199900942</v>
       </c>
       <c r="E25" t="n">
-        <v>9.78953199900942</v>
-      </c>
-      <c r="F25" t="n">
         <v>10.2149929138715</v>
       </c>
-      <c r="G25" t="s">
-        <v>7</v>
+      <c r="F25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -953,16 +875,13 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>111.063166666667</v>
+        <v>9.942761371489</v>
       </c>
       <c r="E26" t="n">
-        <v>9.942761371489</v>
-      </c>
-      <c r="F26" t="n">
         <v>10.0575681406527</v>
       </c>
-      <c r="G26" t="s">
-        <v>7</v>
+      <c r="F26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -976,16 +895,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>110.505433333333</v>
+        <v>10.4244967086624</v>
       </c>
       <c r="E27" t="n">
-        <v>10.4244967086624</v>
-      </c>
-      <c r="F27" t="n">
         <v>9.59278925349975</v>
       </c>
-      <c r="G27" t="s">
-        <v>7</v>
+      <c r="F27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -999,16 +915,13 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>110.240233333333</v>
+        <v>9.70867547520434</v>
       </c>
       <c r="E28" t="n">
-        <v>9.70867547520434</v>
-      </c>
-      <c r="F28" t="n">
         <v>10.300066188781</v>
       </c>
-      <c r="G28" t="s">
-        <v>7</v>
+      <c r="F28" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1022,16 +935,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>111.430333333333</v>
+        <v>10.0393657040268</v>
       </c>
       <c r="E29" t="n">
-        <v>10.0393657040268</v>
-      </c>
-      <c r="F29" t="n">
         <v>9.96078865419649</v>
       </c>
-      <c r="G29" t="s">
-        <v>7</v>
+      <c r="F29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1045,16 +955,13 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>110.1325</v>
+        <v>10.0866970997809</v>
       </c>
       <c r="E30" t="n">
-        <v>10.0866970997809</v>
-      </c>
-      <c r="F30" t="n">
         <v>9.91404807845096</v>
       </c>
-      <c r="G30" t="s">
-        <v>7</v>
+      <c r="F30" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1068,16 +975,13 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>110.282166666667</v>
+        <v>10.3358623791529</v>
       </c>
       <c r="E31" t="n">
-        <v>10.3358623791529</v>
-      </c>
-      <c r="F31" t="n">
         <v>9.67505142112732</v>
       </c>
-      <c r="G31" t="s">
-        <v>7</v>
+      <c r="F31" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1091,16 +995,13 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>115.721166666667</v>
+        <v>10.3597617493676</v>
       </c>
       <c r="E32" t="n">
-        <v>10.3597617493676</v>
-      </c>
-      <c r="F32" t="n">
         <v>9.65273163797461</v>
       </c>
-      <c r="G32" t="s">
-        <v>7</v>
+      <c r="F32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1114,16 +1015,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>115.829533333333</v>
+        <v>10.9267440756237</v>
       </c>
       <c r="E33" t="n">
-        <v>10.9267440756237</v>
-      </c>
-      <c r="F33" t="n">
         <v>9.15185706811677</v>
       </c>
-      <c r="G33" t="s">
-        <v>7</v>
+      <c r="F33" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1137,16 +1035,13 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>114.741733333333</v>
+        <v>10.1051151536245</v>
       </c>
       <c r="E34" t="n">
-        <v>10.1051151536245</v>
-      </c>
-      <c r="F34" t="n">
         <v>9.89597827236356</v>
       </c>
-      <c r="G34" t="s">
-        <v>7</v>
+      <c r="F34" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1160,16 +1055,13 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9341</v>
+        <v>10.4451345755694</v>
       </c>
       <c r="E35" t="n">
-        <v>10.4451345755694</v>
-      </c>
-      <c r="F35" t="n">
         <v>9.57383548067393</v>
       </c>
-      <c r="G35" t="s">
-        <v>7</v>
+      <c r="F35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1183,16 +1075,13 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>115.321166666667</v>
+        <v>10.5619111285045</v>
       </c>
       <c r="E36" t="n">
-        <v>10.5619111285045</v>
-      </c>
-      <c r="F36" t="n">
         <v>9.46798347224491</v>
       </c>
-      <c r="G36" t="s">
-        <v>7</v>
+      <c r="F36" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1206,16 +1095,13 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>115.158866666667</v>
+        <v>10.7929163307385</v>
       </c>
       <c r="E37" t="n">
-        <v>10.7929163307385</v>
-      </c>
-      <c r="F37" t="n">
         <v>9.26533634984251</v>
       </c>
-      <c r="G37" t="s">
-        <v>7</v>
+      <c r="F37" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1229,16 +1115,13 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>122.197666666667</v>
+        <v>10.9395605787645</v>
       </c>
       <c r="E38" t="n">
-        <v>10.9395605787645</v>
-      </c>
-      <c r="F38" t="n">
         <v>9.14113499166651</v>
       </c>
-      <c r="G38" t="s">
-        <v>7</v>
+      <c r="F38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1252,16 +1135,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>121.8106</v>
+        <v>11.4909661948464</v>
       </c>
       <c r="E39" t="n">
-        <v>11.4909661948464</v>
-      </c>
-      <c r="F39" t="n">
         <v>8.70248839865606</v>
       </c>
-      <c r="G39" t="s">
-        <v>7</v>
+      <c r="F39" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1275,16 +1155,13 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>119.9581</v>
+        <v>10.5645119599902</v>
       </c>
       <c r="E40" t="n">
-        <v>10.5645119599902</v>
-      </c>
-      <c r="F40" t="n">
         <v>9.4656525903628</v>
       </c>
-      <c r="G40" t="s">
-        <v>7</v>
+      <c r="F40" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1298,16 +1175,13 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>121.937633333333</v>
+        <v>10.9860255955159</v>
       </c>
       <c r="E41" t="n">
-        <v>10.9860255955159</v>
-      </c>
-      <c r="F41" t="n">
         <v>9.10247287616156</v>
       </c>
-      <c r="G41" t="s">
-        <v>7</v>
+      <c r="F41" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1321,16 +1195,13 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>121.814233333333</v>
+        <v>11.1565911431718</v>
       </c>
       <c r="E42" t="n">
-        <v>11.1565911431718</v>
-      </c>
-      <c r="F42" t="n">
         <v>8.96331134812653</v>
       </c>
-      <c r="G42" t="s">
-        <v>7</v>
+      <c r="F42" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1344,16 +1215,13 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>120.869166666667</v>
+        <v>11.3280969200179</v>
       </c>
       <c r="E43" t="n">
-        <v>11.3280969200179</v>
-      </c>
-      <c r="F43" t="n">
         <v>8.82760808863578</v>
       </c>
-      <c r="G43" t="s">
-        <v>7</v>
+      <c r="F43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1367,16 +1235,13 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>130.577566666667</v>
+        <v>11.6897584032783</v>
       </c>
       <c r="E44" t="n">
-        <v>11.6897584032783</v>
-      </c>
-      <c r="F44" t="n">
         <v>8.55449672697735</v>
       </c>
-      <c r="G44" t="s">
-        <v>7</v>
+      <c r="F44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1390,16 +1255,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>130.2696</v>
+        <v>12.2889434073567</v>
       </c>
       <c r="E45" t="n">
-        <v>12.2889434073567</v>
-      </c>
-      <c r="F45" t="n">
         <v>8.13739608729384</v>
       </c>
-      <c r="G45" t="s">
-        <v>7</v>
+      <c r="F45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1413,16 +1275,13 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>127.464966666667</v>
+        <v>11.2256293224864</v>
       </c>
       <c r="E46" t="n">
-        <v>11.2256293224864</v>
-      </c>
-      <c r="F46" t="n">
         <v>8.90818653700664</v>
       </c>
-      <c r="G46" t="s">
-        <v>7</v>
+      <c r="F46" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1436,16 +1295,13 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>129.710633333333</v>
+        <v>11.6863375059538</v>
       </c>
       <c r="E47" t="n">
-        <v>11.6863375059538</v>
-      </c>
-      <c r="F47" t="n">
         <v>8.5570008524102</v>
       </c>
-      <c r="G47" t="s">
-        <v>7</v>
+      <c r="F47" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1459,16 +1315,13 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>130.1431</v>
+        <v>11.9194064361247</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9194064361247</v>
-      </c>
-      <c r="F48" t="n">
         <v>8.38967951431924</v>
       </c>
-      <c r="G48" t="s">
-        <v>7</v>
+      <c r="F48" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1482,16 +1335,13 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>129.6888</v>
+        <v>12.154690367746</v>
       </c>
       <c r="E49" t="n">
-        <v>12.154690367746</v>
-      </c>
-      <c r="F49" t="n">
         <v>8.22727662938768</v>
       </c>
-      <c r="G49" t="s">
-        <v>7</v>
+      <c r="F49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -1505,16 +1355,13 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>141.3977</v>
+        <v>12.6584144120153</v>
       </c>
       <c r="E50" t="n">
-        <v>12.6584144120153</v>
-      </c>
-      <c r="F50" t="n">
         <v>7.89988356717731</v>
       </c>
-      <c r="G50" t="s">
-        <v>7</v>
+      <c r="F50" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1528,16 +1375,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>140.5254</v>
+        <v>13.2564212056855</v>
       </c>
       <c r="E51" t="n">
-        <v>13.2564212056855</v>
-      </c>
-      <c r="F51" t="n">
         <v>7.54351407883083</v>
       </c>
-      <c r="G51" t="s">
-        <v>7</v>
+      <c r="F51" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1551,16 +1395,13 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>137.5316</v>
+        <v>12.1121811122099</v>
       </c>
       <c r="E52" t="n">
-        <v>12.1121811122099</v>
-      </c>
-      <c r="F52" t="n">
         <v>8.25615131358902</v>
       </c>
-      <c r="G52" t="s">
-        <v>7</v>
+      <c r="F52" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1574,16 +1415,13 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>140.7143</v>
+        <v>12.67771777421</v>
       </c>
       <c r="E53" t="n">
-        <v>12.67771777421</v>
-      </c>
-      <c r="F53" t="n">
         <v>7.88785503676598</v>
       </c>
-      <c r="G53" t="s">
-        <v>7</v>
+      <c r="F53" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1597,16 +1435,13 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>140.375266666667</v>
+        <v>12.8565391248509</v>
       </c>
       <c r="E54" t="n">
-        <v>12.8565391248509</v>
-      </c>
-      <c r="F54" t="n">
         <v>7.77814301569745</v>
       </c>
-      <c r="G54" t="s">
-        <v>7</v>
+      <c r="F54" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1620,16 +1455,13 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>140.1932</v>
+        <v>13.1391834735419</v>
       </c>
       <c r="E55" t="n">
-        <v>13.1391834735419</v>
-      </c>
-      <c r="F55" t="n">
         <v>7.61082301661802</v>
       </c>
-      <c r="G55" t="s">
-        <v>7</v>
+      <c r="F55" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1643,16 +1475,13 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>157.929566666667</v>
+        <v>14.1384046754414</v>
       </c>
       <c r="E56" t="n">
-        <v>14.1384046754414</v>
-      </c>
-      <c r="F56" t="n">
         <v>7.07293377828555</v>
       </c>
-      <c r="G56" t="s">
-        <v>7</v>
+      <c r="F56" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1666,16 +1495,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>156.594266666667</v>
+        <v>14.7722728939307</v>
       </c>
       <c r="E57" t="n">
-        <v>14.7722728939307</v>
-      </c>
-      <c r="F57" t="n">
         <v>6.76943898329186</v>
       </c>
-      <c r="G57" t="s">
-        <v>7</v>
+      <c r="F57" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1689,16 +1515,13 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>153.9385</v>
+        <v>13.5571097270876</v>
       </c>
       <c r="E58" t="n">
-        <v>13.5571097270876</v>
-      </c>
-      <c r="F58" t="n">
         <v>7.37620348385881</v>
       </c>
-      <c r="G58" t="s">
-        <v>7</v>
+      <c r="F58" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -1712,16 +1535,13 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>156.983366666667</v>
+        <v>14.1434866097143</v>
       </c>
       <c r="E59" t="n">
-        <v>14.1434866097143</v>
-      </c>
-      <c r="F59" t="n">
         <v>7.07039238339688</v>
       </c>
-      <c r="G59" t="s">
-        <v>7</v>
+      <c r="F59" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1735,16 +1555,13 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>156.6349</v>
+        <v>14.3457089556169</v>
       </c>
       <c r="E60" t="n">
-        <v>14.3457089556169</v>
-      </c>
-      <c r="F60" t="n">
         <v>6.97072555350053</v>
       </c>
-      <c r="G60" t="s">
-        <v>7</v>
+      <c r="F60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -1758,16 +1575,13 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>155.776266666667</v>
+        <v>14.5996592456462</v>
       </c>
       <c r="E61" t="n">
-        <v>14.5996592456462</v>
-      </c>
-      <c r="F61" t="n">
         <v>6.84947493071259</v>
       </c>
-      <c r="G61" t="s">
-        <v>7</v>
+      <c r="F61" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1781,16 +1595,13 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>182.5064</v>
+        <v>16.3386083652353</v>
       </c>
       <c r="E62" t="n">
-        <v>16.3386083652353</v>
-      </c>
-      <c r="F62" t="n">
         <v>6.12047230489817</v>
       </c>
-      <c r="G62" t="s">
-        <v>7</v>
+      <c r="F62" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1804,16 +1615,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>178.89</v>
+        <v>16.8755341702288</v>
       </c>
       <c r="E63" t="n">
-        <v>16.8755341702288</v>
-      </c>
-      <c r="F63" t="n">
         <v>5.92573834945125</v>
       </c>
-      <c r="G63" t="s">
-        <v>7</v>
+      <c r="F63" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1827,16 +1635,13 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>176.150033333333</v>
+        <v>15.5132428231413</v>
       </c>
       <c r="E64" t="n">
-        <v>15.5132428231413</v>
-      </c>
-      <c r="F64" t="n">
         <v>6.44610550740742</v>
       </c>
-      <c r="G64" t="s">
-        <v>7</v>
+      <c r="F64" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1850,16 +1655,13 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>179.108033333333</v>
+        <v>16.1368183453551</v>
       </c>
       <c r="E65" t="n">
-        <v>16.1368183453551</v>
-      </c>
-      <c r="F65" t="n">
         <v>6.19700847216791</v>
       </c>
-      <c r="G65" t="s">
-        <v>7</v>
+      <c r="F65" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1873,16 +1675,13 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>179.825133333333</v>
+        <v>16.4696311339618</v>
       </c>
       <c r="E66" t="n">
-        <v>16.4696311339618</v>
-      </c>
-      <c r="F66" t="n">
         <v>6.07178140096842</v>
       </c>
-      <c r="G66" t="s">
-        <v>7</v>
+      <c r="F66" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1896,16 +1695,13 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>180.3077</v>
+        <v>16.898793607624</v>
       </c>
       <c r="E67" t="n">
-        <v>16.898793607624</v>
-      </c>
-      <c r="F67" t="n">
         <v>5.91758218497232</v>
       </c>
-      <c r="G67" t="s">
-        <v>7</v>
+      <c r="F67" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1919,16 +1715,13 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>201.0445</v>
+        <v>17.9982036218157</v>
       </c>
       <c r="E68" t="n">
-        <v>17.9982036218157</v>
-      </c>
-      <c r="F68" t="n">
         <v>5.5561100486045</v>
       </c>
-      <c r="G68" t="s">
-        <v>7</v>
+      <c r="F68" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -1942,16 +1735,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>197.083733333333</v>
+        <v>18.5918345142989</v>
       </c>
       <c r="E69" t="n">
-        <v>18.5918345142989</v>
-      </c>
-      <c r="F69" t="n">
         <v>5.37870536245846</v>
       </c>
-      <c r="G69" t="s">
-        <v>7</v>
+      <c r="F69" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1965,16 +1755,13 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>195.962633333333</v>
+        <v>17.2581058182913</v>
       </c>
       <c r="E70" t="n">
-        <v>17.2581058182913</v>
-      </c>
-      <c r="F70" t="n">
         <v>5.79437865620299</v>
       </c>
-      <c r="G70" t="s">
-        <v>7</v>
+      <c r="F70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -1988,16 +1775,13 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>198.166833333333</v>
+        <v>17.8539294528624</v>
       </c>
       <c r="E71" t="n">
-        <v>17.8539294528624</v>
-      </c>
-      <c r="F71" t="n">
         <v>5.6010079049555</v>
       </c>
-      <c r="G71" t="s">
-        <v>7</v>
+      <c r="F71" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2011,16 +1795,13 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>197.316333333333</v>
+        <v>18.0715963695797</v>
       </c>
       <c r="E72" t="n">
-        <v>18.0715963695797</v>
-      </c>
-      <c r="F72" t="n">
         <v>5.5335454574634</v>
       </c>
-      <c r="G72" t="s">
-        <v>7</v>
+      <c r="F72" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2034,16 +1815,13 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>198.195333333333</v>
+        <v>18.5752579174059</v>
       </c>
       <c r="E73" t="n">
-        <v>18.5752579174059</v>
-      </c>
-      <c r="F73" t="n">
         <v>5.38350532975886</v>
       </c>
-      <c r="G73" t="s">
-        <v>7</v>
+      <c r="F73" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -2057,16 +1835,13 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>222.5311</v>
+        <v>19.9217588642645</v>
       </c>
       <c r="E74" t="n">
-        <v>19.9217588642645</v>
-      </c>
-      <c r="F74" t="n">
         <v>5.01963710540534</v>
       </c>
-      <c r="G74" t="s">
-        <v>7</v>
+      <c r="F74" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -2080,16 +1855,13 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>218.645566666667</v>
+        <v>20.6258635555502</v>
       </c>
       <c r="E75" t="n">
-        <v>20.6258635555502</v>
-      </c>
-      <c r="F75" t="n">
         <v>4.84828185402646</v>
       </c>
-      <c r="G75" t="s">
-        <v>7</v>
+      <c r="F75" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -2103,16 +1875,13 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>218.759366666667</v>
+        <v>19.2657765128814</v>
       </c>
       <c r="E76" t="n">
-        <v>19.2657765128814</v>
-      </c>
-      <c r="F76" t="n">
         <v>5.19055123125395</v>
       </c>
-      <c r="G76" t="s">
-        <v>7</v>
+      <c r="F76" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -2126,16 +1895,13 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>222.4216</v>
+        <v>20.0391735004063</v>
       </c>
       <c r="E77" t="n">
-        <v>20.0391735004063</v>
-      </c>
-      <c r="F77" t="n">
         <v>4.99022576943966</v>
       </c>
-      <c r="G77" t="s">
-        <v>7</v>
+      <c r="F77" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -2149,16 +1915,13 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>219.296</v>
+        <v>20.0846464685135</v>
       </c>
       <c r="E78" t="n">
-        <v>20.0846464685135</v>
-      </c>
-      <c r="F78" t="n">
         <v>4.9789275682183</v>
       </c>
-      <c r="G78" t="s">
-        <v>7</v>
+      <c r="F78" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -2172,16 +1935,13 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>219.9458</v>
+        <v>20.6137545931968</v>
       </c>
       <c r="E79" t="n">
-        <v>20.6137545931968</v>
-      </c>
-      <c r="F79" t="n">
         <v>4.85112983895729</v>
       </c>
-      <c r="G79" t="s">
-        <v>7</v>
+      <c r="F79" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -2195,16 +1955,13 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>246.5203</v>
+        <v>22.0693555720803</v>
       </c>
       <c r="E80" t="n">
-        <v>22.0693555720803</v>
-      </c>
-      <c r="F80" t="n">
         <v>4.53116991447222</v>
       </c>
-      <c r="G80" t="s">
-        <v>7</v>
+      <c r="F80" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -2218,16 +1975,13 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>239.961233333333</v>
+        <v>22.6366705385819</v>
       </c>
       <c r="E81" t="n">
-        <v>22.6366705385819</v>
-      </c>
-      <c r="F81" t="n">
         <v>4.41761078907607</v>
       </c>
-      <c r="G81" t="s">
-        <v>7</v>
+      <c r="F81" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -2241,16 +1995,13 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>240.9294</v>
+        <v>21.2182547724019</v>
       </c>
       <c r="E82" t="n">
-        <v>21.2182547724019</v>
-      </c>
-      <c r="F82" t="n">
         <v>4.71292295585346</v>
       </c>
-      <c r="G82" t="s">
-        <v>7</v>
+      <c r="F82" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -2264,16 +2015,13 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>245.134033333333</v>
+        <v>22.0854603366807</v>
       </c>
       <c r="E83" t="n">
-        <v>22.0854603366807</v>
-      </c>
-      <c r="F83" t="n">
         <v>4.52786577574364</v>
       </c>
-      <c r="G83" t="s">
-        <v>7</v>
+      <c r="F83" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -2287,16 +2035,13 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>241.263333333333</v>
+        <v>22.096566995363</v>
       </c>
       <c r="E84" t="n">
-        <v>22.096566995363</v>
-      </c>
-      <c r="F84" t="n">
         <v>4.52558988104284</v>
       </c>
-      <c r="G84" t="s">
-        <v>7</v>
+      <c r="F84" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -2310,16 +2055,13 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>242.979666666667</v>
+        <v>22.7725340506772</v>
       </c>
       <c r="E85" t="n">
-        <v>22.7725340506772</v>
-      </c>
-      <c r="F85" t="n">
         <v>4.39125482379184</v>
       </c>
-      <c r="G85" t="s">
-        <v>7</v>
+      <c r="F85" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -2333,16 +2075,13 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>280.290433333333</v>
+        <v>25.0925754864236</v>
       </c>
       <c r="E86" t="n">
-        <v>25.0925754864236</v>
-      </c>
-      <c r="F86" t="n">
         <v>3.98524256922552</v>
       </c>
-      <c r="G86" t="s">
-        <v>7</v>
+      <c r="F86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -2356,16 +2095,13 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>270.729833333333</v>
+        <v>25.5392171352061</v>
       </c>
       <c r="E87" t="n">
-        <v>25.5392171352061</v>
-      </c>
-      <c r="F87" t="n">
         <v>3.91554680280895</v>
       </c>
-      <c r="G87" t="s">
-        <v>7</v>
+      <c r="F87" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2379,16 +2115,13 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>273.770233333333</v>
+        <v>24.1104927832244</v>
       </c>
       <c r="E88" t="n">
-        <v>24.1104927832244</v>
-      </c>
-      <c r="F88" t="n">
         <v>4.14757180199893</v>
       </c>
-      <c r="G88" t="s">
-        <v>7</v>
+      <c r="F88" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -2402,16 +2135,13 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>275.411</v>
+        <v>24.8132771858507</v>
       </c>
       <c r="E89" t="n">
-        <v>24.8132771858507</v>
-      </c>
-      <c r="F89" t="n">
         <v>4.03010046802778</v>
       </c>
-      <c r="G89" t="s">
-        <v>7</v>
+      <c r="F89" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -2425,16 +2155,13 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>273.831366666667</v>
+        <v>25.0793730459739</v>
       </c>
       <c r="E90" t="n">
-        <v>25.0793730459739</v>
-      </c>
-      <c r="F90" t="n">
         <v>3.98734050554958</v>
       </c>
-      <c r="G90" t="s">
-        <v>7</v>
+      <c r="F90" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -2448,16 +2175,13 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>274.774233333333</v>
+        <v>25.7523836075394</v>
       </c>
       <c r="E91" t="n">
-        <v>25.7523836075394</v>
-      </c>
-      <c r="F91" t="n">
         <v>3.88313569431001</v>
       </c>
-      <c r="G91" t="s">
-        <v>7</v>
+      <c r="F91" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -2471,16 +2195,13 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>305.498233333333</v>
+        <v>27.3492655090703</v>
       </c>
       <c r="E92" t="n">
-        <v>27.3492655090703</v>
-      </c>
-      <c r="F92" t="n">
         <v>3.65640532345686</v>
       </c>
-      <c r="G92" t="s">
-        <v>7</v>
+      <c r="F92" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -2494,16 +2215,13 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>293.485233333333</v>
+        <v>27.6858409278006</v>
       </c>
       <c r="E93" t="n">
-        <v>27.6858409278006</v>
-      </c>
-      <c r="F93" t="n">
         <v>3.61195458215558</v>
       </c>
-      <c r="G93" t="s">
-        <v>7</v>
+      <c r="F93" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -2517,16 +2235,13 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>301.4497</v>
+        <v>26.5481777469421</v>
       </c>
       <c r="E94" t="n">
-        <v>26.5481777469421</v>
-      </c>
-      <c r="F94" t="n">
         <v>3.76673687185623</v>
       </c>
-      <c r="G94" t="s">
-        <v>7</v>
+      <c r="F94" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -2540,16 +2255,13 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>299.874866666667</v>
+        <v>27.0173601913868</v>
       </c>
       <c r="E95" t="n">
-        <v>27.0173601913868</v>
-      </c>
-      <c r="F95" t="n">
         <v>3.70132386330921</v>
       </c>
-      <c r="G95" t="s">
-        <v>7</v>
+      <c r="F95" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -2563,16 +2275,13 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>298.923266666667</v>
+        <v>27.3774630281135</v>
       </c>
       <c r="E96" t="n">
-        <v>27.3774630281135</v>
-      </c>
-      <c r="F96" t="n">
         <v>3.65263939530524</v>
       </c>
-      <c r="G96" t="s">
-        <v>7</v>
+      <c r="F96" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -2586,16 +2295,13 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>299.667</v>
+        <v>28.0853828428618</v>
       </c>
       <c r="E97" t="n">
-        <v>28.0853828428618</v>
-      </c>
-      <c r="F97" t="n">
         <v>3.56057101160066</v>
       </c>
-      <c r="G97" t="s">
-        <v>7</v>
+      <c r="F97" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2609,16 +2315,13 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>323.545833333333</v>
+        <v>28.9649494978643</v>
       </c>
       <c r="E98" t="n">
-        <v>28.9649494978643</v>
-      </c>
-      <c r="F98" t="n">
         <v>3.45244862268355</v>
       </c>
-      <c r="G98" t="s">
-        <v>7</v>
+      <c r="F98" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -2632,16 +2335,13 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>311.668866666667</v>
+        <v>29.4011884914184</v>
       </c>
       <c r="E99" t="n">
-        <v>29.4011884914184</v>
-      </c>
-      <c r="F99" t="n">
         <v>3.40122305019023</v>
       </c>
-      <c r="G99" t="s">
-        <v>7</v>
+      <c r="F99" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -2655,16 +2355,13 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>323.194366666667</v>
+        <v>28.4631946658996</v>
       </c>
       <c r="E100" t="n">
-        <v>28.4631946658996</v>
-      </c>
-      <c r="F100" t="n">
         <v>3.51330907067171</v>
       </c>
-      <c r="G100" t="s">
-        <v>7</v>
+      <c r="F100" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -2678,16 +2375,13 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>323.110166666667</v>
+        <v>29.1107549337768</v>
       </c>
       <c r="E101" t="n">
-        <v>29.1107549337768</v>
-      </c>
-      <c r="F101" t="n">
         <v>3.43515653329798</v>
       </c>
-      <c r="G101" t="s">
-        <v>7</v>
+      <c r="F101" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -2701,16 +2395,13 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>317.5697</v>
+        <v>29.0852325332513</v>
       </c>
       <c r="E102" t="n">
-        <v>29.0852325332513</v>
-      </c>
-      <c r="F102" t="n">
         <v>3.43817089602692</v>
       </c>
-      <c r="G102" t="s">
-        <v>7</v>
+      <c r="F102" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -2724,16 +2415,13 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>313.756033333333</v>
+        <v>29.4058348614441</v>
       </c>
       <c r="E103" t="n">
-        <v>29.4058348614441</v>
-      </c>
-      <c r="F103" t="n">
         <v>3.4006856282498</v>
       </c>
-      <c r="G103" t="s">
-        <v>7</v>
+      <c r="F103" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -2747,16 +2435,13 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>347.629666666667</v>
+        <v>31.1210181111673</v>
       </c>
       <c r="E104" t="n">
-        <v>31.1210181111673</v>
-      </c>
-      <c r="F104" t="n">
         <v>3.21326248526929</v>
       </c>
-      <c r="G104" t="s">
-        <v>7</v>
+      <c r="F104" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -2770,16 +2455,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>331.758933333333</v>
+        <v>31.2963788682729</v>
       </c>
       <c r="E105" t="n">
-        <v>31.2963788682729</v>
-      </c>
-      <c r="F105" t="n">
         <v>3.19525784183857</v>
       </c>
-      <c r="G105" t="s">
-        <v>7</v>
+      <c r="F105" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2793,16 +2475,13 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>346.333766666667</v>
+        <v>30.5010434484912</v>
       </c>
       <c r="E106" t="n">
-        <v>30.5010434484912</v>
-      </c>
-      <c r="F106" t="n">
         <v>3.27857635981784</v>
       </c>
-      <c r="G106" t="s">
-        <v>7</v>
+      <c r="F106" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -2816,16 +2495,13 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>344.257366666667</v>
+        <v>31.0160213730426</v>
       </c>
       <c r="E107" t="n">
-        <v>31.0160213730426</v>
-      </c>
-      <c r="F107" t="n">
         <v>3.22414015638106</v>
       </c>
-      <c r="G107" t="s">
-        <v>7</v>
+      <c r="F107" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -2839,16 +2515,13 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>340.5463</v>
+        <v>31.1895886913593</v>
       </c>
       <c r="E108" t="n">
-        <v>31.1895886913593</v>
-      </c>
-      <c r="F108" t="n">
         <v>3.20619809993531</v>
       </c>
-      <c r="G108" t="s">
-        <v>7</v>
+      <c r="F108" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -2862,16 +2535,13 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>337.0514</v>
+        <v>31.589122615178</v>
       </c>
       <c r="E109" t="n">
-        <v>31.589122615178</v>
-      </c>
-      <c r="F109" t="n">
         <v>3.16564664420125</v>
       </c>
-      <c r="G109" t="s">
-        <v>7</v>
+      <c r="F109" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -2885,16 +2555,13 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>385.318266666667</v>
+        <v>34.495032804537</v>
       </c>
       <c r="E110" t="n">
-        <v>34.495032804537</v>
-      </c>
-      <c r="F110" t="n">
         <v>2.89896810844161</v>
       </c>
-      <c r="G110" t="s">
-        <v>7</v>
+      <c r="F110" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -2908,16 +2575,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>364.5444</v>
+        <v>34.3891859733108</v>
       </c>
       <c r="E111" t="n">
-        <v>34.3891859733108</v>
-      </c>
-      <c r="F111" t="n">
         <v>2.90789087236927</v>
       </c>
-      <c r="G111" t="s">
-        <v>7</v>
+      <c r="F111" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -2931,16 +2595,13 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>386.326966666667</v>
+        <v>34.0231785916644</v>
       </c>
       <c r="E112" t="n">
-        <v>34.0231785916644</v>
-      </c>
-      <c r="F112" t="n">
         <v>2.93917276807582</v>
       </c>
-      <c r="G112" t="s">
-        <v>7</v>
+      <c r="F112" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -2954,16 +2615,13 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>379.807133333333</v>
+        <v>34.2188934957694</v>
       </c>
       <c r="E113" t="n">
-        <v>34.2188934957694</v>
-      </c>
-      <c r="F113" t="n">
         <v>2.92236217434568</v>
       </c>
-      <c r="G113" t="s">
-        <v>7</v>
+      <c r="F113" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -2977,16 +2635,13 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>377.5436</v>
+        <v>34.5780576592818</v>
       </c>
       <c r="E114" t="n">
-        <v>34.5780576592818</v>
-      </c>
-      <c r="F114" t="n">
         <v>2.89200743967054</v>
       </c>
-      <c r="G114" t="s">
-        <v>7</v>
+      <c r="F114" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -3000,16 +2655,13 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>367.9675</v>
+        <v>34.4866405417705</v>
       </c>
       <c r="E115" t="n">
-        <v>34.4866405417705</v>
-      </c>
-      <c r="F115" t="n">
         <v>2.89967356718551</v>
       </c>
-      <c r="G115" t="s">
-        <v>7</v>
+      <c r="F115" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -3023,16 +2675,13 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>435.683</v>
+        <v>39.0038590887268</v>
       </c>
       <c r="E116" t="n">
-        <v>39.0038590887268</v>
-      </c>
-      <c r="F116" t="n">
         <v>2.56384886871112</v>
       </c>
-      <c r="G116" t="s">
-        <v>7</v>
+      <c r="F116" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -3046,16 +2695,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>405.7949</v>
+        <v>38.2805394435385</v>
       </c>
       <c r="E117" t="n">
-        <v>38.2805394435385</v>
-      </c>
-      <c r="F117" t="n">
         <v>2.61229338597733</v>
       </c>
-      <c r="G117" t="s">
-        <v>7</v>
+      <c r="F117" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -3069,16 +2715,13 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>438.099666666667</v>
+        <v>38.582714866005</v>
       </c>
       <c r="E118" t="n">
-        <v>38.582714866005</v>
-      </c>
-      <c r="F118" t="n">
         <v>2.59183420211078</v>
       </c>
-      <c r="G118" t="s">
-        <v>7</v>
+      <c r="F118" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -3092,16 +2735,13 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>431.347866666667</v>
+        <v>38.8624789101574</v>
       </c>
       <c r="E119" t="n">
-        <v>38.8624789101574</v>
-      </c>
-      <c r="F119" t="n">
         <v>2.57317605063693</v>
       </c>
-      <c r="G119" t="s">
-        <v>7</v>
+      <c r="F119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -3115,16 +2755,13 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>426.5463</v>
+        <v>39.0660643055618</v>
       </c>
       <c r="E120" t="n">
-        <v>39.0660643055618</v>
-      </c>
-      <c r="F120" t="n">
         <v>2.55976643098299</v>
       </c>
-      <c r="G120" t="s">
-        <v>7</v>
+      <c r="F120" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -3138,16 +2775,13 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>410.1074</v>
+        <v>38.4360751623991</v>
       </c>
       <c r="E121" t="n">
-        <v>38.4360751623991</v>
-      </c>
-      <c r="F121" t="n">
         <v>2.60172245936877</v>
       </c>
-      <c r="G121" t="s">
-        <v>7</v>
+      <c r="F121" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -3161,16 +2795,13 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>490.1386</v>
+        <v>43.8789140001924</v>
       </c>
       <c r="E122" t="n">
-        <v>43.8789140001924</v>
-      </c>
-      <c r="F122" t="n">
         <v>2.27899897430373</v>
       </c>
-      <c r="G122" t="s">
-        <v>7</v>
+      <c r="F122" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -3184,16 +2815,13 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>456.488366666667</v>
+        <v>43.062692324866</v>
       </c>
       <c r="E123" t="n">
-        <v>43.062692324866</v>
-      </c>
-      <c r="F123" t="n">
         <v>2.32219572444745</v>
       </c>
-      <c r="G123" t="s">
-        <v>7</v>
+      <c r="F123" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -3207,16 +2835,13 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>486.436633333333</v>
+        <v>42.8396717739558</v>
       </c>
       <c r="E124" t="n">
-        <v>42.8396717739558</v>
-      </c>
-      <c r="F124" t="n">
         <v>2.3342849246757</v>
       </c>
-      <c r="G124" t="s">
-        <v>7</v>
+      <c r="F124" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -3230,16 +2855,13 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>481.144966666667</v>
+        <v>43.3489708997712</v>
       </c>
       <c r="E125" t="n">
-        <v>43.3489708997712</v>
-      </c>
-      <c r="F125" t="n">
         <v>2.30685983829267</v>
       </c>
-      <c r="G125" t="s">
-        <v>7</v>
+      <c r="F125" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -3253,16 +2875,13 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>477.6264</v>
+        <v>43.7443336313877</v>
       </c>
       <c r="E126" t="n">
-        <v>43.7443336313877</v>
-      </c>
-      <c r="F126" t="n">
         <v>2.28601036291126</v>
       </c>
-      <c r="G126" t="s">
-        <v>7</v>
+      <c r="F126" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -3276,16 +2895,13 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>462.262266666667</v>
+        <v>43.3241322305839</v>
       </c>
       <c r="E127" t="n">
-        <v>43.3241322305839</v>
-      </c>
-      <c r="F127" t="n">
         <v>2.30818241131225</v>
       </c>
-      <c r="G127" t="s">
-        <v>7</v>
+      <c r="F127" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -3299,16 +2915,13 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>534.839066666667</v>
+        <v>47.8806554109589</v>
       </c>
       <c r="E128" t="n">
-        <v>47.8806554109589</v>
-      </c>
-      <c r="F128" t="n">
         <v>2.08852613110037</v>
       </c>
-      <c r="G128" t="s">
-        <v>7</v>
+      <c r="F128" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -3322,16 +2935,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>500.0944</v>
+        <v>47.1762543213153</v>
       </c>
       <c r="E129" t="n">
-        <v>47.1762543213153</v>
-      </c>
-      <c r="F129" t="n">
         <v>2.11971046533081</v>
       </c>
-      <c r="G129" t="s">
-        <v>7</v>
+      <c r="F129" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -3345,16 +2955,13 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>529.9534</v>
+        <v>46.672121620278</v>
       </c>
       <c r="E130" t="n">
-        <v>46.672121620278</v>
-      </c>
-      <c r="F130" t="n">
         <v>2.14260668956931</v>
       </c>
-      <c r="G130" t="s">
-        <v>7</v>
+      <c r="F130" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="131">
@@ -3368,16 +2975,13 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>524.182466666667</v>
+        <v>47.2264537050551</v>
       </c>
       <c r="E131" t="n">
-        <v>47.2264537050551</v>
-      </c>
-      <c r="F131" t="n">
         <v>2.11745731797973</v>
       </c>
-      <c r="G131" t="s">
-        <v>7</v>
+      <c r="F131" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -3391,16 +2995,13 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>520.600233333333</v>
+        <v>47.6801749139319</v>
       </c>
       <c r="E132" t="n">
-        <v>47.6801749139319</v>
-      </c>
-      <c r="F132" t="n">
         <v>2.09730774227467</v>
       </c>
-      <c r="G132" t="s">
-        <v>7</v>
+      <c r="F132" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -3414,16 +3015,13 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>511.7215</v>
+        <v>47.959549221047</v>
       </c>
       <c r="E133" t="n">
-        <v>47.959549221047</v>
-      </c>
-      <c r="F133" t="n">
         <v>2.0850904903025</v>
       </c>
-      <c r="G133" t="s">
-        <v>7</v>
+      <c r="F133" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -3437,16 +3035,13 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>582.709166666667</v>
+        <v>52.1661534335195</v>
       </c>
       <c r="E134" t="n">
-        <v>52.1661534335195</v>
-      </c>
-      <c r="F134" t="n">
         <v>1.91695176696208</v>
       </c>
-      <c r="G134" t="s">
-        <v>7</v>
+      <c r="F134" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -3460,16 +3055,13 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>552.082566666667</v>
+        <v>52.0805423364692</v>
       </c>
       <c r="E135" t="n">
-        <v>52.0805423364692</v>
-      </c>
-      <c r="F135" t="n">
         <v>1.92010289282213</v>
       </c>
-      <c r="G135" t="s">
-        <v>7</v>
+      <c r="F135" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="136">
@@ -3483,16 +3075,13 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>583.5421</v>
+        <v>51.3915900185798</v>
       </c>
       <c r="E136" t="n">
-        <v>51.3915900185798</v>
-      </c>
-      <c r="F136" t="n">
         <v>1.94584366749203</v>
       </c>
-      <c r="G136" t="s">
-        <v>7</v>
+      <c r="F136" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -3506,16 +3095,13 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>574.417433333333</v>
+        <v>51.7523954877798</v>
       </c>
       <c r="E137" t="n">
-        <v>51.7523954877798</v>
-      </c>
-      <c r="F137" t="n">
         <v>1.9322777053598</v>
       </c>
-      <c r="G137" t="s">
-        <v>7</v>
+      <c r="F137" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -3529,16 +3115,13 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>571.521366666667</v>
+        <v>52.3438849714617</v>
       </c>
       <c r="E138" t="n">
-        <v>52.3438849714617</v>
-      </c>
-      <c r="F138" t="n">
         <v>1.91044283500395</v>
       </c>
-      <c r="G138" t="s">
-        <v>7</v>
+      <c r="F138" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -3552,16 +3135,13 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>558.984266666667</v>
+        <v>52.3891090192436</v>
       </c>
       <c r="E139" t="n">
-        <v>52.3891090192436</v>
-      </c>
-      <c r="F139" t="n">
         <v>1.9087936762442</v>
       </c>
-      <c r="G139" t="s">
-        <v>7</v>
+      <c r="F139" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -3575,16 +3155,13 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>664.817766666667</v>
+        <v>59.5168011851477</v>
       </c>
       <c r="E140" t="n">
-        <v>59.5168011851477</v>
-      </c>
-      <c r="F140" t="n">
         <v>1.68019782664252</v>
       </c>
-      <c r="G140" t="s">
-        <v>7</v>
+      <c r="F140" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -3598,16 +3175,13 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>625.2638</v>
+        <v>58.9840719006492</v>
       </c>
       <c r="E141" t="n">
-        <v>58.9840719006492</v>
-      </c>
-      <c r="F141" t="n">
         <v>1.69537295031846</v>
       </c>
-      <c r="G141" t="s">
-        <v>7</v>
+      <c r="F141" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -3621,16 +3195,13 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>663.610133333333</v>
+        <v>58.443049617914</v>
       </c>
       <c r="E142" t="n">
-        <v>58.443049617914</v>
-      </c>
-      <c r="F142" t="n">
         <v>1.71106745205418</v>
       </c>
-      <c r="G142" t="s">
-        <v>7</v>
+      <c r="F142" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -3644,16 +3215,13 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>653.406466666667</v>
+        <v>58.8689477632604</v>
       </c>
       <c r="E143" t="n">
-        <v>58.8689477632604</v>
-      </c>
-      <c r="F143" t="n">
         <v>1.6986884223266</v>
       </c>
-      <c r="G143" t="s">
-        <v>7</v>
+      <c r="F143" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="144">
@@ -3667,16 +3235,13 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>646.035133333333</v>
+        <v>59.1683717862567</v>
       </c>
       <c r="E144" t="n">
-        <v>59.1683717862567</v>
-      </c>
-      <c r="F144" t="n">
         <v>1.69009213843581</v>
       </c>
-      <c r="G144" t="s">
-        <v>7</v>
+      <c r="F144" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -3690,16 +3255,13 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>629.7643</v>
+        <v>59.0227534772493</v>
       </c>
       <c r="E145" t="n">
-        <v>59.0227534772493</v>
-      </c>
-      <c r="F145" t="n">
         <v>1.69426185849743</v>
       </c>
-      <c r="G145" t="s">
-        <v>7</v>
+      <c r="F145" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -3713,16 +3275,13 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>787.231533333333</v>
+        <v>70.4757077883131</v>
       </c>
       <c r="E146" t="n">
-        <v>70.4757077883131</v>
-      </c>
-      <c r="F146" t="n">
         <v>1.41892863708966</v>
       </c>
-      <c r="G146" t="s">
-        <v>7</v>
+      <c r="F146" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -3736,16 +3295,13 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>738.620933333333</v>
+        <v>69.6775828683157</v>
       </c>
       <c r="E147" t="n">
-        <v>69.6775828683157</v>
-      </c>
-      <c r="F147" t="n">
         <v>1.43518181721359</v>
       </c>
-      <c r="G147" t="s">
-        <v>7</v>
+      <c r="F147" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -3759,16 +3315,13 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>787.495266666667</v>
+        <v>69.3534089247468</v>
       </c>
       <c r="E148" t="n">
-        <v>69.3534089247468</v>
-      </c>
-      <c r="F148" t="n">
         <v>1.44189019040876</v>
       </c>
-      <c r="G148" t="s">
-        <v>7</v>
+      <c r="F148" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -3782,16 +3335,13 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>777.617033333333</v>
+        <v>70.0597543037094</v>
       </c>
       <c r="E149" t="n">
-        <v>70.0597543037094</v>
-      </c>
-      <c r="F149" t="n">
         <v>1.42735299308216</v>
       </c>
-      <c r="G149" t="s">
-        <v>7</v>
+      <c r="F149" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -3805,16 +3355,13 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>762.5181</v>
+        <v>69.8366886050936</v>
       </c>
       <c r="E150" t="n">
-        <v>69.8366886050936</v>
-      </c>
-      <c r="F150" t="n">
         <v>1.43191210805357</v>
       </c>
-      <c r="G150" t="s">
-        <v>7</v>
+      <c r="F150" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -3828,16 +3375,13 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>745.406833333333</v>
+        <v>69.8610000028429</v>
       </c>
       <c r="E151" t="n">
-        <v>69.8610000028429</v>
-      </c>
-      <c r="F151" t="n">
         <v>1.43141380735934</v>
       </c>
-      <c r="G151" t="s">
-        <v>7</v>
+      <c r="F151" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -3851,16 +3395,13 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>946.058933333333</v>
+        <v>84.694489629764</v>
       </c>
       <c r="E152" t="n">
-        <v>84.694489629764</v>
-      </c>
-      <c r="F152" t="n">
         <v>1.1807143585981</v>
       </c>
-      <c r="G152" t="s">
-        <v>7</v>
+      <c r="F152" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="153">
@@ -3874,16 +3415,13 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>890.474666666667</v>
+        <v>84.0026589806947</v>
       </c>
       <c r="E153" t="n">
-        <v>84.0026589806947</v>
-      </c>
-      <c r="F153" t="n">
         <v>1.19043850770226</v>
       </c>
-      <c r="G153" t="s">
-        <v>7</v>
+      <c r="F153" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="154">
@@ -3897,16 +3435,13 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>954.8906</v>
+        <v>84.0956397624022</v>
       </c>
       <c r="E154" t="n">
-        <v>84.0956397624022</v>
-      </c>
-      <c r="F154" t="n">
         <v>1.18912229317159</v>
       </c>
-      <c r="G154" t="s">
-        <v>7</v>
+      <c r="F154" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="155">
@@ -3920,16 +3455,13 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>937.1281</v>
+        <v>84.4309751751005</v>
       </c>
       <c r="E155" t="n">
-        <v>84.4309751751005</v>
-      </c>
-      <c r="F155" t="n">
         <v>1.18439944336319</v>
       </c>
-      <c r="G155" t="s">
-        <v>7</v>
+      <c r="F155" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="156">
@@ -3943,16 +3475,13 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>920.7258</v>
+        <v>84.3264454775246</v>
       </c>
       <c r="E156" t="n">
-        <v>84.3264454775246</v>
-      </c>
-      <c r="F156" t="n">
         <v>1.1858676057519</v>
       </c>
-      <c r="G156" t="s">
-        <v>7</v>
+      <c r="F156" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="157">
@@ -3966,16 +3495,13 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>899.7004</v>
+        <v>84.3216976773414</v>
       </c>
       <c r="E157" t="n">
-        <v>84.3216976773414</v>
-      </c>
-      <c r="F157" t="n">
         <v>1.18593437696964</v>
       </c>
-      <c r="G157" t="s">
-        <v>7</v>
+      <c r="F157" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -3989,16 +3515,13 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>1117.02536666667</v>
+        <v>100</v>
       </c>
       <c r="E158" t="n">
-        <v>100</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -4012,16 +3535,13 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1060.05533333333</v>
+        <v>100</v>
       </c>
       <c r="E159" t="n">
-        <v>100</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -4035,16 +3555,13 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>1135.4817</v>
+        <v>100</v>
       </c>
       <c r="E160" t="n">
-        <v>100</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -4058,16 +3575,13 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>1109.934</v>
+        <v>100</v>
       </c>
       <c r="E161" t="n">
-        <v>100</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -4081,16 +3595,13 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>1091.8589</v>
+        <v>100</v>
       </c>
       <c r="E162" t="n">
-        <v>100</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -4104,16 +3615,13 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>1066.98563333333</v>
+        <v>100</v>
       </c>
       <c r="E163" t="n">
-        <v>100</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -4127,16 +3635,13 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>1336.82843333333</v>
+        <v>119.677535822001</v>
       </c>
       <c r="E164" t="n">
-        <v>119.677535822001</v>
-      </c>
-      <c r="F164" t="n">
         <v>0.835578701659872</v>
       </c>
-      <c r="G164" t="s">
-        <v>7</v>
+      <c r="F164" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -4150,16 +3655,13 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>1266.48723333333</v>
+        <v>119.473690996005</v>
       </c>
       <c r="E165" t="n">
-        <v>119.473690996005</v>
-      </c>
-      <c r="F165" t="n">
         <v>0.837004357748889</v>
       </c>
-      <c r="G165" t="s">
-        <v>7</v>
+      <c r="F165" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -4173,16 +3675,13 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>1348.25516666667</v>
+        <v>118.738608175426</v>
       </c>
       <c r="E166" t="n">
-        <v>118.738608175426</v>
-      </c>
-      <c r="F166" t="n">
         <v>0.842186055038296</v>
       </c>
-      <c r="G166" t="s">
-        <v>7</v>
+      <c r="F166" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -4196,16 +3695,13 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>1326.36193333333</v>
+        <v>119.499171422205</v>
       </c>
       <c r="E167" t="n">
-        <v>119.499171422205</v>
-      </c>
-      <c r="F167" t="n">
         <v>0.836825885986173</v>
       </c>
-      <c r="G167" t="s">
-        <v>7</v>
+      <c r="F167" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -4219,16 +3715,13 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>1300.638</v>
+        <v>119.12143592913</v>
       </c>
       <c r="E168" t="n">
-        <v>119.12143592913</v>
-      </c>
-      <c r="F168" t="n">
         <v>0.839479470844309</v>
       </c>
-      <c r="G168" t="s">
-        <v>7</v>
+      <c r="F168" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -4242,16 +3735,13 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>1255.9618</v>
+        <v>117.711219416919</v>
       </c>
       <c r="E169" t="n">
-        <v>117.711219416919</v>
-      </c>
-      <c r="F169" t="n">
         <v>0.84953669238454</v>
       </c>
-      <c r="G169" t="s">
-        <v>7</v>
+      <c r="F169" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -4265,16 +3755,13 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>1538.063</v>
+        <v>137.692754873576</v>
       </c>
       <c r="E170" t="n">
-        <v>137.692754873576</v>
-      </c>
-      <c r="F170" t="n">
         <v>0.726254624593834</v>
       </c>
-      <c r="G170" t="s">
-        <v>7</v>
+      <c r="F170" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="171">
@@ -4288,16 +3775,13 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>1475.1378</v>
+        <v>139.15667924253</v>
       </c>
       <c r="E171" t="n">
-        <v>139.15667924253</v>
-      </c>
-      <c r="F171" t="n">
         <v>0.718614446279753</v>
       </c>
-      <c r="G171" t="s">
-        <v>7</v>
+      <c r="F171" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="172">
@@ -4311,16 +3795,13 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>1556.9071</v>
+        <v>137.114239709896</v>
       </c>
       <c r="E172" t="n">
-        <v>137.114239709896</v>
-      </c>
-      <c r="F172" t="n">
         <v>0.729318852743365</v>
       </c>
-      <c r="G172" t="s">
-        <v>7</v>
+      <c r="F172" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -4334,16 +3815,13 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>1530.4512</v>
+        <v>137.886685154252</v>
       </c>
       <c r="E173" t="n">
-        <v>137.886685154252</v>
-      </c>
-      <c r="F173" t="n">
         <v>0.725233186134912</v>
       </c>
-      <c r="G173" t="s">
-        <v>7</v>
+      <c r="F173" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -4357,16 +3835,13 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>1512.803</v>
+        <v>138.552976030145</v>
       </c>
       <c r="E174" t="n">
-        <v>138.552976030145</v>
-      </c>
-      <c r="F174" t="n">
         <v>0.721745594105776</v>
       </c>
-      <c r="G174" t="s">
-        <v>7</v>
+      <c r="F174" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -4380,16 +3855,13 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>1445.0457</v>
+        <v>135.432535814525</v>
       </c>
       <c r="E175" t="n">
-        <v>135.432535814525</v>
-      </c>
-      <c r="F175" t="n">
         <v>0.738375010100603</v>
       </c>
-      <c r="G175" t="s">
-        <v>7</v>
+      <c r="F175" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">nombre_trim_base</t>
   </si>
   <si>
-    <t xml:space="preserve">4to trimestre 2022</t>
+    <t xml:space="preserve">2do trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>8.49128511216081</v>
+        <v>5.68170094458604</v>
       </c>
       <c r="E2" t="n">
-        <v>11.7767803906131</v>
+        <v>17.6003631615437</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -415,10 +415,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>9.00639790187053</v>
+        <v>6.0263739575874</v>
       </c>
       <c r="E3" t="n">
-        <v>11.1032180778101</v>
+        <v>16.5937262944157</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>8.49128511216081</v>
+        <v>5.68170094458604</v>
       </c>
       <c r="E4" t="n">
-        <v>11.7767803906131</v>
+        <v>17.6003631615437</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -455,10 +455,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>9.00639790187053</v>
+        <v>6.0263739575874</v>
       </c>
       <c r="E5" t="n">
-        <v>11.1032180778101</v>
+        <v>16.5937262944157</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -475,10 +475,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>8.49128511216081</v>
+        <v>5.68170094458604</v>
       </c>
       <c r="E6" t="n">
-        <v>11.7767803906131</v>
+        <v>17.6003631615437</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -495,10 +495,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>9.00639790187053</v>
+        <v>6.0263739575874</v>
       </c>
       <c r="E7" t="n">
-        <v>11.1032180778101</v>
+        <v>16.5937262944157</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>8.49128511216081</v>
+        <v>5.68170094458604</v>
       </c>
       <c r="E8" t="n">
-        <v>11.7767803906131</v>
+        <v>17.6003631615437</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -535,10 +535,10 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>9.00639790187053</v>
+        <v>6.0263739575874</v>
       </c>
       <c r="E9" t="n">
-        <v>11.1032180778101</v>
+        <v>16.5937262944157</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>8.49128511216081</v>
+        <v>5.68170094458604</v>
       </c>
       <c r="E10" t="n">
-        <v>11.7767803906131</v>
+        <v>17.6003631615437</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>9.00639790187053</v>
+        <v>6.0263739575874</v>
       </c>
       <c r="E11" t="n">
-        <v>11.1032180778101</v>
+        <v>16.5937262944157</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>8.49128511216081</v>
+        <v>5.68170094458604</v>
       </c>
       <c r="E12" t="n">
-        <v>11.7767803906131</v>
+        <v>17.6003631615437</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>9.00639790187053</v>
+        <v>6.0263739575874</v>
       </c>
       <c r="E13" t="n">
-        <v>11.1032180778101</v>
+        <v>16.5937262944157</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>8.95234817257656</v>
+        <v>6.08325790093536</v>
       </c>
       <c r="E14" t="n">
-        <v>11.1702536666667</v>
+        <v>16.43856</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>9.43346982516007</v>
+        <v>6.31213693903355</v>
       </c>
       <c r="E15" t="n">
-        <v>10.6005533333333</v>
+        <v>15.8424953333333</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -675,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>8.80683501988627</v>
+        <v>5.99037933098685</v>
       </c>
       <c r="E16" t="n">
-        <v>11.354817</v>
+        <v>16.6934336666667</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>9.00954471166754</v>
+        <v>6.0675726145854</v>
       </c>
       <c r="E17" t="n">
-        <v>11.09934</v>
+        <v>16.4810553333333</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -715,10 +715,10 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>9.1586925746541</v>
+        <v>6.16442278595047</v>
       </c>
       <c r="E18" t="n">
-        <v>10.918589</v>
+        <v>16.222119</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>9.37219742009022</v>
+        <v>6.45116229300801</v>
       </c>
       <c r="E19" t="n">
-        <v>10.6698563333333</v>
+        <v>15.5010826666667</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -755,10 +755,10 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>9.27750939466877</v>
+        <v>6.30420993890787</v>
       </c>
       <c r="E20" t="n">
-        <v>10.7787549164288</v>
+        <v>15.8624159044621</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9.79144484910536</v>
+        <v>6.5516657035047</v>
       </c>
       <c r="E21" t="n">
-        <v>10.2129973197099</v>
+        <v>15.2632940271215</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>9.13334549263688</v>
+        <v>6.21247064789007</v>
       </c>
       <c r="E22" t="n">
-        <v>10.9488905331149</v>
+        <v>16.0966555284994</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -815,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>9.38097520513232</v>
+        <v>6.3177163857185</v>
       </c>
       <c r="E23" t="n">
-        <v>10.6598725413207</v>
+        <v>15.8285041452723</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -835,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>9.49866019012774</v>
+        <v>6.39324410495735</v>
       </c>
       <c r="E24" t="n">
-        <v>10.5278005527488</v>
+        <v>15.6415113138664</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -855,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>9.78953199900942</v>
+        <v>6.73842609875336</v>
       </c>
       <c r="E25" t="n">
-        <v>10.2149929138715</v>
+        <v>14.8402606980435</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -875,10 +875,10 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>9.942761371489</v>
+        <v>6.75625886127901</v>
       </c>
       <c r="E26" t="n">
-        <v>10.0575681406527</v>
+        <v>14.8010906706244</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>10.4244967086624</v>
+        <v>6.97525427707243</v>
       </c>
       <c r="E27" t="n">
-        <v>9.59278925349975</v>
+        <v>14.3363949223613</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>9.70867547520434</v>
+        <v>6.60380815203167</v>
       </c>
       <c r="E28" t="n">
-        <v>10.300066188781</v>
+        <v>15.1427778787357</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>10.0393657040268</v>
+        <v>6.76111638967456</v>
       </c>
       <c r="E29" t="n">
-        <v>9.96078865419649</v>
+        <v>14.7904568175631</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>10.0866970997809</v>
+        <v>6.7890329247369</v>
       </c>
       <c r="E30" t="n">
-        <v>9.91404807845096</v>
+        <v>14.729638390121</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -975,10 +975,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>10.3358623791529</v>
+        <v>7.11448155191225</v>
       </c>
       <c r="E31" t="n">
-        <v>9.67505142112732</v>
+        <v>14.0558379792442</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>10.3597617493676</v>
+        <v>7.03961701430458</v>
       </c>
       <c r="E32" t="n">
-        <v>9.65273163797461</v>
+        <v>14.2053182434213</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>10.9267440756237</v>
+        <v>7.31131875984351</v>
       </c>
       <c r="E33" t="n">
-        <v>9.15185706811677</v>
+        <v>13.6774230866854</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>10.1051151536245</v>
+        <v>6.87346507761605</v>
       </c>
       <c r="E34" t="n">
-        <v>9.89597827236356</v>
+        <v>14.5487027097377</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1055,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>10.4451345755694</v>
+        <v>7.03438570256605</v>
       </c>
       <c r="E35" t="n">
-        <v>9.57383548067393</v>
+        <v>14.2158824136586</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>10.5619111285045</v>
+        <v>7.10888427502391</v>
       </c>
       <c r="E36" t="n">
-        <v>9.46798347224491</v>
+        <v>14.0669050347797</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -1095,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>10.7929163307385</v>
+        <v>7.42908538345537</v>
       </c>
       <c r="E37" t="n">
-        <v>9.26533634984251</v>
+        <v>13.4606071728158</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>10.9395605787645</v>
+        <v>7.43359921225866</v>
       </c>
       <c r="E38" t="n">
-        <v>9.14113499166651</v>
+        <v>13.4524336253011</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>11.4909661948464</v>
+        <v>7.6888518782584</v>
       </c>
       <c r="E39" t="n">
-        <v>8.70248839865606</v>
+        <v>13.005842950723</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>10.5645119599902</v>
+        <v>7.18594522824453</v>
       </c>
       <c r="E40" t="n">
-        <v>9.4656525903628</v>
+        <v>13.9160537443213</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>10.9860255955159</v>
+        <v>7.39865444700689</v>
       </c>
       <c r="E41" t="n">
-        <v>9.10247287616156</v>
+        <v>13.5159711426251</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>11.1565911431718</v>
+        <v>7.50914435613087</v>
       </c>
       <c r="E42" t="n">
-        <v>8.96331134812653</v>
+        <v>13.3170964969337</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -1215,10 +1215,10 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>11.3280969200179</v>
+        <v>7.797466103873</v>
       </c>
       <c r="E43" t="n">
-        <v>8.82760808863578</v>
+        <v>12.8246790262198</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>11.6897584032783</v>
+        <v>7.94337014109914</v>
       </c>
       <c r="E44" t="n">
-        <v>8.55449672697735</v>
+        <v>12.5891149755943</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.2889434073567</v>
+        <v>8.22279554193125</v>
       </c>
       <c r="E45" t="n">
-        <v>8.13739608729384</v>
+        <v>12.1613141771628</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>11.2256293224864</v>
+        <v>7.63563501744928</v>
       </c>
       <c r="E46" t="n">
-        <v>8.90818653700664</v>
+        <v>13.0964876885126</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -1295,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>11.6863375059538</v>
+        <v>7.87028686633862</v>
       </c>
       <c r="E47" t="n">
-        <v>8.5570008524102</v>
+        <v>12.7060171628181</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>11.9194064361247</v>
+        <v>8.0225709107423</v>
       </c>
       <c r="E48" t="n">
-        <v>8.38967951431924</v>
+        <v>12.4648321732001</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>12.154690367746</v>
+        <v>8.36643496385457</v>
       </c>
       <c r="E49" t="n">
-        <v>8.22727662938768</v>
+        <v>11.9525222429899</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1355,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6584144120153</v>
+        <v>8.60158675699088</v>
       </c>
       <c r="E50" t="n">
-        <v>7.89988356717731</v>
+        <v>11.6257619466229</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>13.2564212056855</v>
+        <v>8.87015568212465</v>
       </c>
       <c r="E51" t="n">
-        <v>7.54351407883083</v>
+        <v>11.2737592871704</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>12.1121811122099</v>
+        <v>8.23866453997551</v>
       </c>
       <c r="E52" t="n">
-        <v>8.25615131358902</v>
+        <v>12.1378895226018</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>12.67771777421</v>
+        <v>8.53794233160554</v>
       </c>
       <c r="E53" t="n">
-        <v>7.88785503676598</v>
+        <v>11.7124239209045</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1435,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>12.8565391248509</v>
+        <v>8.65332492423873</v>
       </c>
       <c r="E54" t="n">
-        <v>7.77814301569745</v>
+        <v>11.5562515998782</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>13.1391834735419</v>
+        <v>9.0440908557613</v>
       </c>
       <c r="E55" t="n">
-        <v>7.61082301661802</v>
+        <v>11.0569433229762</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>14.1384046754414</v>
+        <v>9.60726284216298</v>
       </c>
       <c r="E56" t="n">
-        <v>7.07293377828555</v>
+        <v>10.4087919361521</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>14.7722728939307</v>
+        <v>9.88444455067537</v>
       </c>
       <c r="E57" t="n">
-        <v>6.76943898329186</v>
+        <v>10.1169063660909</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>13.5571097270876</v>
+        <v>9.22150008643119</v>
       </c>
       <c r="E58" t="n">
-        <v>7.37620348385881</v>
+        <v>10.8442226386945</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1535,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>14.1434866097143</v>
+        <v>9.52507976532085</v>
       </c>
       <c r="E59" t="n">
-        <v>7.07039238339688</v>
+        <v>10.4985997454932</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>14.3457089556169</v>
+        <v>9.65563746635073</v>
       </c>
       <c r="E60" t="n">
-        <v>6.97072555350053</v>
+        <v>10.3566440173933</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -1575,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>14.5996592456462</v>
+        <v>10.0493797766556</v>
       </c>
       <c r="E61" t="n">
-        <v>6.84947493071259</v>
+        <v>9.95086286143717</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>16.3386083652353</v>
+        <v>11.1023349977127</v>
       </c>
       <c r="E62" t="n">
-        <v>6.12047230489817</v>
+        <v>9.00711427106118</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>16.8755341702288</v>
+        <v>11.2917817702371</v>
       </c>
       <c r="E63" t="n">
-        <v>5.92573834945125</v>
+        <v>8.85599828572493</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -1635,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>15.5132428231413</v>
+        <v>10.5520551883264</v>
       </c>
       <c r="E64" t="n">
-        <v>6.44610550740742</v>
+        <v>9.47682685649979</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>16.1368183453551</v>
+        <v>10.8675099810558</v>
       </c>
       <c r="E65" t="n">
-        <v>6.19700847216791</v>
+        <v>9.20173988101408</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>16.4696311339618</v>
+        <v>11.0851814940658</v>
       </c>
       <c r="E66" t="n">
-        <v>6.07178140096842</v>
+        <v>9.02105211840985</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>16.898793607624</v>
+        <v>11.63194235379</v>
       </c>
       <c r="E67" t="n">
-        <v>5.91758218497232</v>
+        <v>8.59701647054822</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -1715,10 +1715,10 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>17.9982036218157</v>
+        <v>12.230055430646</v>
       </c>
       <c r="E68" t="n">
-        <v>5.5561100486045</v>
+        <v>8.17657782232292</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>18.5918345142989</v>
+        <v>12.4401951325597</v>
       </c>
       <c r="E69" t="n">
-        <v>5.37870536245846</v>
+        <v>8.03845911856077</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>17.2581058182913</v>
+        <v>11.7389050836575</v>
       </c>
       <c r="E70" t="n">
-        <v>5.79437865620299</v>
+        <v>8.51868204805712</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>17.8539294528624</v>
+        <v>12.0239165105244</v>
       </c>
       <c r="E71" t="n">
-        <v>5.6010079049555</v>
+        <v>8.31675768144854</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -1795,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>18.0715963695797</v>
+        <v>12.163413012402</v>
       </c>
       <c r="E72" t="n">
-        <v>5.5335454574634</v>
+        <v>8.22137667265254</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>18.5752579174059</v>
+        <v>12.7859026105015</v>
       </c>
       <c r="E73" t="n">
-        <v>5.38350532975886</v>
+        <v>7.82111385064566</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>19.9217588642645</v>
+        <v>13.5371407227884</v>
       </c>
       <c r="E74" t="n">
-        <v>5.01963710540534</v>
+        <v>7.38708432214643</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>20.6258635555502</v>
+        <v>13.8012075791259</v>
       </c>
       <c r="E75" t="n">
-        <v>4.84828185402646</v>
+        <v>7.24574276755669</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -1875,10 +1875,10 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>19.2657765128814</v>
+        <v>13.1045158853977</v>
       </c>
       <c r="E76" t="n">
-        <v>5.19055123125395</v>
+        <v>7.63095721158454</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -1895,10 +1895,10 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>20.0391735004063</v>
+        <v>13.4955920905227</v>
       </c>
       <c r="E77" t="n">
-        <v>4.99022576943966</v>
+        <v>7.409826803392</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>20.0846464685135</v>
+        <v>13.5183325926779</v>
       </c>
       <c r="E78" t="n">
-        <v>4.9789275682183</v>
+        <v>7.39736201298701</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -1935,10 +1935,10 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>20.6137545931968</v>
+        <v>14.1890605146548</v>
       </c>
       <c r="E79" t="n">
-        <v>4.85112983895729</v>
+        <v>7.0476829594685</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>22.0693555720803</v>
+        <v>14.9964656271596</v>
       </c>
       <c r="E80" t="n">
-        <v>4.53116991447222</v>
+        <v>6.66823786925458</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>22.6366705385819</v>
+        <v>15.1466816485938</v>
       </c>
       <c r="E81" t="n">
-        <v>4.41761078907607</v>
+        <v>6.6021061457566</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -1995,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>21.2182547724019</v>
+        <v>14.4325849798706</v>
       </c>
       <c r="E82" t="n">
-        <v>4.71292295585346</v>
+        <v>6.92876571587638</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>22.0854603366807</v>
+        <v>14.873685475562</v>
       </c>
       <c r="E83" t="n">
-        <v>4.52786577574364</v>
+        <v>6.72328322151922</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2035,10 +2035,10 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>22.096566995363</v>
+        <v>14.8724918941436</v>
       </c>
       <c r="E84" t="n">
-        <v>4.52558988104284</v>
+        <v>6.72382279390431</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2055,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>22.7725340506772</v>
+        <v>15.6750126356765</v>
       </c>
       <c r="E85" t="n">
-        <v>4.39125482379184</v>
+        <v>6.37958018435013</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>25.0925754864236</v>
+        <v>17.050789931316</v>
       </c>
       <c r="E86" t="n">
-        <v>3.98524256922552</v>
+        <v>5.86483092002308</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>25.5392171352061</v>
+        <v>17.0888378148173</v>
       </c>
       <c r="E87" t="n">
-        <v>3.91554680280895</v>
+        <v>5.85177301602643</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2115,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>24.1104927832244</v>
+        <v>16.3998754719945</v>
       </c>
       <c r="E88" t="n">
-        <v>4.14757180199893</v>
+        <v>6.09760727578491</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -2135,10 +2135,10 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>24.8132771858507</v>
+        <v>16.7107624135558</v>
       </c>
       <c r="E89" t="n">
-        <v>4.03010046802778</v>
+        <v>5.9841674200861</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>25.0793730459739</v>
+        <v>16.8801231618796</v>
       </c>
       <c r="E90" t="n">
-        <v>3.98734050554958</v>
+        <v>5.92412739178529</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -2175,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>25.7523836075394</v>
+        <v>17.7261317317018</v>
       </c>
       <c r="E91" t="n">
-        <v>3.88313569431001</v>
+        <v>5.64138874253978</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -2195,10 +2195,10 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>27.3492655090703</v>
+        <v>18.5842454164679</v>
       </c>
       <c r="E92" t="n">
-        <v>3.65640532345686</v>
+        <v>5.38090182081795</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>27.6858409278006</v>
+        <v>18.5251898238421</v>
       </c>
       <c r="E93" t="n">
-        <v>3.61195458215558</v>
+        <v>5.39805534792949</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -2235,10 +2235,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>26.5481777469421</v>
+        <v>18.0579805221219</v>
       </c>
       <c r="E94" t="n">
-        <v>3.76673687185623</v>
+        <v>5.53771779061869</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>27.0173601913868</v>
+        <v>18.1951252878912</v>
       </c>
       <c r="E95" t="n">
-        <v>3.70132386330921</v>
+        <v>5.4959775444113</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -2275,10 +2275,10 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>27.3774630281135</v>
+        <v>18.4268939629075</v>
       </c>
       <c r="E96" t="n">
-        <v>3.65263939530524</v>
+        <v>5.42685056967797</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>28.0853828428618</v>
+        <v>19.3320045085883</v>
       </c>
       <c r="E97" t="n">
-        <v>3.56057101160066</v>
+        <v>5.17276932951131</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -2315,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>28.9649494978643</v>
+        <v>19.6821274693972</v>
       </c>
       <c r="E98" t="n">
-        <v>3.45244862268355</v>
+        <v>5.08075156791284</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>29.4011884914184</v>
+        <v>19.6729656603339</v>
       </c>
       <c r="E99" t="n">
-        <v>3.40122305019023</v>
+        <v>5.08311770205686</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>28.4631946658996</v>
+        <v>19.3605685397138</v>
       </c>
       <c r="E100" t="n">
-        <v>3.51330907067171</v>
+        <v>5.16513757304557</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>29.1107549337768</v>
+        <v>19.6049439876079</v>
       </c>
       <c r="E101" t="n">
-        <v>3.43515653329798</v>
+        <v>5.10075418033375</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -2395,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>29.0852325332513</v>
+        <v>19.5763389480745</v>
       </c>
       <c r="E102" t="n">
-        <v>3.43817089602692</v>
+        <v>5.10820742659013</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -2415,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>29.4058348614441</v>
+        <v>20.2409109144376</v>
       </c>
       <c r="E103" t="n">
-        <v>3.4006856282498</v>
+        <v>4.94048911250684</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -2435,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>31.1210181111673</v>
+        <v>21.1472091634953</v>
       </c>
       <c r="E104" t="n">
-        <v>3.21326248526929</v>
+        <v>4.72875636812739</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>31.2963788682729</v>
+        <v>20.941078179477</v>
       </c>
       <c r="E105" t="n">
-        <v>3.19525784183857</v>
+        <v>4.7753033126061</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -2475,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>30.5010434484912</v>
+        <v>20.7467063746282</v>
       </c>
       <c r="E106" t="n">
-        <v>3.27857635981784</v>
+        <v>4.82004218859014</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>31.0160213730426</v>
+        <v>20.8880657035595</v>
       </c>
       <c r="E107" t="n">
-        <v>3.22414015638106</v>
+        <v>4.78742270438948</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -2515,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>31.1895886913593</v>
+        <v>20.9927137139112</v>
       </c>
       <c r="E108" t="n">
-        <v>3.20619809993531</v>
+        <v>4.76355755443533</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -2535,10 +2535,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>31.589122615178</v>
+        <v>21.7437328248556</v>
       </c>
       <c r="E109" t="n">
-        <v>3.16564664420125</v>
+        <v>4.59902634039398</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -2555,10 +2555,10 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>34.495032804537</v>
+        <v>23.4399039007472</v>
       </c>
       <c r="E110" t="n">
-        <v>2.89896810844161</v>
+        <v>4.26622909477083</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>34.3891859733108</v>
+        <v>23.0105417315782</v>
       </c>
       <c r="E111" t="n">
-        <v>2.90789087236927</v>
+        <v>4.34583423400094</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>34.0231785916644</v>
+        <v>23.1424507612284</v>
       </c>
       <c r="E112" t="n">
-        <v>2.93917276807582</v>
+        <v>4.32106353090029</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -2615,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>34.2188934957694</v>
+        <v>23.0450736103752</v>
       </c>
       <c r="E113" t="n">
-        <v>2.92236217434568</v>
+        <v>4.33932222090966</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>34.5780576592818</v>
+        <v>23.2733837052977</v>
       </c>
       <c r="E114" t="n">
-        <v>2.89200743967054</v>
+        <v>4.2967538053883</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -2655,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>34.4866405417705</v>
+        <v>23.7381806105242</v>
       </c>
       <c r="E115" t="n">
-        <v>2.89967356718551</v>
+        <v>4.21262276333281</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>39.0038590887268</v>
+        <v>26.5037205205322</v>
       </c>
       <c r="E116" t="n">
-        <v>2.56384886871112</v>
+        <v>3.77305518002768</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>38.2805394435385</v>
+        <v>25.6143297796143</v>
       </c>
       <c r="E117" t="n">
-        <v>2.61229338597733</v>
+        <v>3.90406467240799</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>38.582714866005</v>
+        <v>26.2438318811223</v>
       </c>
       <c r="E118" t="n">
-        <v>2.59183420211078</v>
+        <v>3.81041916641495</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>38.8624789101574</v>
+        <v>26.172345031465</v>
       </c>
       <c r="E119" t="n">
-        <v>2.57317605063693</v>
+        <v>3.82082690258659</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>39.0660643055618</v>
+        <v>26.2941173098286</v>
       </c>
       <c r="E120" t="n">
-        <v>2.55976643098299</v>
+        <v>3.8031320398278</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>38.4360751623991</v>
+        <v>26.4566939496355</v>
       </c>
       <c r="E121" t="n">
-        <v>2.60172245936877</v>
+        <v>3.77976175671706</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -2795,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>43.8789140001924</v>
+        <v>29.816395110034</v>
       </c>
       <c r="E122" t="n">
-        <v>2.27899897430373</v>
+        <v>3.35385950014955</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>43.062692324866</v>
+        <v>28.8141708147576</v>
       </c>
       <c r="E123" t="n">
-        <v>2.32219572444745</v>
+        <v>3.47051458266443</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -2835,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>42.8396717739558</v>
+        <v>29.1393995415483</v>
       </c>
       <c r="E124" t="n">
-        <v>2.3342849246757</v>
+        <v>3.43177970628446</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -2855,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>43.3489708997712</v>
+        <v>29.1938202339227</v>
       </c>
       <c r="E125" t="n">
-        <v>2.30685983829267</v>
+        <v>3.42538246788962</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>43.7443336313877</v>
+        <v>29.4429106333149</v>
       </c>
       <c r="E126" t="n">
-        <v>2.28601036291126</v>
+        <v>3.3964033395139</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>43.3241322305839</v>
+        <v>29.8212890420041</v>
       </c>
       <c r="E127" t="n">
-        <v>2.30818241131225</v>
+        <v>3.35330910274023</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>47.8806554109589</v>
+        <v>32.5356397802889</v>
       </c>
       <c r="E128" t="n">
-        <v>2.08852613110037</v>
+        <v>3.07355259264282</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>47.1762543213153</v>
+        <v>31.5666433524382</v>
       </c>
       <c r="E129" t="n">
-        <v>2.11971046533081</v>
+        <v>3.1679009669641</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -2955,10 +2955,10 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>46.672121620278</v>
+        <v>31.7462189374621</v>
       </c>
       <c r="E130" t="n">
-        <v>2.14260668956931</v>
+        <v>3.14998142603985</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>47.2264537050551</v>
+        <v>31.8051517979249</v>
       </c>
       <c r="E131" t="n">
-        <v>2.11745731797973</v>
+        <v>3.14414471703683</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -2995,10 +2995,10 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>47.6801749139319</v>
+        <v>32.0919994073113</v>
       </c>
       <c r="E132" t="n">
-        <v>2.09730774227467</v>
+        <v>3.11604143857792</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -3015,10 +3015,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>47.959549221047</v>
+        <v>33.011984453215</v>
       </c>
       <c r="E133" t="n">
-        <v>2.0850904903025</v>
+        <v>3.02920292906721</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -3035,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>52.1661534335195</v>
+        <v>35.4477014207246</v>
       </c>
       <c r="E134" t="n">
-        <v>1.91695176696208</v>
+        <v>2.8210573885486</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -3055,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>52.0805423364692</v>
+        <v>34.8482076245312</v>
       </c>
       <c r="E135" t="n">
-        <v>1.92010289282213</v>
+        <v>2.86958804531472</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -3075,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>51.3915900185798</v>
+        <v>34.9563853460066</v>
       </c>
       <c r="E136" t="n">
-        <v>1.94584366749203</v>
+        <v>2.86070767930312</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>51.7523954877798</v>
+        <v>34.8531948783377</v>
       </c>
       <c r="E137" t="n">
-        <v>1.9322777053598</v>
+        <v>2.86917742689216</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -3115,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>52.3438849714617</v>
+        <v>35.2309933533755</v>
       </c>
       <c r="E138" t="n">
-        <v>1.91044283500395</v>
+        <v>2.83840989088714</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -3135,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>52.3891090192436</v>
+        <v>36.0609822350473</v>
       </c>
       <c r="E139" t="n">
-        <v>1.9087936762442</v>
+        <v>2.77308031567734</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>59.5168011851477</v>
+        <v>40.442579317572</v>
       </c>
       <c r="E140" t="n">
-        <v>1.68019782664252</v>
+        <v>2.47264150030487</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>58.9840719006492</v>
+        <v>39.4675072862049</v>
       </c>
       <c r="E141" t="n">
-        <v>1.69537295031846</v>
+        <v>2.53372981665232</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -3195,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>58.443049617914</v>
+        <v>39.7527642655343</v>
       </c>
       <c r="E142" t="n">
-        <v>1.71106745205418</v>
+        <v>2.51554833601094</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3215,10 +3215,10 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>58.8689477632604</v>
+        <v>39.6459118333968</v>
       </c>
       <c r="E143" t="n">
-        <v>1.6986884223266</v>
+        <v>2.52232816387798</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -3235,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>59.1683717862567</v>
+        <v>39.8243369644455</v>
       </c>
       <c r="E144" t="n">
-        <v>1.69009213843581</v>
+        <v>2.51102736724226</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>59.0227534772493</v>
+        <v>40.6271170564258</v>
       </c>
       <c r="E145" t="n">
-        <v>1.69426185849743</v>
+        <v>2.4614101921412</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -3275,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>70.4757077883131</v>
+        <v>47.8893244501546</v>
       </c>
       <c r="E146" t="n">
-        <v>1.41892863708966</v>
+        <v>2.0881480611422</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>69.6775828683157</v>
+        <v>46.6227647723677</v>
       </c>
       <c r="E147" t="n">
-        <v>1.43518181721359</v>
+        <v>2.14487494442345</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3315,10 +3315,10 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>69.3534089247468</v>
+        <v>47.1739536868998</v>
       </c>
       <c r="E148" t="n">
-        <v>1.44189019040876</v>
+        <v>2.11981384184404</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -3335,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>70.0597543037094</v>
+        <v>47.1824781608848</v>
       </c>
       <c r="E149" t="n">
-        <v>1.42735299308216</v>
+        <v>2.11943085437386</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -3355,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>69.8366886050936</v>
+        <v>47.0048395033966</v>
       </c>
       <c r="E150" t="n">
-        <v>1.43191210805357</v>
+        <v>2.12744051583825</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -3375,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>69.8610000028429</v>
+        <v>48.087404561505</v>
       </c>
       <c r="E151" t="n">
-        <v>1.43141380735934</v>
+        <v>2.07954662789291</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>84.694489629764</v>
+        <v>57.5512048095048</v>
       </c>
       <c r="E152" t="n">
-        <v>1.1807143585981</v>
+        <v>1.73758308502839</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>84.0026589806947</v>
+        <v>56.2079803674026</v>
       </c>
       <c r="E153" t="n">
-        <v>1.19043850770226</v>
+        <v>1.77910679847153</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -3435,10 +3435,10 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>84.0956397624022</v>
+        <v>57.2015691359363</v>
       </c>
       <c r="E154" t="n">
-        <v>1.18912229317159</v>
+        <v>1.74820379074489</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -3455,10 +3455,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>84.4309751751005</v>
+        <v>56.8609279591845</v>
       </c>
       <c r="E155" t="n">
-        <v>1.18439944336319</v>
+        <v>1.75867689095368</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>84.3264454775246</v>
+        <v>56.7574310113247</v>
       </c>
       <c r="E156" t="n">
-        <v>1.1858676057519</v>
+        <v>1.76188383121229</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -3495,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>84.3216976773414</v>
+        <v>58.0411329548422</v>
       </c>
       <c r="E157" t="n">
-        <v>1.18593437696964</v>
+        <v>1.72291605813076</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -3515,10 +3515,10 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>100</v>
+        <v>67.9515338732022</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>1.4716371257579</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>100</v>
+        <v>66.9121442695286</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>1.49449701682239</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3555,10 +3555,10 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>100</v>
+        <v>68.0196610639381</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>1.47016316217749</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>100</v>
+        <v>67.3460514239723</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>1.48486804921133</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -3595,10 +3595,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>100</v>
+        <v>67.3067988220281</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>1.48573400830455</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -3615,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>100</v>
+        <v>68.8329748494127</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>1.45279206977139</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -3635,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>119.677535822001</v>
+        <v>81.3227212927004</v>
       </c>
       <c r="E164" t="n">
-        <v>0.835578701659872</v>
+        <v>1.22966863885525</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -3655,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>119.473690996005</v>
+        <v>79.9424084833774</v>
       </c>
       <c r="E165" t="n">
-        <v>0.837004357748889</v>
+        <v>1.25090051572306</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>118.738608175426</v>
+        <v>80.7655988329623</v>
       </c>
       <c r="E166" t="n">
-        <v>0.842186055038296</v>
+        <v>1.23815091381688</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -3695,10 +3695,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>119.499171422205</v>
+        <v>80.4779734372188</v>
       </c>
       <c r="E167" t="n">
-        <v>0.836825885986173</v>
+        <v>1.24257602085384</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3715,10 +3715,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>119.12143592913</v>
+        <v>80.1768252347304</v>
       </c>
       <c r="E168" t="n">
-        <v>0.839479470844309</v>
+        <v>1.2472431991069</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>117.711219416919</v>
+        <v>81.0241340561846</v>
       </c>
       <c r="E169" t="n">
-        <v>0.84953669238454</v>
+        <v>1.23420016967607</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>137.692754873576</v>
+        <v>100</v>
       </c>
       <c r="E170" t="n">
-        <v>0.726254624593834</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -3775,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>139.15667924253</v>
+        <v>100</v>
       </c>
       <c r="E171" t="n">
-        <v>0.718614446279753</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -3795,10 +3795,10 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>137.114239709896</v>
+        <v>100</v>
       </c>
       <c r="E172" t="n">
-        <v>0.729318852743365</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -3815,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>137.886685154252</v>
+        <v>100</v>
       </c>
       <c r="E173" t="n">
-        <v>0.725233186134912</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3835,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>138.552976030145</v>
+        <v>100</v>
       </c>
       <c r="E174" t="n">
-        <v>0.721745594105776</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -3855,12 +3855,252 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>135.432535814525</v>
+        <v>100</v>
       </c>
       <c r="E175" t="n">
-        <v>0.738375010100603</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>42</v>
+      </c>
+      <c r="D176" t="n">
+        <v>127.570732067367</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.783878859824937</v>
+      </c>
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>127.330822842176</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.785355798131832</v>
+      </c>
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>41</v>
+      </c>
+      <c r="D178" t="n">
+        <v>129.655568563775</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.771274239184041</v>
+      </c>
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>40</v>
+      </c>
+      <c r="D179" t="n">
+        <v>129.384576626828</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.772889648883116</v>
+      </c>
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>43</v>
+      </c>
+      <c r="D180" t="n">
+        <v>127.94438260501</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.781589609203244</v>
+      </c>
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>44</v>
+      </c>
+      <c r="D181" t="n">
+        <v>130.445288466732</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.766604920541098</v>
+      </c>
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>42</v>
+      </c>
+      <c r="D182" t="n">
+        <v>182.434432618591</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.548142138326849</v>
+      </c>
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>182.371156766003</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.548332322793282</v>
+      </c>
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>41</v>
+      </c>
+      <c r="D184" t="n">
+        <v>187.16908470658</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.53427626766871</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>40</v>
+      </c>
+      <c r="D185" t="n">
+        <v>184.288392858985</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.542627771877737</v>
+      </c>
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>43</v>
+      </c>
+      <c r="D186" t="n">
+        <v>184.118470178485</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.543128562295025</v>
+      </c>
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>44</v>
+      </c>
+      <c r="D187" t="n">
+        <v>186.298458120603</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.536773095219413</v>
+      </c>
+      <c r="F187" t="s">
         <v>6</v>
       </c>
     </row>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">nombre_trim_base</t>
   </si>
   <si>
-    <t xml:space="preserve">2do trimestre 2023</t>
+    <t xml:space="preserve">3er trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>5.68170094458604</v>
+        <v>4.46215678008175</v>
       </c>
       <c r="E2" t="n">
-        <v>17.6003631615437</v>
+        <v>22.4106872368048</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -415,10 +415,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0263739575874</v>
+        <v>4.73284772930194</v>
       </c>
       <c r="E3" t="n">
-        <v>16.5937262944157</v>
+        <v>21.128928230858</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>5.68170094458604</v>
+        <v>4.46215678008175</v>
       </c>
       <c r="E4" t="n">
-        <v>17.6003631615437</v>
+        <v>22.4106872368048</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -455,10 +455,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0263739575874</v>
+        <v>4.73284772930194</v>
       </c>
       <c r="E5" t="n">
-        <v>16.5937262944157</v>
+        <v>21.128928230858</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -475,10 +475,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>5.68170094458604</v>
+        <v>4.46215678008175</v>
       </c>
       <c r="E6" t="n">
-        <v>17.6003631615437</v>
+        <v>22.4106872368048</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -495,10 +495,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>6.0263739575874</v>
+        <v>4.73284772930194</v>
       </c>
       <c r="E7" t="n">
-        <v>16.5937262944157</v>
+        <v>21.128928230858</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>5.68170094458604</v>
+        <v>4.46215678008175</v>
       </c>
       <c r="E8" t="n">
-        <v>17.6003631615437</v>
+        <v>22.4106872368048</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -535,10 +535,10 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>6.0263739575874</v>
+        <v>4.73284772930194</v>
       </c>
       <c r="E9" t="n">
-        <v>16.5937262944157</v>
+        <v>21.128928230858</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>5.68170094458604</v>
+        <v>4.46215678008175</v>
       </c>
       <c r="E10" t="n">
-        <v>17.6003631615437</v>
+        <v>22.4106872368048</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>6.0263739575874</v>
+        <v>4.73284772930194</v>
       </c>
       <c r="E11" t="n">
-        <v>16.5937262944157</v>
+        <v>21.128928230858</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5.68170094458604</v>
+        <v>4.46215678008175</v>
       </c>
       <c r="E12" t="n">
-        <v>17.6003631615437</v>
+        <v>22.4106872368048</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>6.0263739575874</v>
+        <v>4.73284772930194</v>
       </c>
       <c r="E13" t="n">
-        <v>16.5937262944157</v>
+        <v>21.128928230858</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>6.08325790093536</v>
+        <v>4.76853726740625</v>
       </c>
       <c r="E14" t="n">
-        <v>16.43856</v>
+        <v>20.9707913333333</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>6.31213693903355</v>
+        <v>4.95727334367211</v>
       </c>
       <c r="E15" t="n">
-        <v>15.8424953333333</v>
+        <v>20.1723796666667</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -675,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>5.99037933098685</v>
+        <v>4.62022526093069</v>
       </c>
       <c r="E16" t="n">
-        <v>16.6934336666667</v>
+        <v>21.6439663333333</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>6.0675726145854</v>
+        <v>4.68956406765972</v>
       </c>
       <c r="E17" t="n">
-        <v>16.4810553333333</v>
+        <v>21.3239436666667</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -715,10 +715,10 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>6.16442278595047</v>
+        <v>4.8180487962346</v>
       </c>
       <c r="E18" t="n">
-        <v>16.222119</v>
+        <v>20.75529</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>6.45116229300801</v>
+        <v>4.94549275702913</v>
       </c>
       <c r="E19" t="n">
-        <v>15.5010826666667</v>
+        <v>20.220432</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -755,10 +755,10 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>6.30420993890787</v>
+        <v>4.94173689900813</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8624159044621</v>
+        <v>20.2358000928927</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>6.5516657035047</v>
+        <v>5.14538864766889</v>
       </c>
       <c r="E21" t="n">
-        <v>15.2632940271215</v>
+        <v>19.4348778775545</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>6.21247064789007</v>
+        <v>4.7915185724046</v>
       </c>
       <c r="E22" t="n">
-        <v>16.0966555284994</v>
+        <v>20.8702102452282</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -815,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>6.3177163857185</v>
+        <v>4.88289759910108</v>
       </c>
       <c r="E23" t="n">
-        <v>15.8285041452723</v>
+        <v>20.4796430747205</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -835,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>6.39324410495735</v>
+        <v>4.99689316153456</v>
       </c>
       <c r="E24" t="n">
-        <v>15.6415113138664</v>
+        <v>20.0124350806191</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -855,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>6.73842609875336</v>
+        <v>5.16571060400688</v>
       </c>
       <c r="E25" t="n">
-        <v>14.8402606980435</v>
+        <v>19.358420876778</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -875,10 +875,10 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>6.75625886127901</v>
+        <v>5.29608849286151</v>
       </c>
       <c r="E26" t="n">
-        <v>14.8010906706244</v>
+        <v>18.8818597224703</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6.97525427707243</v>
+        <v>5.47805638994269</v>
       </c>
       <c r="E27" t="n">
-        <v>14.3363949223613</v>
+        <v>18.2546496205466</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>6.60380815203167</v>
+        <v>5.0933471081756</v>
       </c>
       <c r="E28" t="n">
-        <v>15.1427778787357</v>
+        <v>19.6334547550244</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>6.76111638967456</v>
+        <v>5.22559687247345</v>
       </c>
       <c r="E29" t="n">
-        <v>14.7904568175631</v>
+        <v>19.136569934578</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>6.7890329247369</v>
+        <v>5.30623759051307</v>
       </c>
       <c r="E30" t="n">
-        <v>14.729638390121</v>
+        <v>18.8457448981908</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -975,10 +975,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>7.11448155191225</v>
+        <v>5.45399656479479</v>
       </c>
       <c r="E31" t="n">
-        <v>14.0558379792442</v>
+        <v>18.3351783984416</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>7.03961701430458</v>
+        <v>5.5182069587773</v>
       </c>
       <c r="E32" t="n">
-        <v>14.2053182434213</v>
+        <v>18.1218284756318</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>7.31131875984351</v>
+        <v>5.74198658003314</v>
       </c>
       <c r="E33" t="n">
-        <v>13.6774230866854</v>
+        <v>17.4155753598823</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>6.87346507761605</v>
+        <v>5.30132654829639</v>
       </c>
       <c r="E34" t="n">
-        <v>14.5487027097377</v>
+        <v>18.8632032169638</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1055,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>7.03438570256605</v>
+        <v>5.43680389576468</v>
       </c>
       <c r="E35" t="n">
-        <v>14.2158824136586</v>
+        <v>18.3931592746799</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>7.10888427502391</v>
+        <v>5.55623008238703</v>
       </c>
       <c r="E36" t="n">
-        <v>14.0669050347797</v>
+        <v>17.9978147983819</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -1095,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>7.42908538345537</v>
+        <v>5.69517341007683</v>
       </c>
       <c r="E37" t="n">
-        <v>13.4606071728158</v>
+        <v>17.5587278559532</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>7.43359921225866</v>
+        <v>5.82704127490086</v>
       </c>
       <c r="E38" t="n">
-        <v>13.4524336253011</v>
+        <v>17.1613680566732</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>7.6888518782584</v>
+        <v>6.03848440356706</v>
       </c>
       <c r="E39" t="n">
-        <v>13.005842950723</v>
+        <v>16.5604468467167</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>7.18594522824453</v>
+        <v>5.54233443873249</v>
       </c>
       <c r="E40" t="n">
-        <v>13.9160537443213</v>
+        <v>18.0429386038403</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>7.39865444700689</v>
+        <v>5.71834343775466</v>
       </c>
       <c r="E41" t="n">
-        <v>13.5159711426251</v>
+        <v>17.4875820398898</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>7.50914435613087</v>
+        <v>5.86906920275907</v>
       </c>
       <c r="E42" t="n">
-        <v>13.3170964969337</v>
+        <v>17.0384768939152</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -1215,10 +1215,10 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>7.797466103873</v>
+        <v>5.97757588298147</v>
       </c>
       <c r="E43" t="n">
-        <v>12.8246790262198</v>
+        <v>16.729189550685</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>7.94337014109914</v>
+        <v>6.22663992937224</v>
       </c>
       <c r="E44" t="n">
-        <v>12.5891149755943</v>
+        <v>16.0600261351682</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>8.22279554193125</v>
+        <v>6.45782015570829</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1613141771628</v>
+        <v>15.4851014102037</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>7.63563501744928</v>
+        <v>5.88916858877021</v>
       </c>
       <c r="E46" t="n">
-        <v>13.0964876885126</v>
+        <v>16.9803255744258</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -1295,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>7.87028686633862</v>
+        <v>6.08286325273385</v>
       </c>
       <c r="E47" t="n">
-        <v>12.7060171628181</v>
+        <v>16.4396265122443</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>8.0225709107423</v>
+        <v>6.27035806293239</v>
       </c>
       <c r="E48" t="n">
-        <v>12.4648321732001</v>
+        <v>15.9480525667515</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>8.36643496385457</v>
+        <v>6.41375021067799</v>
       </c>
       <c r="E49" t="n">
-        <v>11.9525222429899</v>
+        <v>15.5915021189185</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1355,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>8.60158675699088</v>
+        <v>6.74260201975529</v>
       </c>
       <c r="E50" t="n">
-        <v>11.6257619466229</v>
+        <v>14.8310696237162</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>8.87015568212465</v>
+        <v>6.96622819528861</v>
       </c>
       <c r="E51" t="n">
-        <v>11.2737592871704</v>
+        <v>14.3549704656003</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>8.23866453997551</v>
+        <v>6.35426972496215</v>
       </c>
       <c r="E52" t="n">
-        <v>12.1378895226018</v>
+        <v>15.7374496721723</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>8.53794233160554</v>
+        <v>6.5988872508589</v>
       </c>
       <c r="E53" t="n">
-        <v>11.7124239209045</v>
+        <v>15.1540701028017</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1435,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>8.65332492423873</v>
+        <v>6.76334884584444</v>
       </c>
       <c r="E54" t="n">
-        <v>11.5562515998782</v>
+        <v>14.7855747617458</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>9.0440908557613</v>
+        <v>6.93324455184736</v>
       </c>
       <c r="E55" t="n">
-        <v>11.0569433229762</v>
+        <v>14.4232616132594</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>9.60726284216298</v>
+        <v>7.5309302427532</v>
       </c>
       <c r="E56" t="n">
-        <v>10.4087919361521</v>
+        <v>13.2785720723183</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>9.88444455067537</v>
+        <v>7.76280583918549</v>
       </c>
       <c r="E57" t="n">
-        <v>10.1169063660909</v>
+        <v>12.881940122116</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>9.22150008643119</v>
+        <v>7.11230546329779</v>
       </c>
       <c r="E58" t="n">
-        <v>10.8442226386945</v>
+        <v>14.0601385185209</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1535,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>9.52507976532085</v>
+        <v>7.3618355554025</v>
       </c>
       <c r="E59" t="n">
-        <v>10.4985997454932</v>
+        <v>13.5835688324517</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>9.65563746635073</v>
+        <v>7.54674591393327</v>
       </c>
       <c r="E60" t="n">
-        <v>10.3566440173933</v>
+        <v>13.2507442466526</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -1575,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>10.0493797766556</v>
+        <v>7.70390398517038</v>
       </c>
       <c r="E61" t="n">
-        <v>9.95086286143717</v>
+        <v>12.9804317645307</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>11.1023349977127</v>
+        <v>8.70288569940152</v>
       </c>
       <c r="E62" t="n">
-        <v>9.00711427106118</v>
+        <v>11.490441613737</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>11.2917817702371</v>
+        <v>8.86806628449504</v>
       </c>
       <c r="E63" t="n">
-        <v>8.85599828572493</v>
+        <v>11.2764154881026</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -1635,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>10.5520551883264</v>
+        <v>8.13852833720449</v>
       </c>
       <c r="E64" t="n">
-        <v>9.47682685649979</v>
+        <v>12.2872337425993</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>10.8675099810558</v>
+        <v>8.39938597349199</v>
       </c>
       <c r="E65" t="n">
-        <v>9.20173988101408</v>
+        <v>11.9056321873521</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>11.0851814940658</v>
+        <v>8.66406267189393</v>
       </c>
       <c r="E66" t="n">
-        <v>9.02105211840985</v>
+        <v>11.5419294373756</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>11.63194235379</v>
+        <v>8.91710424386581</v>
       </c>
       <c r="E67" t="n">
-        <v>8.59701647054822</v>
+        <v>11.2144029345391</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -1715,10 +1715,10 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>12.230055430646</v>
+        <v>9.58688190657056</v>
       </c>
       <c r="E68" t="n">
-        <v>8.17657782232292</v>
+        <v>10.4309201859953</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>12.4401951325597</v>
+        <v>9.76997937724716</v>
       </c>
       <c r="E69" t="n">
-        <v>8.03845911856077</v>
+        <v>10.2354361394954</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>11.7389050836575</v>
+        <v>9.05391508725165</v>
       </c>
       <c r="E70" t="n">
-        <v>8.51868204805712</v>
+        <v>11.0449456435487</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>12.0239165105244</v>
+        <v>9.29316061001912</v>
       </c>
       <c r="E71" t="n">
-        <v>8.31675768144854</v>
+        <v>10.7606017152214</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -1795,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>12.163413012402</v>
+        <v>9.50679722294092</v>
       </c>
       <c r="E72" t="n">
-        <v>8.22137667265254</v>
+        <v>10.5187896254576</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>12.7859026105015</v>
+        <v>9.80173585476974</v>
       </c>
       <c r="E73" t="n">
-        <v>7.82111385064566</v>
+        <v>10.2022745237863</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>13.5371407227884</v>
+        <v>10.6114784350691</v>
       </c>
       <c r="E74" t="n">
-        <v>7.38708432214643</v>
+        <v>9.42375754819589</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>13.8012075791259</v>
+        <v>10.8388583934875</v>
       </c>
       <c r="E75" t="n">
-        <v>7.24574276755669</v>
+        <v>9.22606388695739</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -1875,10 +1875,10 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>13.1045158853977</v>
+        <v>10.1071755193853</v>
       </c>
       <c r="E76" t="n">
-        <v>7.63095721158454</v>
+        <v>9.89396095953834</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -1895,10 +1895,10 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>13.4955920905227</v>
+        <v>10.4306034323138</v>
       </c>
       <c r="E77" t="n">
-        <v>7.409826803392</v>
+        <v>9.58717303834999</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5183325926779</v>
+        <v>10.5657882881906</v>
       </c>
       <c r="E78" t="n">
-        <v>7.39736201298701</v>
+        <v>9.46450915657376</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -1935,10 +1935,10 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>14.1890605146548</v>
+        <v>10.8774036083898</v>
       </c>
       <c r="E79" t="n">
-        <v>7.0476829594685</v>
+        <v>9.19337036669943</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>14.9964656271596</v>
+        <v>11.7554123772217</v>
       </c>
       <c r="E80" t="n">
-        <v>6.66823786925458</v>
+        <v>8.50671986580145</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>15.1466816485938</v>
+        <v>11.8955342551802</v>
       </c>
       <c r="E81" t="n">
-        <v>6.6021061457566</v>
+        <v>8.40651608030575</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -1995,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>14.4325849798706</v>
+        <v>11.1314809998087</v>
       </c>
       <c r="E82" t="n">
-        <v>6.92876571587638</v>
+        <v>8.98353058337145</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>14.873685475562</v>
+        <v>11.495717544805</v>
       </c>
       <c r="E83" t="n">
-        <v>6.72328322151922</v>
+        <v>8.69889153158524</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2035,10 +2035,10 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>14.8724918941436</v>
+        <v>11.6241851274221</v>
       </c>
       <c r="E84" t="n">
-        <v>6.72382279390431</v>
+        <v>8.60275356111579</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2055,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>15.6750126356765</v>
+        <v>12.0165418160535</v>
       </c>
       <c r="E85" t="n">
-        <v>6.37958018435013</v>
+        <v>8.32186177444203</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>17.050789931316</v>
+        <v>13.3657537704745</v>
       </c>
       <c r="E86" t="n">
-        <v>5.86483092002308</v>
+        <v>7.48180773918672</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>17.0888378148173</v>
+        <v>13.4208178612013</v>
       </c>
       <c r="E87" t="n">
-        <v>5.85177301602643</v>
+        <v>7.45111073216288</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2115,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>16.3998754719945</v>
+        <v>12.6488014773756</v>
       </c>
       <c r="E88" t="n">
-        <v>6.09760727578491</v>
+        <v>7.90588738220505</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -2135,10 +2135,10 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>16.7107624135558</v>
+        <v>12.9155752943823</v>
       </c>
       <c r="E89" t="n">
-        <v>5.9841674200861</v>
+        <v>7.74258968111901</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>16.8801231618796</v>
+        <v>13.1933288653961</v>
       </c>
       <c r="E90" t="n">
-        <v>5.92412739178529</v>
+        <v>7.57958821615396</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -2175,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>17.7261317317018</v>
+        <v>13.5889398076823</v>
       </c>
       <c r="E91" t="n">
-        <v>5.64138874253978</v>
+        <v>7.35892581873579</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -2195,10 +2195,10 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>18.5842454164679</v>
+        <v>14.5677971077677</v>
       </c>
       <c r="E92" t="n">
-        <v>5.38090182081795</v>
+        <v>6.86445584464373</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>18.5251898238421</v>
+        <v>14.5488652396472</v>
       </c>
       <c r="E93" t="n">
-        <v>5.39805534792949</v>
+        <v>6.8733882919947</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -2235,10 +2235,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>18.0579805221219</v>
+        <v>13.9276551883998</v>
       </c>
       <c r="E94" t="n">
-        <v>5.53771779061869</v>
+        <v>7.17995948688399</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>18.1951252878912</v>
+        <v>14.0628239951425</v>
       </c>
       <c r="E95" t="n">
-        <v>5.4959775444113</v>
+        <v>7.11094727734213</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -2275,10 +2275,10 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>18.4268939629075</v>
+        <v>14.4022688512985</v>
       </c>
       <c r="E96" t="n">
-        <v>5.42685056967797</v>
+        <v>6.94335045627094</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>19.3320045085883</v>
+        <v>14.8200097802065</v>
       </c>
       <c r="E97" t="n">
-        <v>5.17276932951131</v>
+        <v>6.7476338735997</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -2315,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>19.6821274693972</v>
+        <v>15.4284036396401</v>
       </c>
       <c r="E98" t="n">
-        <v>5.08075156791284</v>
+        <v>6.48155196971063</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>19.6729656603339</v>
+        <v>15.4502776477916</v>
       </c>
       <c r="E99" t="n">
-        <v>5.08311770205686</v>
+        <v>6.47237559606531</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>19.3605685397138</v>
+        <v>14.9323077706383</v>
       </c>
       <c r="E100" t="n">
-        <v>5.16513757304557</v>
+        <v>6.69688848743341</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>19.6049439876079</v>
+        <v>15.1524582749554</v>
       </c>
       <c r="E101" t="n">
-        <v>5.10075418033375</v>
+        <v>6.59958920100007</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -2395,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>19.5763389480745</v>
+        <v>15.3006631080558</v>
       </c>
       <c r="E102" t="n">
-        <v>5.10820742659013</v>
+        <v>6.53566445413401</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -2415,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>20.2409109144376</v>
+        <v>15.5167819032419</v>
       </c>
       <c r="E103" t="n">
-        <v>4.94048911250684</v>
+        <v>6.44463527447706</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -2435,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>21.1472091634953</v>
+        <v>16.5768502075601</v>
       </c>
       <c r="E104" t="n">
-        <v>4.72875636812739</v>
+        <v>6.03250911650233</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>20.941078179477</v>
+        <v>16.4461971673843</v>
       </c>
       <c r="E105" t="n">
-        <v>4.7753033126061</v>
+        <v>6.08043300115104</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -2475,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>20.7467063746282</v>
+        <v>16.0014001746661</v>
       </c>
       <c r="E106" t="n">
-        <v>4.82004218859014</v>
+        <v>6.24945310463038</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>20.8880657035595</v>
+        <v>16.1441697674716</v>
       </c>
       <c r="E107" t="n">
-        <v>4.78742270438948</v>
+        <v>6.19418659741099</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -2515,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>20.9927137139112</v>
+        <v>16.4076869077715</v>
       </c>
       <c r="E108" t="n">
-        <v>4.76355755443533</v>
+        <v>6.09470430305659</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -2535,10 +2535,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>21.7437328248556</v>
+        <v>16.6688525744653</v>
       </c>
       <c r="E109" t="n">
-        <v>4.59902634039398</v>
+        <v>5.99921317638793</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -2555,10 +2555,10 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>23.4399039007472</v>
+        <v>18.3740451441238</v>
       </c>
       <c r="E110" t="n">
-        <v>4.26622909477083</v>
+        <v>5.44245968787015</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>23.0105417315782</v>
+        <v>18.0714623670494</v>
       </c>
       <c r="E111" t="n">
-        <v>4.34583423400094</v>
+        <v>5.53358648951038</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>23.1424507612284</v>
+        <v>17.8491761037206</v>
       </c>
       <c r="E112" t="n">
-        <v>4.32106353090029</v>
+        <v>5.60249948899072</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -2615,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>23.0450736103752</v>
+        <v>17.8112988512084</v>
       </c>
       <c r="E113" t="n">
-        <v>4.33932222090966</v>
+        <v>5.61441368399786</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>23.2733837052977</v>
+        <v>18.1902348750608</v>
       </c>
       <c r="E114" t="n">
-        <v>4.2967538053883</v>
+        <v>5.49745512836133</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -2655,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>23.7381806105242</v>
+        <v>18.1978060607212</v>
       </c>
       <c r="E115" t="n">
-        <v>4.21262276333281</v>
+        <v>5.49516791564472</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>26.5037205205322</v>
+        <v>20.7757062227536</v>
       </c>
       <c r="E116" t="n">
-        <v>3.77305518002768</v>
+        <v>4.81331411446702</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>25.6143297796143</v>
+        <v>20.1163624076809</v>
       </c>
       <c r="E117" t="n">
-        <v>3.90406467240799</v>
+        <v>4.9710776716678</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>26.2438318811223</v>
+        <v>20.2411914673865</v>
       </c>
       <c r="E118" t="n">
-        <v>3.81041916641495</v>
+        <v>4.94042063487836</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>26.172345031465</v>
+        <v>20.2283345618167</v>
       </c>
       <c r="E119" t="n">
-        <v>3.82082690258659</v>
+        <v>4.94356071155562</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>26.2941173098286</v>
+        <v>20.5512088725332</v>
       </c>
       <c r="E120" t="n">
-        <v>3.8031320398278</v>
+        <v>4.865893808011</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>26.4566939496355</v>
+        <v>20.2818317630405</v>
       </c>
       <c r="E121" t="n">
-        <v>3.77976175671706</v>
+        <v>4.93052112690481</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -2795,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>29.816395110034</v>
+        <v>23.3724418029432</v>
       </c>
       <c r="E122" t="n">
-        <v>3.35385950014955</v>
+        <v>4.27854311685171</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>28.8141708147576</v>
+        <v>22.6293761177309</v>
       </c>
       <c r="E123" t="n">
-        <v>3.47051458266443</v>
+        <v>4.41903477496433</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -2835,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>29.1393995415483</v>
+        <v>22.4744682116875</v>
       </c>
       <c r="E124" t="n">
-        <v>3.43177970628446</v>
+        <v>4.44949349003937</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -2855,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>29.1938202339227</v>
+        <v>22.5636014701533</v>
       </c>
       <c r="E125" t="n">
-        <v>3.42538246788962</v>
+        <v>4.43191660392859</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>29.4429106333149</v>
+        <v>23.0122730156986</v>
       </c>
       <c r="E126" t="n">
-        <v>3.3964033395139</v>
+        <v>4.34550728351699</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>29.8212890420041</v>
+        <v>22.8611469164787</v>
       </c>
       <c r="E127" t="n">
-        <v>3.35330910274023</v>
+        <v>4.3742337322507</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>32.5356397802889</v>
+        <v>25.5040002146478</v>
       </c>
       <c r="E128" t="n">
-        <v>3.07355259264282</v>
+        <v>3.92095354290998</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>31.5666433524382</v>
+        <v>24.791046384397</v>
       </c>
       <c r="E129" t="n">
-        <v>3.1679009669641</v>
+        <v>4.03371436806064</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -2955,10 +2955,10 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>31.7462189374621</v>
+        <v>24.485040857961</v>
       </c>
       <c r="E130" t="n">
-        <v>3.14998142603985</v>
+        <v>4.08412632758528</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>31.8051517979249</v>
+        <v>24.5818726057724</v>
       </c>
       <c r="E131" t="n">
-        <v>3.14414471703683</v>
+        <v>4.06803833067289</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -2995,10 +2995,10 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>32.0919994073113</v>
+        <v>25.0827732753112</v>
       </c>
       <c r="E132" t="n">
-        <v>3.11604143857792</v>
+        <v>3.98679998030479</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -3015,10 +3015,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>33.011984453215</v>
+        <v>25.3071497186608</v>
       </c>
       <c r="E133" t="n">
-        <v>3.02920292906721</v>
+        <v>3.95145249906443</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -3035,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>35.4477014207246</v>
+        <v>27.7867037730924</v>
       </c>
       <c r="E134" t="n">
-        <v>2.8210573885486</v>
+        <v>3.598843562612</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -3055,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>34.8482076245312</v>
+        <v>27.3682419124275</v>
       </c>
       <c r="E135" t="n">
-        <v>2.86958804531472</v>
+        <v>3.65387007027995</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -3075,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>34.9563853460066</v>
+        <v>26.9609595123654</v>
       </c>
       <c r="E136" t="n">
-        <v>2.86070767930312</v>
+        <v>3.70906680654803</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>34.8531948783377</v>
+        <v>26.9376735519732</v>
       </c>
       <c r="E137" t="n">
-        <v>2.86917742689216</v>
+        <v>3.71227306645695</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -3115,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>35.2309933533755</v>
+        <v>27.5361783269069</v>
       </c>
       <c r="E138" t="n">
-        <v>2.83840989088714</v>
+        <v>3.63158601069508</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -3135,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>36.0609822350473</v>
+        <v>27.6445264209324</v>
       </c>
       <c r="E139" t="n">
-        <v>2.77308031567734</v>
+        <v>3.61735261719948</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>40.442579317572</v>
+        <v>31.7020829638379</v>
       </c>
       <c r="E140" t="n">
-        <v>2.47264150030487</v>
+        <v>3.15436686334044</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>39.4675072862049</v>
+        <v>30.9960356850313</v>
       </c>
       <c r="E141" t="n">
-        <v>2.53372981665232</v>
+        <v>3.22621902414096</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -3195,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>39.7527642655343</v>
+        <v>30.6602830143625</v>
       </c>
       <c r="E142" t="n">
-        <v>2.51554833601094</v>
+        <v>3.26154849755157</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3215,10 +3215,10 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>39.6459118333968</v>
+        <v>30.641914876565</v>
       </c>
       <c r="E143" t="n">
-        <v>2.52232816387798</v>
+        <v>3.26350361597278</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -3235,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>39.8243369644455</v>
+        <v>31.1262879648192</v>
       </c>
       <c r="E144" t="n">
-        <v>2.51102736724226</v>
+        <v>3.21271846206094</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>40.6271170564258</v>
+        <v>31.1449478428552</v>
       </c>
       <c r="E145" t="n">
-        <v>2.4614101921412</v>
+        <v>3.21079362548814</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -3275,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>47.8893244501546</v>
+        <v>37.5394290477737</v>
       </c>
       <c r="E146" t="n">
-        <v>2.0881480611422</v>
+        <v>2.66386576824963</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>46.6227647723677</v>
+        <v>36.6154586389155</v>
       </c>
       <c r="E147" t="n">
-        <v>2.14487494442345</v>
+        <v>2.73108691567005</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3315,10 +3315,10 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>47.1739536868998</v>
+        <v>36.3840552391668</v>
       </c>
       <c r="E148" t="n">
-        <v>2.11981384184404</v>
+        <v>2.7484566891365</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -3335,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>47.1824781608848</v>
+        <v>36.4668489792015</v>
       </c>
       <c r="E149" t="n">
-        <v>2.11943085437386</v>
+        <v>2.74221663782999</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -3355,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>47.0048395033966</v>
+        <v>36.7384941381209</v>
       </c>
       <c r="E150" t="n">
-        <v>2.12744051583825</v>
+        <v>2.72194063327808</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -3375,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>48.087404561505</v>
+        <v>36.8640409529002</v>
       </c>
       <c r="E151" t="n">
-        <v>2.07954662789291</v>
+        <v>2.71267059755512</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>57.5512048095048</v>
+        <v>45.113172807626</v>
       </c>
       <c r="E152" t="n">
-        <v>1.73758308502839</v>
+        <v>2.21664746184945</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>56.2079803674026</v>
+        <v>44.1432632828198</v>
       </c>
       <c r="E153" t="n">
-        <v>1.77910679847153</v>
+        <v>2.26535132573489</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -3435,10 +3435,10 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>57.2015691359363</v>
+        <v>44.1180967154526</v>
       </c>
       <c r="E154" t="n">
-        <v>1.74820379074489</v>
+        <v>2.26664356454376</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -3455,10 +3455,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>56.8609279591845</v>
+        <v>43.9472226455422</v>
       </c>
       <c r="E155" t="n">
-        <v>1.75867689095368</v>
+        <v>2.27545664959429</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>56.7574310113247</v>
+        <v>44.3610183235214</v>
       </c>
       <c r="E156" t="n">
-        <v>1.76188383121229</v>
+        <v>2.25423139006206</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -3495,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>58.0411329548422</v>
+        <v>44.4946181169621</v>
       </c>
       <c r="E157" t="n">
-        <v>1.72291605813076</v>
+        <v>2.24746282206832</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -3515,10 +3515,10 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>67.9515338732022</v>
+        <v>53.2657708958813</v>
       </c>
       <c r="E158" t="n">
-        <v>1.4716371257579</v>
+        <v>1.87737825470451</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>66.9121442695286</v>
+        <v>52.5498404675079</v>
       </c>
       <c r="E159" t="n">
-        <v>1.49449701682239</v>
+        <v>1.90295534887173</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3555,10 +3555,10 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>68.0196610639381</v>
+        <v>52.4618123366452</v>
       </c>
       <c r="E160" t="n">
-        <v>1.47016316217749</v>
+        <v>1.9061484067364</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>67.3460514239723</v>
+        <v>52.0510660387382</v>
       </c>
       <c r="E161" t="n">
-        <v>1.48486804921133</v>
+        <v>1.92119023893913</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -3595,10 +3595,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>67.3067988220281</v>
+        <v>52.6062945880303</v>
       </c>
       <c r="E162" t="n">
-        <v>1.48573400830455</v>
+        <v>1.90091320407793</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -3615,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>68.8329748494127</v>
+        <v>52.7676972150414</v>
       </c>
       <c r="E163" t="n">
-        <v>1.45279206977139</v>
+        <v>1.8950988062351</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -3635,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>81.3227212927004</v>
+        <v>63.7471620447831</v>
       </c>
       <c r="E164" t="n">
-        <v>1.22966863885525</v>
+        <v>1.56869728459047</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -3655,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>79.9424084833774</v>
+        <v>62.7832340190438</v>
       </c>
       <c r="E165" t="n">
-        <v>1.25090051572306</v>
+        <v>1.59278191960719</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>80.7655988329623</v>
+        <v>62.2924257921365</v>
       </c>
       <c r="E166" t="n">
-        <v>1.23815091381688</v>
+        <v>1.60533160698686</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -3695,10 +3695,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>80.4779734372188</v>
+        <v>62.2005926327167</v>
       </c>
       <c r="E167" t="n">
-        <v>1.24257602085384</v>
+        <v>1.60770172384823</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3715,10 +3715,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>80.1768252347304</v>
+        <v>62.6653735023698</v>
       </c>
       <c r="E168" t="n">
-        <v>1.2472431991069</v>
+        <v>1.5957776106803</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>81.0241340561846</v>
+        <v>62.1134998500527</v>
       </c>
       <c r="E169" t="n">
-        <v>1.23420016967607</v>
+        <v>1.60995597159086</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>100</v>
+        <v>78.3878859824937</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>1.27570732067367</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -3775,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>100</v>
+        <v>78.5355798131832</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>1.27330822842176</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -3795,10 +3795,10 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>100</v>
+        <v>77.1274239184041</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>1.29655568563775</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -3815,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>100</v>
+        <v>77.2889648883116</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>1.29384576626828</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3835,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>100</v>
+        <v>78.1589609203244</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>1.2794438260501</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -3855,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>100</v>
+        <v>76.6604920541098</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>1.30445288466732</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -3875,10 +3875,10 @@
         <v>42</v>
       </c>
       <c r="D176" t="n">
-        <v>127.570732067367</v>
+        <v>100</v>
       </c>
       <c r="E176" t="n">
-        <v>0.783878859824937</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -3895,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>127.330822842176</v>
+        <v>100</v>
       </c>
       <c r="E177" t="n">
-        <v>0.785355798131832</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -3915,10 +3915,10 @@
         <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>129.655568563775</v>
+        <v>100</v>
       </c>
       <c r="E178" t="n">
-        <v>0.771274239184041</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -3935,10 +3935,10 @@
         <v>40</v>
       </c>
       <c r="D179" t="n">
-        <v>129.384576626828</v>
+        <v>100</v>
       </c>
       <c r="E179" t="n">
-        <v>0.772889648883116</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -3955,10 +3955,10 @@
         <v>43</v>
       </c>
       <c r="D180" t="n">
-        <v>127.94438260501</v>
+        <v>100</v>
       </c>
       <c r="E180" t="n">
-        <v>0.781589609203244</v>
+        <v>1</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -3975,10 +3975,10 @@
         <v>44</v>
       </c>
       <c r="D181" t="n">
-        <v>130.445288466732</v>
+        <v>100</v>
       </c>
       <c r="E181" t="n">
-        <v>0.766604920541098</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -3995,10 +3995,10 @@
         <v>42</v>
       </c>
       <c r="D182" t="n">
-        <v>182.434432618591</v>
+        <v>143.00649503387</v>
       </c>
       <c r="E182" t="n">
-        <v>0.548142138326849</v>
+        <v>0.69926893863328</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>182.371156766003</v>
+        <v>143.226245378189</v>
       </c>
       <c r="E183" t="n">
-        <v>0.548332322793282</v>
+        <v>0.698196058522302</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -4035,10 +4035,10 @@
         <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>187.16908470658</v>
+        <v>144.35869340584</v>
       </c>
       <c r="E184" t="n">
-        <v>0.53427626766871</v>
+        <v>0.692718932547184</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -4055,10 +4055,10 @@
         <v>40</v>
       </c>
       <c r="D185" t="n">
-        <v>184.288392858985</v>
+        <v>142.434591250014</v>
       </c>
       <c r="E185" t="n">
-        <v>0.542627771877737</v>
+        <v>0.702076645303603</v>
       </c>
       <c r="F185" t="s">
         <v>6</v>
@@ -4075,10 +4075,10 @@
         <v>43</v>
       </c>
       <c r="D186" t="n">
-        <v>184.118470178485</v>
+        <v>143.905083153901</v>
       </c>
       <c r="E186" t="n">
-        <v>0.543128562295025</v>
+        <v>0.694902485779837</v>
       </c>
       <c r="F186" t="s">
         <v>6</v>
@@ -4095,10 +4095,10 @@
         <v>44</v>
       </c>
       <c r="D187" t="n">
-        <v>186.298458120603</v>
+        <v>142.817314684474</v>
       </c>
       <c r="E187" t="n">
-        <v>0.536773095219413</v>
+        <v>0.700195212470771</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">nombre_trim_base</t>
   </si>
   <si>
-    <t xml:space="preserve">3er trimestre 2023</t>
+    <t xml:space="preserve">4to trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>4.46215678008175</v>
+        <v>3.11546027636165</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4106872368048</v>
+        <v>32.0979858927246</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -415,10 +415,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>4.73284772930194</v>
+        <v>3.30445563018484</v>
       </c>
       <c r="E3" t="n">
-        <v>21.128928230858</v>
+        <v>30.2621705937102</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>4.46215678008175</v>
+        <v>3.11546027636165</v>
       </c>
       <c r="E4" t="n">
-        <v>22.4106872368048</v>
+        <v>32.0979858927246</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -455,10 +455,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>4.73284772930194</v>
+        <v>3.30445563018484</v>
       </c>
       <c r="E5" t="n">
-        <v>21.128928230858</v>
+        <v>30.2621705937102</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -475,10 +475,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>4.46215678008175</v>
+        <v>3.11546027636165</v>
       </c>
       <c r="E6" t="n">
-        <v>22.4106872368048</v>
+        <v>32.0979858927246</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -495,10 +495,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>4.73284772930194</v>
+        <v>3.30445563018484</v>
       </c>
       <c r="E7" t="n">
-        <v>21.128928230858</v>
+        <v>30.2621705937102</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>4.46215678008175</v>
+        <v>3.11546027636165</v>
       </c>
       <c r="E8" t="n">
-        <v>22.4106872368048</v>
+        <v>32.0979858927246</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -535,10 +535,10 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>4.73284772930194</v>
+        <v>3.30445563018484</v>
       </c>
       <c r="E9" t="n">
-        <v>21.128928230858</v>
+        <v>30.2621705937102</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>4.46215678008175</v>
+        <v>3.11546027636165</v>
       </c>
       <c r="E10" t="n">
-        <v>22.4106872368048</v>
+        <v>32.0979858927246</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>4.73284772930194</v>
+        <v>3.30445563018484</v>
       </c>
       <c r="E11" t="n">
-        <v>21.128928230858</v>
+        <v>30.2621705937102</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4.46215678008175</v>
+        <v>3.11546027636165</v>
       </c>
       <c r="E12" t="n">
-        <v>22.4106872368048</v>
+        <v>32.0979858927246</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>4.73284772930194</v>
+        <v>3.30445563018484</v>
       </c>
       <c r="E13" t="n">
-        <v>21.128928230858</v>
+        <v>30.2621705937102</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>4.76853726740625</v>
+        <v>3.33448999381241</v>
       </c>
       <c r="E14" t="n">
-        <v>20.9707913333333</v>
+        <v>29.9895936666667</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4.95727334367211</v>
+        <v>3.46114870956954</v>
       </c>
       <c r="E15" t="n">
-        <v>20.1723796666667</v>
+        <v>28.892142</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -675,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>4.62022526093069</v>
+        <v>3.20051751087944</v>
       </c>
       <c r="E16" t="n">
-        <v>21.6439663333333</v>
+        <v>31.244947</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>4.68956406765972</v>
+        <v>3.29243340855885</v>
       </c>
       <c r="E17" t="n">
-        <v>21.3239436666667</v>
+        <v>30.372672</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -715,10 +715,10 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>4.8180487962346</v>
+        <v>3.34807408511197</v>
       </c>
       <c r="E18" t="n">
-        <v>20.75529</v>
+        <v>29.8679173333333</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>4.94549275702913</v>
+        <v>3.46281035178067</v>
       </c>
       <c r="E19" t="n">
-        <v>20.220432</v>
+        <v>28.878278</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -755,10 +755,10 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>4.94173689900813</v>
+        <v>3.45560311637433</v>
       </c>
       <c r="E20" t="n">
-        <v>20.2358000928927</v>
+        <v>28.9385084549065</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>5.14538864766889</v>
+        <v>3.59249007336782</v>
       </c>
       <c r="E21" t="n">
-        <v>19.4348778775545</v>
+        <v>27.8358458778576</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>4.7915185724046</v>
+        <v>3.31917563075612</v>
       </c>
       <c r="E22" t="n">
-        <v>20.8702102452282</v>
+        <v>30.1279628210634</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -815,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>4.88289759910108</v>
+        <v>3.4281683657379</v>
       </c>
       <c r="E23" t="n">
-        <v>20.4796430747205</v>
+        <v>29.1700959029401</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -835,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>4.99689316153456</v>
+        <v>3.47235347912663</v>
       </c>
       <c r="E24" t="n">
-        <v>20.0124350806191</v>
+        <v>28.7989113438854</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -855,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>5.16571060400688</v>
+        <v>3.61700583393511</v>
       </c>
       <c r="E25" t="n">
-        <v>19.358420876778</v>
+        <v>27.6471768615328</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -875,10 +875,10 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>5.29608849286151</v>
+        <v>3.7033901793112</v>
       </c>
       <c r="E26" t="n">
-        <v>18.8818597224703</v>
+        <v>27.0022857863168</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>5.47805638994269</v>
+        <v>3.8247573798209</v>
       </c>
       <c r="E27" t="n">
-        <v>18.2546496205466</v>
+        <v>26.1454492584528</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>5.0933471081756</v>
+        <v>3.52825797186769</v>
       </c>
       <c r="E28" t="n">
-        <v>19.6334547550244</v>
+        <v>28.3425987547801</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>5.22559687247345</v>
+        <v>3.66876952193516</v>
       </c>
       <c r="E29" t="n">
-        <v>19.136569934578</v>
+        <v>27.2570951655893</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>5.30623759051307</v>
+        <v>3.68731769178594</v>
       </c>
       <c r="E30" t="n">
-        <v>18.8457448981908</v>
+        <v>27.1199848667136</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -975,10 +975,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>5.45399656479479</v>
+        <v>3.81886228350135</v>
       </c>
       <c r="E31" t="n">
-        <v>18.3351783984416</v>
+        <v>26.1858094312619</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>5.5182069587773</v>
+        <v>3.85871072322298</v>
       </c>
       <c r="E32" t="n">
-        <v>18.1218284756318</v>
+        <v>25.9153917390509</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>5.74198658003314</v>
+        <v>4.00903239826709</v>
       </c>
       <c r="E33" t="n">
-        <v>17.4155753598823</v>
+        <v>24.9436746989685</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>5.30132654829639</v>
+        <v>3.67232926761992</v>
       </c>
       <c r="E34" t="n">
-        <v>18.8632032169638</v>
+        <v>27.2306736984974</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1055,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>5.43680389576468</v>
+        <v>3.81705304031203</v>
       </c>
       <c r="E35" t="n">
-        <v>18.3931592746799</v>
+        <v>26.1982212308544</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>5.55623008238703</v>
+        <v>3.86103809581545</v>
       </c>
       <c r="E36" t="n">
-        <v>17.9978147983819</v>
+        <v>25.8997703514966</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -1095,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>5.69517341007683</v>
+        <v>3.98773315592663</v>
       </c>
       <c r="E37" t="n">
-        <v>17.5587278559532</v>
+        <v>25.076903616627</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>5.82704127490086</v>
+        <v>4.07466896767224</v>
       </c>
       <c r="E38" t="n">
-        <v>17.1613680566732</v>
+        <v>24.5418709577106</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>6.03848440356706</v>
+        <v>4.21604601001892</v>
       </c>
       <c r="E39" t="n">
-        <v>16.5604468467167</v>
+        <v>23.7189062364031</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>5.54233443873249</v>
+        <v>3.83927999621827</v>
       </c>
       <c r="E40" t="n">
-        <v>18.0429386038403</v>
+        <v>26.0465504205218</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>5.71834343775466</v>
+        <v>4.01471537747266</v>
       </c>
       <c r="E41" t="n">
-        <v>17.4875820398898</v>
+        <v>24.908365998028</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>5.86906920275907</v>
+        <v>4.07843077821116</v>
       </c>
       <c r="E42" t="n">
-        <v>17.0384768939152</v>
+        <v>24.519234342347</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -1215,10 +1215,10 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>5.97757588298147</v>
+        <v>4.18547001544437</v>
       </c>
       <c r="E43" t="n">
-        <v>16.729189550685</v>
+        <v>23.8921792847638</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>6.22663992937224</v>
+        <v>4.35409589466373</v>
       </c>
       <c r="E44" t="n">
-        <v>16.0600261351682</v>
+        <v>22.9668804774276</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>6.45782015570829</v>
+        <v>4.50882457936141</v>
       </c>
       <c r="E45" t="n">
-        <v>15.4851014102037</v>
+        <v>22.1787293428398</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>5.88916858877021</v>
+        <v>4.07953857840331</v>
       </c>
       <c r="E46" t="n">
-        <v>16.9803255744258</v>
+        <v>24.5125761352989</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -1295,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>6.08286325273385</v>
+        <v>4.27063622631994</v>
       </c>
       <c r="E47" t="n">
-        <v>16.4396265122443</v>
+        <v>23.4157148257442</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>6.27035806293239</v>
+        <v>4.35728740466136</v>
       </c>
       <c r="E48" t="n">
-        <v>15.9480525667515</v>
+        <v>22.9500583076116</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>6.41375021067799</v>
+        <v>4.49087719150013</v>
       </c>
       <c r="E49" t="n">
-        <v>15.5915021189185</v>
+        <v>22.2673646452122</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1355,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>6.74260201975529</v>
+        <v>4.71489215798089</v>
       </c>
       <c r="E50" t="n">
-        <v>14.8310696237162</v>
+        <v>21.2093928449096</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>6.96622819528861</v>
+        <v>4.86379306871744</v>
       </c>
       <c r="E51" t="n">
-        <v>14.3549704656003</v>
+        <v>20.5600852230273</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>6.35426972496215</v>
+        <v>4.40172294099267</v>
       </c>
       <c r="E52" t="n">
-        <v>15.7374496721723</v>
+        <v>22.7183767221497</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>6.5988872508589</v>
+        <v>4.63292462381973</v>
       </c>
       <c r="E53" t="n">
-        <v>15.1540701028017</v>
+        <v>21.5846378086662</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1435,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>6.76334884584444</v>
+        <v>4.69986792517349</v>
       </c>
       <c r="E54" t="n">
-        <v>14.7855747617458</v>
+        <v>21.2771936556725</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>6.93324455184736</v>
+        <v>4.85462464209258</v>
       </c>
       <c r="E55" t="n">
-        <v>14.4232616132594</v>
+        <v>20.5989149259736</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>7.5309302427532</v>
+        <v>5.2661455977713</v>
       </c>
       <c r="E56" t="n">
-        <v>13.2785720723183</v>
+        <v>18.9892205111688</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>7.76280583918549</v>
+        <v>5.41996043999322</v>
       </c>
       <c r="E57" t="n">
-        <v>12.881940122116</v>
+        <v>18.4503191687733</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>7.11230546329779</v>
+        <v>4.92682864848515</v>
       </c>
       <c r="E58" t="n">
-        <v>14.0601385185209</v>
+        <v>20.2970322563881</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1535,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>7.3618355554025</v>
+        <v>5.16857281001377</v>
       </c>
       <c r="E59" t="n">
-        <v>13.5835688324517</v>
+        <v>19.3477007436669</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>7.54674591393327</v>
+        <v>5.24425249514105</v>
       </c>
       <c r="E60" t="n">
-        <v>13.2507442466526</v>
+        <v>19.0684945266562</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -1575,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>7.70390398517038</v>
+        <v>5.3942366877508</v>
       </c>
       <c r="E61" t="n">
-        <v>12.9804317645307</v>
+        <v>18.5383040805531</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>8.70288569940152</v>
+        <v>6.08565764606725</v>
       </c>
       <c r="E62" t="n">
-        <v>11.490441613737</v>
+        <v>16.4320778157186</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>8.86806628449504</v>
+        <v>6.19164892654896</v>
       </c>
       <c r="E63" t="n">
-        <v>11.2764154881026</v>
+        <v>16.1507865168539</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -1635,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>8.13852833720449</v>
+        <v>5.6377126622533</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2872337425993</v>
+        <v>17.737690086538</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>8.39938597349199</v>
+        <v>5.89701272687939</v>
       </c>
       <c r="E65" t="n">
-        <v>11.9056321873521</v>
+        <v>16.9577385417851</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>8.66406267189393</v>
+        <v>6.02067868765138</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5419294373756</v>
+        <v>16.60942315442</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>8.91710424386581</v>
+        <v>6.24371370065764</v>
       </c>
       <c r="E67" t="n">
-        <v>11.2144029345391</v>
+        <v>16.0161091290056</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -1715,10 +1715,10 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>9.58688190657056</v>
+        <v>6.70380873561019</v>
       </c>
       <c r="E68" t="n">
-        <v>10.4309201859953</v>
+        <v>14.9168933577724</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>9.76997937724716</v>
+        <v>6.82136109303815</v>
       </c>
       <c r="E69" t="n">
-        <v>10.2354361394954</v>
+        <v>14.6598308806815</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>9.05391508725165</v>
+        <v>6.2718183946138</v>
       </c>
       <c r="E70" t="n">
-        <v>11.0449456435487</v>
+        <v>15.9443392184122</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>9.29316061001912</v>
+        <v>6.52451102534981</v>
       </c>
       <c r="E71" t="n">
-        <v>10.7606017152214</v>
+        <v>15.3268190691177</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -1795,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>9.50679722294092</v>
+        <v>6.60629702202649</v>
       </c>
       <c r="E72" t="n">
-        <v>10.5187896254576</v>
+        <v>15.1370729572987</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>9.80173585476974</v>
+        <v>6.86312851941287</v>
       </c>
       <c r="E73" t="n">
-        <v>10.2022745237863</v>
+        <v>14.5706145116098</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>10.6114784350691</v>
+        <v>7.42027726262069</v>
       </c>
       <c r="E74" t="n">
-        <v>9.42375754819589</v>
+        <v>13.4765853701647</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>10.8388583934875</v>
+        <v>7.56764820921435</v>
       </c>
       <c r="E75" t="n">
-        <v>9.22606388695739</v>
+        <v>13.2141449014821</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -1875,10 +1875,10 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>10.1071755193853</v>
+        <v>7.00143183685563</v>
       </c>
       <c r="E76" t="n">
-        <v>9.89396095953834</v>
+        <v>14.2827927672735</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -1895,10 +1895,10 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>10.4306034323138</v>
+        <v>7.32308306625114</v>
       </c>
       <c r="E77" t="n">
-        <v>9.58717303834999</v>
+        <v>13.6554507296054</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>10.5657882881906</v>
+        <v>7.34219254568715</v>
       </c>
       <c r="E78" t="n">
-        <v>9.46450915657376</v>
+        <v>13.6199097718761</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -1935,10 +1935,10 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>10.8774036083898</v>
+        <v>7.61630593070681</v>
       </c>
       <c r="E79" t="n">
-        <v>9.19337036669943</v>
+        <v>13.1297246867183</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>11.7554123772217</v>
+        <v>8.22019473621633</v>
       </c>
       <c r="E80" t="n">
-        <v>8.50671986580145</v>
+        <v>12.1651619224326</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>11.8955342551802</v>
+        <v>8.30541513098383</v>
       </c>
       <c r="E81" t="n">
-        <v>8.40651608030575</v>
+        <v>12.0403373489357</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -1995,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>11.1314809998087</v>
+        <v>7.71098763585677</v>
       </c>
       <c r="E82" t="n">
-        <v>8.98353058337145</v>
+        <v>12.9685073718691</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>11.495717544805</v>
+        <v>8.07087480921446</v>
       </c>
       <c r="E83" t="n">
-        <v>8.69889153158524</v>
+        <v>12.3902305962955</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2035,10 +2035,10 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>11.6241851274221</v>
+        <v>8.07767514021065</v>
       </c>
       <c r="E84" t="n">
-        <v>8.60275356111579</v>
+        <v>12.3797996656489</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2055,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>12.0165418160535</v>
+        <v>8.4139250500555</v>
       </c>
       <c r="E85" t="n">
-        <v>8.32186177444203</v>
+        <v>11.8850595180118</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>13.3657537704745</v>
+        <v>9.34625645311344</v>
       </c>
       <c r="E86" t="n">
-        <v>7.48180773918672</v>
+        <v>10.6994710129838</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>13.4208178612013</v>
+        <v>9.37036213283644</v>
       </c>
       <c r="E87" t="n">
-        <v>7.45111073216288</v>
+        <v>10.6719461406482</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2115,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>12.6488014773756</v>
+        <v>8.76206425740883</v>
       </c>
       <c r="E88" t="n">
-        <v>7.90588738220505</v>
+        <v>11.4128357270884</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -2135,10 +2135,10 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>12.9155752943823</v>
+        <v>9.06772377484602</v>
       </c>
       <c r="E89" t="n">
-        <v>7.74258968111901</v>
+        <v>11.0281259644676</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>13.1933288653961</v>
+        <v>9.16807702427461</v>
       </c>
       <c r="E90" t="n">
-        <v>7.57958821615396</v>
+        <v>10.9074127251796</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -2175,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>13.5889398076823</v>
+        <v>9.51491059589264</v>
       </c>
       <c r="E91" t="n">
-        <v>7.35892581873579</v>
+        <v>10.5098202439409</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -2195,10 +2195,10 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>14.5677971077677</v>
+        <v>10.1868080217737</v>
       </c>
       <c r="E92" t="n">
-        <v>6.86445584464373</v>
+        <v>9.81661770657266</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>14.5488652396472</v>
+        <v>10.1579603662938</v>
       </c>
       <c r="E93" t="n">
-        <v>6.8733882919947</v>
+        <v>9.84449598088808</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -2235,10 +2235,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>13.9276551883998</v>
+        <v>9.64795043499354</v>
       </c>
       <c r="E94" t="n">
-        <v>7.17995948688399</v>
+        <v>10.3648957023344</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>14.0628239951425</v>
+        <v>9.87318029400465</v>
       </c>
       <c r="E95" t="n">
-        <v>7.11094727734213</v>
+        <v>10.1284486884863</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -2275,10 +2275,10 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>14.4022688512985</v>
+        <v>10.0081724256368</v>
       </c>
       <c r="E96" t="n">
-        <v>6.94335045627094</v>
+        <v>9.99183424776347</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>14.8200097802065</v>
+        <v>10.3768998968706</v>
       </c>
       <c r="E97" t="n">
-        <v>6.7476338735997</v>
+        <v>9.63678950301501</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -2315,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>15.4284036396401</v>
+        <v>10.788603437897</v>
       </c>
       <c r="E98" t="n">
-        <v>6.48155196971063</v>
+        <v>9.26904029568196</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>15.4502776477916</v>
+        <v>10.7873229567634</v>
       </c>
       <c r="E99" t="n">
-        <v>6.47237559606531</v>
+        <v>9.27014055301856</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>14.9323077706383</v>
+        <v>10.3438922993426</v>
       </c>
       <c r="E100" t="n">
-        <v>6.69688848743341</v>
+        <v>9.66754071930503</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>15.1524582749554</v>
+        <v>10.6381870737835</v>
       </c>
       <c r="E101" t="n">
-        <v>6.59958920100007</v>
+        <v>9.40009790262454</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -2395,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>15.3006631080558</v>
+        <v>10.6324688278678</v>
       </c>
       <c r="E102" t="n">
-        <v>6.53566445413401</v>
+        <v>9.4051533673815</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -2415,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>15.5167819032419</v>
+        <v>10.8647764016031</v>
       </c>
       <c r="E103" t="n">
-        <v>6.44463527447706</v>
+        <v>9.20405504021649</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -2435,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>16.5768502075601</v>
+        <v>11.5916764505234</v>
       </c>
       <c r="E104" t="n">
-        <v>6.03250911650233</v>
+        <v>8.62687985010869</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>16.4461971673843</v>
+        <v>11.4826700399483</v>
       </c>
       <c r="E105" t="n">
-        <v>6.08043300115104</v>
+        <v>8.708775890285</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -2475,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>16.0014001746661</v>
+        <v>11.084472848255</v>
       </c>
       <c r="E106" t="n">
-        <v>6.24945310463038</v>
+        <v>9.02162884685515</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>16.1441697674716</v>
+        <v>11.3344445515583</v>
       </c>
       <c r="E107" t="n">
-        <v>6.19418659741099</v>
+        <v>8.82266436128551</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -2515,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>16.4076869077715</v>
+        <v>11.4017424181077</v>
       </c>
       <c r="E108" t="n">
-        <v>6.09470430305659</v>
+        <v>8.77058929529798</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -2535,10 +2535,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>16.6688525744653</v>
+        <v>11.6714507700217</v>
       </c>
       <c r="E109" t="n">
-        <v>5.99921317638793</v>
+        <v>8.56791516071436</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -2555,10 +2555,10 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>18.3740451441238</v>
+        <v>12.8483990463314</v>
       </c>
       <c r="E110" t="n">
-        <v>5.44245968787015</v>
+        <v>7.78307084325442</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>18.0714623670494</v>
+        <v>12.617423796408</v>
       </c>
       <c r="E111" t="n">
-        <v>5.53358648951038</v>
+        <v>7.92554816368047</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>17.8491761037206</v>
+        <v>12.364462217416</v>
       </c>
       <c r="E112" t="n">
-        <v>5.60249948899072</v>
+        <v>8.08769506037589</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -2615,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>17.8112988512084</v>
+        <v>12.5048969459563</v>
       </c>
       <c r="E113" t="n">
-        <v>5.61441368399786</v>
+        <v>7.99686718188723</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>18.1902348750608</v>
+        <v>12.6404394315988</v>
       </c>
       <c r="E114" t="n">
-        <v>5.49745512836133</v>
+        <v>7.91111737381678</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -2655,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>18.1978060607212</v>
+        <v>12.7420166811885</v>
       </c>
       <c r="E115" t="n">
-        <v>5.49516791564472</v>
+        <v>7.84805125452656</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>20.7757062227536</v>
+        <v>14.5278060397417</v>
       </c>
       <c r="E116" t="n">
-        <v>4.81331411446702</v>
+        <v>6.88335181006986</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>20.1163624076809</v>
+        <v>14.045164944849</v>
       </c>
       <c r="E117" t="n">
-        <v>4.9710776716678</v>
+        <v>7.11988790396331</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>20.2411914673865</v>
+        <v>14.0214565467711</v>
       </c>
       <c r="E118" t="n">
-        <v>4.94042063487836</v>
+        <v>7.13192667726294</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>20.2283345618167</v>
+        <v>14.2018412692392</v>
       </c>
       <c r="E119" t="n">
-        <v>4.94356071155562</v>
+        <v>7.04134049270055</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>20.5512088725332</v>
+        <v>14.281086131304</v>
       </c>
       <c r="E120" t="n">
-        <v>4.865893808011</v>
+        <v>7.00226853059875</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>20.2818317630405</v>
+        <v>14.2012415006186</v>
       </c>
       <c r="E121" t="n">
-        <v>4.93052112690481</v>
+        <v>7.04163787339609</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -2795,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>23.3724418029432</v>
+        <v>16.3436225728122</v>
       </c>
       <c r="E122" t="n">
-        <v>4.27854311685171</v>
+        <v>6.11859454992255</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>22.6293761177309</v>
+        <v>15.7997412122184</v>
       </c>
       <c r="E123" t="n">
-        <v>4.41903477496433</v>
+        <v>6.32921759013793</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -2835,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>22.4744682116875</v>
+        <v>15.5684896291657</v>
       </c>
       <c r="E124" t="n">
-        <v>4.44949349003937</v>
+        <v>6.42323066539876</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -2855,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>22.5636014701533</v>
+        <v>15.8413776261327</v>
       </c>
       <c r="E125" t="n">
-        <v>4.43191660392859</v>
+        <v>6.3125822993472</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>23.0122730156986</v>
+        <v>15.9912857220532</v>
       </c>
       <c r="E126" t="n">
-        <v>4.34550728351699</v>
+        <v>6.25340586980396</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>22.8611469164787</v>
+        <v>16.0072656225093</v>
       </c>
       <c r="E127" t="n">
-        <v>4.3742337322507</v>
+        <v>6.24716315442287</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>25.5040002146478</v>
+        <v>17.8341551609997</v>
       </c>
       <c r="E128" t="n">
-        <v>3.92095354290998</v>
+        <v>5.60721823362193</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>24.791046384397</v>
+        <v>17.3090108722295</v>
       </c>
       <c r="E129" t="n">
-        <v>4.03371436806064</v>
+        <v>5.77733763865382</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -2955,10 +2955,10 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>24.485040857961</v>
+        <v>16.961251366501</v>
       </c>
       <c r="E130" t="n">
-        <v>4.08412632758528</v>
+        <v>5.89579140354605</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>24.5818726057724</v>
+        <v>17.2583586543412</v>
       </c>
       <c r="E131" t="n">
-        <v>4.06803833067289</v>
+        <v>5.79429376818785</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -2995,10 +2995,10 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>25.0827732753112</v>
+        <v>17.4300814992658</v>
       </c>
       <c r="E132" t="n">
-        <v>3.98679998030479</v>
+        <v>5.73720782683732</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -3015,10 +3015,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>25.3071497186608</v>
+        <v>17.7199450742873</v>
       </c>
       <c r="E133" t="n">
-        <v>3.95145249906443</v>
+        <v>5.64335835019635</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -3035,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>27.7867037730924</v>
+        <v>19.4303788555277</v>
       </c>
       <c r="E134" t="n">
-        <v>3.598843562612</v>
+        <v>5.14658004064349</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -3055,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3682419124275</v>
+        <v>19.1083986319417</v>
       </c>
       <c r="E135" t="n">
-        <v>3.65387007027995</v>
+        <v>5.23330091265938</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -3075,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>26.9609595123654</v>
+        <v>18.6763670938536</v>
       </c>
       <c r="E136" t="n">
-        <v>3.70906680654803</v>
+        <v>5.35436037948247</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>26.9376735519732</v>
+        <v>18.9123114796529</v>
       </c>
       <c r="E137" t="n">
-        <v>3.71227306645695</v>
+        <v>5.28756096829234</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -3115,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>27.5361783269069</v>
+        <v>19.1349587682444</v>
       </c>
       <c r="E138" t="n">
-        <v>3.63158601069508</v>
+        <v>5.2260368684962</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -3135,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>27.6445264209324</v>
+        <v>19.3565650509586</v>
       </c>
       <c r="E139" t="n">
-        <v>3.61735261719948</v>
+        <v>5.16620587055283</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>31.7020829638379</v>
+        <v>22.1682819065871</v>
       </c>
       <c r="E140" t="n">
-        <v>3.15436686334044</v>
+        <v>4.51094949177301</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>30.9960356850313</v>
+        <v>21.6413099451055</v>
       </c>
       <c r="E141" t="n">
-        <v>3.22621902414096</v>
+        <v>4.62079237595396</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -3195,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>30.6602830143625</v>
+        <v>21.2389585213037</v>
       </c>
       <c r="E142" t="n">
-        <v>3.26154849755157</v>
+        <v>4.70832879586327</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3215,10 +3215,10 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>30.641914876565</v>
+        <v>21.5129728022173</v>
       </c>
       <c r="E143" t="n">
-        <v>3.26350361597278</v>
+        <v>4.64835803584027</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -3235,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>31.1262879648192</v>
+        <v>21.6297348798519</v>
       </c>
       <c r="E144" t="n">
-        <v>3.21271846206094</v>
+        <v>4.62326517432953</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>31.1449478428552</v>
+        <v>21.8075433722191</v>
       </c>
       <c r="E145" t="n">
-        <v>3.21079362548814</v>
+        <v>4.58556923598241</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -3275,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>37.5394290477737</v>
+        <v>26.250156707136</v>
       </c>
       <c r="E146" t="n">
-        <v>2.66386576824963</v>
+        <v>3.80950106758088</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>36.6154586389155</v>
+        <v>25.5647689026772</v>
       </c>
       <c r="E147" t="n">
-        <v>2.73108691567005</v>
+        <v>3.91163324732921</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3315,10 +3315,10 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>36.3840552391668</v>
+        <v>25.2039239070134</v>
       </c>
       <c r="E148" t="n">
-        <v>2.7484566891365</v>
+        <v>3.96763616526288</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -3335,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>36.4668489792015</v>
+        <v>25.6025229961109</v>
       </c>
       <c r="E149" t="n">
-        <v>2.74221663782999</v>
+        <v>3.90586505928304</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -3355,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>36.7384941381209</v>
+        <v>25.5296709003882</v>
       </c>
       <c r="E150" t="n">
-        <v>2.72194063327808</v>
+        <v>3.91701093171865</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -3375,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>36.8640409529002</v>
+        <v>25.8120249875472</v>
       </c>
       <c r="E151" t="n">
-        <v>2.71267059755512</v>
+        <v>3.87416330366348</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>45.113172807626</v>
+        <v>31.5462404675684</v>
       </c>
       <c r="E152" t="n">
-        <v>2.21664746184945</v>
+        <v>3.16994984244815</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>44.1432632828198</v>
+        <v>30.820652434377</v>
       </c>
       <c r="E153" t="n">
-        <v>2.26535132573489</v>
+        <v>3.24457764847512</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -3435,10 +3435,10 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>44.1180967154526</v>
+        <v>30.5614408627417</v>
       </c>
       <c r="E154" t="n">
-        <v>2.26664356454376</v>
+        <v>3.27209703394295</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -3455,10 +3455,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>43.9472226455422</v>
+        <v>30.8543186453928</v>
       </c>
       <c r="E155" t="n">
-        <v>2.27545664959429</v>
+        <v>3.2410373779209</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>44.3610183235214</v>
+        <v>30.8265819047399</v>
       </c>
       <c r="E156" t="n">
-        <v>2.25423139006206</v>
+        <v>3.24395355635015</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -3495,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>44.4946181169621</v>
+        <v>31.1549185862121</v>
       </c>
       <c r="E157" t="n">
-        <v>2.24746282206832</v>
+        <v>3.20976605100987</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -3515,10 +3515,10 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>53.2657708958813</v>
+        <v>37.2470990798464</v>
       </c>
       <c r="E158" t="n">
-        <v>1.87737825470451</v>
+        <v>2.68477284058097</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>52.5498404675079</v>
+        <v>36.6900914903898</v>
       </c>
       <c r="E159" t="n">
-        <v>1.90295534887173</v>
+        <v>2.7255314974124</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3555,10 +3555,10 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>52.4618123366452</v>
+        <v>36.3412906413315</v>
       </c>
       <c r="E160" t="n">
-        <v>1.9061484067364</v>
+        <v>2.75169093434091</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>52.0510660387382</v>
+        <v>36.5438378289536</v>
       </c>
       <c r="E161" t="n">
-        <v>1.92119023893913</v>
+        <v>2.73643946396813</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -3595,10 +3595,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>52.6062945880303</v>
+        <v>36.5562448768886</v>
       </c>
       <c r="E162" t="n">
-        <v>1.90091320407793</v>
+        <v>2.73551072701183</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -3615,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>52.7676972150414</v>
+        <v>36.9476889630792</v>
       </c>
       <c r="E163" t="n">
-        <v>1.8950988062351</v>
+        <v>2.70652922568248</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -3635,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>63.7471620447831</v>
+        <v>44.5764103439392</v>
       </c>
       <c r="E164" t="n">
-        <v>1.56869728459047</v>
+        <v>2.24333900438433</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -3655,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>62.7832340190438</v>
+        <v>43.8350065333797</v>
       </c>
       <c r="E165" t="n">
-        <v>1.59278191960719</v>
+        <v>2.28128174051603</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>62.2924257921365</v>
+        <v>43.1511427005034</v>
       </c>
       <c r="E166" t="n">
-        <v>1.60533160698686</v>
+        <v>2.31743573267721</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -3695,10 +3695,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>62.2005926327167</v>
+        <v>43.6695834114738</v>
       </c>
       <c r="E167" t="n">
-        <v>1.60770172384823</v>
+        <v>2.28992337888266</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3715,10 +3715,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>62.6653735023698</v>
+        <v>43.5463238191186</v>
       </c>
       <c r="E168" t="n">
-        <v>1.5957776106803</v>
+        <v>2.29640509760082</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>62.1134998500527</v>
+        <v>43.4915752248108</v>
       </c>
       <c r="E169" t="n">
-        <v>1.60995597159086</v>
+        <v>2.29929588622839</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>78.3878859824937</v>
+        <v>54.8142138326849</v>
       </c>
       <c r="E170" t="n">
-        <v>1.27570732067367</v>
+        <v>1.82434432618591</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -3775,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>78.5355798131832</v>
+        <v>54.8332322793282</v>
       </c>
       <c r="E171" t="n">
-        <v>1.27330822842176</v>
+        <v>1.82371156766003</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -3795,10 +3795,10 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>77.1274239184041</v>
+        <v>53.427626766871</v>
       </c>
       <c r="E172" t="n">
-        <v>1.29655568563775</v>
+        <v>1.8716908470658</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -3815,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>77.2889648883116</v>
+        <v>54.2627771877737</v>
       </c>
       <c r="E173" t="n">
-        <v>1.29384576626828</v>
+        <v>1.84288392858985</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3835,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>78.1589609203244</v>
+        <v>54.3128562295025</v>
       </c>
       <c r="E174" t="n">
-        <v>1.2794438260501</v>
+        <v>1.84118470178485</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -3855,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>76.6604920541098</v>
+        <v>53.6773095219413</v>
       </c>
       <c r="E175" t="n">
-        <v>1.30445288466732</v>
+        <v>1.86298458120603</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -3875,10 +3875,10 @@
         <v>42</v>
       </c>
       <c r="D176" t="n">
-        <v>100</v>
+        <v>69.926893863328</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>1.4300649503387</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -3895,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>100</v>
+        <v>69.8196058522302</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>1.43226245378189</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -3915,10 +3915,10 @@
         <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>100</v>
+        <v>69.2718932547184</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>1.4435869340584</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -3935,10 +3935,10 @@
         <v>40</v>
       </c>
       <c r="D179" t="n">
-        <v>100</v>
+        <v>70.2076645303603</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>1.42434591250014</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -3955,10 +3955,10 @@
         <v>43</v>
       </c>
       <c r="D180" t="n">
-        <v>100</v>
+        <v>69.4902485779836</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>1.43905083153901</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -3975,10 +3975,10 @@
         <v>44</v>
       </c>
       <c r="D181" t="n">
-        <v>100</v>
+        <v>70.0195212470771</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>1.42817314684474</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -3995,10 +3995,10 @@
         <v>42</v>
       </c>
       <c r="D182" t="n">
-        <v>143.00649503387</v>
+        <v>100</v>
       </c>
       <c r="E182" t="n">
-        <v>0.69926893863328</v>
+        <v>1</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>143.226245378189</v>
+        <v>100</v>
       </c>
       <c r="E183" t="n">
-        <v>0.698196058522302</v>
+        <v>1</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -4035,10 +4035,10 @@
         <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>144.35869340584</v>
+        <v>100</v>
       </c>
       <c r="E184" t="n">
-        <v>0.692718932547184</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -4055,10 +4055,10 @@
         <v>40</v>
       </c>
       <c r="D185" t="n">
-        <v>142.434591250014</v>
+        <v>100</v>
       </c>
       <c r="E185" t="n">
-        <v>0.702076645303603</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
         <v>6</v>
@@ -4075,10 +4075,10 @@
         <v>43</v>
       </c>
       <c r="D186" t="n">
-        <v>143.905083153901</v>
+        <v>100</v>
       </c>
       <c r="E186" t="n">
-        <v>0.694902485779837</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
         <v>6</v>
@@ -4095,10 +4095,10 @@
         <v>44</v>
       </c>
       <c r="D187" t="n">
-        <v>142.817314684474</v>
+        <v>100</v>
       </c>
       <c r="E187" t="n">
-        <v>0.700195212470771</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">nombre_trim_base</t>
   </si>
   <si>
-    <t xml:space="preserve">4to trimestre 2023</t>
+    <t xml:space="preserve">1er trimestre 2024</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>3.11546027636165</v>
+        <v>1.90427384744792</v>
       </c>
       <c r="E2" t="n">
-        <v>32.0979858927246</v>
+        <v>52.5134555274276</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -415,10 +415,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>3.30445563018484</v>
+        <v>2.01979414867127</v>
       </c>
       <c r="E3" t="n">
-        <v>30.2621705937102</v>
+        <v>49.5099958903165</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>3.11546027636165</v>
+        <v>1.90427384744792</v>
       </c>
       <c r="E4" t="n">
-        <v>32.0979858927246</v>
+        <v>52.5134555274276</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -455,10 +455,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>3.30445563018484</v>
+        <v>2.01979414867127</v>
       </c>
       <c r="E5" t="n">
-        <v>30.2621705937102</v>
+        <v>49.5099958903165</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -475,10 +475,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>3.11546027636165</v>
+        <v>1.90427384744792</v>
       </c>
       <c r="E6" t="n">
-        <v>32.0979858927246</v>
+        <v>52.5134555274276</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -495,10 +495,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>3.30445563018484</v>
+        <v>2.01979414867127</v>
       </c>
       <c r="E7" t="n">
-        <v>30.2621705937102</v>
+        <v>49.5099958903165</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>3.11546027636165</v>
+        <v>1.90427384744792</v>
       </c>
       <c r="E8" t="n">
-        <v>32.0979858927246</v>
+        <v>52.5134555274276</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -535,10 +535,10 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>3.30445563018484</v>
+        <v>2.01979414867127</v>
       </c>
       <c r="E9" t="n">
-        <v>30.2621705937102</v>
+        <v>49.5099958903165</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>3.11546027636165</v>
+        <v>1.90427384744792</v>
       </c>
       <c r="E10" t="n">
-        <v>32.0979858927246</v>
+        <v>52.5134555274276</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>3.30445563018484</v>
+        <v>2.01979414867127</v>
       </c>
       <c r="E11" t="n">
-        <v>30.2621705937102</v>
+        <v>49.5099958903165</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>3.11546027636165</v>
+        <v>1.90427384744792</v>
       </c>
       <c r="E12" t="n">
-        <v>32.0979858927246</v>
+        <v>52.5134555274276</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3.30445563018484</v>
+        <v>2.01979414867127</v>
       </c>
       <c r="E13" t="n">
-        <v>30.2621705937102</v>
+        <v>49.5099958903165</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>3.33448999381241</v>
+        <v>2.01837223325319</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9895936666667</v>
+        <v>49.544875</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3.46114870956954</v>
+        <v>2.11557021598703</v>
       </c>
       <c r="E15" t="n">
-        <v>28.892142</v>
+        <v>47.26858</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -675,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>3.20051751087944</v>
+        <v>1.9846259364135</v>
       </c>
       <c r="E16" t="n">
-        <v>31.244947</v>
+        <v>50.387329</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>3.29243340855885</v>
+        <v>2.04012612549338</v>
       </c>
       <c r="E17" t="n">
-        <v>30.372672</v>
+        <v>49.0165773333333</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -715,10 +715,10 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>3.34807408511197</v>
+        <v>2.05248735606214</v>
       </c>
       <c r="E18" t="n">
-        <v>29.8679173333333</v>
+        <v>48.721372</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>3.46281035178067</v>
+        <v>2.10459373462726</v>
       </c>
       <c r="E19" t="n">
-        <v>28.878278</v>
+        <v>47.5151086666667</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -755,10 +755,10 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>3.45560311637433</v>
+        <v>2.09168220392792</v>
       </c>
       <c r="E20" t="n">
-        <v>28.9385084549065</v>
+        <v>47.8084098111139</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>3.59249007336782</v>
+        <v>2.19585046416316</v>
       </c>
       <c r="E21" t="n">
-        <v>27.8358458778576</v>
+        <v>45.540441679443</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>3.31917563075612</v>
+        <v>2.05820528146405</v>
       </c>
       <c r="E22" t="n">
-        <v>30.1279628210634</v>
+        <v>48.5860185573266</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -815,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>3.4281683657379</v>
+        <v>2.12423304518501</v>
       </c>
       <c r="E23" t="n">
-        <v>29.1700959029401</v>
+        <v>47.0758141281482</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -835,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>3.47235347912663</v>
+        <v>2.12867500255672</v>
       </c>
       <c r="E24" t="n">
-        <v>28.7989113438854</v>
+        <v>46.9775798935449</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -855,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>3.61700583393511</v>
+        <v>2.19830918903648</v>
       </c>
       <c r="E25" t="n">
-        <v>27.6471768615328</v>
+        <v>45.4895064346386</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -875,10 +875,10 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>3.7033901793112</v>
+        <v>2.24166811737171</v>
       </c>
       <c r="E26" t="n">
-        <v>27.0022857863168</v>
+        <v>44.6096365581749</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>3.8247573798209</v>
+        <v>2.3378200346474</v>
       </c>
       <c r="E27" t="n">
-        <v>26.1454492584528</v>
+        <v>42.7748922149529</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>3.52825797186769</v>
+        <v>2.18785626309609</v>
       </c>
       <c r="E28" t="n">
-        <v>28.3425987547801</v>
+        <v>45.7068417549914</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>3.66876952193516</v>
+        <v>2.27331934205769</v>
       </c>
       <c r="E29" t="n">
-        <v>27.2570951655893</v>
+        <v>43.9885405230772</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>3.68731769178594</v>
+        <v>2.26045563741514</v>
       </c>
       <c r="E30" t="n">
-        <v>27.1199848667136</v>
+        <v>44.2388686355072</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -975,10 +975,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>3.81886228350135</v>
+        <v>2.32099157007786</v>
       </c>
       <c r="E31" t="n">
-        <v>26.1858094312619</v>
+        <v>43.0850336938731</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>3.85871072322298</v>
+        <v>2.33568389599664</v>
       </c>
       <c r="E32" t="n">
-        <v>25.9153917390509</v>
+        <v>42.8140127058288</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4.00903239826709</v>
+        <v>2.45045510851676</v>
       </c>
       <c r="E33" t="n">
-        <v>24.9436746989685</v>
+        <v>40.8087459559824</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>3.67232926761992</v>
+        <v>2.27719419962375</v>
       </c>
       <c r="E34" t="n">
-        <v>27.2306736984974</v>
+        <v>43.9136899332181</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1055,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>3.81705304031203</v>
+        <v>2.36520186245562</v>
       </c>
       <c r="E35" t="n">
-        <v>26.1982212308544</v>
+        <v>42.2796893522556</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>3.86103809581545</v>
+        <v>2.36695236469668</v>
       </c>
       <c r="E36" t="n">
-        <v>25.8997703514966</v>
+        <v>42.2484210039498</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -1095,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>3.98773315592663</v>
+        <v>2.42362629273442</v>
       </c>
       <c r="E37" t="n">
-        <v>25.076903616627</v>
+        <v>41.2604865278864</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>4.07466896767224</v>
+        <v>2.46640377368329</v>
       </c>
       <c r="E38" t="n">
-        <v>24.5418709577106</v>
+        <v>40.5448617404042</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4.21604601001892</v>
+        <v>2.57698877351509</v>
       </c>
       <c r="E39" t="n">
-        <v>23.7189062364031</v>
+        <v>38.8049808473154</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>3.83927999621827</v>
+        <v>2.38071956542884</v>
       </c>
       <c r="E40" t="n">
-        <v>26.0465504205218</v>
+        <v>42.0041072674542</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>4.01471537747266</v>
+        <v>2.48768151444166</v>
       </c>
       <c r="E41" t="n">
-        <v>24.908365998028</v>
+        <v>40.198071746513</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>4.07843077821116</v>
+        <v>2.5002217370507</v>
       </c>
       <c r="E42" t="n">
-        <v>24.519234342347</v>
+        <v>39.9964525218317</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -1215,10 +1215,10 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>4.18547001544437</v>
+        <v>2.54380490876285</v>
       </c>
       <c r="E43" t="n">
-        <v>23.8921792847638</v>
+        <v>39.3111907503292</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>4.35409589466373</v>
+        <v>2.63554134845767</v>
       </c>
       <c r="E44" t="n">
-        <v>22.9668804774276</v>
+        <v>37.9428689512007</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>4.50882457936141</v>
+        <v>2.75594485808543</v>
       </c>
       <c r="E45" t="n">
-        <v>22.1787293428398</v>
+        <v>36.285196239184</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>4.07953857840331</v>
+        <v>2.52970278830749</v>
       </c>
       <c r="E46" t="n">
-        <v>24.5125761352989</v>
+        <v>39.5303355248723</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -1295,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>4.27063622631994</v>
+        <v>2.64626051817626</v>
       </c>
       <c r="E47" t="n">
-        <v>23.4157148257442</v>
+        <v>37.7891743133883</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>4.35728740466136</v>
+        <v>2.67117067228731</v>
       </c>
       <c r="E48" t="n">
-        <v>22.9500583076116</v>
+        <v>37.436769217884</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>4.49087719150013</v>
+        <v>2.72942235931328</v>
       </c>
       <c r="E49" t="n">
-        <v>22.2673646452122</v>
+        <v>36.6377888195948</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1355,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>4.71489215798089</v>
+        <v>2.85393191525864</v>
       </c>
       <c r="E50" t="n">
-        <v>21.2093928449096</v>
+        <v>35.0393782925748</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>4.86379306871744</v>
+        <v>2.97291350829663</v>
       </c>
       <c r="E51" t="n">
-        <v>20.5600852230273</v>
+        <v>33.6370364361176</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>4.40172294099267</v>
+        <v>2.72948780436447</v>
       </c>
       <c r="E52" t="n">
-        <v>22.7183767221497</v>
+        <v>36.6369103536933</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>4.63292462381973</v>
+        <v>2.87074919660513</v>
       </c>
       <c r="E53" t="n">
-        <v>21.5846378086662</v>
+        <v>34.8341123349463</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1435,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>4.69986792517349</v>
+        <v>2.88118459937185</v>
       </c>
       <c r="E54" t="n">
-        <v>21.2771936556725</v>
+        <v>34.7079461766531</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>4.85462464209258</v>
+        <v>2.95049730357346</v>
       </c>
       <c r="E55" t="n">
-        <v>20.5989149259736</v>
+        <v>33.8925915569847</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>5.2661455977713</v>
+        <v>3.18760652169708</v>
       </c>
       <c r="E56" t="n">
-        <v>18.9892205111688</v>
+        <v>31.3715006288668</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5.41996043999322</v>
+        <v>3.3128616655433</v>
       </c>
       <c r="E57" t="n">
-        <v>18.4503191687733</v>
+        <v>30.1853835432034</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>4.92682864848515</v>
+        <v>3.05510339712589</v>
       </c>
       <c r="E58" t="n">
-        <v>20.2970322563881</v>
+        <v>32.7321163971326</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1535,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>5.16857281001377</v>
+        <v>3.20265867604573</v>
       </c>
       <c r="E59" t="n">
-        <v>19.3477007436669</v>
+        <v>31.2240579203614</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>5.24425249514105</v>
+        <v>3.21491151768058</v>
       </c>
       <c r="E60" t="n">
-        <v>19.0684945266562</v>
+        <v>31.1050551313915</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -1575,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>5.3942366877508</v>
+        <v>3.27845754830292</v>
       </c>
       <c r="E61" t="n">
-        <v>18.5383040805531</v>
+        <v>30.5021488082909</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>6.08565764606725</v>
+        <v>3.68365850150999</v>
       </c>
       <c r="E62" t="n">
-        <v>16.4320778157186</v>
+        <v>27.1469247105855</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6.19164892654896</v>
+        <v>3.78454355937919</v>
       </c>
       <c r="E63" t="n">
-        <v>16.1507865168539</v>
+        <v>26.4232656940019</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -1635,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>5.6377126622533</v>
+        <v>3.49591924853436</v>
       </c>
       <c r="E64" t="n">
-        <v>17.737690086538</v>
+        <v>28.6047797133542</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>5.89701272687939</v>
+        <v>3.65402978089073</v>
       </c>
       <c r="E65" t="n">
-        <v>16.9577385417851</v>
+        <v>27.3670456992344</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>6.02067868765138</v>
+        <v>3.69088812468855</v>
       </c>
       <c r="E66" t="n">
-        <v>16.60942315442</v>
+        <v>27.093749965244</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>6.24371370065764</v>
+        <v>3.79474455725051</v>
       </c>
       <c r="E67" t="n">
-        <v>16.0161091290056</v>
+        <v>26.3522349110252</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -1715,10 +1715,10 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>6.70380873561019</v>
+        <v>4.0578263644827</v>
       </c>
       <c r="E68" t="n">
-        <v>14.9168933577724</v>
+        <v>24.6437355908766</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>6.82136109303815</v>
+        <v>4.16944476295529</v>
       </c>
       <c r="E69" t="n">
-        <v>14.6598308806815</v>
+        <v>23.9840088273817</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>6.2718183946138</v>
+        <v>3.88912524681222</v>
       </c>
       <c r="E70" t="n">
-        <v>15.9443392184122</v>
+        <v>25.7127229527942</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>6.52451102534981</v>
+        <v>4.04285333889626</v>
       </c>
       <c r="E71" t="n">
-        <v>15.3268190691177</v>
+        <v>24.7350056055462</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -1795,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>6.60629702202649</v>
+        <v>4.04989279311209</v>
       </c>
       <c r="E72" t="n">
-        <v>15.1370729572987</v>
+        <v>24.6920116428949</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>6.86312851941287</v>
+        <v>4.17120656765694</v>
       </c>
       <c r="E73" t="n">
-        <v>14.5706145116098</v>
+        <v>23.9738786315184</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>7.42027726262069</v>
+        <v>4.49150593275288</v>
       </c>
       <c r="E74" t="n">
-        <v>13.4765853701647</v>
+        <v>22.2642475591052</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>7.56764820921435</v>
+        <v>4.62560048697606</v>
       </c>
       <c r="E75" t="n">
-        <v>13.2141449014821</v>
+        <v>21.6188147423372</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -1875,10 +1875,10 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>7.00143183685563</v>
+        <v>4.34155512920057</v>
       </c>
       <c r="E76" t="n">
-        <v>14.2827927672735</v>
+        <v>23.0332212822582</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -1895,10 +1895,10 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>7.32308306625114</v>
+        <v>4.53768117034039</v>
       </c>
       <c r="E77" t="n">
-        <v>13.6554507296054</v>
+        <v>22.0376875866972</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>7.34219254568715</v>
+        <v>4.50102267235003</v>
       </c>
       <c r="E78" t="n">
-        <v>13.6199097718761</v>
+        <v>22.2171731358529</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -1935,10 +1935,10 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>7.61630593070681</v>
+        <v>4.6289655263758</v>
       </c>
       <c r="E79" t="n">
-        <v>13.1297246867183</v>
+        <v>21.6030988846646</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>8.22019473621633</v>
+        <v>4.97569728453246</v>
       </c>
       <c r="E80" t="n">
-        <v>12.1651619224326</v>
+        <v>20.0976856672655</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>8.30541513098383</v>
+        <v>5.07654838231513</v>
       </c>
       <c r="E81" t="n">
-        <v>12.0403373489357</v>
+        <v>19.6984235092418</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -1995,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>7.71098763585677</v>
+        <v>4.78154736084542</v>
       </c>
       <c r="E82" t="n">
-        <v>12.9685073718691</v>
+        <v>20.9137319895372</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>8.07087480921446</v>
+        <v>5.00104345650899</v>
       </c>
       <c r="E83" t="n">
-        <v>12.3902305962955</v>
+        <v>19.9958270448235</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2035,10 +2035,10 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>8.07767514021065</v>
+        <v>4.95189941148072</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3797996656489</v>
+        <v>20.1942712665276</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2055,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>8.4139250500555</v>
+        <v>5.11373484108486</v>
       </c>
       <c r="E85" t="n">
-        <v>11.8850595180118</v>
+        <v>19.5551789655925</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>9.34625645311344</v>
+        <v>5.65730427886504</v>
       </c>
       <c r="E86" t="n">
-        <v>10.6994710129838</v>
+        <v>17.6762632997463</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>9.37036213283644</v>
+        <v>5.72747971979131</v>
       </c>
       <c r="E87" t="n">
-        <v>10.6719461406482</v>
+        <v>17.4596864401719</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2115,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>8.76206425740883</v>
+        <v>5.43331505691309</v>
       </c>
       <c r="E88" t="n">
-        <v>11.4128357270884</v>
+        <v>18.4049698853308</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -2135,10 +2135,10 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>9.06772377484602</v>
+        <v>5.61873176348257</v>
       </c>
       <c r="E89" t="n">
-        <v>11.0281259644676</v>
+        <v>17.7976106013679</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>9.16807702427461</v>
+        <v>5.62035417776549</v>
       </c>
       <c r="E90" t="n">
-        <v>10.9074127251796</v>
+        <v>17.7924730074142</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -2175,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>9.51491059589264</v>
+        <v>5.78288129910342</v>
       </c>
       <c r="E91" t="n">
-        <v>10.5098202439409</v>
+        <v>17.2924178844038</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -2195,10 +2195,10 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>10.1868080217737</v>
+        <v>6.16609151467903</v>
       </c>
       <c r="E92" t="n">
-        <v>9.81661770657266</v>
+        <v>16.217728809561</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>10.1579603662938</v>
+        <v>6.20888618472003</v>
       </c>
       <c r="E93" t="n">
-        <v>9.84449598088808</v>
+        <v>16.1059483174452</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -2235,10 +2235,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>9.64795043499354</v>
+        <v>5.98264893144068</v>
       </c>
       <c r="E94" t="n">
-        <v>10.3648957023344</v>
+        <v>16.7150038629994</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>9.87318029400465</v>
+        <v>6.11782549865511</v>
       </c>
       <c r="E95" t="n">
-        <v>10.1284486884863</v>
+        <v>16.3456770746376</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -2275,10 +2275,10 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>10.0081724256368</v>
+        <v>6.13536225266125</v>
       </c>
       <c r="E96" t="n">
-        <v>9.99183424776347</v>
+        <v>16.2989560977633</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>10.3768998968706</v>
+        <v>6.30677290674546</v>
       </c>
       <c r="E97" t="n">
-        <v>9.63678950301501</v>
+        <v>15.8559696819025</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -2315,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>10.788603437897</v>
+        <v>6.53035926184763</v>
       </c>
       <c r="E98" t="n">
-        <v>9.26904029568196</v>
+        <v>15.3130931990573</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>10.7873229567634</v>
+        <v>6.59357371570431</v>
       </c>
       <c r="E99" t="n">
-        <v>9.27014055301856</v>
+        <v>15.1662822487028</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>10.3438922993426</v>
+        <v>6.41419922589401</v>
       </c>
       <c r="E100" t="n">
-        <v>9.66754071930503</v>
+        <v>15.590410662067</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>10.6381870737835</v>
+        <v>6.59185492429187</v>
       </c>
       <c r="E101" t="n">
-        <v>9.40009790262454</v>
+        <v>15.1702367768269</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -2395,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>10.6324688278678</v>
+        <v>6.51807793918447</v>
       </c>
       <c r="E102" t="n">
-        <v>9.4051533673815</v>
+        <v>15.3419460357836</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -2415,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>10.8647764016031</v>
+        <v>6.60328981954834</v>
       </c>
       <c r="E103" t="n">
-        <v>9.20405504021649</v>
+        <v>15.1439665277087</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -2435,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>11.5916764505234</v>
+        <v>7.01646066655061</v>
       </c>
       <c r="E104" t="n">
-        <v>8.62687985010869</v>
+        <v>14.252199898551</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>11.4826700399483</v>
+        <v>7.01859318247625</v>
       </c>
       <c r="E105" t="n">
-        <v>8.708775890285</v>
+        <v>14.247869537399</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -2475,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>11.084472848255</v>
+        <v>6.87342975982447</v>
       </c>
       <c r="E106" t="n">
-        <v>9.02162884685515</v>
+        <v>14.5487774654372</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>11.3344445515583</v>
+        <v>7.02328447630221</v>
       </c>
       <c r="E107" t="n">
-        <v>8.82266436128551</v>
+        <v>14.2383524884144</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -2515,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>11.4017424181077</v>
+        <v>6.98966974903744</v>
       </c>
       <c r="E108" t="n">
-        <v>8.77058929529798</v>
+        <v>14.3068275884953</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -2535,10 +2535,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>11.6714507700217</v>
+        <v>7.09356264687346</v>
       </c>
       <c r="E109" t="n">
-        <v>8.56791516071436</v>
+        <v>14.0972886232387</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -2555,10 +2555,10 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>12.8483990463314</v>
+        <v>7.77715690405247</v>
       </c>
       <c r="E110" t="n">
-        <v>7.78307084325442</v>
+        <v>12.8581692813594</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>12.617423796408</v>
+        <v>7.71219275044861</v>
       </c>
       <c r="E111" t="n">
-        <v>7.92554816368047</v>
+        <v>12.9664809005433</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>12.364462217416</v>
+        <v>7.6671451798262</v>
       </c>
       <c r="E112" t="n">
-        <v>8.08769506037589</v>
+        <v>13.0426642061142</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -2615,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>12.5048969459563</v>
+        <v>7.74854455362081</v>
       </c>
       <c r="E113" t="n">
-        <v>7.99686718188723</v>
+        <v>12.9056494813947</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>12.6404394315988</v>
+        <v>7.74903465362182</v>
       </c>
       <c r="E114" t="n">
-        <v>7.91111737381678</v>
+        <v>12.9048332431009</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -2655,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>12.7420166811885</v>
+        <v>7.74422095046456</v>
       </c>
       <c r="E115" t="n">
-        <v>7.84805125452656</v>
+        <v>12.9128547131653</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>14.5278060397417</v>
+        <v>8.79370469700448</v>
       </c>
       <c r="E116" t="n">
-        <v>6.88335181006986</v>
+        <v>11.3717714485073</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>14.045164944849</v>
+        <v>8.58487604239433</v>
       </c>
       <c r="E117" t="n">
-        <v>7.11988790396331</v>
+        <v>11.6483918353828</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>14.0214565467711</v>
+        <v>8.69463961200775</v>
       </c>
       <c r="E118" t="n">
-        <v>7.13192667726294</v>
+        <v>11.5013392690704</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>14.2018412692392</v>
+        <v>8.80004051962502</v>
       </c>
       <c r="E119" t="n">
-        <v>7.04134049270055</v>
+        <v>11.3635840399813</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>14.281086131304</v>
+        <v>8.75480887525089</v>
       </c>
       <c r="E120" t="n">
-        <v>7.00226853059875</v>
+        <v>11.4222938986928</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>14.2012415006186</v>
+        <v>8.63109464564275</v>
       </c>
       <c r="E121" t="n">
-        <v>7.04163787339609</v>
+        <v>11.5860159233085</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -2795,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>16.3436225728122</v>
+        <v>9.8928214068559</v>
       </c>
       <c r="E122" t="n">
-        <v>6.11859454992255</v>
+        <v>10.1083397634873</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>15.7997412122184</v>
+        <v>9.65733192464564</v>
       </c>
       <c r="E123" t="n">
-        <v>6.32921759013793</v>
+        <v>10.3548268590415</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -2835,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>15.5684896291657</v>
+        <v>9.65394758934996</v>
       </c>
       <c r="E124" t="n">
-        <v>6.42323066539876</v>
+        <v>10.3584568980173</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -2855,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>15.8413776261327</v>
+        <v>9.81596416646308</v>
       </c>
       <c r="E125" t="n">
-        <v>6.3125822993472</v>
+        <v>10.1874862524108</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>15.9912857220532</v>
+        <v>9.80322146921478</v>
       </c>
       <c r="E126" t="n">
-        <v>6.25340586980396</v>
+        <v>10.2007284354466</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>16.0072656225093</v>
+        <v>9.72874270181262</v>
       </c>
       <c r="E127" t="n">
-        <v>6.24716315442287</v>
+        <v>10.2788205079541</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>17.8341551609997</v>
+        <v>10.7950432141905</v>
       </c>
       <c r="E128" t="n">
-        <v>5.60721823362193</v>
+        <v>9.26351085547727</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>17.3090108722295</v>
+        <v>10.579848178219</v>
       </c>
       <c r="E129" t="n">
-        <v>5.77733763865382</v>
+        <v>9.45193147533746</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -2955,10 +2955,10 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>16.961251366501</v>
+        <v>10.5175926273052</v>
       </c>
       <c r="E130" t="n">
-        <v>5.89579140354605</v>
+        <v>9.50787918333952</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>17.2583586543412</v>
+        <v>10.6939834477223</v>
       </c>
       <c r="E131" t="n">
-        <v>5.79429376818785</v>
+        <v>9.35105243886448</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -2995,10 +2995,10 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>17.4300814992658</v>
+        <v>10.6852539647967</v>
       </c>
       <c r="E132" t="n">
-        <v>5.73720782683732</v>
+        <v>9.35869192528855</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -3015,10 +3015,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>17.7199450742873</v>
+        <v>10.7696586277406</v>
       </c>
       <c r="E133" t="n">
-        <v>5.64335835019635</v>
+        <v>9.28534538155357</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -3035,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>19.4303788555277</v>
+        <v>11.761240020621</v>
       </c>
       <c r="E134" t="n">
-        <v>5.14658004064349</v>
+        <v>8.50250482301777</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -3055,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>19.1083986319417</v>
+        <v>11.6796943480567</v>
       </c>
       <c r="E135" t="n">
-        <v>5.23330091265938</v>
+        <v>8.56186788968824</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -3075,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>18.6763670938536</v>
+        <v>11.581127866492</v>
       </c>
       <c r="E136" t="n">
-        <v>5.35436037948247</v>
+        <v>8.63473757934518</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>18.9123114796529</v>
+        <v>11.7188401268219</v>
       </c>
       <c r="E137" t="n">
-        <v>5.28756096829234</v>
+        <v>8.53326770548921</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -3115,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>19.1349587682444</v>
+        <v>11.7304037880269</v>
       </c>
       <c r="E138" t="n">
-        <v>5.2260368684962</v>
+        <v>8.52485573446919</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -3135,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>19.3565650509586</v>
+        <v>11.7643478538188</v>
       </c>
       <c r="E139" t="n">
-        <v>5.16620587055283</v>
+        <v>8.50025868348829</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>22.1682819065871</v>
+        <v>13.418497204134</v>
       </c>
       <c r="E140" t="n">
-        <v>4.51094949177301</v>
+        <v>7.45239936176996</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>21.6413099451055</v>
+        <v>13.2278947241487</v>
       </c>
       <c r="E141" t="n">
-        <v>4.62079237595396</v>
+        <v>7.55978196722727</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -3195,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>21.2389585213037</v>
+        <v>13.1701788228015</v>
       </c>
       <c r="E142" t="n">
-        <v>4.70832879586327</v>
+        <v>7.59291132986517</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3215,10 +3215,10 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>21.5129728022173</v>
+        <v>13.3303160321299</v>
       </c>
       <c r="E143" t="n">
-        <v>4.64835803584027</v>
+        <v>7.50169761609338</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -3235,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>21.6297348798519</v>
+        <v>13.2597894273859</v>
       </c>
       <c r="E144" t="n">
-        <v>4.62326517432953</v>
+        <v>7.54159789245724</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>21.8075433722191</v>
+        <v>13.2539800007192</v>
       </c>
       <c r="E145" t="n">
-        <v>4.58556923598241</v>
+        <v>7.54490349273</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -3275,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>26.250156707136</v>
+        <v>15.8892626802133</v>
       </c>
       <c r="E146" t="n">
-        <v>3.80950106758088</v>
+        <v>6.29355823568382</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>25.5647689026772</v>
+        <v>15.6260444746454</v>
       </c>
       <c r="E147" t="n">
-        <v>3.91163324732921</v>
+        <v>6.39957221178134</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3315,10 +3315,10 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>25.2039239070134</v>
+        <v>15.6288353102953</v>
       </c>
       <c r="E148" t="n">
-        <v>3.96763616526288</v>
+        <v>6.39842944241189</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -3335,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>25.6025229961109</v>
+        <v>15.8643682533199</v>
       </c>
       <c r="E149" t="n">
-        <v>3.90586505928304</v>
+        <v>6.30343411116123</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -3355,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>25.5296709003882</v>
+        <v>15.6505875901853</v>
       </c>
       <c r="E150" t="n">
-        <v>3.91701093171865</v>
+        <v>6.38953645821653</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -3375,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>25.8120249875472</v>
+        <v>15.6877855118168</v>
       </c>
       <c r="E151" t="n">
-        <v>3.87416330366348</v>
+        <v>6.37438597848468</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>31.5462404675684</v>
+        <v>19.0949908206113</v>
       </c>
       <c r="E152" t="n">
-        <v>3.16994984244815</v>
+        <v>5.23697554711884</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>30.820652434377</v>
+        <v>18.8386168289097</v>
       </c>
       <c r="E153" t="n">
-        <v>3.24457764847512</v>
+        <v>5.30824534031288</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -3435,10 +3435,10 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>30.5614408627417</v>
+        <v>18.9510065119745</v>
       </c>
       <c r="E154" t="n">
-        <v>3.27209703394295</v>
+        <v>5.27676458434086</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -3455,10 +3455,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>30.8543186453928</v>
+        <v>19.1185951974397</v>
       </c>
       <c r="E155" t="n">
-        <v>3.2410373779209</v>
+        <v>5.23050982393264</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>30.8265819047399</v>
+        <v>18.897780629002</v>
       </c>
       <c r="E156" t="n">
-        <v>3.24395355635015</v>
+        <v>5.29162667104582</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -3495,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>31.1549185862121</v>
+        <v>18.9350382488164</v>
       </c>
       <c r="E157" t="n">
-        <v>3.20976605100987</v>
+        <v>5.28121457617076</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -3515,10 +3515,10 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>37.2470990798464</v>
+        <v>22.5457298391946</v>
       </c>
       <c r="E158" t="n">
-        <v>2.68477284058097</v>
+        <v>4.43542971166784</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>36.6900914903898</v>
+        <v>22.426214904982</v>
       </c>
       <c r="E159" t="n">
-        <v>2.7255314974124</v>
+        <v>4.45906723108165</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3555,10 +3555,10 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>36.3412906413315</v>
+        <v>22.5350643214289</v>
       </c>
       <c r="E160" t="n">
-        <v>2.75169093434091</v>
+        <v>4.43752893595731</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>36.5438378289536</v>
+        <v>22.6440535097337</v>
       </c>
       <c r="E161" t="n">
-        <v>2.73643946396813</v>
+        <v>4.41617045097576</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -3595,10 +3595,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>36.5562448768886</v>
+        <v>22.4102658685392</v>
       </c>
       <c r="E162" t="n">
-        <v>2.73551072701183</v>
+        <v>4.4622406796336</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -3615,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>36.9476889630792</v>
+        <v>22.4557127885063</v>
       </c>
       <c r="E163" t="n">
-        <v>2.70652922568248</v>
+        <v>4.4532097886104</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -3635,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>44.5764103439392</v>
+        <v>26.9821739046336</v>
       </c>
       <c r="E164" t="n">
-        <v>2.24333900438433</v>
+        <v>3.70615059977903</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -3655,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>43.8350065333797</v>
+        <v>26.7934266976781</v>
       </c>
       <c r="E165" t="n">
-        <v>2.28128174051603</v>
+        <v>3.73225870391061</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>43.1511427005034</v>
+        <v>26.7578217267017</v>
       </c>
       <c r="E166" t="n">
-        <v>2.31743573267721</v>
+        <v>3.73722498869218</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -3695,10 +3695,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>43.6695834114738</v>
+        <v>27.0594563205324</v>
       </c>
       <c r="E167" t="n">
-        <v>2.28992337888266</v>
+        <v>3.69556575030375</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3715,10 +3715,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>43.5463238191186</v>
+        <v>26.6954304981395</v>
       </c>
       <c r="E168" t="n">
-        <v>2.29640509760082</v>
+        <v>3.74595944451877</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>43.4915752248108</v>
+        <v>26.4328933521117</v>
       </c>
       <c r="E169" t="n">
-        <v>2.29929588622839</v>
+        <v>3.78316511431054</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>54.8142138326849</v>
+        <v>33.1791330586665</v>
       </c>
       <c r="E170" t="n">
-        <v>1.82434432618591</v>
+        <v>3.01394252294605</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -3775,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>54.8332322793282</v>
+        <v>33.5159112741134</v>
       </c>
       <c r="E171" t="n">
-        <v>1.82371156766003</v>
+        <v>2.98365749873663</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -3795,10 +3795,10 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>53.427626766871</v>
+        <v>33.1302214226649</v>
       </c>
       <c r="E172" t="n">
-        <v>1.8716908470658</v>
+        <v>3.01839214185234</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -3815,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>54.2627771877737</v>
+        <v>33.6234315612353</v>
       </c>
       <c r="E173" t="n">
-        <v>1.84288392858985</v>
+        <v>2.97411642288441</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3835,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>54.3128562295025</v>
+        <v>33.2956941360354</v>
       </c>
       <c r="E174" t="n">
-        <v>1.84118470178485</v>
+        <v>3.00339135719569</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -3855,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>53.6773095219413</v>
+        <v>32.6234814602059</v>
       </c>
       <c r="E175" t="n">
-        <v>1.86298458120603</v>
+        <v>3.06527677378578</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -3875,10 +3875,10 @@
         <v>42</v>
       </c>
       <c r="D176" t="n">
-        <v>69.926893863328</v>
+        <v>42.3268629365466</v>
       </c>
       <c r="E176" t="n">
-        <v>1.4300649503387</v>
+        <v>2.36256582846484</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -3895,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>69.8196058522302</v>
+        <v>42.6760856083823</v>
       </c>
       <c r="E177" t="n">
-        <v>1.43226245378189</v>
+        <v>2.34323271627233</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -3915,10 +3915,10 @@
         <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>69.2718932547184</v>
+        <v>42.9551769519939</v>
       </c>
       <c r="E178" t="n">
-        <v>1.4435869340584</v>
+        <v>2.32800810276625</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -3935,10 +3935,10 @@
         <v>40</v>
       </c>
       <c r="D179" t="n">
-        <v>70.2076645303603</v>
+        <v>43.5035345729158</v>
       </c>
       <c r="E179" t="n">
-        <v>1.42434591250014</v>
+        <v>2.29866379782064</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -3955,10 +3955,10 @@
         <v>43</v>
       </c>
       <c r="D180" t="n">
-        <v>69.4902485779836</v>
+        <v>42.599970296403</v>
       </c>
       <c r="E180" t="n">
-        <v>1.43905083153901</v>
+        <v>2.34741947715498</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -3975,10 +3975,10 @@
         <v>44</v>
       </c>
       <c r="D181" t="n">
-        <v>70.0195212470771</v>
+        <v>42.5557944986565</v>
       </c>
       <c r="E181" t="n">
-        <v>1.42817314684474</v>
+        <v>2.34985625760452</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -3995,10 +3995,10 @@
         <v>42</v>
       </c>
       <c r="D182" t="n">
-        <v>100</v>
+        <v>60.5301631433456</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>1.65206889932187</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>100</v>
+        <v>61.1233550912678</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>1.63603584670185</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -4035,10 +4035,10 @@
         <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>100</v>
+        <v>62.0095321980651</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>1.61265528790943</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -4055,10 +4055,10 @@
         <v>40</v>
       </c>
       <c r="D185" t="n">
-        <v>100</v>
+        <v>61.9640816482413</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>1.61383816785475</v>
       </c>
       <c r="F185" t="s">
         <v>6</v>
@@ -4075,10 +4075,10 @@
         <v>43</v>
       </c>
       <c r="D186" t="n">
-        <v>100</v>
+        <v>61.3035226785759</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>1.631227629843</v>
       </c>
       <c r="F186" t="s">
         <v>6</v>
@@ -4095,12 +4095,372 @@
         <v>44</v>
       </c>
       <c r="D187" t="n">
+        <v>60.7770429456242</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.64535810156917</v>
+      </c>
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>42</v>
+      </c>
+      <c r="D188" t="n">
         <v>100</v>
       </c>
-      <c r="E187" t="n">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>100</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>41</v>
+      </c>
+      <c r="D190" t="n">
+        <v>100</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>40</v>
+      </c>
+      <c r="D191" t="n">
+        <v>100</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>43</v>
+      </c>
+      <c r="D192" t="n">
+        <v>100</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>44</v>
+      </c>
+      <c r="D193" t="n">
+        <v>100</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>42</v>
+      </c>
+      <c r="D194" t="n">
+        <v>124.746421636278</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.801626200481882</v>
+      </c>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>127.759630886592</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.782719856859691</v>
+      </c>
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>41</v>
+      </c>
+      <c r="D196" t="n">
+        <v>121.765546122386</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.821250371591078</v>
+      </c>
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>40</v>
+      </c>
+      <c r="D197" t="n">
+        <v>124.633421297225</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.802353004187543</v>
+      </c>
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>43</v>
+      </c>
+      <c r="D198" t="n">
+        <v>125.985447071017</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.793742470458757</v>
+      </c>
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>44</v>
+      </c>
+      <c r="D199" t="n">
+        <v>125.350576559767</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.797762585099238</v>
+      </c>
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+      <c r="C200" t="n">
+        <v>42</v>
+      </c>
+      <c r="D200" t="n">
+        <v>142.197755065484</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.703245982708721</v>
+      </c>
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>144.209706179736</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.693434600548766</v>
+      </c>
+      <c r="F201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>41</v>
+      </c>
+      <c r="D202" t="n">
+        <v>137.975364137017</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.724767067117103</v>
+      </c>
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>40</v>
+      </c>
+      <c r="D203" t="n">
+        <v>141.060472656965</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.708915815440255</v>
+      </c>
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="n">
+        <v>43</v>
+      </c>
+      <c r="D204" t="n">
+        <v>141.827065132731</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.705084039540787</v>
+      </c>
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>44</v>
+      </c>
+      <c r="D205" t="n">
+        <v>142.72854797077</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.700630682661185</v>
+      </c>
+      <c r="F205" t="s">
         <v>6</v>
       </c>
     </row>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">nombre_trim_base</t>
   </si>
   <si>
-    <t xml:space="preserve">1er trimestre 2024</t>
+    <t xml:space="preserve">2do trimestre 2024</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>1.90427384744792</v>
+        <v>1.49051295329609</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5134555274276</v>
+        <v>67.090996947636</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -415,10 +415,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01979414867127</v>
+        <v>1.58093298693402</v>
       </c>
       <c r="E3" t="n">
-        <v>49.5099958903165</v>
+        <v>63.2537880014351</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>1.90427384744792</v>
+        <v>1.49051295329609</v>
       </c>
       <c r="E4" t="n">
-        <v>52.5134555274276</v>
+        <v>67.090996947636</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -455,10 +455,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01979414867127</v>
+        <v>1.58093298693402</v>
       </c>
       <c r="E5" t="n">
-        <v>49.5099958903165</v>
+        <v>63.2537880014351</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -475,10 +475,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>1.90427384744792</v>
+        <v>1.49051295329609</v>
       </c>
       <c r="E6" t="n">
-        <v>52.5134555274276</v>
+        <v>67.090996947636</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -495,10 +495,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>2.01979414867127</v>
+        <v>1.58093298693402</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5099958903165</v>
+        <v>63.2537880014351</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>1.90427384744792</v>
+        <v>1.49051295329609</v>
       </c>
       <c r="E8" t="n">
-        <v>52.5134555274276</v>
+        <v>67.090996947636</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -535,10 +535,10 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>2.01979414867127</v>
+        <v>1.58093298693402</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5099958903165</v>
+        <v>63.2537880014351</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>1.90427384744792</v>
+        <v>1.49051295329609</v>
       </c>
       <c r="E10" t="n">
-        <v>52.5134555274276</v>
+        <v>67.090996947636</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>2.01979414867127</v>
+        <v>1.58093298693402</v>
       </c>
       <c r="E11" t="n">
-        <v>49.5099958903165</v>
+        <v>63.2537880014351</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.90427384744792</v>
+        <v>1.49051295329609</v>
       </c>
       <c r="E12" t="n">
-        <v>52.5134555274276</v>
+        <v>67.090996947636</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2.01979414867127</v>
+        <v>1.58093298693402</v>
       </c>
       <c r="E13" t="n">
-        <v>49.5099958903165</v>
+        <v>63.2537880014351</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>2.01837223325319</v>
+        <v>1.61798006450088</v>
       </c>
       <c r="E14" t="n">
-        <v>49.544875</v>
+        <v>61.8054586666667</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2.11557021598703</v>
+        <v>1.65589881663399</v>
       </c>
       <c r="E15" t="n">
-        <v>47.26858</v>
+        <v>60.3901633333333</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -675,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>1.9846259364135</v>
+        <v>1.62987478774888</v>
       </c>
       <c r="E16" t="n">
-        <v>50.387329</v>
+        <v>61.3544063333333</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>2.04012612549338</v>
+        <v>1.63690132571111</v>
       </c>
       <c r="E17" t="n">
-        <v>49.0165773333333</v>
+        <v>61.0910373333333</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -715,10 +715,10 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>2.05248735606214</v>
+        <v>1.62914638458612</v>
       </c>
       <c r="E18" t="n">
-        <v>48.721372</v>
+        <v>61.3818383333333</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>2.10459373462726</v>
+        <v>1.6789661383199</v>
       </c>
       <c r="E19" t="n">
-        <v>47.5151086666667</v>
+        <v>59.5604626666667</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -755,10 +755,10 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>2.09168220392792</v>
+        <v>1.67674725775031</v>
       </c>
       <c r="E20" t="n">
-        <v>47.8084098111139</v>
+        <v>59.6392804805717</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2.19585046416316</v>
+        <v>1.71873576099507</v>
       </c>
       <c r="E21" t="n">
-        <v>45.540441679443</v>
+        <v>58.1823001937799</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>2.05820528146405</v>
+        <v>1.69030185221307</v>
       </c>
       <c r="E22" t="n">
-        <v>48.5860185573266</v>
+        <v>59.1610308354525</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -815,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>2.12423304518501</v>
+        <v>1.70438476539865</v>
       </c>
       <c r="E23" t="n">
-        <v>47.0758141281482</v>
+        <v>58.6721977514335</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -835,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>2.12867500255672</v>
+        <v>1.68961975533317</v>
       </c>
       <c r="E24" t="n">
-        <v>46.9775798935449</v>
+        <v>59.1849140520268</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -855,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>2.19830918903648</v>
+        <v>1.75372882149315</v>
       </c>
       <c r="E25" t="n">
-        <v>45.4895064346386</v>
+        <v>57.021358590012</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -875,10 +875,10 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>2.24166811737171</v>
+        <v>1.79697989567006</v>
       </c>
       <c r="E26" t="n">
-        <v>44.6096365581749</v>
+        <v>55.6489253112718</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2.3378200346474</v>
+        <v>1.82985816288293</v>
       </c>
       <c r="E27" t="n">
-        <v>42.7748922149529</v>
+        <v>54.6490444059613</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>2.18785626309609</v>
+        <v>1.79677776905553</v>
       </c>
       <c r="E28" t="n">
-        <v>45.7068417549914</v>
+        <v>55.65518547826</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>2.27331934205769</v>
+        <v>1.82400460357764</v>
       </c>
       <c r="E29" t="n">
-        <v>43.9885405230772</v>
+        <v>54.8244230326273</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>2.26045563741514</v>
+        <v>1.79421964200431</v>
       </c>
       <c r="E30" t="n">
-        <v>44.2388686355072</v>
+        <v>55.7345364296037</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -975,10 +975,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>2.32099157007786</v>
+        <v>1.85160023493885</v>
       </c>
       <c r="E31" t="n">
-        <v>43.0850336938731</v>
+        <v>54.00733814624</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>2.33568389599664</v>
+        <v>1.87234540707451</v>
       </c>
       <c r="E32" t="n">
-        <v>42.8140127058288</v>
+        <v>53.4089488094227</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>2.45045510851676</v>
+        <v>1.91801987177934</v>
       </c>
       <c r="E33" t="n">
-        <v>40.8087459559824</v>
+        <v>52.1371032028101</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>2.27719419962375</v>
+        <v>1.87014658262605</v>
       </c>
       <c r="E34" t="n">
-        <v>43.9136899332181</v>
+        <v>53.4717443696743</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1055,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>2.36520186245562</v>
+        <v>1.89772681985124</v>
       </c>
       <c r="E35" t="n">
-        <v>42.2796893522556</v>
+        <v>52.6946233535546</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>2.36695236469668</v>
+        <v>1.87875061741254</v>
       </c>
       <c r="E36" t="n">
-        <v>42.2484210039498</v>
+        <v>53.2268620822717</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -1095,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>2.42362629273442</v>
+        <v>1.9334783766063</v>
       </c>
       <c r="E37" t="n">
-        <v>41.2604865278864</v>
+        <v>51.7202577540707</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>2.46640377368329</v>
+        <v>1.97713388595191</v>
       </c>
       <c r="E38" t="n">
-        <v>40.5448617404042</v>
+        <v>50.5782641785304</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2.57698877351509</v>
+        <v>2.01706028393476</v>
       </c>
       <c r="E39" t="n">
-        <v>38.8049808473154</v>
+        <v>49.5771002961428</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>2.38071956542884</v>
+        <v>1.95516682776259</v>
       </c>
       <c r="E40" t="n">
-        <v>42.0041072674542</v>
+        <v>51.1465306080484</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>2.48768151444166</v>
+        <v>1.99599873657408</v>
       </c>
       <c r="E41" t="n">
-        <v>40.198071746513</v>
+        <v>50.1002321131923</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>2.5002217370507</v>
+        <v>1.98453217826131</v>
       </c>
       <c r="E42" t="n">
-        <v>39.9964525218317</v>
+        <v>50.3897095221768</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -1215,10 +1215,10 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>2.54380490876285</v>
+        <v>2.02935238000278</v>
       </c>
       <c r="E43" t="n">
-        <v>39.3111907503292</v>
+        <v>49.2768042580476</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>2.63554134845767</v>
+        <v>2.11271899737702</v>
       </c>
       <c r="E44" t="n">
-        <v>37.9428689512007</v>
+        <v>47.332371282765</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2.75594485808543</v>
+        <v>2.15713276483383</v>
       </c>
       <c r="E45" t="n">
-        <v>36.285196239184</v>
+        <v>46.3578327816569</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>2.52970278830749</v>
+        <v>2.07751935491251</v>
       </c>
       <c r="E46" t="n">
-        <v>39.5303355248723</v>
+        <v>48.1343289358723</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -1295,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>2.64626051817626</v>
+        <v>2.12323507662161</v>
       </c>
       <c r="E47" t="n">
-        <v>37.7891743133883</v>
+        <v>47.0979408267479</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>2.67117067228731</v>
+        <v>2.1202216084383</v>
       </c>
       <c r="E48" t="n">
-        <v>37.436769217884</v>
+        <v>47.1648810680961</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>2.72942235931328</v>
+        <v>2.17743103719342</v>
       </c>
       <c r="E49" t="n">
-        <v>36.6377888195948</v>
+        <v>45.9256795241121</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1355,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>2.85393191525864</v>
+        <v>2.28778659766276</v>
       </c>
       <c r="E50" t="n">
-        <v>35.0393782925748</v>
+        <v>43.7103705835856</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2.97291350829663</v>
+        <v>2.32695843567018</v>
       </c>
       <c r="E51" t="n">
-        <v>33.6370364361176</v>
+        <v>42.9745535919722</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>2.72948780436447</v>
+        <v>2.24159287358763</v>
       </c>
       <c r="E52" t="n">
-        <v>36.6369103536933</v>
+        <v>44.6111339745435</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>2.87074919660513</v>
+        <v>2.3033542421651</v>
       </c>
       <c r="E53" t="n">
-        <v>34.8341123349463</v>
+        <v>43.4149459815622</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1435,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>2.88118459937185</v>
+        <v>2.28691858175313</v>
       </c>
       <c r="E54" t="n">
-        <v>34.7079461766531</v>
+        <v>43.7269611598244</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>2.95049730357346</v>
+        <v>2.3537963562271</v>
       </c>
       <c r="E55" t="n">
-        <v>33.8925915569847</v>
+        <v>42.4845589277273</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>3.18760652169708</v>
+        <v>2.5552689046193</v>
       </c>
       <c r="E56" t="n">
-        <v>31.3715006288668</v>
+        <v>39.1348244481137</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>3.3128616655433</v>
+        <v>2.59304260865001</v>
       </c>
       <c r="E57" t="n">
-        <v>30.1853835432034</v>
+        <v>38.5647345964986</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>3.05510339712589</v>
+        <v>2.5090048001388</v>
       </c>
       <c r="E58" t="n">
-        <v>32.7321163971326</v>
+        <v>39.8564402883836</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1535,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>3.20265867604573</v>
+        <v>2.56966281011259</v>
       </c>
       <c r="E59" t="n">
-        <v>31.2240579203614</v>
+        <v>38.9156116539735</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>3.21491151768058</v>
+        <v>2.55181181035009</v>
       </c>
       <c r="E60" t="n">
-        <v>31.1050551313915</v>
+        <v>39.18784276897</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -1575,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>3.27845754830292</v>
+        <v>2.61543076887225</v>
       </c>
       <c r="E61" t="n">
-        <v>30.5021488082909</v>
+        <v>38.2346193943108</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>3.68365850150999</v>
+        <v>2.95291716843824</v>
       </c>
       <c r="E62" t="n">
-        <v>27.1469247105855</v>
+        <v>33.8648171607498</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>3.78454355937919</v>
+        <v>2.96223739307654</v>
       </c>
       <c r="E63" t="n">
-        <v>26.4232656940019</v>
+        <v>33.7582667188403</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -1635,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>3.49591924853436</v>
+        <v>2.87102498191124</v>
       </c>
       <c r="E64" t="n">
-        <v>28.6047797133542</v>
+        <v>34.8307662350712</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>3.65402978089073</v>
+        <v>2.93182177208842</v>
       </c>
       <c r="E65" t="n">
-        <v>27.3670456992344</v>
+        <v>34.1084853629309</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>3.69088812468855</v>
+        <v>2.92961465827718</v>
       </c>
       <c r="E66" t="n">
-        <v>27.093749965244</v>
+        <v>34.1341820220162</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>3.79474455725051</v>
+        <v>3.02730522778343</v>
       </c>
       <c r="E67" t="n">
-        <v>26.3522349110252</v>
+        <v>33.0326783973544</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -1715,10 +1715,10 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>4.0578263644827</v>
+        <v>3.25285993077548</v>
       </c>
       <c r="E68" t="n">
-        <v>24.6437355908766</v>
+        <v>30.7421783071244</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>4.16944476295529</v>
+        <v>3.26350720804475</v>
       </c>
       <c r="E69" t="n">
-        <v>23.9840088273817</v>
+        <v>30.6418811496704</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>3.88912524681222</v>
+        <v>3.19394555410878</v>
       </c>
       <c r="E70" t="n">
-        <v>25.7127229527942</v>
+        <v>31.309237526406</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>4.04285333889626</v>
+        <v>3.24379552195305</v>
       </c>
       <c r="E71" t="n">
-        <v>24.7350056055462</v>
+        <v>30.8280837442525</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -1795,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>4.04989279311209</v>
+        <v>3.21457191069791</v>
       </c>
       <c r="E72" t="n">
-        <v>24.6920116428949</v>
+        <v>31.1083412591287</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>4.17120656765694</v>
+        <v>3.32763253439692</v>
       </c>
       <c r="E73" t="n">
-        <v>23.9738786315184</v>
+        <v>30.0513950883472</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>4.49150593275288</v>
+        <v>3.60050883531452</v>
       </c>
       <c r="E74" t="n">
-        <v>22.2642475591052</v>
+        <v>27.773852134226</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4.62560048697606</v>
+        <v>3.62054935105601</v>
       </c>
       <c r="E75" t="n">
-        <v>21.6188147423372</v>
+        <v>27.6201179168661</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -1875,10 +1875,10 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>4.34155512920057</v>
+        <v>3.56550376313912</v>
       </c>
       <c r="E76" t="n">
-        <v>23.0332212822582</v>
+        <v>28.0465276839194</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -1895,10 +1895,10 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>4.53768117034039</v>
+        <v>3.64082211906785</v>
       </c>
       <c r="E77" t="n">
-        <v>22.0376875866972</v>
+        <v>27.4663240140945</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>4.50102267235003</v>
+        <v>3.57265285554199</v>
       </c>
       <c r="E78" t="n">
-        <v>22.2171731358529</v>
+        <v>27.9904049017462</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -1935,10 +1935,10 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>4.6289655263758</v>
+        <v>3.69281550465681</v>
       </c>
       <c r="E79" t="n">
-        <v>21.6030988846646</v>
+        <v>27.0796090067038</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>4.97569728453246</v>
+        <v>3.98864930894777</v>
       </c>
       <c r="E80" t="n">
-        <v>20.0976856672655</v>
+        <v>25.0711437016208</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>5.07654838231513</v>
+        <v>3.97351522314699</v>
       </c>
       <c r="E81" t="n">
-        <v>19.6984235092418</v>
+        <v>25.166633165885</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -1995,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>4.78154736084542</v>
+        <v>3.92684754687464</v>
       </c>
       <c r="E82" t="n">
-        <v>20.9137319895372</v>
+        <v>25.4657199716321</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>5.00104345650899</v>
+        <v>4.01260224140244</v>
       </c>
       <c r="E83" t="n">
-        <v>19.9958270448235</v>
+        <v>24.9214833626393</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2035,10 +2035,10 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>4.95189941148072</v>
+        <v>3.93053287233197</v>
       </c>
       <c r="E84" t="n">
-        <v>20.1942712665276</v>
+        <v>25.4418429378687</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2055,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>5.11373484108486</v>
+        <v>4.0795463263359</v>
       </c>
       <c r="E85" t="n">
-        <v>19.5551789655925</v>
+        <v>24.5125295806645</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>5.65730427886504</v>
+        <v>4.53504333403647</v>
       </c>
       <c r="E86" t="n">
-        <v>17.6762632997463</v>
+        <v>22.0505059454402</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>5.72747971979131</v>
+        <v>4.48301210644184</v>
       </c>
       <c r="E87" t="n">
-        <v>17.4596864401719</v>
+        <v>22.3064309499199</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2115,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>5.43331505691309</v>
+        <v>4.46211200946127</v>
       </c>
       <c r="E88" t="n">
-        <v>18.4049698853308</v>
+        <v>22.4109120945338</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -2135,10 +2135,10 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>5.61873176348257</v>
+        <v>4.50820631015421</v>
       </c>
       <c r="E89" t="n">
-        <v>17.7976106013679</v>
+        <v>22.1817710016424</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>5.62035417776549</v>
+        <v>4.46111380991277</v>
       </c>
       <c r="E90" t="n">
-        <v>17.7924730074142</v>
+        <v>22.4159266633808</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -2175,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>5.78288129910342</v>
+        <v>4.61336633449478</v>
       </c>
       <c r="E91" t="n">
-        <v>17.2924178844038</v>
+        <v>21.6761455192245</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -2195,10 +2195,10 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>6.16609151467903</v>
+        <v>4.94290051273572</v>
       </c>
       <c r="E92" t="n">
-        <v>16.217728809561</v>
+        <v>20.2310363606031</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6.20888618472003</v>
+        <v>4.85981850576217</v>
       </c>
       <c r="E93" t="n">
-        <v>16.1059483174452</v>
+        <v>20.5769001211532</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -2235,10 +2235,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>5.98264893144068</v>
+        <v>4.91325265804463</v>
       </c>
       <c r="E94" t="n">
-        <v>16.7150038629994</v>
+        <v>20.3531157381591</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>6.11782549865511</v>
+        <v>4.90865566794108</v>
       </c>
       <c r="E95" t="n">
-        <v>16.3456770746376</v>
+        <v>20.3721765723169</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -2275,10 +2275,10 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>6.13536225266125</v>
+        <v>4.86989759158674</v>
       </c>
       <c r="E96" t="n">
-        <v>16.2989560977633</v>
+        <v>20.5343127076759</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>6.30677290674546</v>
+        <v>5.0313074577191</v>
       </c>
       <c r="E97" t="n">
-        <v>15.8559696819025</v>
+        <v>19.8755494154067</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -2315,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>6.53035926184763</v>
+        <v>5.23490708285659</v>
       </c>
       <c r="E98" t="n">
-        <v>15.3130931990573</v>
+        <v>19.1025358076522</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>6.59357371570431</v>
+        <v>5.1609210749499</v>
       </c>
       <c r="E99" t="n">
-        <v>15.1662822487028</v>
+        <v>19.3763862201614</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>6.41419922589401</v>
+        <v>5.26766349772466</v>
       </c>
       <c r="E100" t="n">
-        <v>15.590410662067</v>
+        <v>18.9837486853886</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>6.59185492429187</v>
+        <v>5.28899460167403</v>
       </c>
       <c r="E101" t="n">
-        <v>15.1702367768269</v>
+        <v>18.9071851138492</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -2395,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>6.51807793918447</v>
+        <v>5.173675286091</v>
       </c>
       <c r="E102" t="n">
-        <v>15.3419460357836</v>
+        <v>19.3286193025762</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -2415,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>6.60328981954834</v>
+        <v>5.26785755660237</v>
       </c>
       <c r="E103" t="n">
-        <v>15.1439665277087</v>
+        <v>18.9830493565011</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -2435,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>7.01646066655061</v>
+        <v>5.62457870495754</v>
       </c>
       <c r="E104" t="n">
-        <v>14.252199898551</v>
+        <v>17.7791093778916</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>7.01859318247625</v>
+        <v>5.49359225114421</v>
       </c>
       <c r="E105" t="n">
-        <v>14.247869537399</v>
+        <v>18.2030255301842</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -2475,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>6.87342975982447</v>
+        <v>5.64480674436102</v>
       </c>
       <c r="E106" t="n">
-        <v>14.5487774654372</v>
+        <v>17.7153983349203</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>7.02328447630221</v>
+        <v>5.63515339882481</v>
       </c>
       <c r="E107" t="n">
-        <v>14.2383524884144</v>
+        <v>17.7457458426695</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -2515,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>6.98966974903744</v>
+        <v>5.54799773429182</v>
       </c>
       <c r="E108" t="n">
-        <v>14.3068275884953</v>
+        <v>18.0245206990454</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -2535,10 +2535,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>7.09356264687346</v>
+        <v>5.65897887473317</v>
       </c>
       <c r="E109" t="n">
-        <v>14.0972886232387</v>
+        <v>17.6710325685242</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -2555,10 +2555,10 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>7.77715690405247</v>
+        <v>6.23437273954702</v>
       </c>
       <c r="E110" t="n">
-        <v>12.8581692813594</v>
+        <v>16.040106066431</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>7.71219275044861</v>
+        <v>6.03648640570548</v>
       </c>
       <c r="E111" t="n">
-        <v>12.9664809005433</v>
+        <v>16.5659281375145</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>7.6671451798262</v>
+        <v>6.29664582797501</v>
       </c>
       <c r="E112" t="n">
-        <v>13.0426642061142</v>
+        <v>15.8814712994839</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -2615,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>7.74854455362081</v>
+        <v>6.21706800067868</v>
       </c>
       <c r="E113" t="n">
-        <v>12.9056494813947</v>
+        <v>16.0847524892897</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>7.74903465362182</v>
+        <v>6.1507379096363</v>
       </c>
       <c r="E114" t="n">
-        <v>12.9048332431009</v>
+        <v>16.2582118550899</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -2655,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>7.74422095046456</v>
+        <v>6.17804972502228</v>
       </c>
       <c r="E115" t="n">
-        <v>12.9128547131653</v>
+        <v>16.1863378332778</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>8.79370469700448</v>
+        <v>7.04926408441938</v>
       </c>
       <c r="E116" t="n">
-        <v>11.3717714485073</v>
+        <v>14.1858779586687</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>8.58487604239433</v>
+        <v>6.71955294706108</v>
       </c>
       <c r="E117" t="n">
-        <v>11.6483918353828</v>
+        <v>14.881942413109</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>8.69463961200775</v>
+        <v>7.14047601221187</v>
       </c>
       <c r="E118" t="n">
-        <v>11.5013392690704</v>
+        <v>14.004668572372</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>8.80004051962502</v>
+        <v>7.06073894789324</v>
       </c>
       <c r="E119" t="n">
-        <v>11.3635840399813</v>
+        <v>14.1628235710141</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>8.75480887525089</v>
+        <v>6.94906362503589</v>
       </c>
       <c r="E120" t="n">
-        <v>11.4222938986928</v>
+        <v>14.3904280340337</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>8.63109464564275</v>
+        <v>6.88556437674415</v>
       </c>
       <c r="E121" t="n">
-        <v>11.5860159233085</v>
+        <v>14.5231377601737</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -2795,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>9.8928214068559</v>
+        <v>7.93034483642372</v>
       </c>
       <c r="E122" t="n">
-        <v>10.1083397634873</v>
+        <v>12.6097921417874</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>9.65733192464564</v>
+        <v>7.55898546170516</v>
       </c>
       <c r="E123" t="n">
-        <v>10.3548268590415</v>
+        <v>13.2292885740571</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -2835,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>9.65394758934996</v>
+        <v>7.92830804507445</v>
       </c>
       <c r="E124" t="n">
-        <v>10.3584568980173</v>
+        <v>12.6130316117228</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -2855,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>9.81596416646308</v>
+        <v>7.87586833795893</v>
       </c>
       <c r="E125" t="n">
-        <v>10.1874862524108</v>
+        <v>12.697012660564</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>9.80322146921478</v>
+        <v>7.78123322742886</v>
       </c>
       <c r="E126" t="n">
-        <v>10.2007284354466</v>
+        <v>12.8514333238978</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>9.72874270181262</v>
+        <v>7.76122692756338</v>
       </c>
       <c r="E127" t="n">
-        <v>10.2788205079541</v>
+        <v>12.884560770264</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>10.7950432141905</v>
+        <v>8.65358947582925</v>
       </c>
       <c r="E128" t="n">
-        <v>9.26351085547727</v>
+        <v>11.555898310096</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>10.579848178219</v>
+        <v>8.28105725165285</v>
       </c>
       <c r="E129" t="n">
-        <v>9.45193147533746</v>
+        <v>12.0757527645447</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -2955,10 +2955,10 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>10.5175926273052</v>
+        <v>8.63757685341796</v>
       </c>
       <c r="E130" t="n">
-        <v>9.50787918333952</v>
+        <v>11.57732101225</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>10.6939834477223</v>
+        <v>8.58034974601184</v>
       </c>
       <c r="E131" t="n">
-        <v>9.35105243886448</v>
+        <v>11.6545365818544</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -2995,10 +2995,10 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>10.6852539647967</v>
+        <v>8.48133987949693</v>
       </c>
       <c r="E132" t="n">
-        <v>9.35869192528855</v>
+        <v>11.790589862074</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -3015,10 +3015,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>10.7696586277406</v>
+        <v>8.59163070750268</v>
       </c>
       <c r="E133" t="n">
-        <v>9.28534538155357</v>
+        <v>11.6392339713431</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -3035,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>11.761240020621</v>
+        <v>9.42811815068589</v>
       </c>
       <c r="E134" t="n">
-        <v>8.50250482301777</v>
+        <v>10.6065705161666</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -3055,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>11.6796943480567</v>
+        <v>9.14192868827589</v>
       </c>
       <c r="E135" t="n">
-        <v>8.56186788968824</v>
+        <v>10.9386108128633</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -3075,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>11.581127866492</v>
+        <v>9.51100556380034</v>
       </c>
       <c r="E136" t="n">
-        <v>8.63473757934518</v>
+        <v>10.5141353697245</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>11.7188401268219</v>
+        <v>9.40264658134904</v>
       </c>
       <c r="E137" t="n">
-        <v>8.53326770548921</v>
+        <v>10.6353034898024</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -3115,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>11.7304037880269</v>
+        <v>9.31091968218721</v>
       </c>
       <c r="E138" t="n">
-        <v>8.52485573446919</v>
+        <v>10.7400776092302</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -3135,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>11.7643478538188</v>
+        <v>9.38515655586916</v>
       </c>
       <c r="E139" t="n">
-        <v>8.50025868348829</v>
+        <v>10.6551232688243</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>13.418497204134</v>
+        <v>10.7566189299267</v>
       </c>
       <c r="E140" t="n">
-        <v>7.45239936176996</v>
+        <v>9.29660152985282</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>13.2278947241487</v>
+        <v>10.3537358650407</v>
       </c>
       <c r="E141" t="n">
-        <v>7.55978196722727</v>
+        <v>9.65834953716069</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -3195,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>13.1701788228015</v>
+        <v>10.8160142521467</v>
       </c>
       <c r="E142" t="n">
-        <v>7.59291132986517</v>
+        <v>9.24554994739883</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3215,10 +3215,10 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>13.3303160321299</v>
+        <v>10.6956191151488</v>
       </c>
       <c r="E143" t="n">
-        <v>7.50169761609338</v>
+        <v>9.34962239430954</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -3235,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>13.2597894273859</v>
+        <v>10.5248580178561</v>
       </c>
       <c r="E144" t="n">
-        <v>7.54159789245724</v>
+        <v>9.50131582111066</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>13.2539800007192</v>
+        <v>10.5735293482274</v>
       </c>
       <c r="E145" t="n">
-        <v>7.54490349273</v>
+        <v>9.45758002901509</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -3275,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>15.8892626802133</v>
+        <v>12.737249270798</v>
       </c>
       <c r="E146" t="n">
-        <v>6.29355823568382</v>
+        <v>7.85098869261081</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>15.6260444746454</v>
+        <v>12.2308152944776</v>
       </c>
       <c r="E147" t="n">
-        <v>6.39957221178134</v>
+        <v>8.17606983609274</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3315,10 +3315,10 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>15.6288353102953</v>
+        <v>12.8351868061158</v>
       </c>
       <c r="E148" t="n">
-        <v>6.39842944241189</v>
+        <v>7.79108255380836</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -3335,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>15.8643682533199</v>
+        <v>12.7288235275887</v>
       </c>
       <c r="E149" t="n">
-        <v>6.30343411116123</v>
+        <v>7.85618559195655</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -3355,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>15.6505875901853</v>
+        <v>12.4225360579648</v>
       </c>
       <c r="E150" t="n">
-        <v>6.38953645821653</v>
+        <v>8.04988607264973</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -3375,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>15.6877855118168</v>
+        <v>12.5151283243893</v>
       </c>
       <c r="E151" t="n">
-        <v>6.37438597848468</v>
+        <v>7.99032957617552</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>19.0949908206113</v>
+        <v>15.307044939763</v>
       </c>
       <c r="E152" t="n">
-        <v>5.23697554711884</v>
+        <v>6.53293959699762</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>18.8386168289097</v>
+        <v>14.7453594677588</v>
       </c>
       <c r="E153" t="n">
-        <v>5.30824534031288</v>
+        <v>6.78179465333844</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -3435,10 +3435,10 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>18.9510065119745</v>
+        <v>15.563521139984</v>
       </c>
       <c r="E154" t="n">
-        <v>5.27676458434086</v>
+        <v>6.4252812137153</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -3455,10 +3455,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>19.1185951974397</v>
+        <v>15.3398622925113</v>
       </c>
       <c r="E155" t="n">
-        <v>5.23050982393264</v>
+        <v>6.5189633448547</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>18.897780629002</v>
+        <v>14.9999710826517</v>
       </c>
       <c r="E156" t="n">
-        <v>5.29162667104582</v>
+        <v>6.66667951884626</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -3495,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>18.9350382488164</v>
+        <v>15.1056650623287</v>
       </c>
       <c r="E157" t="n">
-        <v>5.28121457617076</v>
+        <v>6.62003292058853</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -3515,10 +3515,10 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>22.5457298391946</v>
+        <v>18.0732477480846</v>
       </c>
       <c r="E158" t="n">
-        <v>4.43542971166784</v>
+        <v>5.5330398494979</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>22.426214904982</v>
+        <v>17.5534437203322</v>
       </c>
       <c r="E159" t="n">
-        <v>4.45906723108165</v>
+        <v>5.69688783541488</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3555,10 +3555,10 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>22.5350643214289</v>
+        <v>18.5069299478023</v>
       </c>
       <c r="E160" t="n">
-        <v>4.43752893595731</v>
+        <v>5.40338134320732</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>22.6440535097337</v>
+        <v>18.1685243605183</v>
       </c>
       <c r="E161" t="n">
-        <v>4.41617045097576</v>
+        <v>5.50402432336818</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -3595,10 +3595,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>22.4102658685392</v>
+        <v>17.7879797941318</v>
       </c>
       <c r="E162" t="n">
-        <v>4.4622406796336</v>
+        <v>5.62177386962119</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -3615,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>22.4557127885063</v>
+        <v>17.9143274844048</v>
       </c>
       <c r="E163" t="n">
-        <v>4.4532097886104</v>
+        <v>5.58212414543913</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -3635,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>26.9821739046336</v>
+        <v>21.6296175479128</v>
       </c>
       <c r="E164" t="n">
-        <v>3.70615059977903</v>
+        <v>4.62329025367578</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -3655,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>26.7934266976781</v>
+        <v>20.9717471095872</v>
       </c>
       <c r="E165" t="n">
-        <v>3.73225870391061</v>
+        <v>4.76831994384889</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>26.7578217267017</v>
+        <v>21.9748710360216</v>
       </c>
       <c r="E166" t="n">
-        <v>3.73722498869218</v>
+        <v>4.5506524173033</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -3695,10 +3695,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>27.0594563205324</v>
+        <v>21.7112360704608</v>
       </c>
       <c r="E167" t="n">
-        <v>3.69556575030375</v>
+        <v>4.60591003089202</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3715,10 +3715,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>26.6954304981395</v>
+        <v>21.1892969535533</v>
       </c>
       <c r="E168" t="n">
-        <v>3.74595944451877</v>
+        <v>4.71936375327596</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>26.4328933521117</v>
+        <v>21.0871733322331</v>
       </c>
       <c r="E169" t="n">
-        <v>3.78316511431054</v>
+        <v>4.74221928299624</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>33.1791330586665</v>
+        <v>26.5972623691016</v>
       </c>
       <c r="E170" t="n">
-        <v>3.01394252294605</v>
+        <v>3.75978544754934</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -3775,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>33.5159112741134</v>
+        <v>26.2335692749962</v>
       </c>
       <c r="E171" t="n">
-        <v>2.98365749873663</v>
+        <v>3.81190980730603</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -3795,10 +3795,10 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>33.1302214226649</v>
+        <v>27.2082066542583</v>
       </c>
       <c r="E172" t="n">
-        <v>3.01839214185234</v>
+        <v>3.67536167564169</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -3815,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>33.6234315612353</v>
+        <v>26.9778613242514</v>
       </c>
       <c r="E173" t="n">
-        <v>2.97411642288441</v>
+        <v>3.70674305120348</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3835,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>33.2956941360354</v>
+        <v>26.4282065191759</v>
       </c>
       <c r="E174" t="n">
-        <v>3.00339135719569</v>
+        <v>3.78383602865528</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -3855,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>32.6234814602059</v>
+        <v>26.0257929046309</v>
       </c>
       <c r="E175" t="n">
-        <v>3.06527677378578</v>
+        <v>3.84234210909311</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -3875,10 +3875,10 @@
         <v>42</v>
       </c>
       <c r="D176" t="n">
-        <v>42.3268629365466</v>
+        <v>33.9303223141412</v>
       </c>
       <c r="E176" t="n">
-        <v>2.36256582846484</v>
+        <v>2.94721632981137</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -3895,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>42.6760856083823</v>
+        <v>33.4034196187249</v>
       </c>
       <c r="E177" t="n">
-        <v>2.34323271627233</v>
+        <v>2.99370546912338</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -3915,10 +3915,10 @@
         <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>42.9551769519939</v>
+        <v>35.2769550335855</v>
       </c>
       <c r="E178" t="n">
-        <v>2.32800810276625</v>
+        <v>2.83471178010672</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -3935,10 +3935,10 @@
         <v>40</v>
       </c>
       <c r="D179" t="n">
-        <v>43.5035345729158</v>
+        <v>34.9051916573556</v>
       </c>
       <c r="E179" t="n">
-        <v>2.29866379782064</v>
+        <v>2.86490333534458</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -3955,10 +3955,10 @@
         <v>43</v>
       </c>
       <c r="D180" t="n">
-        <v>42.599970296403</v>
+        <v>33.8134056645365</v>
       </c>
       <c r="E180" t="n">
-        <v>2.34741947715498</v>
+        <v>2.95740692292583</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -3975,10 +3975,10 @@
         <v>44</v>
       </c>
       <c r="D181" t="n">
-        <v>42.5557944986565</v>
+        <v>33.9494206302002</v>
       </c>
       <c r="E181" t="n">
-        <v>2.34985625760452</v>
+        <v>2.94555836723304</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -3995,10 +3995,10 @@
         <v>42</v>
       </c>
       <c r="D182" t="n">
-        <v>60.5301631433456</v>
+        <v>48.5225646951486</v>
       </c>
       <c r="E182" t="n">
-        <v>1.65206889932187</v>
+        <v>2.06089683486986</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>61.1233550912678</v>
+        <v>47.8424637478212</v>
       </c>
       <c r="E183" t="n">
-        <v>1.63603584670185</v>
+        <v>2.09019335891861</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -4035,10 +4035,10 @@
         <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>62.0095321980651</v>
+        <v>50.9253513598499</v>
       </c>
       <c r="E184" t="n">
-        <v>1.61265528790943</v>
+        <v>1.96365851839446</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -4055,10 +4055,10 @@
         <v>40</v>
       </c>
       <c r="D185" t="n">
-        <v>61.9640816482413</v>
+        <v>49.7170670621886</v>
       </c>
       <c r="E185" t="n">
-        <v>1.61383816785475</v>
+        <v>2.01138172279783</v>
       </c>
       <c r="F185" t="s">
         <v>6</v>
@@ -4075,10 +4075,10 @@
         <v>43</v>
       </c>
       <c r="D186" t="n">
-        <v>61.3035226785759</v>
+        <v>48.6592095387172</v>
       </c>
       <c r="E186" t="n">
-        <v>1.631227629843</v>
+        <v>2.05510942220366</v>
       </c>
       <c r="F186" t="s">
         <v>6</v>
@@ -4095,10 +4095,10 @@
         <v>44</v>
       </c>
       <c r="D187" t="n">
-        <v>60.7770429456242</v>
+        <v>48.4856508949886</v>
       </c>
       <c r="E187" t="n">
-        <v>1.64535810156917</v>
+        <v>2.06246586678979</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>
@@ -4115,10 +4115,10 @@
         <v>42</v>
       </c>
       <c r="D188" t="n">
-        <v>100</v>
+        <v>80.1626200481882</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>1.24746421636278</v>
       </c>
       <c r="F188" t="s">
         <v>6</v>
@@ -4135,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>100</v>
+        <v>78.2719856859691</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>1.27759630886592</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -4155,10 +4155,10 @@
         <v>41</v>
       </c>
       <c r="D190" t="n">
-        <v>100</v>
+        <v>82.1250371591078</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>1.21765546122386</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -4175,10 +4175,10 @@
         <v>40</v>
       </c>
       <c r="D191" t="n">
-        <v>100</v>
+        <v>80.2353004187543</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>1.24633421297225</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -4195,10 +4195,10 @@
         <v>43</v>
       </c>
       <c r="D192" t="n">
-        <v>100</v>
+        <v>79.3742470458756</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>1.25985447071017</v>
       </c>
       <c r="F192" t="s">
         <v>6</v>
@@ -4215,10 +4215,10 @@
         <v>44</v>
       </c>
       <c r="D193" t="n">
-        <v>100</v>
+        <v>79.7762585099238</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>1.25350576559767</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -4235,10 +4235,10 @@
         <v>42</v>
       </c>
       <c r="D194" t="n">
-        <v>124.746421636278</v>
+        <v>100</v>
       </c>
       <c r="E194" t="n">
-        <v>0.801626200481882</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>127.759630886592</v>
+        <v>100</v>
       </c>
       <c r="E195" t="n">
-        <v>0.782719856859691</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -4275,10 +4275,10 @@
         <v>41</v>
       </c>
       <c r="D196" t="n">
-        <v>121.765546122386</v>
+        <v>100</v>
       </c>
       <c r="E196" t="n">
-        <v>0.821250371591078</v>
+        <v>1</v>
       </c>
       <c r="F196" t="s">
         <v>6</v>
@@ -4295,10 +4295,10 @@
         <v>40</v>
       </c>
       <c r="D197" t="n">
-        <v>124.633421297225</v>
+        <v>100</v>
       </c>
       <c r="E197" t="n">
-        <v>0.802353004187543</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -4315,10 +4315,10 @@
         <v>43</v>
       </c>
       <c r="D198" t="n">
-        <v>125.985447071017</v>
+        <v>100</v>
       </c>
       <c r="E198" t="n">
-        <v>0.793742470458757</v>
+        <v>1</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -4335,10 +4335,10 @@
         <v>44</v>
       </c>
       <c r="D199" t="n">
-        <v>125.350576559767</v>
+        <v>100</v>
       </c>
       <c r="E199" t="n">
-        <v>0.797762585099238</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
         <v>6</v>
@@ -4355,10 +4355,10 @@
         <v>42</v>
       </c>
       <c r="D200" t="n">
-        <v>142.197755065484</v>
+        <v>113.989446110197</v>
       </c>
       <c r="E200" t="n">
-        <v>0.703245982708721</v>
+        <v>0.877274198730005</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -4375,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>144.209706179736</v>
+        <v>112.875800578781</v>
       </c>
       <c r="E201" t="n">
-        <v>0.693434600548766</v>
+        <v>0.885929486101016</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -4395,10 +4395,10 @@
         <v>41</v>
       </c>
       <c r="D202" t="n">
-        <v>137.975364137017</v>
+        <v>113.312319067939</v>
       </c>
       <c r="E202" t="n">
-        <v>0.724767067117103</v>
+        <v>0.88251657739034</v>
       </c>
       <c r="F202" t="s">
         <v>6</v>
@@ -4415,10 +4415,10 @@
         <v>40</v>
       </c>
       <c r="D203" t="n">
-        <v>141.060472656965</v>
+        <v>113.18029400843</v>
       </c>
       <c r="E203" t="n">
-        <v>0.708915815440255</v>
+        <v>0.88354603490031</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -4435,10 +4435,10 @@
         <v>43</v>
       </c>
       <c r="D204" t="n">
-        <v>141.827065132731</v>
+        <v>112.574165056369</v>
       </c>
       <c r="E204" t="n">
-        <v>0.705084039540787</v>
+        <v>0.888303279441847</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -4455,10 +4455,10 @@
         <v>44</v>
       </c>
       <c r="D205" t="n">
-        <v>142.72854797077</v>
+        <v>113.863495396622</v>
       </c>
       <c r="E205" t="n">
-        <v>0.700630682661185</v>
+        <v>0.878244600270429</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>

--- a/preprocesamiento/fuentes/ipc_series_ctes.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">nombre_trim_base</t>
   </si>
   <si>
-    <t xml:space="preserve">2do trimestre 2024</t>
+    <t xml:space="preserve">4to trimestre 2024</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>1.49051295329609</v>
+        <v>1.20448729331452</v>
       </c>
       <c r="E2" t="n">
-        <v>67.090996947636</v>
+        <v>83.0228766671494</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -415,10 +415,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58093298693402</v>
+        <v>1.27755595154866</v>
       </c>
       <c r="E3" t="n">
-        <v>63.2537880014351</v>
+        <v>78.274458256626</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49051295329609</v>
+        <v>1.20448729331452</v>
       </c>
       <c r="E4" t="n">
-        <v>67.090996947636</v>
+        <v>83.0228766671494</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -455,10 +455,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58093298693402</v>
+        <v>1.27755595154866</v>
       </c>
       <c r="E5" t="n">
-        <v>63.2537880014351</v>
+        <v>78.274458256626</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -475,10 +475,10 @@
         <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>1.49051295329609</v>
+        <v>1.20448729331452</v>
       </c>
       <c r="E6" t="n">
-        <v>67.090996947636</v>
+        <v>83.0228766671494</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -495,10 +495,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58093298693402</v>
+        <v>1.27755595154866</v>
       </c>
       <c r="E7" t="n">
-        <v>63.2537880014351</v>
+        <v>78.274458256626</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
         <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>1.49051295329609</v>
+        <v>1.20448729331452</v>
       </c>
       <c r="E8" t="n">
-        <v>67.090996947636</v>
+        <v>83.0228766671494</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -535,10 +535,10 @@
         <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>1.58093298693402</v>
+        <v>1.27755595154866</v>
       </c>
       <c r="E9" t="n">
-        <v>63.2537880014351</v>
+        <v>78.274458256626</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>1.49051295329609</v>
+        <v>1.20448729331452</v>
       </c>
       <c r="E10" t="n">
-        <v>67.090996947636</v>
+        <v>83.0228766671494</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>1.58093298693402</v>
+        <v>1.27755595154866</v>
       </c>
       <c r="E11" t="n">
-        <v>63.2537880014351</v>
+        <v>78.274458256626</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.49051295329609</v>
+        <v>1.20448729331452</v>
       </c>
       <c r="E12" t="n">
-        <v>67.090996947636</v>
+        <v>83.0228766671494</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.58093298693402</v>
+        <v>1.27755595154866</v>
       </c>
       <c r="E13" t="n">
-        <v>63.2537880014351</v>
+        <v>78.274458256626</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>1.61798006450088</v>
+        <v>1.31259376841733</v>
       </c>
       <c r="E14" t="n">
-        <v>61.8054586666667</v>
+        <v>76.1850333333333</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.65589881663399</v>
+        <v>1.33813602843207</v>
       </c>
       <c r="E15" t="n">
-        <v>60.3901633333333</v>
+        <v>74.730818</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -675,10 +675,10 @@
         <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>1.62987478774888</v>
+        <v>1.32508575811476</v>
       </c>
       <c r="E16" t="n">
-        <v>61.3544063333333</v>
+        <v>75.4668136666667</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>1.63690132571111</v>
+        <v>1.3280541234115</v>
       </c>
       <c r="E17" t="n">
-        <v>61.0910373333333</v>
+        <v>75.298136</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -715,10 +715,10 @@
         <v>43</v>
       </c>
       <c r="D18" t="n">
-        <v>1.62914638458612</v>
+        <v>1.33252788241305</v>
       </c>
       <c r="E18" t="n">
-        <v>61.3818383333333</v>
+        <v>75.045334</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
         <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6789661383199</v>
+        <v>1.33253446411616</v>
       </c>
       <c r="E19" t="n">
-        <v>59.5604626666667</v>
+        <v>75.0449633333333</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -755,10 +755,10 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>1.67674725775031</v>
+        <v>1.36026892421127</v>
       </c>
       <c r="E20" t="n">
-        <v>59.6392804805717</v>
+        <v>73.5148750516249</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.71873576099507</v>
+        <v>1.38891472234833</v>
       </c>
       <c r="E21" t="n">
-        <v>58.1823001937799</v>
+        <v>71.9986608183716</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>1.69030185221307</v>
+        <v>1.37421287090161</v>
       </c>
       <c r="E22" t="n">
-        <v>59.1610308354525</v>
+        <v>72.7689298488312</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -815,10 +815,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>1.70438476539865</v>
+        <v>1.38280492538797</v>
       </c>
       <c r="E23" t="n">
-        <v>58.6721977514335</v>
+        <v>72.3167803093724</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -835,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>1.68961975533317</v>
+        <v>1.38199087323226</v>
       </c>
       <c r="E24" t="n">
-        <v>59.1849140520268</v>
+        <v>72.3593780081308</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -855,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>1.75372882149315</v>
+        <v>1.39187089126879</v>
       </c>
       <c r="E25" t="n">
-        <v>57.021358590012</v>
+        <v>71.8457441902842</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -875,10 +875,10 @@
         <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>1.79697989567006</v>
+        <v>1.45780820467362</v>
       </c>
       <c r="E26" t="n">
-        <v>55.6489253112718</v>
+        <v>68.5961292297626</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.82985816288293</v>
+        <v>1.47871301680832</v>
       </c>
       <c r="E27" t="n">
-        <v>54.6490444059613</v>
+        <v>67.6263743291054</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>1.79677776905553</v>
+        <v>1.46077763161248</v>
       </c>
       <c r="E28" t="n">
-        <v>55.65518547826</v>
+        <v>68.4566889825765</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>1.82400460357764</v>
+        <v>1.47985513656451</v>
       </c>
       <c r="E29" t="n">
-        <v>54.8244230326273</v>
+        <v>67.5741817757582</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>1.79421964200431</v>
+        <v>1.46754627009855</v>
       </c>
       <c r="E30" t="n">
-        <v>55.7345364296037</v>
+        <v>68.1409520350487</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
@@ -975,10 +975,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="n">
-        <v>1.85160023493885</v>
+        <v>1.46954787860735</v>
       </c>
       <c r="E31" t="n">
-        <v>54.00733814624</v>
+        <v>68.048140149586</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -995,10 +995,10 @@
         <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>1.87234540707451</v>
+        <v>1.5189488224065</v>
       </c>
       <c r="E32" t="n">
-        <v>53.4089488094227</v>
+        <v>65.8350028156762</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1.91801987177934</v>
+        <v>1.54995671709807</v>
       </c>
       <c r="E33" t="n">
-        <v>52.1371032028101</v>
+        <v>64.5179306601713</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -1035,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>1.87014658262605</v>
+        <v>1.52042636701401</v>
       </c>
       <c r="E34" t="n">
-        <v>53.4717443696743</v>
+        <v>65.7710246083088</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1055,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>1.89772681985124</v>
+        <v>1.53966759549001</v>
       </c>
       <c r="E35" t="n">
-        <v>52.6946233535546</v>
+        <v>64.9490840054824</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>1.87875061741254</v>
+        <v>1.53668670015736</v>
       </c>
       <c r="E36" t="n">
-        <v>53.2268620822717</v>
+        <v>65.0750735265426</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
@@ -1095,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>1.9334783766063</v>
+        <v>1.53453158681891</v>
       </c>
       <c r="E37" t="n">
-        <v>51.7202577540707</v>
+        <v>65.1664656882695</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>1.97713388595191</v>
+        <v>1.60395895781805</v>
       </c>
       <c r="E38" t="n">
-        <v>50.5782641785304</v>
+        <v>62.3457349158331</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2.01706028393476</v>
+        <v>1.62999152504928</v>
       </c>
       <c r="E39" t="n">
-        <v>49.5771002961428</v>
+        <v>61.3500122321046</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -1155,10 +1155,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>1.95516682776259</v>
+        <v>1.58954769880506</v>
       </c>
       <c r="E40" t="n">
-        <v>51.1465306080484</v>
+        <v>62.9109778053059</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>1.99599873657408</v>
+        <v>1.61939776747373</v>
       </c>
       <c r="E41" t="n">
-        <v>50.1002321131923</v>
+        <v>61.7513510321806</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>1.98453217826131</v>
+        <v>1.62320862391436</v>
       </c>
       <c r="E42" t="n">
-        <v>50.3897095221768</v>
+        <v>61.606375500181</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -1215,10 +1215,10 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>2.02935238000278</v>
+        <v>1.61062330232333</v>
       </c>
       <c r="E43" t="n">
-        <v>49.2768042580476</v>
+        <v>62.0877643181677</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>2.11271899737702</v>
+        <v>1.71395300301765</v>
       </c>
       <c r="E44" t="n">
-        <v>47.332371282765</v>
+        <v>58.3446569561336</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2.15713276483383</v>
+        <v>1.74318445169435</v>
       </c>
       <c r="E45" t="n">
-        <v>46.3578327816569</v>
+        <v>57.3662757849874</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>2.07751935491251</v>
+        <v>1.68902011988572</v>
       </c>
       <c r="E46" t="n">
-        <v>48.1343289358723</v>
+        <v>59.205925863551</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -1295,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>2.12323507662161</v>
+        <v>1.72262741448651</v>
       </c>
       <c r="E47" t="n">
-        <v>47.0979408267479</v>
+        <v>58.0508583336396</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="D48" t="n">
-        <v>2.1202216084383</v>
+        <v>1.7341930945367</v>
       </c>
       <c r="E48" t="n">
-        <v>47.1648810680961</v>
+        <v>57.6637055671795</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -1335,10 +1335,10 @@
         <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>2.17743103719342</v>
+        <v>1.72814795609867</v>
       </c>
       <c r="E49" t="n">
-        <v>45.9256795241121</v>
+        <v>57.865415774788</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -1355,10 +1355,10 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>2.28778659766276</v>
+        <v>1.85597739888543</v>
       </c>
       <c r="E50" t="n">
-        <v>43.7103705835856</v>
+        <v>53.8799664586718</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1375,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2.32695843567018</v>
+        <v>1.88042100649828</v>
       </c>
       <c r="E51" t="n">
-        <v>42.9745535919722</v>
+        <v>53.1795803463288</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="D52" t="n">
-        <v>2.24159287358763</v>
+        <v>1.82241164450735</v>
       </c>
       <c r="E52" t="n">
-        <v>44.6111339745435</v>
+        <v>54.8723447314411</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1415,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>2.3033542421651</v>
+        <v>1.86876206337963</v>
       </c>
       <c r="E53" t="n">
-        <v>43.4149459815622</v>
+        <v>53.5113602526538</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1435,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="D54" t="n">
-        <v>2.28691858175313</v>
+        <v>1.870539568345</v>
       </c>
       <c r="E54" t="n">
-        <v>43.7269611598244</v>
+        <v>53.4605103748096</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>2.3537963562271</v>
+        <v>1.86812270634729</v>
       </c>
       <c r="E55" t="n">
-        <v>42.4845589277273</v>
+        <v>53.5296742875784</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>2.5552689046193</v>
+        <v>2.07297365055516</v>
       </c>
       <c r="E56" t="n">
-        <v>39.1348244481137</v>
+        <v>48.2398799295973</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2.59304260865001</v>
+        <v>2.09544430072566</v>
       </c>
       <c r="E57" t="n">
-        <v>38.5647345964986</v>
+        <v>47.7225760500384</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -1515,10 +1515,10 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>2.5090048001388</v>
+        <v>2.03981713975548</v>
       </c>
       <c r="E58" t="n">
-        <v>39.8564402883836</v>
+        <v>49.0240022259972</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -1535,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>2.56966281011259</v>
+        <v>2.08482407408686</v>
       </c>
       <c r="E59" t="n">
-        <v>38.9156116539735</v>
+        <v>47.9656778924136</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -1555,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="D60" t="n">
-        <v>2.55181181035009</v>
+        <v>2.0872037160898</v>
       </c>
       <c r="E60" t="n">
-        <v>39.18784276897</v>
+        <v>47.9109917393889</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -1575,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>2.61543076887225</v>
+        <v>2.07577244024682</v>
       </c>
       <c r="E61" t="n">
-        <v>38.2346193943108</v>
+        <v>48.17483750199</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>2.95291716843824</v>
+        <v>2.39556763336281</v>
       </c>
       <c r="E62" t="n">
-        <v>33.8648171607498</v>
+        <v>41.7437598535357</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>2.96223739307654</v>
+        <v>2.39379154126213</v>
       </c>
       <c r="E63" t="n">
-        <v>33.7582667188403</v>
+        <v>41.7747319581866</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -1635,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>2.87102498191124</v>
+        <v>2.33413900461439</v>
       </c>
       <c r="E64" t="n">
-        <v>34.8307662350712</v>
+        <v>42.8423499210238</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>2.93182177208842</v>
+        <v>2.37865162204458</v>
       </c>
       <c r="E65" t="n">
-        <v>34.1084853629309</v>
+        <v>42.040624643488</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>2.92961465827718</v>
+        <v>2.39622004125311</v>
       </c>
       <c r="E66" t="n">
-        <v>34.1341820220162</v>
+        <v>41.7323944706283</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>3.02730522778343</v>
+        <v>2.40266224395517</v>
       </c>
       <c r="E67" t="n">
-        <v>33.0326783973544</v>
+        <v>41.6204983665885</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -1715,10 +1715,10 @@
         <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>3.25285993077548</v>
+        <v>2.63889757874578</v>
       </c>
       <c r="E68" t="n">
-        <v>30.7421783071244</v>
+        <v>37.8946120552083</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>3.26350720804475</v>
+        <v>2.63724844191232</v>
       </c>
       <c r="E69" t="n">
-        <v>30.6418811496704</v>
+        <v>37.9183084956107</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>3.19394555410878</v>
+        <v>2.59667294552664</v>
       </c>
       <c r="E70" t="n">
-        <v>31.309237526406</v>
+        <v>38.5108183039658</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>3.24379552195305</v>
+        <v>2.63176280131733</v>
       </c>
       <c r="E71" t="n">
-        <v>30.8280837442525</v>
+        <v>37.9973453344446</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -1795,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="D72" t="n">
-        <v>3.21457191069791</v>
+        <v>2.62929515822174</v>
       </c>
       <c r="E72" t="n">
-        <v>31.1083412591287</v>
+        <v>38.0330065596867</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>3.32763253439692</v>
+        <v>2.64102112293656</v>
       </c>
       <c r="E73" t="n">
-        <v>30.0513950883472</v>
+        <v>37.8641424453317</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -1835,10 +1835,10 @@
         <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>3.60050883531452</v>
+        <v>2.92092935139054</v>
       </c>
       <c r="E74" t="n">
-        <v>27.773852134226</v>
+        <v>34.2356791178102</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>3.62054935105601</v>
+        <v>2.92577510213613</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6201179168661</v>
+        <v>34.1789770262893</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -1875,10 +1875,10 @@
         <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>3.56550376313912</v>
+        <v>2.89874921224204</v>
       </c>
       <c r="E76" t="n">
-        <v>28.0465276839194</v>
+        <v>34.4976376630578</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -1895,10 +1895,10 @@
         <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>3.64082211906785</v>
+        <v>2.95387923015784</v>
       </c>
       <c r="E77" t="n">
-        <v>27.4663240140945</v>
+        <v>33.8537875817816</v>
       </c>
       <c r="F77" t="s">
         <v>6</v>
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>3.57265285554199</v>
+        <v>2.92218034501652</v>
       </c>
       <c r="E78" t="n">
-        <v>27.9904049017462</v>
+        <v>34.2210227272727</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -1935,10 +1935,10 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>3.69281550465681</v>
+        <v>2.930853587376</v>
       </c>
       <c r="E79" t="n">
-        <v>27.0796090067038</v>
+        <v>34.1197528360775</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
         <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>3.98864930894777</v>
+        <v>3.23581009568371</v>
       </c>
       <c r="E80" t="n">
-        <v>25.0711437016208</v>
+        <v>30.9041621859674</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>3.97351522314699</v>
+        <v>3.21100771750328</v>
       </c>
       <c r="E81" t="n">
-        <v>25.166633165885</v>
+        <v>31.1428712721235</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -1995,10 +1995,10 @@
         <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>3.92684754687464</v>
+        <v>3.19252116651133</v>
       </c>
       <c r="E82" t="n">
-        <v>25.4657199716321</v>
+        <v>31.3232065769751</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -2015,10 +2015,10 @@
         <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>4.01260224140244</v>
+        <v>3.25551263756826</v>
       </c>
       <c r="E83" t="n">
-        <v>24.9214833626393</v>
+        <v>30.717128493378</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -2035,10 +2035,10 @@
         <v>43</v>
       </c>
       <c r="D84" t="n">
-        <v>3.93053287233197</v>
+        <v>3.2149011867058</v>
       </c>
       <c r="E84" t="n">
-        <v>25.4418429378687</v>
+        <v>31.1051550864201</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -2055,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>4.0795463263359</v>
+        <v>3.23778779912789</v>
       </c>
       <c r="E85" t="n">
-        <v>24.5125295806645</v>
+        <v>30.8852853256583</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>4.53504333403647</v>
+        <v>3.67907476140327</v>
       </c>
       <c r="E86" t="n">
-        <v>22.0505059454402</v>
+        <v>27.1807469228644</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>4.48301210644184</v>
+        <v>3.62273343954743</v>
       </c>
       <c r="E87" t="n">
-        <v>22.3064309499199</v>
+        <v>27.6034661861548</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -2115,10 +2115,10 @@
         <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>4.46211200946127</v>
+        <v>3.62769037185754</v>
       </c>
       <c r="E88" t="n">
-        <v>22.4109120945338</v>
+        <v>27.5657483824331</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -2135,10 +2135,10 @@
         <v>40</v>
       </c>
       <c r="D89" t="n">
-        <v>4.50820631015421</v>
+        <v>3.65760714182885</v>
       </c>
       <c r="E89" t="n">
-        <v>22.1817710016424</v>
+        <v>27.3402790738206</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="D90" t="n">
-        <v>4.46111380991277</v>
+        <v>3.64887931162605</v>
       </c>
       <c r="E90" t="n">
-        <v>22.4159266633808</v>
+        <v>27.4056748551207</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -2175,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>4.61336633449478</v>
+        <v>3.66146135767761</v>
       </c>
       <c r="E91" t="n">
-        <v>21.6761455192245</v>
+        <v>27.311499489217</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -2195,10 +2195,10 @@
         <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>4.94290051273572</v>
+        <v>4.00995077335837</v>
       </c>
       <c r="E92" t="n">
-        <v>20.2310363606031</v>
+        <v>24.9379619980345</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>4.85981850576217</v>
+        <v>3.92723164536127</v>
       </c>
       <c r="E93" t="n">
-        <v>20.5769001211532</v>
+        <v>25.4632293254504</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -2235,10 +2235,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>4.91325265804463</v>
+        <v>3.99446704257966</v>
       </c>
       <c r="E94" t="n">
-        <v>20.3531157381591</v>
+        <v>25.0346288839122</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
         <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>4.90865566794108</v>
+        <v>3.98250053184141</v>
       </c>
       <c r="E95" t="n">
-        <v>20.3721765723169</v>
+        <v>25.1098522650448</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -2275,10 +2275,10 @@
         <v>43</v>
       </c>
       <c r="D96" t="n">
-        <v>4.86989759158674</v>
+        <v>3.98323587535325</v>
       </c>
       <c r="E96" t="n">
-        <v>20.5343127076759</v>
+        <v>25.1052167457022</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>5.0313074577191</v>
+        <v>3.99316605258296</v>
       </c>
       <c r="E97" t="n">
-        <v>19.8755494154067</v>
+        <v>25.0427852694268</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -2315,10 +2315,10 @@
         <v>42</v>
       </c>
       <c r="D98" t="n">
-        <v>5.23490708285659</v>
+        <v>4.24684244630726</v>
       </c>
       <c r="E98" t="n">
-        <v>19.1025358076522</v>
+        <v>23.5469060282546</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5.1609210749499</v>
+        <v>4.17055339427258</v>
       </c>
       <c r="E99" t="n">
-        <v>19.3763862201614</v>
+        <v>23.9776333129627</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>5.26766349772466</v>
+        <v>4.28260252372918</v>
       </c>
       <c r="E100" t="n">
-        <v>18.9837486853886</v>
+        <v>23.3502874585995</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
         <v>40</v>
       </c>
       <c r="D101" t="n">
-        <v>5.28899460167403</v>
+        <v>4.29107789157844</v>
       </c>
       <c r="E101" t="n">
-        <v>18.9071851138492</v>
+        <v>23.3041679798583</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -2395,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="D102" t="n">
-        <v>5.173675286091</v>
+        <v>4.23170479859547</v>
       </c>
       <c r="E102" t="n">
-        <v>19.3286193025762</v>
+        <v>23.6311379832522</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -2415,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="D103" t="n">
-        <v>5.26785755660237</v>
+        <v>4.18090727741044</v>
       </c>
       <c r="E103" t="n">
-        <v>18.9830493565011</v>
+        <v>23.9182534710355</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -2435,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="D104" t="n">
-        <v>5.62457870495754</v>
+        <v>4.56296534183661</v>
       </c>
       <c r="E104" t="n">
-        <v>17.7791093778916</v>
+        <v>21.9155729900306</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>5.49359225114421</v>
+        <v>4.43938581447527</v>
       </c>
       <c r="E105" t="n">
-        <v>18.2030255301842</v>
+        <v>22.5256384957431</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -2475,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>5.64480674436102</v>
+        <v>4.58921941764239</v>
       </c>
       <c r="E106" t="n">
-        <v>17.7153983349203</v>
+        <v>21.7901980488379</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -2495,10 +2495,10 @@
         <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>5.63515339882481</v>
+        <v>4.57192415316452</v>
       </c>
       <c r="E107" t="n">
-        <v>17.7457458426695</v>
+        <v>21.8726288210148</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -2515,10 +2515,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="n">
-        <v>5.54799773429182</v>
+        <v>4.53787440002599</v>
       </c>
       <c r="E108" t="n">
-        <v>18.0245206990454</v>
+        <v>22.0367491879959</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -2535,10 +2535,10 @@
         <v>44</v>
       </c>
       <c r="D109" t="n">
-        <v>5.65897887473317</v>
+        <v>4.491326066786</v>
       </c>
       <c r="E109" t="n">
-        <v>17.6710325685242</v>
+        <v>22.2651391845082</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -2555,10 +2555,10 @@
         <v>42</v>
       </c>
       <c r="D110" t="n">
-        <v>6.23437273954702</v>
+        <v>5.05766355684034</v>
       </c>
       <c r="E110" t="n">
-        <v>16.040106066431</v>
+        <v>19.7719755132294</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>6.03648640570548</v>
+        <v>4.87809995603153</v>
       </c>
       <c r="E111" t="n">
-        <v>16.5659281375145</v>
+        <v>20.4997849370337</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="D112" t="n">
-        <v>6.29664582797501</v>
+        <v>5.11916361505674</v>
       </c>
       <c r="E112" t="n">
-        <v>15.8814712994839</v>
+        <v>19.534441076639</v>
       </c>
       <c r="F112" t="s">
         <v>6</v>
@@ -2615,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>6.21706800067868</v>
+        <v>5.04404429524435</v>
       </c>
       <c r="E113" t="n">
-        <v>16.0847524892897</v>
+        <v>19.8253611877046</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -2635,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="D114" t="n">
-        <v>6.1507379096363</v>
+        <v>5.03087373826599</v>
       </c>
       <c r="E114" t="n">
-        <v>16.2582118550899</v>
+        <v>19.8772629174485</v>
       </c>
       <c r="F114" t="s">
         <v>6</v>
@@ -2655,10 +2655,10 @@
         <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>6.17804972502228</v>
+        <v>4.90329375424662</v>
       </c>
       <c r="E115" t="n">
-        <v>16.1863378332778</v>
+        <v>20.3944542203682</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -2675,10 +2675,10 @@
         <v>42</v>
       </c>
       <c r="D116" t="n">
-        <v>7.04926408441938</v>
+        <v>5.71874790805368</v>
       </c>
       <c r="E116" t="n">
-        <v>14.1858779586687</v>
+        <v>17.4863451944036</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>6.71955294706108</v>
+        <v>5.4300877584399</v>
       </c>
       <c r="E117" t="n">
-        <v>14.881942413109</v>
+        <v>18.4159086277329</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>41</v>
       </c>
       <c r="D118" t="n">
-        <v>7.14047601221187</v>
+        <v>5.80519628934822</v>
       </c>
       <c r="E118" t="n">
-        <v>14.004668572372</v>
+        <v>17.2259463790203</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>7.06073894789324</v>
+        <v>5.72853312951421</v>
       </c>
       <c r="E119" t="n">
-        <v>14.1628235710141</v>
+        <v>17.456475809625</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -2755,10 +2755,10 @@
         <v>43</v>
       </c>
       <c r="D120" t="n">
-        <v>6.94906362503589</v>
+        <v>5.68384837890121</v>
       </c>
       <c r="E120" t="n">
-        <v>14.3904280340337</v>
+        <v>17.5937135077716</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="D121" t="n">
-        <v>6.88556437674415</v>
+        <v>5.4648224448907</v>
       </c>
       <c r="E121" t="n">
-        <v>14.5231377601737</v>
+        <v>18.2988561858024</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -2795,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="D122" t="n">
-        <v>7.93034483642372</v>
+        <v>6.43352872020795</v>
       </c>
       <c r="E122" t="n">
-        <v>12.6097921417874</v>
+        <v>15.5435693767708</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>7.55898546170516</v>
+        <v>6.10843529996777</v>
       </c>
       <c r="E123" t="n">
-        <v>13.2292885740571</v>
+        <v>16.3708044841742</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -2835,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="D124" t="n">
-        <v>7.92830804507445</v>
+        <v>6.4457025505529</v>
       </c>
       <c r="E124" t="n">
-        <v>12.6130316117228</v>
+        <v>15.5142126425648</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -2855,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>7.87586833795893</v>
+        <v>6.38986556940356</v>
       </c>
       <c r="E125" t="n">
-        <v>12.697012660564</v>
+        <v>15.6497815038281</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="D126" t="n">
-        <v>7.78123322742886</v>
+        <v>6.36450495376568</v>
       </c>
       <c r="E126" t="n">
-        <v>12.8514333238978</v>
+        <v>15.7121411211776</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="D127" t="n">
-        <v>7.76122692756338</v>
+        <v>6.15980401793787</v>
       </c>
       <c r="E127" t="n">
-        <v>12.884560770264</v>
+        <v>16.2342827318518</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
         <v>42</v>
       </c>
       <c r="D128" t="n">
-        <v>8.65358947582925</v>
+        <v>7.02026426012808</v>
       </c>
       <c r="E128" t="n">
-        <v>11.555898310096</v>
+        <v>14.2444780274091</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>8.28105725165285</v>
+        <v>6.6919433425712</v>
       </c>
       <c r="E129" t="n">
-        <v>12.0757527645447</v>
+        <v>14.9433422969743</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -2955,10 +2955,10 @@
         <v>41</v>
       </c>
       <c r="D130" t="n">
-        <v>8.63757685341796</v>
+        <v>7.02233702804492</v>
       </c>
       <c r="E130" t="n">
-        <v>11.57732101225</v>
+        <v>14.2402735158727</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -2975,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="D131" t="n">
-        <v>8.58034974601184</v>
+        <v>6.96142686276678</v>
       </c>
       <c r="E131" t="n">
-        <v>11.6545365818544</v>
+        <v>14.3648711638199</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -2995,10 +2995,10 @@
         <v>43</v>
       </c>
       <c r="D132" t="n">
-        <v>8.48133987949693</v>
+        <v>6.93714326507406</v>
       </c>
       <c r="E132" t="n">
-        <v>11.790589862074</v>
+        <v>14.4151556597458</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -3015,10 +3015,10 @@
         <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>8.59163070750268</v>
+        <v>6.81886534779216</v>
       </c>
       <c r="E133" t="n">
-        <v>11.6392339713431</v>
+        <v>14.6651964659162</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -3035,10 +3035,10 @@
         <v>42</v>
       </c>
       <c r="D134" t="n">
-        <v>9.42811815068589</v>
+        <v>7.64860420966323</v>
       </c>
       <c r="E134" t="n">
-        <v>10.6065705161666</v>
+        <v>13.0742809091442</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -3055,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>9.14192868827589</v>
+        <v>7.38761573125918</v>
       </c>
       <c r="E135" t="n">
-        <v>10.9386108128633</v>
+        <v>13.5361669634319</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -3075,10 +3075,10 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>9.51100556380034</v>
+        <v>7.73243325970377</v>
       </c>
       <c r="E136" t="n">
-        <v>10.5141353697245</v>
+        <v>12.9325396859398</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>9.40264658134904</v>
+        <v>7.62857440897784</v>
       </c>
       <c r="E137" t="n">
-        <v>10.6353034898024</v>
+        <v>13.1086091108075</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -3115,10 +3115,10 @@
         <v>43</v>
       </c>
       <c r="D138" t="n">
-        <v>9.31091968218721</v>
+        <v>7.61568156478145</v>
       </c>
       <c r="E138" t="n">
-        <v>10.7400776092302</v>
+        <v>13.1308011173219</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -3135,10 +3135,10 @@
         <v>44</v>
       </c>
       <c r="D139" t="n">
-        <v>9.38515655586916</v>
+        <v>7.4486580023203</v>
       </c>
       <c r="E139" t="n">
-        <v>10.6551232688243</v>
+        <v>13.4252371324941</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>10.7566189299267</v>
+        <v>8.72635657659794</v>
       </c>
       <c r="E140" t="n">
-        <v>9.29660152985282</v>
+        <v>11.4595363050115</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -3175,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>10.3537358650407</v>
+        <v>8.36688018054345</v>
       </c>
       <c r="E141" t="n">
-        <v>9.65834953716069</v>
+        <v>11.9518862278609</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -3195,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>10.8160142521467</v>
+        <v>8.79340336620634</v>
       </c>
       <c r="E142" t="n">
-        <v>9.24554994739883</v>
+        <v>11.3721611343689</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -3215,10 +3215,10 @@
         <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>10.6956191151488</v>
+        <v>8.67759152320406</v>
       </c>
       <c r="E143" t="n">
-        <v>9.34962239430954</v>
+        <v>11.5239349227949</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -3235,10 +3235,10 @@
         <v>43</v>
       </c>
       <c r="D144" t="n">
-        <v>10.5248580178561</v>
+        <v>8.60859828185098</v>
       </c>
       <c r="E144" t="n">
-        <v>9.50131582111066</v>
+        <v>11.6162930044981</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -3255,10 +3255,10 @@
         <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>10.5735293482274</v>
+        <v>8.39182634019987</v>
       </c>
       <c r="E145" t="n">
-        <v>9.45758002901509</v>
+        <v>11.9163571725697</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -3275,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="D146" t="n">
-        <v>12.737249270798</v>
+        <v>10.3331520495495</v>
       </c>
       <c r="E146" t="n">
-        <v>7.85098869261081</v>
+        <v>9.67758913451384</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>12.2308152944776</v>
+        <v>9.88375282247457</v>
       </c>
       <c r="E147" t="n">
-        <v>8.17606983609274</v>
+        <v>10.117614411867</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -3315,10 +3315,10 @@
         <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>12.8351868061158</v>
+        <v>10.4349876244278</v>
       </c>
       <c r="E148" t="n">
-        <v>7.79108255380836</v>
+        <v>9.58314505001469</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -3335,10 +3335,10 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>12.7288235275887</v>
+        <v>10.3271750755335</v>
       </c>
       <c r="E149" t="n">
-        <v>7.85618559195655</v>
+        <v>9.68319015302777</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -3355,10 +3355,10 @@
         <v>43</v>
       </c>
       <c r="D150" t="n">
-        <v>12.4225360579648</v>
+        <v>10.1607662909462</v>
       </c>
       <c r="E150" t="n">
-        <v>8.04988607264973</v>
+        <v>9.84177739518577</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -3375,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="D151" t="n">
-        <v>12.5151283243893</v>
+        <v>9.93280295204355</v>
       </c>
       <c r="E151" t="n">
-        <v>7.99032957617552</v>
+        <v>10.0676516470536</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -3395,10 +3395,10 @@
         <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>15.307044939763</v>
+        <v>12.4179106044888</v>
       </c>
       <c r="E152" t="n">
-        <v>6.53293959699762</v>
+        <v>8.0528845137484</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>14.7453594677588</v>
+        <v>11.9157623387271</v>
       </c>
       <c r="E153" t="n">
-        <v>6.78179465333844</v>
+        <v>8.39224525945713</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -3435,10 +3435,10 @@
         <v>41</v>
       </c>
       <c r="D154" t="n">
-        <v>15.563521139984</v>
+        <v>12.6531193461765</v>
       </c>
       <c r="E154" t="n">
-        <v>6.4252812137153</v>
+        <v>7.90318950324431</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -3455,10 +3455,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="n">
-        <v>15.3398622925113</v>
+        <v>12.4455683736979</v>
       </c>
       <c r="E155" t="n">
-        <v>6.5189633448547</v>
+        <v>8.03498859974426</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -3475,10 +3475,10 @@
         <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>14.9999710826517</v>
+        <v>12.2689280055706</v>
       </c>
       <c r="E156" t="n">
-        <v>6.66667951884626</v>
+        <v>8.15067135079738</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -3495,10 +3495,10 @@
         <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>15.1056650623287</v>
+        <v>11.9888179037909</v>
       </c>
       <c r="E157" t="n">
-        <v>6.62003292058853</v>
+        <v>8.34110592074132</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -3515,10 +3515,10 @@
         <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>18.0732477480846</v>
+        <v>14.6620053545075</v>
       </c>
       <c r="E158" t="n">
-        <v>5.5330398494979</v>
+        <v>6.82034943939351</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>17.5534437203322</v>
+        <v>14.184982336649</v>
       </c>
       <c r="E159" t="n">
-        <v>5.69688783541488</v>
+        <v>7.04970916612529</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -3555,10 +3555,10 @@
         <v>41</v>
       </c>
       <c r="D160" t="n">
-        <v>18.5069299478023</v>
+        <v>15.0461062926993</v>
       </c>
       <c r="E160" t="n">
-        <v>5.40338134320732</v>
+        <v>6.64623777438832</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="D161" t="n">
-        <v>18.1685243605183</v>
+        <v>14.7405242541462</v>
       </c>
       <c r="E161" t="n">
-        <v>5.50402432336818</v>
+        <v>6.78401922997223</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -3595,10 +3595,10 @@
         <v>43</v>
       </c>
       <c r="D162" t="n">
-        <v>17.7879797941318</v>
+        <v>14.5493242791084</v>
       </c>
       <c r="E162" t="n">
-        <v>5.62177386962119</v>
+        <v>6.87317143268237</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -3615,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="D163" t="n">
-        <v>17.9143274844048</v>
+        <v>14.2179512913347</v>
       </c>
       <c r="E163" t="n">
-        <v>5.58212414543913</v>
+        <v>7.03336211743432</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -3635,10 +3635,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="n">
-        <v>21.6296175479128</v>
+        <v>17.5471267103644</v>
       </c>
       <c r="E164" t="n">
-        <v>4.62329025367578</v>
+        <v>5.69893872943506</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -3655,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>20.9717471095872</v>
+        <v>16.9473219647259</v>
       </c>
       <c r="E165" t="n">
-        <v>4.76831994384889</v>
+        <v>5.90063729290915</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -3675,10 +3675,10 @@
         <v>41</v>
       </c>
       <c r="D166" t="n">
-        <v>21.9748710360216</v>
+        <v>17.8655371965464</v>
       </c>
       <c r="E166" t="n">
-        <v>4.5506524173033</v>
+        <v>5.5973687720586</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -3695,10 +3695,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="n">
-        <v>21.7112360704608</v>
+        <v>17.6148043469938</v>
       </c>
       <c r="E167" t="n">
-        <v>4.60591003089202</v>
+        <v>5.67704290266875</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -3715,10 +3715,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="n">
-        <v>21.1892969535533</v>
+        <v>17.3313639992594</v>
       </c>
       <c r="E168" t="n">
-        <v>4.71936375327596</v>
+        <v>5.76988631733042</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="n">
-        <v>21.0871733322331</v>
+        <v>16.7361238411336</v>
       </c>
       <c r="E169" t="n">
-        <v>4.74221928299624</v>
+        <v>5.97509918958788</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -3755,10 +3755,10 @@
         <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>26.5972623691016</v>
+        <v>21.5771514177544</v>
       </c>
       <c r="E170" t="n">
-        <v>3.75978544754934</v>
+        <v>4.63453205958024</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -3775,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>26.2335692749962</v>
+        <v>21.1994137858003</v>
       </c>
       <c r="E171" t="n">
-        <v>3.81190980730603</v>
+        <v>4.71711156781993</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -3795,10 +3795,10 @@
         <v>41</v>
       </c>
       <c r="D172" t="n">
-        <v>27.2082066542583</v>
+        <v>22.1202312057334</v>
       </c>
       <c r="E172" t="n">
-        <v>3.67536167564169</v>
+        <v>4.52074840764236</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -3815,10 +3815,10 @@
         <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>26.9778613242514</v>
+        <v>21.8877334936065</v>
       </c>
       <c r="E173" t="n">
-        <v>3.70674305120348</v>
+        <v>4.56876907922927</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -3835,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D174" t="n">
-        <v>26.4282065191759</v>
+        <v>21.6164258793225</v>
       </c>
       <c r="E174" t="n">
-        <v>3.78383602865528</v>
+        <v>4.62611166888863</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -3855,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>26.0257929046309</v>
+        <v>20.6557268844469</v>
       </c>
       <c r="E175" t="n">
-        <v>3.84234210909311</v>
+        <v>4.84127237736169</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -3875,10 +3875,10 @@
         <v>42</v>
       </c>
       <c r="D176" t="n">
-        <v>33.9303223141412</v>
+        <v>27.5261300229135</v>
       </c>
       <c r="E176" t="n">
-        <v>2.94721632981137</v>
+        <v>3.63291170668587</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -3895,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>33.4034196187249</v>
+        <v>26.9933880111772</v>
       </c>
       <c r="E177" t="n">
-        <v>2.99370546912338</v>
+        <v>3.70461092022212</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -3915,10 +3915,10 @@
         <v>41</v>
       </c>
       <c r="D178" t="n">
-        <v>35.2769550335855</v>
+        <v>28.6801115374152</v>
       </c>
       <c r="E178" t="n">
-        <v>2.83471178010672</v>
+        <v>3.48673678864682</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -3935,10 +3935,10 @@
         <v>40</v>
       </c>
       <c r="D179" t="n">
-        <v>34.9051916573556</v>
+        <v>28.3193513139112</v>
       </c>
       <c r="E179" t="n">
-        <v>2.86490333534458</v>
+        <v>3.53115432947355</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -3955,10 +3955,10 @@
         <v>43</v>
       </c>
       <c r="D180" t="n">
-        <v>33.8134056645365</v>
+        <v>27.6570026325687</v>
       </c>
       <c r="E180" t="n">
-        <v>2.95740692292583</v>
+        <v>3.61572081141723</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -3975,10 +3975,10 @@
         <v>44</v>
       </c>
       <c r="D181" t="n">
-        <v>33.9494206302002</v>
+        <v>26.9444225193172</v>
       </c>
       <c r="E181" t="n">
-        <v>2.94555836723304</v>
+        <v>3.71134322616516</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -3995,10 +3995,10 @@
         <v>42</v>
       </c>
       <c r="D182" t="n">
-        <v>48.5225646951486</v>
+        <v>39.3641537642345</v>
       </c>
       <c r="E182" t="n">
-        <v>2.06089683486986</v>
+        <v>2.54038231328265</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -4015,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>47.8424637478212</v>
+        <v>38.6616161487755</v>
       </c>
       <c r="E183" t="n">
-        <v>2.09019335891861</v>
+        <v>2.58654474285776</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -4035,10 +4035,10 @@
         <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>50.9253513598499</v>
+        <v>41.4022342827504</v>
       </c>
       <c r="E184" t="n">
-        <v>1.96365851839446</v>
+        <v>2.41532858630442</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -4055,10 +4055,10 @@
         <v>40</v>
       </c>
       <c r="D185" t="n">
-        <v>49.7170670621886</v>
+        <v>40.336552288625</v>
       </c>
       <c r="E185" t="n">
-        <v>2.01138172279783</v>
+        <v>2.47914098568608</v>
       </c>
       <c r="F185" t="s">
         <v>6</v>
@@ -4075,10 +4075,10 @@
         <v>43</v>
       </c>
       <c r="D186" t="n">
-        <v>48.6592095387172</v>
+        <v>39.7998326362747</v>
       </c>
       <c r="E186" t="n">
-        <v>2.05510942220366</v>
+        <v>2.51257337973972</v>
       </c>
       <c r="F186" t="s">
         <v>6</v>
@@ -4095,10 +4095,10 @@
         <v>44</v>
       </c>
       <c r="D187" t="n">
-        <v>48.4856508949886</v>
+        <v>38.4813006993274</v>
       </c>
       <c r="E187" t="n">
-        <v>2.06246586678979</v>
+        <v>2.59866475879668</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>
@@ -4115,10 +4115,10 @@
         <v>42</v>
       </c>
       <c r="D188" t="n">
-        <v>80.1626200481882</v>
+        <v>65.0322941820156</v>
       </c>
       <c r="E188" t="n">
-        <v>1.24746421636278</v>
+        <v>1.53769755869469</v>
       </c>
       <c r="F188" t="s">
         <v>6</v>
@@ -4135,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>78.2719856859691</v>
+        <v>63.2517899108237</v>
       </c>
       <c r="E189" t="n">
-        <v>1.27759630886592</v>
+        <v>1.58098292777147</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -4155,10 +4155,10 @@
         <v>41</v>
       </c>
       <c r="D190" t="n">
-        <v>82.1250371591078</v>
+        <v>66.7675320473426</v>
       </c>
       <c r="E190" t="n">
-        <v>1.21765546122386</v>
+        <v>1.49773395741351</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -4175,10 +4175,10 @@
         <v>40</v>
       </c>
       <c r="D191" t="n">
-        <v>80.2353004187543</v>
+        <v>65.0966676430521</v>
       </c>
       <c r="E191" t="n">
-        <v>1.24633421297225</v>
+        <v>1.53617694454554</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -4195,10 +4195,10 @@
         <v>43</v>
       </c>
       <c r="D192" t="n">
-        <v>79.3742470458756</v>
+        <v>64.9225866594184</v>
       </c>
       <c r="E192" t="n">
-        <v>1.25985447071017</v>
+        <v>1.5402959916646</v>
       </c>
       <c r="F192" t="s">
         <v>6</v>
@@ -4215,10 +4215,10 @@
         <v>44</v>
       </c>
       <c r="D193" t="n">
-        <v>79.7762585099238</v>
+        <v>63.3155198645576</v>
       </c>
       <c r="E193" t="n">
-        <v>1.25350576559767</v>
+        <v>1.57939159646666</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -4235,10 +4235,10 @@
         <v>42</v>
       </c>
       <c r="D194" t="n">
-        <v>100</v>
+        <v>81.1254599000416</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>1.23265865146669</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>100</v>
+        <v>80.8102533192308</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>1.2374667309229</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -4275,10 +4275,10 @@
         <v>41</v>
       </c>
       <c r="D196" t="n">
-        <v>100</v>
+        <v>81.2998500298857</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>1.23001456907042</v>
       </c>
       <c r="F196" t="s">
         <v>6</v>
@@ -4295,10 +4295,10 @@
         <v>40</v>
       </c>
       <c r="D197" t="n">
-        <v>100</v>
+        <v>81.1322040340193</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>1.23255618641975</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -4315,10 +4315,10 @@
         <v>43</v>
       </c>
       <c r="D198" t="n">
-        <v>100</v>
+        <v>81.7930110529368</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>1.22259834566158</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -4335,10 +4335,10 @@
         <v>44</v>
       </c>
       <c r="D199" t="n">
-        <v>100</v>
+        <v>79.366369202037</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>1.25997952288125</v>
       </c>
       <c r="F199" t="s">
         <v>6</v>
@@ -4355,10 +4355,10 @@
         <v>42</v>
       </c>
       <c r="D200" t="n">
-        <v>113.989446110197</v>
+        <v>92.4744623944073</v>
       </c>
       <c r="E200" t="n">
-        <v>0.877274198730005</v>
+        <v>1.08137963077304</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -4375,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>112.875800578781</v>
+        <v>91.2152203838226</v>
       </c>
       <c r="E201" t="n">
-        <v>0.885929486101016</v>
+        <v>1.09630826499363</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -4395,10 +4395,10 @@
         <v>41</v>
       </c>
       <c r="D202" t="n">
-        <v>113.312319067939</v>
+        <v>92.1227454676203</v>
       </c>
       <c r="E202" t="n">
-        <v>0.88251657739034</v>
+        <v>1.08550824763628</v>
       </c>
       <c r="F202" t="s">
         <v>6</v>
@@ -4415,10 +4415,10 @@
         <v>40</v>
       </c>
       <c r="D203" t="n">
-        <v>113.18029400843</v>
+        <v>91.8256670612227</v>
       </c>
       <c r="E203" t="n">
-        <v>0.88354603490031</v>
+        <v>1.08902013130302</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -4435,10 +4435,10 @@
         <v>43</v>
       </c>
       <c r="D204" t="n">
-        <v>112.574165056369</v>
+        <v>92.0777992673069</v>
       </c>
       <c r="E204" t="n">
-        <v>0.888303279441847</v>
+        <v>1.08603811989136</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -4455,12 +4455,252 @@
         <v>44</v>
       </c>
       <c r="D205" t="n">
-        <v>113.863495396622</v>
+        <v>90.3693221428273</v>
       </c>
       <c r="E205" t="n">
-        <v>0.878244600270429</v>
+        <v>1.10657021242177</v>
       </c>
       <c r="F205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>42</v>
+      </c>
+      <c r="D206" t="n">
+        <v>100</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>100</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>41</v>
+      </c>
+      <c r="D208" t="n">
+        <v>100</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4</v>
+      </c>
+      <c r="C209" t="n">
+        <v>40</v>
+      </c>
+      <c r="D209" t="n">
+        <v>100</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4</v>
+      </c>
+      <c r="C210" t="n">
+        <v>43</v>
+      </c>
+      <c r="D210" t="n">
+        <v>100</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>44</v>
+      </c>
+      <c r="D211" t="n">
+        <v>100</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>42</v>
+      </c>
+      <c r="D212" t="n">
+        <v>107.357487100485</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.931467405774892</v>
+      </c>
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>107.770352966474</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.927898974508404</v>
+      </c>
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>41</v>
+      </c>
+      <c r="D214" t="n">
+        <v>107.522838261609</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.93003497319048</v>
+      </c>
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>40</v>
+      </c>
+      <c r="D215" t="n">
+        <v>108.442162499215</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.922150551919543</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>43</v>
+      </c>
+      <c r="D216" t="n">
+        <v>107.884711837425</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.926915392337452</v>
+      </c>
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>44</v>
+      </c>
+      <c r="D217" t="n">
+        <v>108.863537766181</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.918581207739011</v>
+      </c>
+      <c r="F217" t="s">
         <v>6</v>
       </c>
     </row>
